--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A172C7C-87D8-5947-B58E-D9503C0820B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CED4749-0891-7540-9C10-B83892F2F2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="4060" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
+    <workbookView xWindow="1000" yWindow="1260" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="64">
   <si>
     <t>Author</t>
   </si>
@@ -170,7 +170,64 @@
     <t>https://1drv.ms/f/s!AkTjQ2CAeyeRqIUZmNWs_MowqD-24w?e=n98kS8</t>
   </si>
   <si>
-    <t>https://1drv.ms/f/s!AkTjQ2CAeyeRqIVELiPNATqW1Mwirg?e=hnYbUt</t>
+    <t>https://drive.google.com/drive/folders/1-3eLeLQxg2K2JEgxV_7eUg5JgDB6N7tg</t>
+  </si>
+  <si>
+    <t>Curio</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>Kidney</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-skin-preview-data-xenium-human-skin-gene-expression-panel-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/preview-data-ffpe-human-lung-cancer-with-xenium-multimodal-cell-segmentation-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/xenium-human-brain-preview-data-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-colon-preview-data-xenium-human-colon-gene-expression-panel-1-standard</t>
+  </si>
+  <si>
+    <t>https://nanostring.com/products/cosmx-spatial-molecular-imager/ffpe-dataset/</t>
+  </si>
+  <si>
+    <t>https://spatialgenomics.com/data/</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-libraries-of-mouse-brain-he</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-libraries-of-human-lung-cancer-if</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-libraries-of-mouse-intestine</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-libraries-of-human-crc</t>
+  </si>
+  <si>
+    <t>Intestine</t>
+  </si>
+  <si>
+    <t>Colorectal cancer</t>
+  </si>
+  <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>https://cpl1ng.bl.files.1drv.com/y4mDMy6l7qZvSj1vUyjQfT5QyCqN64u8WQ5thldxVgUVI2llYdJyeqSdUXYa-xom8upo_Z4AuhrFPqQDcMrBg9yk1VSMYpI8QiMqwU-lVLzPoiJ5j4tdLE4TFOx4T3xX06kUjjX-HjbSwPR8X6ADx74gE7eY8Dhu611om1LaLD-8OBESU5TENz8l_f7TQXoCp6kV93n6H1feyMeZhaH2jqJeA</t>
   </si>
 </sst>
 </file>
@@ -567,16 +624,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="54.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="111.33203125" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="12" max="12" width="22.5" customWidth="1"/>
@@ -640,6 +697,9 @@
       <c r="B2">
         <v>2023</v>
       </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
@@ -669,6 +729,9 @@
       <c r="B3">
         <v>2023</v>
       </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
@@ -698,6 +761,9 @@
       <c r="B4">
         <v>2023</v>
       </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
@@ -788,6 +854,12 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
@@ -814,6 +886,12 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
+      <c r="B8">
+        <v>2023</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
@@ -840,6 +918,12 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
       <c r="I9" t="s">
         <v>19</v>
       </c>
@@ -866,6 +950,12 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1103,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
@@ -1069,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1092,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="9:15" x14ac:dyDescent="0.2">
@@ -1115,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="9:15" x14ac:dyDescent="0.2">
@@ -1138,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="9:15" x14ac:dyDescent="0.2">
@@ -1161,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="9:15" x14ac:dyDescent="0.2">
@@ -1184,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="9:15" x14ac:dyDescent="0.2">
@@ -1207,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="9:15" x14ac:dyDescent="0.2">
@@ -1230,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="9:15" x14ac:dyDescent="0.2">
@@ -1253,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="9:15" x14ac:dyDescent="0.2">
@@ -1276,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="9:15" x14ac:dyDescent="0.2">
@@ -1299,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="9:15" x14ac:dyDescent="0.2">
@@ -1322,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="9:15" x14ac:dyDescent="0.2">
@@ -1345,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="9:15" x14ac:dyDescent="0.2">
@@ -1368,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="9:15" x14ac:dyDescent="0.2">
@@ -1391,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="9:15" x14ac:dyDescent="0.2">
@@ -1414,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="9:15" x14ac:dyDescent="0.2">
@@ -1437,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="9:15" x14ac:dyDescent="0.2">
@@ -1460,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -1483,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -1506,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -1529,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -1552,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -1575,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -1598,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -1621,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -1644,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -1667,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -1678,22 +1768,817 @@
         <v>19</v>
       </c>
       <c r="J42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" t="s">
         <v>26</v>
       </c>
-      <c r="K42" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
+      <c r="K44" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>53</v>
+      </c>
+      <c r="I52" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" t="s">
+        <v>13</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>2024</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>2024</v>
+      </c>
+      <c r="F54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>2024</v>
+      </c>
+      <c r="F55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55" t="s">
+        <v>59</v>
+      </c>
+      <c r="K55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>2024</v>
+      </c>
+      <c r="F56" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" t="s">
+        <v>54</v>
+      </c>
+      <c r="J56" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>61</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>61</v>
+      </c>
+      <c r="J59" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>61</v>
+      </c>
+      <c r="J60" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>61</v>
+      </c>
+      <c r="J62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>61</v>
+      </c>
+      <c r="J63" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>61</v>
+      </c>
+      <c r="J64" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
+        <v>61</v>
+      </c>
+      <c r="J65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>61</v>
+      </c>
+      <c r="J66" t="s">
+        <v>62</v>
+      </c>
+      <c r="K66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>61</v>
+      </c>
+      <c r="J67" t="s">
+        <v>62</v>
+      </c>
+      <c r="K67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I68" t="s">
+        <v>61</v>
+      </c>
+      <c r="J68" t="s">
+        <v>62</v>
+      </c>
+      <c r="K68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>61</v>
+      </c>
+      <c r="J69" t="s">
+        <v>62</v>
+      </c>
+      <c r="K69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>61</v>
+      </c>
+      <c r="J70" t="s">
+        <v>12</v>
+      </c>
+      <c r="K70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>61</v>
+      </c>
+      <c r="J71" t="s">
+        <v>12</v>
+      </c>
+      <c r="K71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>61</v>
+      </c>
+      <c r="J72" t="s">
+        <v>12</v>
+      </c>
+      <c r="K72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>61</v>
+      </c>
+      <c r="J73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>61</v>
+      </c>
+      <c r="J74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
+        <v>61</v>
+      </c>
+      <c r="J75" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I76" t="s">
+        <v>61</v>
+      </c>
+      <c r="J76" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>61</v>
+      </c>
+      <c r="J77" t="s">
+        <v>12</v>
+      </c>
+      <c r="K77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>61</v>
+      </c>
+      <c r="J78" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>61</v>
+      </c>
+      <c r="J79" t="s">
+        <v>12</v>
+      </c>
+      <c r="K79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>61</v>
+      </c>
+      <c r="J80" t="s">
+        <v>12</v>
+      </c>
+      <c r="K80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>61</v>
+      </c>
+      <c r="J81" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
+        <v>61</v>
+      </c>
+      <c r="J82" t="s">
+        <v>12</v>
+      </c>
+      <c r="K82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I83" t="s">
+        <v>61</v>
+      </c>
+      <c r="J83" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I84" t="s">
+        <v>61</v>
+      </c>
+      <c r="J84" t="s">
+        <v>12</v>
+      </c>
+      <c r="K84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
+        <v>61</v>
+      </c>
+      <c r="J85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>61</v>
+      </c>
+      <c r="J86" t="s">
+        <v>12</v>
+      </c>
+      <c r="K86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>61</v>
+      </c>
+      <c r="J87" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>61</v>
+      </c>
+      <c r="J88" t="s">
+        <v>12</v>
+      </c>
+      <c r="K88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
+        <v>61</v>
+      </c>
+      <c r="J89" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>61</v>
+      </c>
+      <c r="J90" t="s">
+        <v>12</v>
+      </c>
+      <c r="K90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>61</v>
+      </c>
+      <c r="J91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
+        <v>61</v>
+      </c>
+      <c r="J92" t="s">
+        <v>12</v>
+      </c>
+      <c r="K92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I93" t="s">
+        <v>61</v>
+      </c>
+      <c r="J93" t="s">
+        <v>12</v>
+      </c>
+      <c r="K93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>61</v>
+      </c>
+      <c r="J94" t="s">
+        <v>12</v>
+      </c>
+      <c r="K94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I95" t="s">
+        <v>61</v>
+      </c>
+      <c r="J95" t="s">
+        <v>12</v>
+      </c>
+      <c r="K95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>61</v>
+      </c>
+      <c r="J96" t="s">
+        <v>12</v>
+      </c>
+      <c r="K96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I97" t="s">
+        <v>61</v>
+      </c>
+      <c r="J97" t="s">
+        <v>12</v>
+      </c>
+      <c r="K97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I98" t="s">
+        <v>61</v>
+      </c>
+      <c r="J98" t="s">
+        <v>12</v>
+      </c>
+      <c r="K98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>61</v>
+      </c>
+      <c r="J99" t="s">
+        <v>12</v>
+      </c>
+      <c r="K99" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CED4749-0891-7540-9C10-B83892F2F2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933F398A-08D6-AF41-8723-130A4749BDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="1260" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -161,15 +161,6 @@
     <t>Pulmonary Xenium</t>
   </si>
   <si>
-    <t>https://1drv.ms/f/s!AkTjQ2CAeyeRqIVUfa48_dJyz-0e5Q?e=WeO8gC</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/f/s!AkTjQ2CAeyeRqIVTKdbKkMXl5MLExg?e=iIDlla</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/f/s!AkTjQ2CAeyeRqIUZmNWs_MowqD-24w?e=n98kS8</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/folders/1-3eLeLQxg2K2JEgxV_7eUg5JgDB6N7tg</t>
   </si>
   <si>
@@ -228,6 +219,15 @@
   </si>
   <si>
     <t>https://cpl1ng.bl.files.1drv.com/y4mDMy6l7qZvSj1vUyjQfT5QyCqN64u8WQ5thldxVgUVI2llYdJyeqSdUXYa-xom8upo_Z4AuhrFPqQDcMrBg9yk1VSMYpI8QiMqwU-lVLzPoiJ5j4tdLE4TFOx4T3xX06kUjjX-HjbSwPR8X6ADx74gE7eY8Dhu611om1LaLD-8OBESU5TENz8l_f7TQXoCp6kV93n6H1feyMeZhaH2jqJeA</t>
+  </si>
+  <si>
+    <t>https://public.bl.files.1drv.com/y4moZfMqDAVu_KyKkcVZzNJWADxiOfUyxv1mXNVBN2ZIl1NGzdaY6WsbuRQFHYvqhieZZIBuLPpO3SthoqtXq__T-4qpYzZnHNTImgopmUPY1tylA8eFgJJTcZotEaUJZxtBLgSX1rOJaKZ80y5sVKguDv-B2gg_J77BL75Ph_IRiwGmLNbAW0MGlGC1NDN1Y1rfMiZjeJ9CxAV5B5yDKm6PTkpPABtws4eN57Iex8_FDU?AVOverride=1</t>
+  </si>
+  <si>
+    <t>https://ytqboq.bl.files.1drv.com/y4mXBaj-vBRkoLN9NlkxiYsCdgqRMPQB9P66cc5DqZnDZ3TFDeEjXjYNkfASVqRUATp3V7fYPdj63ewgGmj_5MFUCRr19DY5lca4bIF1jMFHQEEgAtgGxO3mwFxwWk1dLuVQ8mDHDn12iN69qArAV5fMolpTnYMsHz2Rq4r3FKfkZJjkBKtYIxTdK926wpTUjoUWaQtUHwjpp6fFhufK6TlxQ</t>
+  </si>
+  <si>
+    <t>https://qvnpra.bl.files.1drv.com/y4mOOscyi7qCqgBCtPgPUvWibBlfNX8t4FnhfxM9WKKeb0jce4EiiPH9u_ulSGzh113DBHuGO9C4sxbmpGTh_0tEL0AdcLs1wd9mUQNfavSrD5KwXUZT4Uit9oRJPU0zaECNNHnvSFGt2jFR0loBfqYSV_k6B8CqHk9AuMRgJaOvtqZU0-JkH8JCsS4NUvQu-ocYMpI3bFeRf12EEbji5V_Iw</t>
   </si>
 </sst>
 </file>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,7 +698,7 @@
         <v>2023</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -730,7 +730,7 @@
         <v>2023</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -762,7 +762,7 @@
         <v>2023</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -858,7 +858,7 @@
         <v>2023</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
@@ -890,7 +890,7 @@
         <v>2023</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
@@ -922,7 +922,7 @@
         <v>2023</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
@@ -954,7 +954,7 @@
         <v>2023</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -989,7 +989,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -1027,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
@@ -1065,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -1103,7 +1103,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1886,10 +1886,10 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -1964,13 +1964,13 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K50" t="s">
         <v>13</v>
@@ -1990,13 +1990,13 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K51" t="s">
         <v>13</v>
@@ -2016,13 +2016,13 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K52" t="s">
         <v>13</v>
@@ -2045,10 +2045,10 @@
         <v>2024</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J53" t="s">
         <v>12</v>
@@ -2062,10 +2062,10 @@
         <v>2024</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J54" t="s">
         <v>22</v>
@@ -2079,13 +2079,13 @@
         <v>2024</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K55" t="s">
         <v>13</v>
@@ -2096,13 +2096,13 @@
         <v>2024</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K56" t="s">
         <v>14</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J57" t="s">
         <v>12</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J58" t="s">
         <v>12</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J59" t="s">
         <v>12</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J60" t="s">
         <v>12</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J61" t="s">
         <v>12</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J62" t="s">
         <v>12</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J63" t="s">
         <v>12</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I64" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J64" t="s">
         <v>12</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="65" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J65" t="s">
         <v>12</v>
@@ -2209,10 +2209,10 @@
     </row>
     <row r="66" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I66" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J66" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K66" t="s">
         <v>14</v>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I67" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J67" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K67" t="s">
         <v>14</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="68" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K68" t="s">
         <v>14</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="69" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J69" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K69" t="s">
         <v>14</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="70" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J70" t="s">
         <v>12</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I71" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J71" t="s">
         <v>12</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="72" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I72" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J72" t="s">
         <v>12</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="73" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I73" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J73" t="s">
         <v>12</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="74" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I74" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J74" t="s">
         <v>12</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="75" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I75" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J75" t="s">
         <v>12</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="76" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I76" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J76" t="s">
         <v>12</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="77" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I77" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J77" t="s">
         <v>12</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="78" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I78" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J78" t="s">
         <v>12</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="79" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I79" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J79" t="s">
         <v>12</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="80" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I80" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J80" t="s">
         <v>12</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="81" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I81" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J81" t="s">
         <v>12</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="82" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I82" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J82" t="s">
         <v>12</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="83" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I83" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J83" t="s">
         <v>12</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="84" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I84" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J84" t="s">
         <v>12</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="85" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I85" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J85" t="s">
         <v>12</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="86" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I86" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J86" t="s">
         <v>12</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="87" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I87" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J87" t="s">
         <v>12</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="88" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I88" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J88" t="s">
         <v>12</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="89" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I89" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J89" t="s">
         <v>12</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="90" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I90" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J90" t="s">
         <v>12</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="91" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I91" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J91" t="s">
         <v>12</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="92" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I92" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J92" t="s">
         <v>12</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="93" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I93" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J93" t="s">
         <v>12</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="94" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I94" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J94" t="s">
         <v>12</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="95" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I95" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J95" t="s">
         <v>12</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="96" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I96" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J96" t="s">
         <v>12</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="97" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I97" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J97" t="s">
         <v>12</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="98" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I98" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J98" t="s">
         <v>12</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="99" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I99" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J99" t="s">
         <v>12</v>
@@ -2586,10 +2586,8 @@
     <hyperlink ref="E5" r:id="rId1" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{EBB9E06F-3785-BF48-AD54-F663DAAD66E3}"/>
     <hyperlink ref="E6" r:id="rId2" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{DB028E2E-514E-B24E-B12A-54BF19CC098C}"/>
     <hyperlink ref="E15" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
-    <hyperlink ref="G11" r:id="rId4" xr:uid="{70F49210-9D75-4F45-BA67-AD310679171E}"/>
-    <hyperlink ref="G12" r:id="rId5" xr:uid="{F0172649-5986-904B-961E-86C55425B1DE}"/>
-    <hyperlink ref="G13" r:id="rId6" xr:uid="{32577F83-E75C-8448-AE79-5CB1C5B5681F}"/>
-    <hyperlink ref="G14" r:id="rId7" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
+    <hyperlink ref="G14" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
+    <hyperlink ref="G11" r:id="rId5" display="https://public.bl.files.1drv.com/y4moZfMqDAVu_KyKkcVZzNJWADxiOfUyxv1mXNVBN2ZIl1NGzdaY6WsbuRQFHYvqhieZZIBuLPpO3SthoqtXq__T-4qpYzZnHNTImgopmUPY1tylA8eFgJJTcZotEaUJZxtBLgSX1rOJaKZ80y5sVKguDv-B2gg_J77BL75Ph_IRiwGmLNbAW0MGlGC1NDN1Y1rfMiZjeJ9CxAV5B5yDKm6PTkpPABtws4eN57Iex8_FDU?AVOverride=1" xr:uid="{6C096093-494F-5F40-9FC8-3E06216B9697}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933F398A-08D6-AF41-8723-130A4749BDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43010E75-8765-CA40-B3F0-0BDD2FEFE890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="1260" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -221,13 +221,13 @@
     <t>https://cpl1ng.bl.files.1drv.com/y4mDMy6l7qZvSj1vUyjQfT5QyCqN64u8WQ5thldxVgUVI2llYdJyeqSdUXYa-xom8upo_Z4AuhrFPqQDcMrBg9yk1VSMYpI8QiMqwU-lVLzPoiJ5j4tdLE4TFOx4T3xX06kUjjX-HjbSwPR8X6ADx74gE7eY8Dhu611om1LaLD-8OBESU5TENz8l_f7TQXoCp6kV93n6H1feyMeZhaH2jqJeA</t>
   </si>
   <si>
-    <t>https://public.bl.files.1drv.com/y4moZfMqDAVu_KyKkcVZzNJWADxiOfUyxv1mXNVBN2ZIl1NGzdaY6WsbuRQFHYvqhieZZIBuLPpO3SthoqtXq__T-4qpYzZnHNTImgopmUPY1tylA8eFgJJTcZotEaUJZxtBLgSX1rOJaKZ80y5sVKguDv-B2gg_J77BL75Ph_IRiwGmLNbAW0MGlGC1NDN1Y1rfMiZjeJ9CxAV5B5yDKm6PTkpPABtws4eN57Iex8_FDU?AVOverride=1</t>
-  </si>
-  <si>
     <t>https://ytqboq.bl.files.1drv.com/y4mXBaj-vBRkoLN9NlkxiYsCdgqRMPQB9P66cc5DqZnDZ3TFDeEjXjYNkfASVqRUATp3V7fYPdj63ewgGmj_5MFUCRr19DY5lca4bIF1jMFHQEEgAtgGxO3mwFxwWk1dLuVQ8mDHDn12iN69qArAV5fMolpTnYMsHz2Rq4r3FKfkZJjkBKtYIxTdK926wpTUjoUWaQtUHwjpp6fFhufK6TlxQ</t>
   </si>
   <si>
     <t>https://qvnpra.bl.files.1drv.com/y4mOOscyi7qCqgBCtPgPUvWibBlfNX8t4FnhfxM9WKKeb0jce4EiiPH9u_ulSGzh113DBHuGO9C4sxbmpGTh_0tEL0AdcLs1wd9mUQNfavSrD5KwXUZT4Uit9oRJPU0zaECNNHnvSFGt2jFR0loBfqYSV_k6B8CqHk9AuMRgJaOvtqZU0-JkH8JCsS4NUvQu-ocYMpI3bFeRf12EEbji5V_Iw</t>
+  </si>
+  <si>
+    <t>https://mz24iq.bl.files.1drv.com/y4mNobvja4UwuikWb1B1AuTNuFonILZreiw0X__lj1XktW0C7cfWv6ruuG8C6mKu8opT-PwOFX2SzNRyNDreijZOuGA7Vh35LDwdb3HitxR1A0G0iP_WopEreFPkazDhVjJmDHP7MITBt4BO6aYCLsVvshToVTvvek4P12iDRiOz51sxwHMlVdEf9BYaVxl6BP5d7HmEb7-htMzlxP7rNbFXw</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
   <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,7 +989,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
@@ -1027,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
@@ -1065,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -2587,7 +2587,6 @@
     <hyperlink ref="E6" r:id="rId2" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{DB028E2E-514E-B24E-B12A-54BF19CC098C}"/>
     <hyperlink ref="E15" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
     <hyperlink ref="G14" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
-    <hyperlink ref="G11" r:id="rId5" display="https://public.bl.files.1drv.com/y4moZfMqDAVu_KyKkcVZzNJWADxiOfUyxv1mXNVBN2ZIl1NGzdaY6WsbuRQFHYvqhieZZIBuLPpO3SthoqtXq__T-4qpYzZnHNTImgopmUPY1tylA8eFgJJTcZotEaUJZxtBLgSX1rOJaKZ80y5sVKguDv-B2gg_J77BL75Ph_IRiwGmLNbAW0MGlGC1NDN1Y1rfMiZjeJ9CxAV5B5yDKm6PTkpPABtws4eN57Iex8_FDU?AVOverride=1" xr:uid="{6C096093-494F-5F40-9FC8-3E06216B9697}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43010E75-8765-CA40-B3F0-0BDD2FEFE890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7248CA3F-53CA-2F43-9844-4B93D30C89CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1260" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
+    <workbookView xWindow="1000" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="67">
   <si>
     <t>Author</t>
   </si>
@@ -228,6 +229,15 @@
   </si>
   <si>
     <t>https://mz24iq.bl.files.1drv.com/y4mNobvja4UwuikWb1B1AuTNuFonILZreiw0X__lj1XktW0C7cfWv6ruuG8C6mKu8opT-PwOFX2SzNRyNDreijZOuGA7Vh35LDwdb3HitxR1A0G0iP_WopEreFPkazDhVjJmDHP7MITBt4BO6aYCLsVvshToVTvvek4P12iDRiOz51sxwHMlVdEf9BYaVxl6BP5d7HmEb7-htMzlxP7rNbFXw</t>
+  </si>
+  <si>
+    <t>KCL Spatial Facility</t>
+  </si>
+  <si>
+    <t>https://github.com/cancerbioinformatics/CosMx_Lite</t>
+  </si>
+  <si>
+    <t>Lymph Node</t>
   </si>
 </sst>
 </file>
@@ -624,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -748,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -780,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -788,19 +798,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B5">
-        <v>2023</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>2024</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -812,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -829,7 +839,7 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -844,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -852,19 +862,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>2023</v>
       </c>
-      <c r="F7" t="s">
-        <v>45</v>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -876,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -890,13 +900,13 @@
         <v>2023</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -908,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -922,13 +932,13 @@
         <v>2023</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -940,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -954,13 +964,13 @@
         <v>2023</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -972,45 +982,39 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>2023</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
+      <c r="F11" t="s">
+        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1027,10 +1031,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
@@ -1042,7 +1046,7 @@
         <v>14</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1065,10 +1069,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -1086,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1103,13 +1107,13 @@
         <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
@@ -1118,51 +1122,66 @@
         <v>14</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>2023</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
         <v>19</v>
       </c>
@@ -1761,32 +1780,32 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="I42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I43" t="s">
         <v>19</v>
       </c>
@@ -1814,34 +1833,31 @@
         <v>19</v>
       </c>
       <c r="J44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
         <v>26</v>
       </c>
-      <c r="K44" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F45" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" t="s">
-        <v>42</v>
-      </c>
-      <c r="J45" t="s">
-        <v>12</v>
-      </c>
       <c r="K45" t="s">
         <v>13</v>
       </c>
@@ -1852,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -1878,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -1964,13 +1980,13 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="K50" t="s">
         <v>13</v>
@@ -2008,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -2041,20 +2057,29 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <v>2024</v>
-      </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="K53" t="s">
         <v>13</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
@@ -2062,16 +2087,16 @@
         <v>2024</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s">
         <v>51</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
@@ -2079,16 +2104,16 @@
         <v>2024</v>
       </c>
       <c r="F55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I55" t="s">
         <v>51</v>
       </c>
       <c r="J55" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
@@ -2096,27 +2121,33 @@
         <v>2024</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I56" t="s">
         <v>51</v>
       </c>
       <c r="J56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>2024</v>
+      </c>
+      <c r="F57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" t="s">
         <v>57</v>
       </c>
-      <c r="K56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I57" t="s">
-        <v>58</v>
-      </c>
-      <c r="J57" t="s">
-        <v>12</v>
-      </c>
       <c r="K57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
@@ -2212,10 +2243,10 @@
         <v>58</v>
       </c>
       <c r="J66" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="K66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="9:11" x14ac:dyDescent="0.2">
@@ -2256,10 +2287,10 @@
         <v>58</v>
       </c>
       <c r="J70" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="9:11" x14ac:dyDescent="0.2">
@@ -2581,12 +2612,24 @@
         <v>13</v>
       </c>
     </row>
+    <row r="100" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I100" t="s">
+        <v>58</v>
+      </c>
+      <c r="J100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K100" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{EBB9E06F-3785-BF48-AD54-F663DAAD66E3}"/>
-    <hyperlink ref="E6" r:id="rId2" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{DB028E2E-514E-B24E-B12A-54BF19CC098C}"/>
-    <hyperlink ref="E15" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
-    <hyperlink ref="G14" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
+    <hyperlink ref="E6" r:id="rId1" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{EBB9E06F-3785-BF48-AD54-F663DAAD66E3}"/>
+    <hyperlink ref="E7" r:id="rId2" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{DB028E2E-514E-B24E-B12A-54BF19CC098C}"/>
+    <hyperlink ref="E16" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
+    <hyperlink ref="G15" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
+    <hyperlink ref="G12" r:id="rId5" xr:uid="{5BA81582-EC37-0D4D-B7A9-7AF8598A9DF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF2E163-146E-9744-A24C-721B2915B753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F112D47-D643-0649-9668-7C7589D778CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -845,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F112D47-D643-0649-9668-7C7589D778CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D17CFC-A9B4-1541-9489-983AD44A39CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="193">
   <si>
     <t>Author</t>
   </si>
@@ -134,12 +134,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Allen Brain Merfish</t>
-  </si>
-  <si>
-    <t>Comparing all tech</t>
-  </si>
-  <si>
     <t>Pulmonary Xenium</t>
   </si>
   <si>
@@ -441,13 +435,193 @@
   </si>
   <si>
     <t>https://znqioq.bl.files.1drv.com/y4mhGIs0AIFqG8JWC_fT1hSEVWbeg5yP27WC1gYOy8grLtffpKI-iE-P4YsS8tt2z6juye5UCMoEJT3wDtOJ9ovzEAt3grtcZMozbcRcbOXXaU5G3k6X0Z1MOcbxKvgHBcGbRONOh7RebS6fZueUugRl5iKARsS_uKoVVt_6QAWyg9NLvqHtt1rcMF8hSP4rmcyiXiSJFxWGLz-S-oV3rwNvg</t>
+  </si>
+  <si>
+    <t>https://dg1oqa.bl.files.1drv.com/y4m2CulsqPOHi88uM3y4R3bpe_E0oV-5QWcibRtQAa6_OEwaeDJp2szwSfQLHeZ9hukrY97lU2Mzzghwvm77jm3jqzjsYHWWmwcn-_lRMn7e1R1tOBrFkHba5uaoOv2yQcDobXlqrpmChbiHihhY_4uT2L3ayWbLGj-OBQIIulTUqBSMDshOXZmZhfGQfa3i3GHgzgYf6-2z0sWlKjMlQhv-w</t>
+  </si>
+  <si>
+    <t>CosMx_Pancreas</t>
+  </si>
+  <si>
+    <t>https://lyhnuq.bl.files.1drv.com/y4m5IUS_t41bNdeRU1tvF-GkuVaB5AGme8igPxGgkEfF3zc26xAA0A4YzGdj4VuXA_txmupFZ4jDCQAU4o4As93nhyo1jkKcY8_vgwm4BlLvEmtV8OnJtbaDmXH-J5gTkoEJDKJtEg15JAX4cEFQL6g7K13_hogMld8xJNDXXz3uDtB4Nsa8jL11Nvolx3PjxsdMXQWe9sAPEXubzstOobhyw</t>
+  </si>
+  <si>
+    <t>CosmMx_human_brain</t>
+  </si>
+  <si>
+    <t>CosMx_mouse_brain</t>
+  </si>
+  <si>
+    <t>https://ywobqw.bl.files.1drv.com/y4mnkgdMt9PQDjy_KeoASubj2GkF8Ro0xggVKMegwWL2EqBQaVXMq6-28emVeQKpe0pY0vf-ZaMWUR1jhZTcg555duknK_p6Se7HsxcI7b3UdOPpNAQLS7_XUQ9lK2T4IIfsfLe4wGjlWPXkp5Jb0LL9z23hgY32LnPowmzrS585zsjjDLKCZBLP6-lyhTHfG3ug-xMX8wGjNb2GWaUYXJzYQ</t>
+  </si>
+  <si>
+    <t>CosMx_prototype</t>
+  </si>
+  <si>
+    <t>Lung_NSCLC</t>
+  </si>
+  <si>
+    <t>CosMx_nsclc_5_1</t>
+  </si>
+  <si>
+    <t>CosMx_nsclc_5_2</t>
+  </si>
+  <si>
+    <t>CosMx_nsclc_5_3</t>
+  </si>
+  <si>
+    <t>CosMx_nsclc_6</t>
+  </si>
+  <si>
+    <t>CosMx_nsclc_9_1</t>
+  </si>
+  <si>
+    <t>CosMx_nsclc_12</t>
+  </si>
+  <si>
+    <t>CosMx_nsclc_13</t>
+  </si>
+  <si>
+    <t>DOI: 10.1038/s41467-024-47271-y</t>
+  </si>
+  <si>
+    <t>DOI: 10.1038/s41587-022-01483-z</t>
+  </si>
+  <si>
+    <t>Denisenko et al.</t>
+  </si>
+  <si>
+    <t>CoSMx</t>
+  </si>
+  <si>
+    <t>Ovarian_cancer</t>
+  </si>
+  <si>
+    <t>Cosmx_lung</t>
+  </si>
+  <si>
+    <t>Comparing_all_tech</t>
+  </si>
+  <si>
+    <t>Allen_Brain_Merfish</t>
+  </si>
+  <si>
+    <t>Dataset_merge_seqfish</t>
+  </si>
+  <si>
+    <t>Dataset_merge_visium</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/acel.14109</t>
+  </si>
+  <si>
+    <t>GSM5773453</t>
+  </si>
+  <si>
+    <t>GSM5773454</t>
+  </si>
+  <si>
+    <t>GSM5773455</t>
+  </si>
+  <si>
+    <t>GSM5773456</t>
+  </si>
+  <si>
+    <t>GSM5773457</t>
+  </si>
+  <si>
+    <t>GSM5773458</t>
+  </si>
+  <si>
+    <t>GSM5773459</t>
+  </si>
+  <si>
+    <t>GSM5773460</t>
+  </si>
+  <si>
+    <t>Visium_GSM5773453</t>
+  </si>
+  <si>
+    <t>Visium_GSM5773454</t>
+  </si>
+  <si>
+    <t>Visium_GSM5773455</t>
+  </si>
+  <si>
+    <t>Visium_GSM5773456</t>
+  </si>
+  <si>
+    <t>Visium_GSM5773457</t>
+  </si>
+  <si>
+    <t>Visium_GSM5773458</t>
+  </si>
+  <si>
+    <t>Visium_GSM5773459</t>
+  </si>
+  <si>
+    <t>Visium_GSM5773460</t>
+  </si>
+  <si>
+    <t>Wu et al.</t>
+  </si>
+  <si>
+    <t>Spatial genomics</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/mouse-pup-preview-data-xenium-mouse-tissue-atlassing-panel-1-standard</t>
+  </si>
+  <si>
+    <t>https://9wwqfw.bl.files.1drv.com/y4mVu6EtbVFH8SUry7yfhAaNtH04EHTWAmuS5k9okgVqwoWHWkg9u5r1lm_Zvu0uH5_XBX7em3x8qUC486xOswkGOvJTJlnEYve8ZcJz4Sz8hQOUtay8DY6V9aXC0L3w4VFlG10lrVRtWThbqTjg506bBCaaofqI7E4YRkv6Zpnh1_LVJVgnFceaobbQIbe_2sm7O1k1pGYNof8QqkUwBVZ3g</t>
+  </si>
+  <si>
+    <t>https://kohruq.bl.files.1drv.com/y4mh58TroPqcrQJ99N46pCTo1xOQ4sR5c7fXs_JOX3-qv161_lX2amxshZTQJ-h6wczr1_D_NMmOev4SaasffrV5GZDYkVBnmMT4-UHYK8kMCIzMJ6EjkjsJwqbqdLTECjLmMwjTmXBVbS4-7yb9YeOZ9HEZdZf8ZEDN0NpncRZhhdzpKCbqsbiF_qyiudEayOnpWJVz0OWoMX24AsPhsQ-3Q</t>
+  </si>
+  <si>
+    <t>https://cw1sqa.bl.files.1drv.com/y4mw_jSZetvwk2r5BCGbyeBRnnOkYp-yZ5Kn7wmh-48DNK0DVWpdfxt-WtdJdYaV8sYEY6B0OnQus2XB99bgluUOlZbUiM3hayV8Yy9Iv6h9HDkWD_8TUJyVjUvQA77pQ4-VQU6M5WLH0zhnCOmLOoC_lE5TYVOpsYKjfQq44px9NsU13yJQPWWpAUbW5anKkJzbkOSSyfUIBS8hEDWL2wqAA</t>
+  </si>
+  <si>
+    <t>Kidney_1</t>
+  </si>
+  <si>
+    <t>Kidney_2</t>
+  </si>
+  <si>
+    <t>Kidney_3</t>
+  </si>
+  <si>
+    <t>Visium_HD_brain_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_brain_8um</t>
+  </si>
+  <si>
+    <t>Visium_HD_lung_cancer_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_lung_cancer_8um</t>
+  </si>
+  <si>
+    <t>Visium_HD_intestine_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_intestine_8um</t>
+  </si>
+  <si>
+    <t>Visium_HD_colorectal_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_colorectal_8um</t>
+  </si>
+  <si>
+    <t>Curio_brain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -481,6 +655,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -503,11 +684,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -843,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,7 +1044,7 @@
     <col min="14" max="14" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -894,16 +1076,25 @@
         <v>29</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -911,7 +1102,13 @@
         <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -934,8 +1131,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -943,7 +1146,13 @@
         <v>2023</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -966,8 +1175,14 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -975,7 +1190,13 @@
         <v>2023</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -998,407 +1219,458 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2022</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2022</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2022</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2022</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2022</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>2024</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
         <v>56</v>
       </c>
-      <c r="B5">
-        <v>2024</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>14</v>
-      </c>
-      <c r="B6">
-        <v>2023</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>2023</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>2023</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>2023</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>2023</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>2023</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>2023</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>2023</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>27</v>
       </c>
       <c r="B16">
         <v>2023</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1410,36 +1682,33 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>2023</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -1451,36 +1720,33 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>2023</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1492,36 +1758,33 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>2023</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1533,36 +1796,33 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>2023</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -1574,36 +1834,33 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>2023</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -1615,42 +1872,45 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>2023</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>105</v>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1659,33 +1919,36 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>2023</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>106</v>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -1697,36 +1960,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>2023</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>107</v>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -1738,42 +2004,45 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>2023</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>108</v>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1782,10 +2051,16 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1796,13 +2071,13 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
@@ -1825,8 +2100,14 @@
       <c r="M26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1837,13 +2118,13 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -1866,8 +2147,14 @@
       <c r="M27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1878,13 +2165,13 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
@@ -1907,8 +2194,14 @@
       <c r="M28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1919,13 +2212,13 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
         <v>100</v>
       </c>
-      <c r="E29" t="s">
-        <v>112</v>
-      </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
@@ -1948,8 +2241,14 @@
       <c r="M29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1960,13 +2259,13 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
@@ -1984,13 +2283,19 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2001,10 +2306,13 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
@@ -2025,10 +2333,16 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2039,13 +2353,13 @@
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -2068,8 +2382,14 @@
       <c r="M32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -2080,13 +2400,13 @@
         <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -2109,8 +2429,14 @@
       <c r="M33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2121,13 +2447,13 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -2150,8 +2476,14 @@
       <c r="M34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2162,13 +2494,13 @@
         <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
@@ -2191,8 +2523,14 @@
       <c r="M35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -2203,13 +2541,13 @@
         <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
@@ -2232,8 +2570,14 @@
       <c r="M36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -2244,13 +2588,13 @@
         <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
@@ -2273,8 +2617,14 @@
       <c r="M37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -2285,13 +2635,13 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
@@ -2314,8 +2664,14 @@
       <c r="M38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2326,13 +2682,13 @@
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
@@ -2355,8 +2711,14 @@
       <c r="M39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -2367,13 +2729,13 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
@@ -2396,8 +2758,14 @@
       <c r="M40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -2408,13 +2776,10 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -2435,10 +2800,16 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -2449,13 +2820,13 @@
         <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
@@ -2478,8 +2849,14 @@
       <c r="M42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -2490,13 +2867,13 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -2519,871 +2896,2118 @@
       <c r="M43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E44" s="1" t="s">
-        <v>70</v>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>2023</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
+        <v>114</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
       </c>
       <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>2023</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>2023</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48">
+        <v>2023</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>2023</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50">
+        <v>2023</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>2023</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52">
+        <v>2023</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>2023</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>2023</v>
+      </c>
+      <c r="D54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
         <v>24</v>
       </c>
-      <c r="I44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
+        <v>192</v>
+      </c>
+      <c r="G55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" t="s">
+        <v>192</v>
+      </c>
+      <c r="G56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>192</v>
+      </c>
+      <c r="G59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60">
+        <v>2023</v>
+      </c>
+      <c r="D60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" t="s">
+        <v>181</v>
+      </c>
+      <c r="G60" t="s">
         <v>35</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H60" t="s">
         <v>36</v>
       </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61">
+        <v>2023</v>
+      </c>
+      <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" t="s">
+        <v>182</v>
+      </c>
+      <c r="G61" t="s">
         <v>35</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H61" t="s">
         <v>36</v>
       </c>
-      <c r="H46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62">
+        <v>2023</v>
+      </c>
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" t="s">
+        <v>183</v>
+      </c>
+      <c r="G62" t="s">
         <v>35</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H62" t="s">
         <v>36</v>
       </c>
-      <c r="H47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
+      <c r="I62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63">
+        <v>2024</v>
+      </c>
+      <c r="D63" t="s">
         <v>44</v>
       </c>
-      <c r="G50" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" t="s">
-        <v>38</v>
-      </c>
-      <c r="I50" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" t="s">
-        <v>38</v>
-      </c>
-      <c r="I51" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" t="s">
-        <v>38</v>
-      </c>
-      <c r="I52" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B53">
+      <c r="E63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" t="s">
+        <v>184</v>
+      </c>
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s">
+        <v>124</v>
+      </c>
+      <c r="I63" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64">
         <v>2024</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" t="s">
+        <v>185</v>
+      </c>
+      <c r="G64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" t="s">
+        <v>125</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65">
+        <v>2024</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" t="s">
+        <v>186</v>
+      </c>
+      <c r="G65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66">
+        <v>2024</v>
+      </c>
+      <c r="F66" t="s">
+        <v>187</v>
+      </c>
+      <c r="G66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s">
+        <v>127</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67">
+        <v>2024</v>
+      </c>
+      <c r="D67" t="s">
         <v>46</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E67" t="s">
         <v>59</v>
       </c>
-      <c r="G53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H53" t="s">
-        <v>126</v>
-      </c>
-      <c r="I53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B55">
+      <c r="F67" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s">
+        <v>128</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
         <v>2024</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F68" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G68" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" t="s">
+        <v>129</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69">
+        <v>2024</v>
+      </c>
+      <c r="D69" t="s">
         <v>47</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F69" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" t="s">
+        <v>130</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70">
+        <v>2024</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G70" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" t="s">
+        <v>131</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" t="s">
+        <v>48</v>
+      </c>
+      <c r="H72" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>11</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" t="s">
         <v>60</v>
       </c>
-      <c r="G55" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" t="s">
-        <v>128</v>
-      </c>
-      <c r="I55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G56" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B57">
+      <c r="F74" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" t="s">
+        <v>48</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+      <c r="G75" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" t="s">
+        <v>11</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" t="s">
+        <v>48</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="G77" t="s">
+        <v>48</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G78" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G80" t="s">
+        <v>48</v>
+      </c>
+      <c r="H80" t="s">
+        <v>49</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>48</v>
+      </c>
+      <c r="G81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>48</v>
+      </c>
+      <c r="G82" t="s">
+        <v>48</v>
+      </c>
+      <c r="H82" t="s">
+        <v>49</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="G83" t="s">
+        <v>48</v>
+      </c>
+      <c r="H83" t="s">
+        <v>49</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="G84" t="s">
+        <v>48</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+      <c r="G85" t="s">
+        <v>48</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" t="s">
+        <v>48</v>
+      </c>
+      <c r="H86" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" t="s">
+        <v>11</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+      <c r="G87" t="s">
+        <v>48</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" t="s">
+        <v>11</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="G88" t="s">
+        <v>48</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" t="s">
+        <v>11</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="G89" t="s">
+        <v>48</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" t="s">
+        <v>11</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" t="s">
+        <v>48</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" t="s">
+        <v>11</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+      <c r="G91" t="s">
+        <v>48</v>
+      </c>
+      <c r="H91" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" t="s">
+        <v>11</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="G92" t="s">
+        <v>48</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" t="s">
+        <v>11</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="G93" t="s">
+        <v>48</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" t="s">
+        <v>11</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>48</v>
+      </c>
+      <c r="G94" t="s">
+        <v>48</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" t="s">
+        <v>11</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="G95" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" t="s">
+        <v>11</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="G96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" t="s">
+        <v>11</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>48</v>
+      </c>
+      <c r="G97" t="s">
+        <v>48</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" t="s">
+        <v>11</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="G98" t="s">
+        <v>48</v>
+      </c>
+      <c r="H98" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>48</v>
+      </c>
+      <c r="G99" t="s">
+        <v>48</v>
+      </c>
+      <c r="H99" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" t="s">
+        <v>11</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>48</v>
+      </c>
+      <c r="G100" t="s">
+        <v>48</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" t="s">
+        <v>11</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>48</v>
+      </c>
+      <c r="G101" t="s">
+        <v>48</v>
+      </c>
+      <c r="H101" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" t="s">
+        <v>11</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>48</v>
+      </c>
+      <c r="G102" t="s">
+        <v>48</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" t="s">
+        <v>11</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>48</v>
+      </c>
+      <c r="G103" t="s">
+        <v>48</v>
+      </c>
+      <c r="H103" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" t="s">
+        <v>11</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>48</v>
+      </c>
+      <c r="G104" t="s">
+        <v>48</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" t="s">
+        <v>11</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="G105" t="s">
+        <v>48</v>
+      </c>
+      <c r="H105" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" t="s">
+        <v>11</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="G106" t="s">
+        <v>48</v>
+      </c>
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" t="s">
+        <v>11</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="G107" t="s">
+        <v>48</v>
+      </c>
+      <c r="H107" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" t="s">
+        <v>11</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>48</v>
+      </c>
+      <c r="G108" t="s">
+        <v>48</v>
+      </c>
+      <c r="H108" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" t="s">
+        <v>11</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>48</v>
+      </c>
+      <c r="G109" t="s">
+        <v>48</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" t="s">
+        <v>11</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G110" t="s">
+        <v>48</v>
+      </c>
+      <c r="H110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" t="s">
+        <v>11</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="G111" t="s">
+        <v>48</v>
+      </c>
+      <c r="H111" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" t="s">
+        <v>11</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>48</v>
+      </c>
+      <c r="G112" t="s">
+        <v>48</v>
+      </c>
+      <c r="H112" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" t="s">
+        <v>11</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>48</v>
+      </c>
+      <c r="G113" t="s">
+        <v>48</v>
+      </c>
+      <c r="H113" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" t="s">
+        <v>11</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114">
         <v>2024</v>
       </c>
-      <c r="D57" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" t="s">
-        <v>130</v>
-      </c>
-      <c r="I57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G58" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B59">
+      <c r="C114" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D114" t="s">
+        <v>159</v>
+      </c>
+      <c r="F114" t="s">
+        <v>167</v>
+      </c>
+      <c r="G114" t="s">
+        <v>30</v>
+      </c>
+      <c r="H114" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" t="s">
+        <v>11</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>175</v>
+      </c>
+      <c r="B115">
         <v>2024</v>
       </c>
-      <c r="D59" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" t="s">
-        <v>45</v>
-      </c>
-      <c r="H59" t="s">
-        <v>132</v>
-      </c>
-      <c r="I59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G60" t="s">
-        <v>45</v>
-      </c>
-      <c r="H60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G61" t="s">
-        <v>50</v>
-      </c>
-      <c r="H61" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G62" t="s">
-        <v>50</v>
-      </c>
-      <c r="H62" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="G63" t="s">
-        <v>50</v>
-      </c>
-      <c r="H63" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E64" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G65" t="s">
-        <v>50</v>
-      </c>
-      <c r="H65" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G66" t="s">
-        <v>50</v>
-      </c>
-      <c r="H66" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G67" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G68" t="s">
-        <v>50</v>
-      </c>
-      <c r="H68" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G69" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G70" t="s">
-        <v>50</v>
-      </c>
-      <c r="H70" t="s">
-        <v>51</v>
-      </c>
-      <c r="I70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G71" t="s">
-        <v>50</v>
-      </c>
-      <c r="H71" t="s">
-        <v>51</v>
-      </c>
-      <c r="I71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G72" t="s">
-        <v>50</v>
-      </c>
-      <c r="H72" t="s">
-        <v>51</v>
-      </c>
-      <c r="I72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G73" t="s">
-        <v>50</v>
-      </c>
-      <c r="H73" t="s">
-        <v>51</v>
-      </c>
-      <c r="I73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G74" t="s">
-        <v>50</v>
-      </c>
-      <c r="H74" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G75" t="s">
-        <v>50</v>
-      </c>
-      <c r="H75" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G76" t="s">
-        <v>50</v>
-      </c>
-      <c r="H76" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G77" t="s">
-        <v>50</v>
-      </c>
-      <c r="H77" t="s">
-        <v>10</v>
-      </c>
-      <c r="I77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G78" t="s">
-        <v>50</v>
-      </c>
-      <c r="H78" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G79" t="s">
-        <v>50</v>
-      </c>
-      <c r="H79" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G80" t="s">
-        <v>50</v>
-      </c>
-      <c r="H80" t="s">
-        <v>10</v>
-      </c>
-      <c r="I80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G81" t="s">
-        <v>50</v>
-      </c>
-      <c r="H81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G82" t="s">
-        <v>50</v>
-      </c>
-      <c r="H82" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G83" t="s">
-        <v>50</v>
-      </c>
-      <c r="H83" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G84" t="s">
-        <v>50</v>
-      </c>
-      <c r="H84" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G85" t="s">
-        <v>50</v>
-      </c>
-      <c r="H85" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G86" t="s">
-        <v>50</v>
-      </c>
-      <c r="H86" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G87" t="s">
-        <v>50</v>
-      </c>
-      <c r="H87" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G88" t="s">
-        <v>50</v>
-      </c>
-      <c r="H88" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G89" t="s">
-        <v>50</v>
-      </c>
-      <c r="H89" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G90" t="s">
-        <v>50</v>
-      </c>
-      <c r="H90" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G91" t="s">
-        <v>50</v>
-      </c>
-      <c r="H91" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G92" t="s">
-        <v>50</v>
-      </c>
-      <c r="H92" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G93" t="s">
-        <v>50</v>
-      </c>
-      <c r="H93" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G94" t="s">
-        <v>50</v>
-      </c>
-      <c r="H94" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G95" t="s">
-        <v>50</v>
-      </c>
-      <c r="H95" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G96" t="s">
-        <v>50</v>
-      </c>
-      <c r="H96" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G97" t="s">
-        <v>50</v>
-      </c>
-      <c r="H97" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G98" t="s">
-        <v>50</v>
-      </c>
-      <c r="H98" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G99" t="s">
-        <v>50</v>
-      </c>
-      <c r="H99" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G100" t="s">
-        <v>50</v>
-      </c>
-      <c r="H100" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G101" t="s">
-        <v>50</v>
-      </c>
-      <c r="H101" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G102" t="s">
-        <v>50</v>
-      </c>
-      <c r="H102" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G103" t="s">
-        <v>50</v>
-      </c>
-      <c r="H103" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103" t="s">
-        <v>11</v>
+      <c r="C115" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D115" t="s">
+        <v>160</v>
+      </c>
+      <c r="F115" t="s">
+        <v>168</v>
+      </c>
+      <c r="G115" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" t="s">
+        <v>11</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116">
+        <v>2024</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" t="s">
+        <v>161</v>
+      </c>
+      <c r="F116" t="s">
+        <v>169</v>
+      </c>
+      <c r="G116" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" t="s">
+        <v>11</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117">
+        <v>2024</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D117" t="s">
+        <v>162</v>
+      </c>
+      <c r="F117" t="s">
+        <v>170</v>
+      </c>
+      <c r="G117" t="s">
+        <v>30</v>
+      </c>
+      <c r="H117" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" t="s">
+        <v>11</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118">
+        <v>2024</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F118" t="s">
+        <v>171</v>
+      </c>
+      <c r="G118" t="s">
+        <v>30</v>
+      </c>
+      <c r="H118" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" t="s">
+        <v>11</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>175</v>
+      </c>
+      <c r="B119">
+        <v>2024</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D119" t="s">
+        <v>164</v>
+      </c>
+      <c r="F119" t="s">
+        <v>172</v>
+      </c>
+      <c r="G119" t="s">
+        <v>30</v>
+      </c>
+      <c r="H119" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" t="s">
+        <v>11</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120">
+        <v>2024</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D120" t="s">
+        <v>165</v>
+      </c>
+      <c r="F120" t="s">
+        <v>173</v>
+      </c>
+      <c r="G120" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" t="s">
+        <v>11</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>175</v>
+      </c>
+      <c r="B121">
+        <v>2024</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D121" t="s">
+        <v>166</v>
+      </c>
+      <c r="F121" t="s">
+        <v>174</v>
+      </c>
+      <c r="G121" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" t="s">
+        <v>11</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{EBB9E06F-3785-BF48-AD54-F663DAAD66E3}"/>
-    <hyperlink ref="C7" r:id="rId2" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{DB028E2E-514E-B24E-B12A-54BF19CC098C}"/>
-    <hyperlink ref="C16" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
-    <hyperlink ref="E15" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{5BA81582-EC37-0D4D-B7A9-7AF8598A9DF2}"/>
-    <hyperlink ref="E44" r:id="rId6" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
-    <hyperlink ref="C17" r:id="rId7" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{8F9A199E-EC71-B249-AF59-FF24DB4609B1}"/>
-    <hyperlink ref="C18" r:id="rId8" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{853F30D2-01D5-1548-B4FF-52D758F3D556}"/>
-    <hyperlink ref="C19" r:id="rId9" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C48DB5F5-21AE-CE4D-BB27-7CF2B2B712A7}"/>
-    <hyperlink ref="C20" r:id="rId10" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9ED5901C-DC91-CC49-A723-A9C49A700057}"/>
-    <hyperlink ref="C21" r:id="rId11" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{681B51E0-45E0-AF4A-A5EE-28748A165692}"/>
-    <hyperlink ref="C22" r:id="rId12" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{BA262E0F-F122-CE49-B193-E111B00E4D19}"/>
-    <hyperlink ref="C23" r:id="rId13" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2C9985A0-6AD7-9A41-9565-94AA54B8F20A}"/>
-    <hyperlink ref="C24" r:id="rId14" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{42C6419B-1F9C-464D-942C-629DBE1A763F}"/>
-    <hyperlink ref="C25" r:id="rId15" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFF16103-3C13-2B47-B8FA-7ED24283F351}"/>
-    <hyperlink ref="C26" r:id="rId16" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{E38CC7D2-2BD2-AC45-99BE-32F76871EC00}"/>
-    <hyperlink ref="C27" r:id="rId17" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C9FC1701-99F3-314F-8A4C-4CCCDD235EA2}"/>
-    <hyperlink ref="C28" r:id="rId18" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EC4E26BD-F1A6-2647-A8E9-40DA20AB83BF}"/>
-    <hyperlink ref="C29" r:id="rId19" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{B86C6F60-6096-CD42-B6D4-337F4666A137}"/>
-    <hyperlink ref="C30" r:id="rId20" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{33B4FEAD-F100-6845-A5C0-78998BA2E0AD}"/>
-    <hyperlink ref="C31" r:id="rId21" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{A7F28363-67D9-DE4F-8511-F087659BD3BB}"/>
-    <hyperlink ref="C32" r:id="rId22" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C7DDCDCC-39CA-5A4A-9204-AC06FD62324C}"/>
-    <hyperlink ref="C33" r:id="rId23" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CDD3098C-5532-2243-91DE-779275449D7C}"/>
-    <hyperlink ref="C34" r:id="rId24" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2FDC7CE7-0E8D-7A43-B2CB-F08FEB0D0C86}"/>
-    <hyperlink ref="C35" r:id="rId25" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{3EAD12EB-7FAA-6644-8CD0-282CF442DD5F}"/>
-    <hyperlink ref="C36" r:id="rId26" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{37ED5057-FB64-104D-A1AD-880EE76BBBF6}"/>
-    <hyperlink ref="C37" r:id="rId27" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{919807C3-656E-5541-AC46-175D90A0E650}"/>
-    <hyperlink ref="C38" r:id="rId28" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFD73339-E4A6-F444-95CC-E5EF5306A91D}"/>
-    <hyperlink ref="C39" r:id="rId29" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{DE5BB967-701B-3A4E-9953-5C391D746A0E}"/>
-    <hyperlink ref="C40" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9D9F29E0-C81C-7B44-9831-E6853C80A7FA}"/>
-    <hyperlink ref="C41" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
-    <hyperlink ref="C42" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
-    <hyperlink ref="C43" r:id="rId33" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
+    <hyperlink ref="C16" r:id="rId1" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{EBB9E06F-3785-BF48-AD54-F663DAAD66E3}"/>
+    <hyperlink ref="C17" r:id="rId2" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{DB028E2E-514E-B24E-B12A-54BF19CC098C}"/>
+    <hyperlink ref="C26" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
+    <hyperlink ref="E25" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
+    <hyperlink ref="E22" r:id="rId5" xr:uid="{5BA81582-EC37-0D4D-B7A9-7AF8598A9DF2}"/>
+    <hyperlink ref="E54" r:id="rId6" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
+    <hyperlink ref="C27" r:id="rId7" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{8F9A199E-EC71-B249-AF59-FF24DB4609B1}"/>
+    <hyperlink ref="C28" r:id="rId8" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{853F30D2-01D5-1548-B4FF-52D758F3D556}"/>
+    <hyperlink ref="C29" r:id="rId9" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C48DB5F5-21AE-CE4D-BB27-7CF2B2B712A7}"/>
+    <hyperlink ref="C30" r:id="rId10" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9ED5901C-DC91-CC49-A723-A9C49A700057}"/>
+    <hyperlink ref="C31" r:id="rId11" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{681B51E0-45E0-AF4A-A5EE-28748A165692}"/>
+    <hyperlink ref="C32" r:id="rId12" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{BA262E0F-F122-CE49-B193-E111B00E4D19}"/>
+    <hyperlink ref="C33" r:id="rId13" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2C9985A0-6AD7-9A41-9565-94AA54B8F20A}"/>
+    <hyperlink ref="C34" r:id="rId14" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{42C6419B-1F9C-464D-942C-629DBE1A763F}"/>
+    <hyperlink ref="C35" r:id="rId15" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFF16103-3C13-2B47-B8FA-7ED24283F351}"/>
+    <hyperlink ref="C36" r:id="rId16" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{E38CC7D2-2BD2-AC45-99BE-32F76871EC00}"/>
+    <hyperlink ref="C37" r:id="rId17" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C9FC1701-99F3-314F-8A4C-4CCCDD235EA2}"/>
+    <hyperlink ref="C38" r:id="rId18" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EC4E26BD-F1A6-2647-A8E9-40DA20AB83BF}"/>
+    <hyperlink ref="C39" r:id="rId19" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{B86C6F60-6096-CD42-B6D4-337F4666A137}"/>
+    <hyperlink ref="C40" r:id="rId20" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{33B4FEAD-F100-6845-A5C0-78998BA2E0AD}"/>
+    <hyperlink ref="C41" r:id="rId21" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{A7F28363-67D9-DE4F-8511-F087659BD3BB}"/>
+    <hyperlink ref="C42" r:id="rId22" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C7DDCDCC-39CA-5A4A-9204-AC06FD62324C}"/>
+    <hyperlink ref="C43" r:id="rId23" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CDD3098C-5532-2243-91DE-779275449D7C}"/>
+    <hyperlink ref="C44" r:id="rId24" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2FDC7CE7-0E8D-7A43-B2CB-F08FEB0D0C86}"/>
+    <hyperlink ref="C45" r:id="rId25" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{3EAD12EB-7FAA-6644-8CD0-282CF442DD5F}"/>
+    <hyperlink ref="C46" r:id="rId26" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{37ED5057-FB64-104D-A1AD-880EE76BBBF6}"/>
+    <hyperlink ref="C47" r:id="rId27" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{919807C3-656E-5541-AC46-175D90A0E650}"/>
+    <hyperlink ref="C48" r:id="rId28" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFD73339-E4A6-F444-95CC-E5EF5306A91D}"/>
+    <hyperlink ref="C49" r:id="rId29" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{DE5BB967-701B-3A4E-9953-5C391D746A0E}"/>
+    <hyperlink ref="C50" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9D9F29E0-C81C-7B44-9831-E6853C80A7FA}"/>
+    <hyperlink ref="C51" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
+    <hyperlink ref="C52" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
+    <hyperlink ref="C53" r:id="rId33" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
+    <hyperlink ref="E64" r:id="rId34" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
+    <hyperlink ref="E2" r:id="rId35" xr:uid="{E191A043-72B0-CC4E-9B58-FE4C461D40C9}"/>
+    <hyperlink ref="C14" r:id="rId36" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{88E6D632-2160-2B4D-AD77-9459075894C4}"/>
+    <hyperlink ref="C13" r:id="rId37" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{ED18E71A-43E8-A644-BA73-C69B86D50DCF}"/>
+    <hyperlink ref="C5" r:id="rId38" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{38821B49-6042-5042-8428-B8BD186CF7FB}"/>
+    <hyperlink ref="C6" r:id="rId39" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5C2B9BE0-AC88-2C45-87F0-F17854B8281E}"/>
+    <hyperlink ref="C7" r:id="rId40" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{2D68EF16-250B-CD4E-89AF-0D5B979194EB}"/>
+    <hyperlink ref="C8" r:id="rId41" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{FA19C14F-5330-E041-BF9D-07C424C85332}"/>
+    <hyperlink ref="C9" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{A3F8BBCD-8687-2947-AD87-50A2D562B7C0}"/>
+    <hyperlink ref="C10" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
+    <hyperlink ref="C11" r:id="rId44" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
+    <hyperlink ref="C12" r:id="rId45" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
+    <hyperlink ref="C114" r:id="rId46" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C115" r:id="rId47" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C116" r:id="rId48" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C117" r:id="rId49" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C118" r:id="rId50" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C119" r:id="rId51" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C120" r:id="rId52" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C121" r:id="rId53" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D17CFC-A9B4-1541-9489-983AD44A39CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFBA7F5-D4C4-B64B-8E17-A985764A578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
+    <workbookView xWindow="960" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="199">
   <si>
     <t>Author</t>
   </si>
@@ -614,7 +614,25 @@
     <t>Visium_HD_colorectal_8um</t>
   </si>
   <si>
-    <t>Curio_brain</t>
+    <t>https://nt2qiq.bl.files.1drv.com/y4m2q9d9kwpN-2IylaqLpOId1g227MHiWSXbqRTTs1fmxMiRv_c6Xa7DZQ6R0P4g6zSNayAFuTBlL-Po1vFNUu3Pl4v_SxSS-ghFMEamofJOiIC-aWSci2YJ9hElNpdTNxjKIZBW7d73YFoCwp8RhDIbtA_U39P-OpVioJNHfbM2VRX50TKVfX5ZCUurjEqNwe744Cl18TaZFWi3fmI3tTFrA</t>
+  </si>
+  <si>
+    <t>https://l8ge5w.bl.files.1drv.com/y4mFyqPTo918i4WSvYQxgjGCleUyZt__RM6f57wvibf6ZozB0DjzhpjoIQDnVXtp9VaiU2Mh1mY1Xea2Qo_0lLSTaqC_zeY0XO6O7M3d6jK61CL_5JlVqtDkj46zzzImX1xbvblNK87nq-LiHSBXZ8D_7bA7KSPC1oNaSEb3iYoSw8Cqt8frQ_tT3_wdd5qrSbLU_aOYqqsR-4ysWKAEGn_bg</t>
+  </si>
+  <si>
+    <t>Curio_brain_1</t>
+  </si>
+  <si>
+    <t>Curio_brain_2</t>
+  </si>
+  <si>
+    <t>Curio_brain_3</t>
+  </si>
+  <si>
+    <t>Curio_brain_4</t>
+  </si>
+  <si>
+    <t>Curio_brain_5</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="M68" sqref="M68"/>
+    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3422,7 +3440,7 @@
         <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -3440,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -3457,7 +3475,7 @@
         <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -3475,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -3492,7 +3510,7 @@
         <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -3527,7 +3545,7 @@
         <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -3562,7 +3580,7 @@
         <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G59" t="s">
         <v>34</v>
@@ -3624,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -3778,6 +3796,9 @@
       <c r="H64" t="s">
         <v>125</v>
       </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
       <c r="N64">
         <v>0</v>
       </c>
@@ -3827,6 +3848,9 @@
       <c r="B66">
         <v>2024</v>
       </c>
+      <c r="E66" t="s">
+        <v>192</v>
+      </c>
       <c r="F66" t="s">
         <v>187</v>
       </c>
@@ -3835,6 +3859,9 @@
       </c>
       <c r="H66" t="s">
         <v>127</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3885,6 +3912,9 @@
       <c r="B68">
         <v>2024</v>
       </c>
+      <c r="E68" t="s">
+        <v>193</v>
+      </c>
       <c r="F68" s="4" t="s">
         <v>189</v>
       </c>
@@ -3893,6 +3923,9 @@
       </c>
       <c r="H68" t="s">
         <v>129</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4210,125 +4243,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>48</v>
-      </c>
-      <c r="G84" t="s">
-        <v>48</v>
-      </c>
-      <c r="H84" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84" t="s">
-        <v>11</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>48</v>
-      </c>
-      <c r="G85" t="s">
-        <v>48</v>
-      </c>
-      <c r="H85" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85" t="s">
-        <v>11</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>48</v>
-      </c>
-      <c r="G86" t="s">
-        <v>48</v>
-      </c>
-      <c r="H86" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86" t="s">
-        <v>11</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>48</v>
-      </c>
-      <c r="G87" t="s">
-        <v>48</v>
-      </c>
-      <c r="H87" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87" t="s">
-        <v>11</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>48</v>
-      </c>
-      <c r="G88" t="s">
-        <v>48</v>
-      </c>
-      <c r="H88" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88" t="s">
-        <v>11</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>48</v>
-      </c>
-      <c r="G89" t="s">
-        <v>48</v>
-      </c>
-      <c r="H89" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" t="s">
-        <v>11</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>48</v>
-      </c>
-      <c r="G90" t="s">
-        <v>48</v>
-      </c>
-      <c r="H90" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" t="s">
-        <v>11</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-    </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>48</v>
@@ -4722,22 +4636,10 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>175</v>
-      </c>
-      <c r="B114">
-        <v>2024</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D114" t="s">
-        <v>159</v>
-      </c>
-      <c r="F114" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H114" t="s">
         <v>10</v>
@@ -4746,27 +4648,15 @@
         <v>11</v>
       </c>
       <c r="O114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>175</v>
-      </c>
-      <c r="B115">
-        <v>2024</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D115" t="s">
-        <v>160</v>
-      </c>
-      <c r="F115" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H115" t="s">
         <v>10</v>
@@ -4775,27 +4665,15 @@
         <v>11</v>
       </c>
       <c r="O115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>175</v>
-      </c>
-      <c r="B116">
-        <v>2024</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D116" t="s">
-        <v>161</v>
-      </c>
-      <c r="F116" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H116" t="s">
         <v>10</v>
@@ -4804,27 +4682,15 @@
         <v>11</v>
       </c>
       <c r="O116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>175</v>
-      </c>
-      <c r="B117">
-        <v>2024</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D117" t="s">
-        <v>162</v>
-      </c>
-      <c r="F117" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H117" t="s">
         <v>10</v>
@@ -4833,27 +4699,15 @@
         <v>11</v>
       </c>
       <c r="O117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>175</v>
-      </c>
-      <c r="B118">
-        <v>2024</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D118" t="s">
-        <v>163</v>
-      </c>
-      <c r="F118" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H118" t="s">
         <v>10</v>
@@ -4862,27 +4716,15 @@
         <v>11</v>
       </c>
       <c r="O118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>175</v>
-      </c>
-      <c r="B119">
-        <v>2024</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D119" t="s">
-        <v>164</v>
-      </c>
-      <c r="F119" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H119" t="s">
         <v>10</v>
@@ -4891,27 +4733,15 @@
         <v>11</v>
       </c>
       <c r="O119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>175</v>
-      </c>
-      <c r="B120">
-        <v>2024</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D120" t="s">
-        <v>165</v>
-      </c>
-      <c r="F120" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H120" t="s">
         <v>10</v>
@@ -4920,7 +4750,7 @@
         <v>11</v>
       </c>
       <c r="O120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
@@ -4934,10 +4764,10 @@
         <v>158</v>
       </c>
       <c r="D121" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F121" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G121" t="s">
         <v>30</v>
@@ -4949,6 +4779,209 @@
         <v>11</v>
       </c>
       <c r="O121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122">
+        <v>2024</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D122" t="s">
+        <v>160</v>
+      </c>
+      <c r="F122" t="s">
+        <v>168</v>
+      </c>
+      <c r="G122" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" t="s">
+        <v>11</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123">
+        <v>2024</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D123" t="s">
+        <v>161</v>
+      </c>
+      <c r="F123" t="s">
+        <v>169</v>
+      </c>
+      <c r="G123" t="s">
+        <v>30</v>
+      </c>
+      <c r="H123" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" t="s">
+        <v>11</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124">
+        <v>2024</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D124" t="s">
+        <v>162</v>
+      </c>
+      <c r="F124" t="s">
+        <v>170</v>
+      </c>
+      <c r="G124" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" t="s">
+        <v>11</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125">
+        <v>2024</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D125" t="s">
+        <v>163</v>
+      </c>
+      <c r="F125" t="s">
+        <v>171</v>
+      </c>
+      <c r="G125" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" t="s">
+        <v>11</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>175</v>
+      </c>
+      <c r="B126">
+        <v>2024</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D126" t="s">
+        <v>164</v>
+      </c>
+      <c r="F126" t="s">
+        <v>172</v>
+      </c>
+      <c r="G126" t="s">
+        <v>30</v>
+      </c>
+      <c r="H126" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" t="s">
+        <v>11</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127">
+        <v>2024</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D127" t="s">
+        <v>165</v>
+      </c>
+      <c r="F127" t="s">
+        <v>173</v>
+      </c>
+      <c r="G127" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" t="s">
+        <v>11</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128">
+        <v>2024</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" t="s">
+        <v>166</v>
+      </c>
+      <c r="F128" t="s">
+        <v>174</v>
+      </c>
+      <c r="G128" t="s">
+        <v>30</v>
+      </c>
+      <c r="H128" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" t="s">
+        <v>11</v>
+      </c>
+      <c r="O128">
         <v>1</v>
       </c>
     </row>
@@ -5000,14 +5033,14 @@
     <hyperlink ref="C10" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
     <hyperlink ref="C11" r:id="rId44" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
     <hyperlink ref="C12" r:id="rId45" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
-    <hyperlink ref="C114" r:id="rId46" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
-    <hyperlink ref="C115" r:id="rId47" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
-    <hyperlink ref="C116" r:id="rId48" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
-    <hyperlink ref="C117" r:id="rId49" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
-    <hyperlink ref="C118" r:id="rId50" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
-    <hyperlink ref="C119" r:id="rId51" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
-    <hyperlink ref="C120" r:id="rId52" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
-    <hyperlink ref="C121" r:id="rId53" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="C121" r:id="rId46" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C122" r:id="rId47" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C123" r:id="rId48" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C124" r:id="rId49" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C125" r:id="rId50" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C126" r:id="rId51" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C127" r:id="rId52" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C128" r:id="rId53" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFBA7F5-D4C4-B64B-8E17-A985764A578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C6E74F-1966-F748-AAE3-D4CB13A0E750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="84" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="D30" zoomScale="84" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5043,5 +5043,6 @@
     <hyperlink ref="C128" r:id="rId53" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C6E74F-1966-F748-AAE3-D4CB13A0E750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8598C9E5-7959-BE43-A51A-5ED8ECD4C3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
+    <workbookView xWindow="960" yWindow="1200" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="202">
   <si>
     <t>Author</t>
   </si>
@@ -491,9 +491,6 @@
     <t>Denisenko et al.</t>
   </si>
   <si>
-    <t>CoSMx</t>
-  </si>
-  <si>
     <t>Ovarian_cancer</t>
   </si>
   <si>
@@ -633,6 +630,18 @@
   </si>
   <si>
     <t>Curio_brain_5</t>
+  </si>
+  <si>
+    <t>https://kohnuq.bl.files.1drv.com/y4mZltMHBNVSz8Nl6wRMtfAx0-L23m1906H4kzYEID-3myCawhqAe9-9YCU6AZiPEx8PX_UBR3bH4hTY_TyigzZTPvDa0PJfUjOHoVc3Cu-VKlWkLQO0wTYPN02L4mNQ34OcgLVbcRc9mPmw8bpNoMHXOhTTLd8fPjRUFBiPmjj4fivMl0teGP5znulVW9KNeC-2YXSm4r4AKCvEslnOzbZIw</t>
+  </si>
+  <si>
+    <t>https://cw1oqa.bl.files.1drv.com/y4ms839bushVlMVuUlw2uCByO4VXwsgOAhy-ao2lOPumNVphhoXv8NQ0zocupGBLVlySH2HjkoXHCGQccXR2LS7uhQr5AaYLncBdQAN3z_5i98WcQ_tvnSCAzYmTetN5zbtIikutZzU7MpVjq1ffQBx_vcfNc3NVZSAyJHbuj9jiBC93D_iyTR_Cz1vvnFD4PtzfmS6NPpY-3nYYEmJaIfOWA</t>
+  </si>
+  <si>
+    <t>CosMx_ovarian</t>
+  </si>
+  <si>
+    <t>Visium_ovarian</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D30" zoomScale="84" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,22 +1103,22 @@
         <v>29</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1576,11 +1585,17 @@
       <c r="C13" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="E13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" t="s">
+        <v>200</v>
+      </c>
       <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>151</v>
-      </c>
-      <c r="H13" t="s">
-        <v>152</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1611,11 +1626,17 @@
       <c r="C14" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="E14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" t="s">
+        <v>201</v>
+      </c>
       <c r="G14" t="s">
         <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -3399,7 +3420,7 @@
         <v>2023</v>
       </c>
       <c r="D54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>68</v>
@@ -3440,7 +3461,7 @@
         <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -3475,7 +3496,7 @@
         <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -3510,7 +3531,7 @@
         <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -3545,7 +3566,7 @@
         <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -3580,7 +3601,7 @@
         <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G59" t="s">
         <v>34</v>
@@ -3612,7 +3633,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B60">
         <v>2023</v>
@@ -3621,10 +3642,10 @@
         <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -3656,7 +3677,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B61">
         <v>2023</v>
@@ -3665,10 +3686,10 @@
         <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
@@ -3700,7 +3721,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62">
         <v>2023</v>
@@ -3709,10 +3730,10 @@
         <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G62" t="s">
         <v>35</v>
@@ -3756,7 +3777,7 @@
         <v>57</v>
       </c>
       <c r="F63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G63" t="s">
         <v>43</v>
@@ -3788,7 +3809,7 @@
         <v>132</v>
       </c>
       <c r="F64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G64" t="s">
         <v>43</v>
@@ -3820,7 +3841,7 @@
         <v>58</v>
       </c>
       <c r="F65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G65" t="s">
         <v>43</v>
@@ -3849,10 +3870,10 @@
         <v>2024</v>
       </c>
       <c r="E66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -3884,7 +3905,7 @@
         <v>59</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G67" t="s">
         <v>43</v>
@@ -3913,10 +3934,10 @@
         <v>2024</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G68" t="s">
         <v>43</v>
@@ -3945,7 +3966,7 @@
         <v>47</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G69" t="s">
         <v>43</v>
@@ -3971,7 +3992,7 @@
         <v>2024</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G70" t="s">
         <v>43</v>
@@ -4755,19 +4776,19 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B121">
         <v>2024</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D121" t="s">
         <v>158</v>
       </c>
-      <c r="D121" t="s">
-        <v>159</v>
-      </c>
       <c r="F121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G121" t="s">
         <v>30</v>
@@ -4784,19 +4805,19 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B122">
         <v>2024</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G122" t="s">
         <v>30</v>
@@ -4813,19 +4834,19 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B123">
         <v>2024</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G123" t="s">
         <v>30</v>
@@ -4842,19 +4863,19 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B124">
         <v>2024</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G124" t="s">
         <v>30</v>
@@ -4871,19 +4892,19 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B125">
         <v>2024</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G125" t="s">
         <v>30</v>
@@ -4900,19 +4921,19 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B126">
         <v>2024</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G126" t="s">
         <v>30</v>
@@ -4929,19 +4950,19 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B127">
         <v>2024</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G127" t="s">
         <v>30</v>
@@ -4958,19 +4979,19 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B128">
         <v>2024</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D128" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G128" t="s">
         <v>30</v>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8598C9E5-7959-BE43-A51A-5ED8ECD4C3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BEA131-C53F-7C42-9CA1-7BC1A51EBA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1200" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
+    <workbookView xWindow="5580" yWindow="6380" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="232">
   <si>
     <t>Author</t>
   </si>
@@ -642,6 +642,96 @@
   </si>
   <si>
     <t>Visium_ovarian</t>
+  </si>
+  <si>
+    <t>https://81ntra.bl.files.1drv.com/y4mCeIG43Quqb1PmlbdxVyJw_FFaZ1wei7AHR-p_6hzYPpcKirP0gEUoDiP1roiyLoPlXMB_tcSPZqdQrsPRJOCyKI1HjRuAijOcOzigUj6I6Wmxaf9LBPMqqYnfkNH_SkH6bqwCqvsuYeKU6Pib1pTqGIQyYf0kmWrIRuJ5EBLVlQdD6mAcYjLYvpVq_6-K4pyJIoo0dVUt0nlhAUMQc1ejg</t>
+  </si>
+  <si>
+    <t>https://h4hpuq.bl.files.1drv.com/y4mus933jqzh4PA90n6Qk7EUdIvpXhXV-iASfKlbi8Bmp7CsHAnTEn-MNklkpVkzDKmkAmV6iQ3f80e_jJ49Z0nmvuj5Y7CTw77D-ZYcS0cqDZOaQHgbUrh-RuDEGqcEzwGRqpvQsohSZalRqmFOddyffeycqvfLC-danHDXtLtwuYIHDTSrS8KynxqC0TpDS7f0YICtrwVoziwEkyCT6vQpg</t>
+  </si>
+  <si>
+    <t>https://vwoeqw.bl.files.1drv.com/y4moHojDYpOe3GKr_7_GUQFwC-o3S3sxYx8rP5TSgyT5wMwl67cU7uK4bdwxRjiWktLcwpjY1q_sBiMykYOvLM6GfxlZO0Z6O-M8JD8OFuNvzMunOCfa2VVZG3AYeh5_HpZn31gp5gPynr0hylzORbraeKNo97SxVQpPXqSvsbXLtcA1qhxpWJ93ghipADm1K-5aIcqhXMvh5_e8WEXetyopA</t>
+  </si>
+  <si>
+    <t>https://ivz2xa.bl.files.1drv.com/y4mlOmzWwABvkcmkK0yYu61bIsUM04VgvJZrYJfOI74_AtOBaiRoCaZv5KER_9eS4CEMrLD-BuKFZbHW5SATud5X20gVbuZVIeUQp14r2a3ZFJ54325EnmaclmGjjf-q0H3O9NH3mr4cN_oVCwRBHXCw15Cz7Nc1E4vhL4GUTcr29LvtpdYcM8EK51lnYw68xgyuGRqeaifdP_JMX_wGHw56Q</t>
+  </si>
+  <si>
+    <t>https://ael3ng.bl.files.1drv.com/y4m1UhtPBAUrjjYmm4dgdWCNsU5DYwc-46Ewo2w-MBtCng3XofzVBscU0HSBW6caQkYv-h6UlEPYNc5EBmr5sLBVOlZaQGZiM1LK45OMOb-u_TN1NjiGWSvO1mW6njkvorDBaLAFvO2j2C22mPpjqaj2yFn6_gnE-CqiKTpFvcv7fIJLbHIJyZFOW5Qhx77cSmzfyBtPW6nQtrNkZG5vjy63Q</t>
+  </si>
+  <si>
+    <t>https://7awofw.bl.files.1drv.com/y4mQA4-eC-NUFuCVZ4szvAzFE98delLuJVREpCkpn6iuDFmegwUuGztiqHmF6fVBEc47sF97sUc5ZtoyJ4sz8ZY7IdKXf_-bNYWWlVnYCZp-erjmw1EhQ-ehwXIpfgNgytPbbaZouJWsvlMQLPoq9QOu3Ip1jRGUnKhf_Ho72TqE0ItidTkHiy6YUEqoF755ZPpz7RH3MfikqApEtK4nwYHOA</t>
+  </si>
+  <si>
+    <t>Vizgen_colon_pt2</t>
+  </si>
+  <si>
+    <t>Vizgen_liver_cancer_pt1</t>
+  </si>
+  <si>
+    <t>Vizgen_ovarian_cancer_pt1</t>
+  </si>
+  <si>
+    <t>Vizgen_liver_1</t>
+  </si>
+  <si>
+    <t>Vizgen_liver_2</t>
+  </si>
+  <si>
+    <t>https://81nura.bl.files.1drv.com/y4mk3sYMu93m6og5E0uxDGZhrurZLtJOUcN-iqxlcxwyZoGiqnzkjjCnOWD5dLWTAMraM7MP-6bIwYHjPXaj4YBBBZkS6EWWvjxcWfnapswn0lp6TNhmOqY5wPeC2rkPvpyaQpq21iso45SWBGFnV20VF7ZpEqIrv1BGUdxWgp_0DC6yyt4MO09HlKL101KCZ0eCiG_d_oqHNlPnK9KeCWXCQ</t>
+  </si>
+  <si>
+    <t>https://jsgv5w.bl.files.1drv.com/y4mEl3V-IAI9M9sKQwbzKOBflvKAfWGfBvzxg4koxYyTWFO15UjdRca8Bl2fyKVlSWqboNl3AQCg5VDVlj4g5nFG0mgYBbCTHekJBaIdF6JXkzaFFia5dLx9A3lGaUTTjlli8yR3tXQSOcg8cE84LxiwjuHKqwtUqDN_6Kha-FW7XKQgkw_GVv7WkJuCfvBbqStMGAv1-tzeIGaYGDaHJhfCg</t>
+  </si>
+  <si>
+    <t>https://vwogqw.bl.files.1drv.com/y4mfo0Wvk43oAStRyFWtIdXiq0wRfaWeT12_wjOs8HGkiL3NTgB2kWAIaf2QQxD-bc9_T-NHhY3Dxe6YyFr8ZEBvdQnrexXg62kfJg2dSwc1FfxttAeCrSKsrc6Z8PFeM5HAz7sCaY4g1gsEIgviHwEFgFRMiH4AhVLQwx5SIsgGu-eOd-DOR9rbdFGTU4YpjirFF0wKO9nRMHtm19kaFbptw</t>
+  </si>
+  <si>
+    <t>https://wnqgoq.bl.files.1drv.com/y4mci_gZEAiljkwusJY2QckiRi0cvDdCZJBapdqcdL-wDiXOFE1LJfjO_aX2NK5KfRjefwmM1abNazREWdIUyKHEo6eXXGwAo6JMdEzUomgfTQKaPoeSfiFUCfksvafHXHLndLScQ3jk5yHv3MegLW8501GI1UBwo_kEVYvDNYlFxuxwmVB0ykKo8O51tgn7YQQxIC2oa9YjKq-D7MZWW8PPw</t>
+  </si>
+  <si>
+    <t>https://kt29iq.bl.files.1drv.com/y4mCpagDU-VBSEIZ_xXO7q1wj5xVrg-t1QMYHGJmKvBYf8feyFiTu5IKAfUzPVnz6o6-Ytluw1QE9s5r73qqWZ6kRoF26b8ItB1-P2JY319vPiAztZ8JisPGovQTK4tG48c3vd3FxScGEx5DtAu14HlKl41ojAe5yDqBpDCWnV3Boo-8lmHRTZ4A5PS21R9n-Mz-9FAPjOSNkqZPigWO5U3OQ</t>
+  </si>
+  <si>
+    <t>Liver</t>
+  </si>
+  <si>
+    <t>Liver cancer</t>
+  </si>
+  <si>
+    <t>Ovarian cancer</t>
+  </si>
+  <si>
+    <t>https://console.cloud.google.com/storage/browser/vz-ffpe-showcase/</t>
+  </si>
+  <si>
+    <t>https://console.cloud.google.com/storage/browser/vz-liver-showcase</t>
+  </si>
+  <si>
+    <t>Ovary</t>
+  </si>
+  <si>
+    <t>Curio_ovary_1</t>
+  </si>
+  <si>
+    <t>Curio_ovary_2</t>
+  </si>
+  <si>
+    <t>Curio_ovary_3</t>
+  </si>
+  <si>
+    <t>Curio_ovary_4</t>
+  </si>
+  <si>
+    <t>Curio_ovary_5</t>
+  </si>
+  <si>
+    <t>Curio_ovary_6</t>
+  </si>
+  <si>
+    <t>Curio_ovary_7</t>
+  </si>
+  <si>
+    <t>Curio_ovary_8</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="D78" zoomScale="84" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2817,6 +2907,9 @@
       <c r="D41" t="s">
         <v>98</v>
       </c>
+      <c r="E41" t="s">
+        <v>202</v>
+      </c>
       <c r="F41" t="s">
         <v>85</v>
       </c>
@@ -2839,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3460,6 +3553,9 @@
       <c r="D55" t="s">
         <v>33</v>
       </c>
+      <c r="E55" t="s">
+        <v>203</v>
+      </c>
       <c r="F55" t="s">
         <v>193</v>
       </c>
@@ -3495,6 +3591,9 @@
       <c r="D56" t="s">
         <v>33</v>
       </c>
+      <c r="E56" t="s">
+        <v>204</v>
+      </c>
       <c r="F56" t="s">
         <v>194</v>
       </c>
@@ -3530,6 +3629,9 @@
       <c r="D57" t="s">
         <v>33</v>
       </c>
+      <c r="E57" t="s">
+        <v>205</v>
+      </c>
       <c r="F57" t="s">
         <v>195</v>
       </c>
@@ -3565,6 +3667,9 @@
       <c r="D58" t="s">
         <v>33</v>
       </c>
+      <c r="E58" t="s">
+        <v>206</v>
+      </c>
       <c r="F58" t="s">
         <v>196</v>
       </c>
@@ -3600,6 +3705,9 @@
       <c r="D59" t="s">
         <v>33</v>
       </c>
+      <c r="E59" t="s">
+        <v>207</v>
+      </c>
       <c r="F59" t="s">
         <v>197</v>
       </c>
@@ -3612,312 +3720,105 @@
       <c r="I59" t="s">
         <v>11</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60">
-        <v>2023</v>
-      </c>
-      <c r="D60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" t="s">
-        <v>177</v>
-      </c>
       <c r="F60" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60" t="s">
-        <v>36</v>
-      </c>
-      <c r="I60" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>1</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61">
-        <v>2023</v>
-      </c>
-      <c r="D61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" t="s">
-        <v>178</v>
-      </c>
       <c r="F61" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H61" t="s">
-        <v>36</v>
-      </c>
-      <c r="I61" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62">
-        <v>2023</v>
-      </c>
-      <c r="D62" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" t="s">
-        <v>179</v>
-      </c>
       <c r="F62" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62" t="s">
-        <v>36</v>
-      </c>
-      <c r="I62" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63">
-        <v>2024</v>
-      </c>
-      <c r="D63" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" t="s">
-        <v>57</v>
-      </c>
       <c r="F63" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H63" t="s">
-        <v>124</v>
-      </c>
-      <c r="I63" t="s">
-        <v>11</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64">
-        <v>2024</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="F64" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H64" t="s">
-        <v>125</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65">
-        <v>2024</v>
-      </c>
-      <c r="D65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" t="s">
-        <v>58</v>
-      </c>
       <c r="F65" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H65" t="s">
-        <v>126</v>
-      </c>
-      <c r="I65" t="s">
-        <v>12</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66">
-        <v>2024</v>
-      </c>
-      <c r="E66" t="s">
-        <v>191</v>
-      </c>
       <c r="F66" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>127</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67">
-        <v>2024</v>
-      </c>
-      <c r="D67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>187</v>
+      <c r="F67" t="s">
+        <v>231</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H67" t="s">
-        <v>128</v>
-      </c>
-      <c r="I67" t="s">
-        <v>11</v>
+        <v>223</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3928,97 +3829,163 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="B68">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="D68" t="s">
+        <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>192</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
+      </c>
+      <c r="F68" t="s">
+        <v>180</v>
       </c>
       <c r="G68" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H68" t="s">
-        <v>129</v>
+        <v>36</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="B69">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>189</v>
+        <v>42</v>
+      </c>
+      <c r="E69" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" t="s">
+        <v>181</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H69" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="I69" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="B70">
-        <v>2024</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>190</v>
+        <v>2023</v>
+      </c>
+      <c r="D70" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" t="s">
+        <v>179</v>
+      </c>
+      <c r="F70" t="s">
+        <v>182</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>131</v>
+        <v>36</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="B71">
+        <v>2024</v>
+      </c>
+      <c r="D71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" t="s">
+        <v>183</v>
       </c>
       <c r="G71" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H71" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="I71" t="s">
         <v>11</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4029,16 +3996,25 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>2024</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" t="s">
+        <v>184</v>
       </c>
       <c r="G72" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4049,16 +4025,31 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="B73">
+        <v>2024</v>
+      </c>
+      <c r="D73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" t="s">
+        <v>185</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H73" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="I73" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4069,22 +4060,22 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="B74">
+        <v>2024</v>
       </c>
       <c r="E74" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4098,16 +4089,31 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="B75">
+        <v>2024</v>
+      </c>
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="G75" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H75" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="I75" t="s">
         <v>11</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4118,16 +4124,25 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>2024</v>
+      </c>
+      <c r="E76" t="s">
+        <v>192</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="G76" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H76" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" t="s">
-        <v>11</v>
+        <v>129</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4138,16 +4153,25 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="B77">
+        <v>2024</v>
+      </c>
+      <c r="D77" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="G77" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="I77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4158,16 +4182,19 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="B78">
+        <v>2024</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="G78" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H78" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4180,14 +4207,20 @@
       <c r="A79" t="s">
         <v>48</v>
       </c>
+      <c r="D79" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" t="s">
+        <v>60</v>
+      </c>
+      <c r="F79" t="s">
+        <v>61</v>
+      </c>
       <c r="G79" t="s">
         <v>48</v>
       </c>
       <c r="H79" t="s">
         <v>10</v>
-      </c>
-      <c r="I79" t="s">
-        <v>11</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4200,14 +4233,23 @@
       <c r="A80" t="s">
         <v>48</v>
       </c>
+      <c r="D80" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" t="s">
+        <v>213</v>
+      </c>
+      <c r="F80" t="s">
+        <v>208</v>
+      </c>
       <c r="G80" t="s">
         <v>48</v>
       </c>
       <c r="H80" t="s">
-        <v>49</v>
-      </c>
-      <c r="I80" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -4217,14 +4259,23 @@
       <c r="A81" t="s">
         <v>48</v>
       </c>
+      <c r="D81" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" t="s">
+        <v>209</v>
+      </c>
       <c r="G81" t="s">
         <v>48</v>
       </c>
       <c r="H81" t="s">
-        <v>49</v>
-      </c>
-      <c r="I81" t="s">
-        <v>12</v>
+        <v>219</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -4234,14 +4285,26 @@
       <c r="A82" t="s">
         <v>48</v>
       </c>
+      <c r="D82" t="s">
+        <v>221</v>
+      </c>
+      <c r="E82" t="s">
+        <v>215</v>
+      </c>
+      <c r="F82" t="s">
+        <v>210</v>
+      </c>
       <c r="G82" t="s">
         <v>48</v>
       </c>
       <c r="H82" t="s">
-        <v>49</v>
-      </c>
-      <c r="I82" t="s">
-        <v>12</v>
+        <v>220</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -4251,16 +4314,162 @@
       <c r="A83" t="s">
         <v>48</v>
       </c>
+      <c r="D83" t="s">
+        <v>222</v>
+      </c>
+      <c r="E83" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" t="s">
+        <v>211</v>
+      </c>
       <c r="G83" t="s">
         <v>48</v>
       </c>
       <c r="H83" t="s">
+        <v>218</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" t="s">
+        <v>217</v>
+      </c>
+      <c r="F84" t="s">
+        <v>212</v>
+      </c>
+      <c r="G84" t="s">
+        <v>48</v>
+      </c>
+      <c r="H84" t="s">
+        <v>218</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+      <c r="G85" t="s">
+        <v>48</v>
+      </c>
+      <c r="H85" t="s">
         <v>49</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I85" t="s">
         <v>12</v>
       </c>
-      <c r="O83">
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" t="s">
+        <v>48</v>
+      </c>
+      <c r="H86" t="s">
+        <v>49</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+      <c r="G87" t="s">
+        <v>48</v>
+      </c>
+      <c r="H87" t="s">
+        <v>49</v>
+      </c>
+      <c r="I87" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="G88" t="s">
+        <v>48</v>
+      </c>
+      <c r="H88" t="s">
+        <v>49</v>
+      </c>
+      <c r="I88" t="s">
+        <v>12</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="G89" t="s">
+        <v>48</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" t="s">
+        <v>11</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" t="s">
+        <v>48</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" t="s">
+        <v>11</v>
+      </c>
+      <c r="O90">
         <v>0</v>
       </c>
     </row>
@@ -4294,9 +4503,6 @@
       <c r="I92" t="s">
         <v>11</v>
       </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -4311,9 +4517,6 @@
       <c r="I93" t="s">
         <v>11</v>
       </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -4328,9 +4531,6 @@
       <c r="I94" t="s">
         <v>11</v>
       </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -4345,9 +4545,6 @@
       <c r="I95" t="s">
         <v>11</v>
       </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -4362,9 +4559,6 @@
       <c r="I96" t="s">
         <v>11</v>
       </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -4379,9 +4573,6 @@
       <c r="I97" t="s">
         <v>11</v>
       </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -4396,9 +4587,6 @@
       <c r="I98" t="s">
         <v>11</v>
       </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
@@ -4776,22 +4964,10 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>174</v>
-      </c>
-      <c r="B121">
-        <v>2024</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D121" t="s">
-        <v>158</v>
-      </c>
-      <c r="F121" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H121" t="s">
         <v>10</v>
@@ -4800,27 +4976,15 @@
         <v>11</v>
       </c>
       <c r="O121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>174</v>
-      </c>
-      <c r="B122">
-        <v>2024</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D122" t="s">
-        <v>159</v>
-      </c>
-      <c r="F122" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H122" t="s">
         <v>10</v>
@@ -4829,27 +4993,15 @@
         <v>11</v>
       </c>
       <c r="O122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>174</v>
-      </c>
-      <c r="B123">
-        <v>2024</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D123" t="s">
-        <v>160</v>
-      </c>
-      <c r="F123" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H123" t="s">
         <v>10</v>
@@ -4858,27 +5010,15 @@
         <v>11</v>
       </c>
       <c r="O123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>174</v>
-      </c>
-      <c r="B124">
-        <v>2024</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D124" t="s">
-        <v>161</v>
-      </c>
-      <c r="F124" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H124" t="s">
         <v>10</v>
@@ -4887,27 +5027,15 @@
         <v>11</v>
       </c>
       <c r="O124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>174</v>
-      </c>
-      <c r="B125">
-        <v>2024</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D125" t="s">
-        <v>162</v>
-      </c>
-      <c r="F125" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H125" t="s">
         <v>10</v>
@@ -4916,27 +5044,15 @@
         <v>11</v>
       </c>
       <c r="O125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>174</v>
-      </c>
-      <c r="B126">
-        <v>2024</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D126" t="s">
-        <v>163</v>
-      </c>
-      <c r="F126" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H126" t="s">
         <v>10</v>
@@ -4945,27 +5061,15 @@
         <v>11</v>
       </c>
       <c r="O126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>174</v>
-      </c>
-      <c r="B127">
-        <v>2024</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D127" t="s">
-        <v>164</v>
-      </c>
-      <c r="F127" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H127" t="s">
         <v>10</v>
@@ -4974,35 +5078,255 @@
         <v>11</v>
       </c>
       <c r="O127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>48</v>
+      </c>
+      <c r="G128" t="s">
+        <v>48</v>
+      </c>
+      <c r="H128" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" t="s">
+        <v>11</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>174</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>2024</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
+        <v>158</v>
+      </c>
+      <c r="F129" t="s">
+        <v>166</v>
+      </c>
+      <c r="G129" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" t="s">
+        <v>11</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>174</v>
+      </c>
+      <c r="B130">
+        <v>2024</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D130" t="s">
+        <v>159</v>
+      </c>
+      <c r="F130" t="s">
+        <v>167</v>
+      </c>
+      <c r="G130" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" t="s">
+        <v>11</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131">
+        <v>2024</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D131" t="s">
+        <v>160</v>
+      </c>
+      <c r="F131" t="s">
+        <v>168</v>
+      </c>
+      <c r="G131" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" t="s">
+        <v>11</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>174</v>
+      </c>
+      <c r="B132">
+        <v>2024</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D132" t="s">
+        <v>161</v>
+      </c>
+      <c r="F132" t="s">
+        <v>169</v>
+      </c>
+      <c r="G132" t="s">
+        <v>30</v>
+      </c>
+      <c r="H132" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" t="s">
+        <v>11</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>174</v>
+      </c>
+      <c r="B133">
+        <v>2024</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D133" t="s">
+        <v>162</v>
+      </c>
+      <c r="F133" t="s">
+        <v>170</v>
+      </c>
+      <c r="G133" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" t="s">
+        <v>11</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>174</v>
+      </c>
+      <c r="B134">
+        <v>2024</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D134" t="s">
+        <v>163</v>
+      </c>
+      <c r="F134" t="s">
+        <v>171</v>
+      </c>
+      <c r="G134" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" t="s">
+        <v>11</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135">
+        <v>2024</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D135" t="s">
+        <v>164</v>
+      </c>
+      <c r="F135" t="s">
+        <v>172</v>
+      </c>
+      <c r="G135" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" t="s">
+        <v>10</v>
+      </c>
+      <c r="I135" t="s">
+        <v>11</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136">
+        <v>2024</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D136" t="s">
         <v>165</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F136" t="s">
         <v>173</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G136" t="s">
         <v>30</v>
       </c>
-      <c r="H128" t="s">
-        <v>10</v>
-      </c>
-      <c r="I128" t="s">
-        <v>11</v>
-      </c>
-      <c r="O128">
+      <c r="H136" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" t="s">
+        <v>11</v>
+      </c>
+      <c r="O136">
         <v>1</v>
       </c>
     </row>
@@ -5042,7 +5366,7 @@
     <hyperlink ref="C51" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
     <hyperlink ref="C52" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
     <hyperlink ref="C53" r:id="rId33" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
-    <hyperlink ref="E64" r:id="rId34" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
+    <hyperlink ref="E72" r:id="rId34" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
     <hyperlink ref="E2" r:id="rId35" xr:uid="{E191A043-72B0-CC4E-9B58-FE4C461D40C9}"/>
     <hyperlink ref="C14" r:id="rId36" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{88E6D632-2160-2B4D-AD77-9459075894C4}"/>
     <hyperlink ref="C13" r:id="rId37" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{ED18E71A-43E8-A644-BA73-C69B86D50DCF}"/>
@@ -5054,14 +5378,14 @@
     <hyperlink ref="C10" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
     <hyperlink ref="C11" r:id="rId44" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
     <hyperlink ref="C12" r:id="rId45" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
-    <hyperlink ref="C121" r:id="rId46" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
-    <hyperlink ref="C122" r:id="rId47" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
-    <hyperlink ref="C123" r:id="rId48" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
-    <hyperlink ref="C124" r:id="rId49" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
-    <hyperlink ref="C125" r:id="rId50" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
-    <hyperlink ref="C126" r:id="rId51" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
-    <hyperlink ref="C127" r:id="rId52" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
-    <hyperlink ref="C128" r:id="rId53" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="C129" r:id="rId46" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C130" r:id="rId47" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C131" r:id="rId48" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C132" r:id="rId49" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C133" r:id="rId50" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C134" r:id="rId51" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C135" r:id="rId52" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C136" r:id="rId53" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BEA131-C53F-7C42-9CA1-7BC1A51EBA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8471DDA-89E1-7544-A1CF-F1F44FFC6D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="6380" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="238">
   <si>
     <t>Author</t>
   </si>
@@ -167,9 +167,6 @@
     <t>https://spatialgenomics.com/data/</t>
   </si>
   <si>
-    <t>Visium HD</t>
-  </si>
-  <si>
     <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-libraries-of-mouse-brain-he</t>
   </si>
   <si>
@@ -446,9 +443,6 @@
     <t>https://lyhnuq.bl.files.1drv.com/y4m5IUS_t41bNdeRU1tvF-GkuVaB5AGme8igPxGgkEfF3zc26xAA0A4YzGdj4VuXA_txmupFZ4jDCQAU4o4As93nhyo1jkKcY8_vgwm4BlLvEmtV8OnJtbaDmXH-J5gTkoEJDKJtEg15JAX4cEFQL6g7K13_hogMld8xJNDXXz3uDtB4Nsa8jL11Nvolx3PjxsdMXQWe9sAPEXubzstOobhyw</t>
   </si>
   <si>
-    <t>CosmMx_human_brain</t>
-  </si>
-  <si>
     <t>CosMx_mouse_brain</t>
   </si>
   <si>
@@ -632,9 +626,6 @@
     <t>Curio_brain_5</t>
   </si>
   <si>
-    <t>https://kohnuq.bl.files.1drv.com/y4mZltMHBNVSz8Nl6wRMtfAx0-L23m1906H4kzYEID-3myCawhqAe9-9YCU6AZiPEx8PX_UBR3bH4hTY_TyigzZTPvDa0PJfUjOHoVc3Cu-VKlWkLQO0wTYPN02L4mNQ34OcgLVbcRc9mPmw8bpNoMHXOhTTLd8fPjRUFBiPmjj4fivMl0teGP5znulVW9KNeC-2YXSm4r4AKCvEslnOzbZIw</t>
-  </si>
-  <si>
     <t>https://cw1oqa.bl.files.1drv.com/y4ms839bushVlMVuUlw2uCByO4VXwsgOAhy-ao2lOPumNVphhoXv8NQ0zocupGBLVlySH2HjkoXHCGQccXR2LS7uhQr5AaYLncBdQAN3z_5i98WcQ_tvnSCAzYmTetN5zbtIikutZzU7MpVjq1ffQBx_vcfNc3NVZSAyJHbuj9jiBC93D_iyTR_Cz1vvnFD4PtzfmS6NPpY-3nYYEmJaIfOWA</t>
   </si>
   <si>
@@ -732,6 +723,33 @@
   </si>
   <si>
     <t>Curio_ovary_8</t>
+  </si>
+  <si>
+    <t>Visium_HD</t>
+  </si>
+  <si>
+    <t>Allen Institute</t>
+  </si>
+  <si>
+    <t>Vizgen_brain_allen_0</t>
+  </si>
+  <si>
+    <t>Vizgen_brain_allen_4</t>
+  </si>
+  <si>
+    <t>Vizgen_brain_allen_12</t>
+  </si>
+  <si>
+    <t>Vizgen_brain_allen_13</t>
+  </si>
+  <si>
+    <t>https://download.brainimagelibrary.org/aa/79/aa79b8ba5b3add56/638850/</t>
+  </si>
+  <si>
+    <t>CosMx_human_brain</t>
+  </si>
+  <si>
+    <t>https://zm1oqa.bl.files.1drv.com/y4mg6GhhT2pXjR8Z07n6MfT1x_8KfVoMGXyqQVY6Iz2ttKka4oSddm8j-6D6BR2BZbaYurMp-0piwHKUNbMXyvmQYZA7o08bKmWgqmS6UZjMMKkU0gUayVX0Q1nWzF3EUg61_KZyFhsZ6pHZEWW68_4bU6E0MzUfykQl8VC1B8K2ZlJ3oNvoV3aDwuE7rUr-44eOixp552swhUzAwpfVHJTNQ</t>
   </si>
 </sst>
 </file>
@@ -1144,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D78" zoomScale="84" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1193,22 +1211,22 @@
         <v>29</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1222,10 +1240,10 @@
         <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
         <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1266,10 +1284,10 @@
         <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1310,10 +1328,10 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1351,16 +1369,16 @@
         <v>2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1392,16 +1410,16 @@
         <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1433,16 +1451,16 @@
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1474,16 +1492,16 @@
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1515,16 +1533,16 @@
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1556,16 +1574,16 @@
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1597,16 +1615,16 @@
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1635,16 +1653,16 @@
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1667,25 +1685,25 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13">
         <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1708,25 +1726,25 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14">
         <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" t="s">
         <v>198</v>
-      </c>
-      <c r="F14" t="s">
-        <v>201</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1749,19 +1767,19 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2024</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -2024,10 +2042,10 @@
         <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -2068,10 +2086,10 @@
         <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
@@ -2112,10 +2130,10 @@
         <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
@@ -2156,10 +2174,10 @@
         <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -2200,13 +2218,13 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
         <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
@@ -2247,13 +2265,13 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
         <v>70</v>
-      </c>
-      <c r="F27" t="s">
-        <v>71</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -2294,13 +2312,13 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
         <v>98</v>
       </c>
-      <c r="E28" t="s">
-        <v>99</v>
-      </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
@@ -2341,13 +2359,13 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
@@ -2388,13 +2406,13 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
@@ -2435,13 +2453,13 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
@@ -2482,13 +2500,13 @@
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -2529,13 +2547,13 @@
         <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -2576,13 +2594,13 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -2623,13 +2641,13 @@
         <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
@@ -2670,13 +2688,13 @@
         <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
@@ -2717,13 +2735,13 @@
         <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
@@ -2764,13 +2782,13 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
@@ -2811,13 +2829,13 @@
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
@@ -2858,13 +2876,13 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
@@ -2905,13 +2923,13 @@
         <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -2952,13 +2970,13 @@
         <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
@@ -2999,13 +3017,13 @@
         <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -3046,13 +3064,13 @@
         <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -3093,13 +3111,13 @@
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
@@ -3140,13 +3158,13 @@
         <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
@@ -3187,13 +3205,13 @@
         <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -3234,13 +3252,13 @@
         <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -3281,13 +3299,13 @@
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
@@ -3328,13 +3346,13 @@
         <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -3375,13 +3393,13 @@
         <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -3422,13 +3440,13 @@
         <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
@@ -3469,13 +3487,13 @@
         <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -3513,13 +3531,13 @@
         <v>2023</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" t="s">
         <v>68</v>
-      </c>
-      <c r="F54" t="s">
-        <v>69</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -3554,10 +3572,10 @@
         <v>33</v>
       </c>
       <c r="E55" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -3592,10 +3610,10 @@
         <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -3630,10 +3648,10 @@
         <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F57" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -3668,10 +3686,10 @@
         <v>33</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -3706,10 +3724,10 @@
         <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F59" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G59" t="s">
         <v>34</v>
@@ -3723,90 +3741,90 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F60" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G60" t="s">
         <v>34</v>
       </c>
       <c r="H60" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F61" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G61" t="s">
         <v>34</v>
       </c>
       <c r="H61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F62" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G62" t="s">
         <v>34</v>
       </c>
       <c r="H62" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F63" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G63" t="s">
         <v>34</v>
       </c>
       <c r="H63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F64" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G64" t="s">
         <v>34</v>
       </c>
       <c r="H64" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F65" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
       </c>
       <c r="H65" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F66" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G66" t="s">
         <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F67" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G67" t="s">
         <v>34</v>
       </c>
       <c r="H67" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3829,7 +3847,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B68">
         <v>2023</v>
@@ -3838,10 +3856,10 @@
         <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G68" t="s">
         <v>35</v>
@@ -3873,7 +3891,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B69">
         <v>2023</v>
@@ -3882,10 +3900,10 @@
         <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -3917,7 +3935,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B70">
         <v>2023</v>
@@ -3926,10 +3944,10 @@
         <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G70" t="s">
         <v>35</v>
@@ -3967,19 +3985,19 @@
         <v>2024</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="H71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I71" t="s">
         <v>11</v>
@@ -4002,16 +4020,16 @@
         <v>2024</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="H72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4031,19 +4049,19 @@
         <v>2024</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="H73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I73" t="s">
         <v>12</v>
@@ -4066,16 +4084,16 @@
         <v>2024</v>
       </c>
       <c r="E74" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="H74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4095,19 +4113,19 @@
         <v>2024</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
         <v>11</v>
@@ -4130,16 +4148,16 @@
         <v>2024</v>
       </c>
       <c r="E76" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="H76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4159,16 +4177,16 @@
         <v>2024</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="H77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I77" t="s">
         <v>12</v>
@@ -4188,13 +4206,13 @@
         <v>2024</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G78" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="H78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4205,19 +4223,19 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D79" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E79" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" t="s">
         <v>60</v>
       </c>
-      <c r="F79" t="s">
-        <v>61</v>
-      </c>
       <c r="G79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
         <v>10</v>
@@ -4231,19 +4249,19 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F80" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
         <v>21</v>
@@ -4257,22 +4275,22 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D81" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4283,22 +4301,22 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D82" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E82" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F82" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -4312,22 +4330,22 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D83" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E83" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F83" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4338,22 +4356,22 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D84" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E84" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F84" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4364,13 +4382,13 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>47</v>
+      </c>
+      <c r="G85" t="s">
+        <v>47</v>
+      </c>
+      <c r="H85" t="s">
         <v>48</v>
-      </c>
-      <c r="G85" t="s">
-        <v>48</v>
-      </c>
-      <c r="H85" t="s">
-        <v>49</v>
       </c>
       <c r="I85" t="s">
         <v>12</v>
@@ -4384,13 +4402,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G86" t="s">
+        <v>47</v>
+      </c>
+      <c r="H86" t="s">
         <v>48</v>
-      </c>
-      <c r="G86" t="s">
-        <v>48</v>
-      </c>
-      <c r="H86" t="s">
-        <v>49</v>
       </c>
       <c r="I86" t="s">
         <v>12</v>
@@ -4404,13 +4422,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="G87" t="s">
+        <v>47</v>
+      </c>
+      <c r="H87" t="s">
         <v>48</v>
-      </c>
-      <c r="G87" t="s">
-        <v>48</v>
-      </c>
-      <c r="H87" t="s">
-        <v>49</v>
       </c>
       <c r="I87" t="s">
         <v>12</v>
@@ -4424,13 +4442,13 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="G88" t="s">
+        <v>47</v>
+      </c>
+      <c r="H88" t="s">
         <v>48</v>
-      </c>
-      <c r="G88" t="s">
-        <v>48</v>
-      </c>
-      <c r="H88" t="s">
-        <v>49</v>
       </c>
       <c r="I88" t="s">
         <v>12</v>
@@ -4441,10 +4459,19 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>230</v>
+      </c>
+      <c r="B89">
+        <v>2023</v>
+      </c>
+      <c r="D89" t="s">
+        <v>235</v>
+      </c>
+      <c r="F89" t="s">
+        <v>231</v>
       </c>
       <c r="G89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
         <v>10</v>
@@ -4458,10 +4485,16 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D90" t="s">
+        <v>235</v>
+      </c>
+      <c r="F90" t="s">
+        <v>232</v>
       </c>
       <c r="G90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
         <v>10</v>
@@ -4475,10 +4508,16 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D91" t="s">
+        <v>235</v>
+      </c>
+      <c r="F91" t="s">
+        <v>233</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
         <v>10</v>
@@ -4492,10 +4531,16 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D92" t="s">
+        <v>235</v>
+      </c>
+      <c r="F92" t="s">
+        <v>234</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
         <v>10</v>
@@ -4506,10 +4551,10 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
         <v>10</v>
@@ -4520,10 +4565,10 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
         <v>10</v>
@@ -4534,10 +4579,10 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
         <v>10</v>
@@ -4548,10 +4593,10 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
         <v>10</v>
@@ -4562,10 +4607,10 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
         <v>10</v>
@@ -4576,10 +4621,10 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
         <v>10</v>
@@ -4590,10 +4635,10 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
         <v>10</v>
@@ -4607,10 +4652,10 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
         <v>10</v>
@@ -4624,10 +4669,10 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
         <v>10</v>
@@ -4641,10 +4686,10 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
         <v>10</v>
@@ -4658,10 +4703,10 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
         <v>10</v>
@@ -4675,10 +4720,10 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
         <v>10</v>
@@ -4692,10 +4737,10 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
         <v>10</v>
@@ -4709,10 +4754,10 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
         <v>10</v>
@@ -4726,10 +4771,10 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
         <v>10</v>
@@ -4743,10 +4788,10 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
         <v>10</v>
@@ -4760,10 +4805,10 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
         <v>10</v>
@@ -4777,10 +4822,10 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
         <v>10</v>
@@ -4794,10 +4839,10 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
         <v>10</v>
@@ -4811,10 +4856,10 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
         <v>10</v>
@@ -4828,10 +4873,10 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
         <v>10</v>
@@ -4845,10 +4890,10 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
         <v>10</v>
@@ -4862,10 +4907,10 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
         <v>10</v>
@@ -4879,10 +4924,10 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
         <v>10</v>
@@ -4896,10 +4941,10 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
         <v>10</v>
@@ -4913,10 +4958,10 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
         <v>10</v>
@@ -4930,10 +4975,10 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
         <v>10</v>
@@ -4947,10 +4992,10 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
         <v>10</v>
@@ -4964,10 +5009,10 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
         <v>10</v>
@@ -4981,10 +5026,10 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
         <v>10</v>
@@ -4998,10 +5043,10 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
         <v>10</v>
@@ -5015,10 +5060,10 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H124" t="s">
         <v>10</v>
@@ -5032,10 +5077,10 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H125" t="s">
         <v>10</v>
@@ -5049,10 +5094,10 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H126" t="s">
         <v>10</v>
@@ -5066,10 +5111,10 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H127" t="s">
         <v>10</v>
@@ -5083,10 +5128,10 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H128" t="s">
         <v>10</v>
@@ -5100,19 +5145,19 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B129">
         <v>2024</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D129" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G129" t="s">
         <v>30</v>
@@ -5129,19 +5174,19 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B130">
         <v>2024</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D130" t="s">
         <v>157</v>
       </c>
-      <c r="D130" t="s">
-        <v>159</v>
-      </c>
       <c r="F130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G130" t="s">
         <v>30</v>
@@ -5158,19 +5203,19 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B131">
         <v>2024</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D131" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F131" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G131" t="s">
         <v>30</v>
@@ -5187,19 +5232,19 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B132">
         <v>2024</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D132" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F132" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G132" t="s">
         <v>30</v>
@@ -5216,19 +5261,19 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>2024</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D133" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F133" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -5245,19 +5290,19 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B134">
         <v>2024</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D134" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F134" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G134" t="s">
         <v>30</v>
@@ -5274,19 +5319,19 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B135">
         <v>2024</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F135" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -5303,19 +5348,19 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B136">
         <v>2024</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D136" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F136" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G136" t="s">
         <v>30</v>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8471DDA-89E1-7544-A1CF-F1F44FFC6D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A97BF4B-3C51-2644-A060-F7CF260F0B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="6380" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A97BF4B-3C51-2644-A060-F7CF260F0B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0861530B-15E5-2644-9338-8523A17B4841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="6380" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="247">
   <si>
     <t>Author</t>
   </si>
@@ -750,6 +750,33 @@
   </si>
   <si>
     <t>https://zm1oqa.bl.files.1drv.com/y4mg6GhhT2pXjR8Z07n6MfT1x_8KfVoMGXyqQVY6Iz2ttKka4oSddm8j-6D6BR2BZbaYurMp-0piwHKUNbMXyvmQYZA7o08bKmWgqmS6UZjMMKkU0gUayVX0Q1nWzF3EUg61_KZyFhsZ6pHZEWW68_4bU6E0MzUfykQl8VC1B8K2ZlJ3oNvoV3aDwuE7rUr-44eOixp552swhUzAwpfVHJTNQ</t>
+  </si>
+  <si>
+    <t>https://vgocqw.bl.files.1drv.com/y4mNw37uF9wd_xK0Q59qYpEtYmWsdnQT6OAmtNEiVvX-luZR6SbFmvplO7jD30dW1Uq9JLkMpA0qC9R5TvHgXRxeRXj5arXB0BSospaTgDzbdff_IoMuL3htinmILGBH0NYl74T6SqQq_JLOzkY1GcyIsan5E5tfZP5Y300CfL-PcdF-iIiz8-QtQxCxwtE8BzHfPnUPKjiXWpOxuLmB5FRTA</t>
+  </si>
+  <si>
+    <t>https://ifz0xa.bl.files.1drv.com/y4mTHM4bk8TtkZQkaJggGTC1iGPJQoPP0iZfdXVkKL2L7bzq9jgh2_amWkruy40nKOH_lcP8Y2A_Fek3J7XzALfPlkkJ8LI2FCkArLKtSeLjSLGwgqnVEtLEzfaKPl9Kxn2WcMMfFbzAF8WQ61Zcu9QIiSS_Vm9UODov2ixriNRQp9x_MKzyb3CiDZIl7aA0-IhR2fVXzZR32PfqxeN4oLY2g</t>
+  </si>
+  <si>
+    <t>https://8lnrra.bl.files.1drv.com/y4mhDToinyLHHx81QMnwp-79dC1YF5v-Vuwq4N7qkmtf6hHwuy_9ISUtZjBOvS55FRmMKGYz8-pKL05Oure7pZO9XCXV9Rqo7ptfRSwvTIGRuXGmqnq4todD1qvw1J-I8KZjiJxb13WCK2Zhrl1AegU5ASMABht1LKRkXQs-SVSQPbZnjiE9JB_kdpL_H_BQfWfhe0jEmbS8hpZSnOq_CVPow</t>
+  </si>
+  <si>
+    <t>https://hohnuq.bl.files.1drv.com/y4mKWx0U7VEExp1o3VrmlwAQELKMLf3aMSd8qHASSuSiuZgSl1ZxZZRH2RcLSlfihUhrR8BPq5Hr88ykOTt191KUjQD0Tl9_7o0ae4gI1OHiO2kW1YZ1inxlOLC7khOHUrlyhvYWFklAwzUVhxOooqf-wfJ3zJ715Sftb9BZ0nVtBJETqqXI-1GhWdujJIuz16yjjL3DvnkoH1VQ9qIJ7gi9A</t>
+  </si>
+  <si>
+    <t>https://kd26iq.bl.files.1drv.com/y4mtWoQzs3BK60ssvEP6GPYWbT7V4LqbqXjaS5E_tW_Q9pPhLZmkiSUKQ4amv2gG2yW2tx-Jduv4rGnhcHii1wS37li6fPh8u4S8sQp3FsnOSN8x8AoR-47QJTbGAe1BAm577OskS-omdDFuErJTaUnof4Cba33hkEhtfxMrXh3tG2DQTRT74G9Dzt_QVZHFJCKy9HlS0che6H-Z8hNWxKvpw</t>
+  </si>
+  <si>
+    <t>CosMx_nsclc_9_2</t>
+  </si>
+  <si>
+    <t>https://6wwmfw.bl.files.1drv.com/y4mtFdh7st4ROLi8ttKLd0RIRc09_5WSsqLivbKIOo-jUlcmRhlSMnpq4JSzQ1PebQuzKiEnGhmqcPATk2-kGQOk-ifvHy7UomUtS8HamIfRPWOcGd2N2VV7qX-AwwHmpAVkTYNgb3l1k0iO8y-KJCg6l5Liay75CjftQgFa3Dh7AOH7Aa0reYGAiNbIu19ATsDO_4TM4cUgYNdrfGDTkccgQ</t>
+  </si>
+  <si>
+    <t>https://zw1oqa.bl.files.1drv.com/y4mfFbvWw0PFhAAHx4QZZT1Z03ONHWTxk87yzM_hEs-cM78YgY1gUgKpGimwJqw89rx5LlNGRGe5Fp1uTcVKiq-6KPlNzd_ohcGfPSprfq-cW3AEWyTtZyZKJDtOP9JRee-4NZqHb4crj7cHHltPhAyiq40ogNQenhf2Hj-NBPW5VGDQZI_CLnXrJO_cdbNHHUVbKikY9r1JPD_G1kaHF9Gxg</t>
+  </si>
+  <si>
+    <t>https://v9qdoq.bl.files.1drv.com/y4mFR6AegFeiI9bU-0uO3bJPQ_xNSSVT4HARrAoLgJwzHiOeMJ1U36p4Pi3oyMtvOL4002GTyKtdUjaXTr_NBiq9KeccWLT7Dg6vzdWa6ggwQ2AYngYGPswvqW-P4Jiz0z-Leqgp0aKglqrWUXDZg6V7gi_xfadw5ymIyJ0YyBVagMnSbA6wSrvPaM-MYs49qCweGfkc4Nz6dwe4LYm2NPvCw</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1371,6 +1398,9 @@
       <c r="C5" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
       <c r="F5" t="s">
         <v>139</v>
       </c>
@@ -1412,6 +1442,9 @@
       <c r="C6" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E6" t="s">
+        <v>239</v>
+      </c>
       <c r="F6" t="s">
         <v>140</v>
       </c>
@@ -1453,6 +1486,9 @@
       <c r="C7" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E7" t="s">
+        <v>240</v>
+      </c>
       <c r="F7" t="s">
         <v>141</v>
       </c>
@@ -1494,6 +1530,9 @@
       <c r="C8" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E8" t="s">
+        <v>241</v>
+      </c>
       <c r="F8" t="s">
         <v>142</v>
       </c>
@@ -1535,6 +1574,9 @@
       <c r="C9" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E9" t="s">
+        <v>242</v>
+      </c>
       <c r="F9" t="s">
         <v>143</v>
       </c>
@@ -1576,8 +1618,11 @@
       <c r="C10" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E10" t="s">
+        <v>244</v>
+      </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
         <v>137</v>
@@ -1617,6 +1662,9 @@
       <c r="C11" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E11" t="s">
+        <v>245</v>
+      </c>
       <c r="F11" t="s">
         <v>144</v>
       </c>
@@ -1654,6 +1702,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>246</v>
       </c>
       <c r="F12" t="s">
         <v>145</v>
@@ -5383,54 +5434,54 @@
     <hyperlink ref="C26" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
     <hyperlink ref="E25" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
     <hyperlink ref="E22" r:id="rId5" xr:uid="{5BA81582-EC37-0D4D-B7A9-7AF8598A9DF2}"/>
-    <hyperlink ref="E54" r:id="rId6" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
-    <hyperlink ref="C27" r:id="rId7" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{8F9A199E-EC71-B249-AF59-FF24DB4609B1}"/>
-    <hyperlink ref="C28" r:id="rId8" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{853F30D2-01D5-1548-B4FF-52D758F3D556}"/>
-    <hyperlink ref="C29" r:id="rId9" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C48DB5F5-21AE-CE4D-BB27-7CF2B2B712A7}"/>
-    <hyperlink ref="C30" r:id="rId10" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9ED5901C-DC91-CC49-A723-A9C49A700057}"/>
-    <hyperlink ref="C31" r:id="rId11" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{681B51E0-45E0-AF4A-A5EE-28748A165692}"/>
-    <hyperlink ref="C32" r:id="rId12" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{BA262E0F-F122-CE49-B193-E111B00E4D19}"/>
-    <hyperlink ref="C33" r:id="rId13" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2C9985A0-6AD7-9A41-9565-94AA54B8F20A}"/>
-    <hyperlink ref="C34" r:id="rId14" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{42C6419B-1F9C-464D-942C-629DBE1A763F}"/>
-    <hyperlink ref="C35" r:id="rId15" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFF16103-3C13-2B47-B8FA-7ED24283F351}"/>
-    <hyperlink ref="C36" r:id="rId16" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{E38CC7D2-2BD2-AC45-99BE-32F76871EC00}"/>
-    <hyperlink ref="C37" r:id="rId17" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C9FC1701-99F3-314F-8A4C-4CCCDD235EA2}"/>
-    <hyperlink ref="C38" r:id="rId18" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EC4E26BD-F1A6-2647-A8E9-40DA20AB83BF}"/>
-    <hyperlink ref="C39" r:id="rId19" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{B86C6F60-6096-CD42-B6D4-337F4666A137}"/>
-    <hyperlink ref="C40" r:id="rId20" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{33B4FEAD-F100-6845-A5C0-78998BA2E0AD}"/>
-    <hyperlink ref="C41" r:id="rId21" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{A7F28363-67D9-DE4F-8511-F087659BD3BB}"/>
-    <hyperlink ref="C42" r:id="rId22" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C7DDCDCC-39CA-5A4A-9204-AC06FD62324C}"/>
-    <hyperlink ref="C43" r:id="rId23" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CDD3098C-5532-2243-91DE-779275449D7C}"/>
-    <hyperlink ref="C44" r:id="rId24" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2FDC7CE7-0E8D-7A43-B2CB-F08FEB0D0C86}"/>
-    <hyperlink ref="C45" r:id="rId25" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{3EAD12EB-7FAA-6644-8CD0-282CF442DD5F}"/>
-    <hyperlink ref="C46" r:id="rId26" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{37ED5057-FB64-104D-A1AD-880EE76BBBF6}"/>
-    <hyperlink ref="C47" r:id="rId27" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{919807C3-656E-5541-AC46-175D90A0E650}"/>
-    <hyperlink ref="C48" r:id="rId28" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFD73339-E4A6-F444-95CC-E5EF5306A91D}"/>
-    <hyperlink ref="C49" r:id="rId29" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{DE5BB967-701B-3A4E-9953-5C391D746A0E}"/>
-    <hyperlink ref="C50" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9D9F29E0-C81C-7B44-9831-E6853C80A7FA}"/>
-    <hyperlink ref="C51" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
-    <hyperlink ref="C52" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
-    <hyperlink ref="C53" r:id="rId33" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
-    <hyperlink ref="E72" r:id="rId34" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
-    <hyperlink ref="E2" r:id="rId35" xr:uid="{E191A043-72B0-CC4E-9B58-FE4C461D40C9}"/>
-    <hyperlink ref="C14" r:id="rId36" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{88E6D632-2160-2B4D-AD77-9459075894C4}"/>
-    <hyperlink ref="C13" r:id="rId37" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{ED18E71A-43E8-A644-BA73-C69B86D50DCF}"/>
-    <hyperlink ref="C5" r:id="rId38" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{38821B49-6042-5042-8428-B8BD186CF7FB}"/>
-    <hyperlink ref="C6" r:id="rId39" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5C2B9BE0-AC88-2C45-87F0-F17854B8281E}"/>
-    <hyperlink ref="C7" r:id="rId40" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{2D68EF16-250B-CD4E-89AF-0D5B979194EB}"/>
-    <hyperlink ref="C8" r:id="rId41" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{FA19C14F-5330-E041-BF9D-07C424C85332}"/>
-    <hyperlink ref="C9" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{A3F8BBCD-8687-2947-AD87-50A2D562B7C0}"/>
-    <hyperlink ref="C10" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
-    <hyperlink ref="C11" r:id="rId44" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
-    <hyperlink ref="C12" r:id="rId45" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
-    <hyperlink ref="C129" r:id="rId46" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
-    <hyperlink ref="C130" r:id="rId47" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
-    <hyperlink ref="C131" r:id="rId48" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
-    <hyperlink ref="C132" r:id="rId49" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
-    <hyperlink ref="C133" r:id="rId50" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
-    <hyperlink ref="C134" r:id="rId51" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
-    <hyperlink ref="C135" r:id="rId52" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
-    <hyperlink ref="C136" r:id="rId53" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="C27" r:id="rId6" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{8F9A199E-EC71-B249-AF59-FF24DB4609B1}"/>
+    <hyperlink ref="C28" r:id="rId7" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{853F30D2-01D5-1548-B4FF-52D758F3D556}"/>
+    <hyperlink ref="C29" r:id="rId8" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C48DB5F5-21AE-CE4D-BB27-7CF2B2B712A7}"/>
+    <hyperlink ref="C30" r:id="rId9" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9ED5901C-DC91-CC49-A723-A9C49A700057}"/>
+    <hyperlink ref="C31" r:id="rId10" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{681B51E0-45E0-AF4A-A5EE-28748A165692}"/>
+    <hyperlink ref="C32" r:id="rId11" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{BA262E0F-F122-CE49-B193-E111B00E4D19}"/>
+    <hyperlink ref="C33" r:id="rId12" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2C9985A0-6AD7-9A41-9565-94AA54B8F20A}"/>
+    <hyperlink ref="C34" r:id="rId13" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{42C6419B-1F9C-464D-942C-629DBE1A763F}"/>
+    <hyperlink ref="C35" r:id="rId14" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFF16103-3C13-2B47-B8FA-7ED24283F351}"/>
+    <hyperlink ref="C36" r:id="rId15" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{E38CC7D2-2BD2-AC45-99BE-32F76871EC00}"/>
+    <hyperlink ref="C37" r:id="rId16" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C9FC1701-99F3-314F-8A4C-4CCCDD235EA2}"/>
+    <hyperlink ref="C38" r:id="rId17" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EC4E26BD-F1A6-2647-A8E9-40DA20AB83BF}"/>
+    <hyperlink ref="C39" r:id="rId18" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{B86C6F60-6096-CD42-B6D4-337F4666A137}"/>
+    <hyperlink ref="C40" r:id="rId19" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{33B4FEAD-F100-6845-A5C0-78998BA2E0AD}"/>
+    <hyperlink ref="C41" r:id="rId20" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{A7F28363-67D9-DE4F-8511-F087659BD3BB}"/>
+    <hyperlink ref="C42" r:id="rId21" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C7DDCDCC-39CA-5A4A-9204-AC06FD62324C}"/>
+    <hyperlink ref="C43" r:id="rId22" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CDD3098C-5532-2243-91DE-779275449D7C}"/>
+    <hyperlink ref="C44" r:id="rId23" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2FDC7CE7-0E8D-7A43-B2CB-F08FEB0D0C86}"/>
+    <hyperlink ref="C45" r:id="rId24" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{3EAD12EB-7FAA-6644-8CD0-282CF442DD5F}"/>
+    <hyperlink ref="C46" r:id="rId25" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{37ED5057-FB64-104D-A1AD-880EE76BBBF6}"/>
+    <hyperlink ref="C47" r:id="rId26" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{919807C3-656E-5541-AC46-175D90A0E650}"/>
+    <hyperlink ref="C48" r:id="rId27" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFD73339-E4A6-F444-95CC-E5EF5306A91D}"/>
+    <hyperlink ref="C49" r:id="rId28" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{DE5BB967-701B-3A4E-9953-5C391D746A0E}"/>
+    <hyperlink ref="C50" r:id="rId29" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9D9F29E0-C81C-7B44-9831-E6853C80A7FA}"/>
+    <hyperlink ref="C51" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
+    <hyperlink ref="C52" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
+    <hyperlink ref="C53" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
+    <hyperlink ref="E72" r:id="rId33" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
+    <hyperlink ref="E2" r:id="rId34" xr:uid="{E191A043-72B0-CC4E-9B58-FE4C461D40C9}"/>
+    <hyperlink ref="C14" r:id="rId35" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{88E6D632-2160-2B4D-AD77-9459075894C4}"/>
+    <hyperlink ref="C13" r:id="rId36" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{ED18E71A-43E8-A644-BA73-C69B86D50DCF}"/>
+    <hyperlink ref="C5" r:id="rId37" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{38821B49-6042-5042-8428-B8BD186CF7FB}"/>
+    <hyperlink ref="C6" r:id="rId38" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5C2B9BE0-AC88-2C45-87F0-F17854B8281E}"/>
+    <hyperlink ref="C7" r:id="rId39" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{2D68EF16-250B-CD4E-89AF-0D5B979194EB}"/>
+    <hyperlink ref="C8" r:id="rId40" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{FA19C14F-5330-E041-BF9D-07C424C85332}"/>
+    <hyperlink ref="C9" r:id="rId41" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{A3F8BBCD-8687-2947-AD87-50A2D562B7C0}"/>
+    <hyperlink ref="C10" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
+    <hyperlink ref="C11" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
+    <hyperlink ref="C12" r:id="rId44" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
+    <hyperlink ref="C129" r:id="rId45" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C130" r:id="rId46" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C131" r:id="rId47" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C132" r:id="rId48" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C133" r:id="rId49" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C134" r:id="rId50" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C135" r:id="rId51" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C136" r:id="rId52" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="E54" r:id="rId53" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0861530B-15E5-2644-9338-8523A17B4841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DA0C92-55F9-EC4A-9F61-FCB3C441E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="6380" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
+    <workbookView xWindow="2460" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="248">
   <si>
     <t>Author</t>
   </si>
@@ -777,6 +777,9 @@
   </si>
   <si>
     <t>https://v9qdoq.bl.files.1drv.com/y4mFR6AegFeiI9bU-0uO3bJPQ_xNSSVT4HARrAoLgJwzHiOeMJ1U36p4Pi3oyMtvOL4002GTyKtdUjaXTr_NBiq9KeccWLT7Dg6vzdWa6ggwQ2AYngYGPswvqW-P4Jiz0z-Leqgp0aKglqrWUXDZg6V7gi_xfadw5ymIyJ0YyBVagMnSbA6wSrvPaM-MYs49qCweGfkc4Nz6dwe4LYm2NPvCw</t>
+  </si>
+  <si>
+    <t>PV_workflow_comparison</t>
   </si>
 </sst>
 </file>
@@ -1187,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:P136"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1200,13 +1203,13 @@
     <col min="5" max="5" width="38" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="25.83203125" customWidth="1"/>
-    <col min="13" max="13" width="27.5" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+    <col min="11" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.83203125" customWidth="1"/>
+    <col min="14" max="14" width="27.5" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1241,22 +1244,25 @@
         <v>152</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1288,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1299,8 +1305,11 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1343,8 +1352,11 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1376,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1387,8 +1399,11 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1426,13 +1441,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1470,13 +1488,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1514,13 +1535,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1558,13 +1582,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1602,13 +1629,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1646,13 +1676,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1687,13 +1720,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1728,13 +1764,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -1774,8 +1813,11 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -1815,8 +1857,11 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1842,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1853,8 +1898,11 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1880,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1891,8 +1939,11 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1918,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1929,8 +1980,11 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1956,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1967,8 +2021,11 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1994,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2005,8 +2062,11 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2032,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2043,8 +2103,11 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2070,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2081,8 +2144,11 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2158,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2169,8 +2238,11 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2202,10 +2274,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2213,8 +2285,11 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="20" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2257,8 +2332,11 @@
       <c r="O25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2292,20 +2370,20 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2339,20 +2417,20 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2386,20 +2464,20 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2433,20 +2511,20 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2480,20 +2558,20 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2527,20 +2605,20 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2574,20 +2652,20 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -2621,20 +2699,20 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2668,20 +2746,20 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2715,20 +2793,20 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -2762,20 +2840,20 @@
       <c r="K36">
         <v>0</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -2809,20 +2887,20 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -2856,20 +2934,20 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2903,20 +2981,20 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -2950,20 +3028,20 @@
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -2997,20 +3075,20 @@
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -3044,20 +3122,20 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -3091,20 +3169,20 @@
       <c r="K43">
         <v>0</v>
       </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -3138,20 +3216,20 @@
       <c r="K44">
         <v>0</v>
       </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
       <c r="M44">
         <v>1</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -3185,20 +3263,20 @@
       <c r="K45">
         <v>0</v>
       </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -3232,20 +3310,20 @@
       <c r="K46">
         <v>0</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -3279,20 +3357,20 @@
       <c r="K47">
         <v>0</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -3326,20 +3404,20 @@
       <c r="K48">
         <v>0</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -3373,20 +3451,20 @@
       <c r="K49">
         <v>0</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -3420,20 +3498,20 @@
       <c r="K50">
         <v>0</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -3467,20 +3545,20 @@
       <c r="K51">
         <v>0</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -3514,20 +3592,20 @@
       <c r="K52">
         <v>0</v>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -3561,20 +3639,20 @@
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -3605,11 +3683,8 @@
       <c r="K54">
         <v>0</v>
       </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
       <c r="M54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3617,8 +3692,11 @@
       <c r="O54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>33</v>
       </c>
@@ -3647,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3655,8 +3733,11 @@
       <c r="O55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>33</v>
       </c>
@@ -3681,11 +3762,8 @@
       <c r="K56">
         <v>0</v>
       </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3693,8 +3771,11 @@
       <c r="O56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>33</v>
       </c>
@@ -3719,9 +3800,6 @@
       <c r="K57">
         <v>0</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
       <c r="M57">
         <v>0</v>
       </c>
@@ -3731,8 +3809,11 @@
       <c r="O57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
         <v>33</v>
       </c>
@@ -3758,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -3769,8 +3850,11 @@
       <c r="O58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>33</v>
       </c>
@@ -3790,7 +3874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F60" t="s">
         <v>221</v>
       </c>
@@ -3801,7 +3885,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F61" t="s">
         <v>222</v>
       </c>
@@ -3812,7 +3896,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F62" t="s">
         <v>223</v>
       </c>
@@ -3823,7 +3907,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F63" t="s">
         <v>224</v>
       </c>
@@ -3834,7 +3918,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F64" t="s">
         <v>225</v>
       </c>
@@ -3845,7 +3929,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F65" t="s">
         <v>226</v>
       </c>
@@ -3856,7 +3940,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F66" t="s">
         <v>227</v>
       </c>
@@ -3867,7 +3951,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F67" t="s">
         <v>228</v>
       </c>
@@ -3883,9 +3967,6 @@
       <c r="K67">
         <v>0</v>
       </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
       <c r="M67">
         <v>0</v>
       </c>
@@ -3895,8 +3976,11 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>173</v>
       </c>
@@ -3927,9 +4011,6 @@
       <c r="K68">
         <v>0</v>
       </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
       <c r="M68">
         <v>0</v>
       </c>
@@ -3937,10 +4018,13 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>173</v>
       </c>
@@ -3971,9 +4055,6 @@
       <c r="K69">
         <v>0</v>
       </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
       <c r="M69">
         <v>0</v>
       </c>
@@ -3981,10 +4062,13 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>173</v>
       </c>
@@ -4015,9 +4099,6 @@
       <c r="K70">
         <v>0</v>
       </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
       <c r="M70">
         <v>0</v>
       </c>
@@ -4025,10 +4106,13 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -4056,14 +4140,17 @@
       <c r="L71">
         <v>1</v>
       </c>
-      <c r="N71">
-        <v>0</v>
+      <c r="M71">
+        <v>1</v>
       </c>
       <c r="O71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -4085,14 +4172,17 @@
       <c r="L72">
         <v>1</v>
       </c>
-      <c r="N72">
-        <v>0</v>
+      <c r="M72">
+        <v>1</v>
       </c>
       <c r="O72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -4120,14 +4210,17 @@
       <c r="L73">
         <v>1</v>
       </c>
-      <c r="N73">
-        <v>0</v>
+      <c r="M73">
+        <v>1</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -4149,14 +4242,17 @@
       <c r="L74">
         <v>1</v>
       </c>
-      <c r="N74">
-        <v>0</v>
+      <c r="M74">
+        <v>1</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -4184,14 +4280,17 @@
       <c r="L75">
         <v>1</v>
       </c>
-      <c r="N75">
-        <v>0</v>
+      <c r="M75">
+        <v>1</v>
       </c>
       <c r="O75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -4213,14 +4312,17 @@
       <c r="L76">
         <v>1</v>
       </c>
-      <c r="N76">
-        <v>0</v>
+      <c r="M76">
+        <v>1</v>
       </c>
       <c r="O76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -4242,14 +4344,14 @@
       <c r="I77" t="s">
         <v>12</v>
       </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
       <c r="O77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -4265,14 +4367,14 @@
       <c r="H78" t="s">
         <v>130</v>
       </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
       <c r="O78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -4291,14 +4393,17 @@
       <c r="H79" t="s">
         <v>10</v>
       </c>
-      <c r="N79">
-        <v>0</v>
+      <c r="L79">
+        <v>1</v>
       </c>
       <c r="O79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>47</v>
       </c>
@@ -4317,14 +4422,14 @@
       <c r="H80" t="s">
         <v>21</v>
       </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
       <c r="O80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>47</v>
       </c>
@@ -4343,14 +4448,14 @@
       <c r="H81" t="s">
         <v>216</v>
       </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
       <c r="O81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>47</v>
       </c>
@@ -4369,17 +4474,17 @@
       <c r="H82" t="s">
         <v>217</v>
       </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
+      <c r="M82">
+        <v>1</v>
       </c>
       <c r="O82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -4398,14 +4503,17 @@
       <c r="H83" t="s">
         <v>215</v>
       </c>
-      <c r="N83">
-        <v>0</v>
+      <c r="L83">
+        <v>1</v>
       </c>
       <c r="O83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -4424,14 +4532,14 @@
       <c r="H84" t="s">
         <v>215</v>
       </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
       <c r="O84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>47</v>
       </c>
@@ -4444,14 +4552,14 @@
       <c r="I85" t="s">
         <v>12</v>
       </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
       <c r="O85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -4464,14 +4572,14 @@
       <c r="I86" t="s">
         <v>12</v>
       </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
       <c r="O86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -4484,14 +4592,14 @@
       <c r="I87" t="s">
         <v>12</v>
       </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
       <c r="O87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -4504,11 +4612,11 @@
       <c r="I88" t="s">
         <v>12</v>
       </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>230</v>
       </c>
@@ -4530,11 +4638,11 @@
       <c r="I89" t="s">
         <v>11</v>
       </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -4553,11 +4661,11 @@
       <c r="I90" t="s">
         <v>11</v>
       </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>47</v>
       </c>
@@ -4576,11 +4684,14 @@
       <c r="I91" t="s">
         <v>11</v>
       </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>47</v>
       </c>
@@ -4599,8 +4710,11 @@
       <c r="I92" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>47</v>
       </c>
@@ -4614,7 +4728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>47</v>
       </c>
@@ -4628,7 +4742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>47</v>
       </c>
@@ -4642,7 +4756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -4656,7 +4770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -4670,7 +4784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -4684,7 +4798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>47</v>
       </c>
@@ -4697,11 +4811,11 @@
       <c r="I99" t="s">
         <v>11</v>
       </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>47</v>
       </c>
@@ -4714,11 +4828,11 @@
       <c r="I100" t="s">
         <v>11</v>
       </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>47</v>
       </c>
@@ -4731,11 +4845,11 @@
       <c r="I101" t="s">
         <v>11</v>
       </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -4748,11 +4862,11 @@
       <c r="I102" t="s">
         <v>11</v>
       </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>47</v>
       </c>
@@ -4765,11 +4879,11 @@
       <c r="I103" t="s">
         <v>11</v>
       </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>47</v>
       </c>
@@ -4782,11 +4896,11 @@
       <c r="I104" t="s">
         <v>11</v>
       </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -4799,11 +4913,11 @@
       <c r="I105" t="s">
         <v>11</v>
       </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -4816,11 +4930,11 @@
       <c r="I106" t="s">
         <v>11</v>
       </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -4833,11 +4947,11 @@
       <c r="I107" t="s">
         <v>11</v>
       </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>47</v>
       </c>
@@ -4850,11 +4964,11 @@
       <c r="I108" t="s">
         <v>11</v>
       </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>47</v>
       </c>
@@ -4867,11 +4981,11 @@
       <c r="I109" t="s">
         <v>11</v>
       </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>47</v>
       </c>
@@ -4884,11 +4998,11 @@
       <c r="I110" t="s">
         <v>11</v>
       </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>47</v>
       </c>
@@ -4901,11 +5015,11 @@
       <c r="I111" t="s">
         <v>11</v>
       </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>47</v>
       </c>
@@ -4918,11 +5032,11 @@
       <c r="I112" t="s">
         <v>11</v>
       </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>47</v>
       </c>
@@ -4935,11 +5049,11 @@
       <c r="I113" t="s">
         <v>11</v>
       </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>47</v>
       </c>
@@ -4952,11 +5066,11 @@
       <c r="I114" t="s">
         <v>11</v>
       </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>47</v>
       </c>
@@ -4969,11 +5083,11 @@
       <c r="I115" t="s">
         <v>11</v>
       </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>47</v>
       </c>
@@ -4986,11 +5100,11 @@
       <c r="I116" t="s">
         <v>11</v>
       </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>47</v>
       </c>
@@ -5003,11 +5117,11 @@
       <c r="I117" t="s">
         <v>11</v>
       </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>47</v>
       </c>
@@ -5020,11 +5134,11 @@
       <c r="I118" t="s">
         <v>11</v>
       </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>47</v>
       </c>
@@ -5037,11 +5151,11 @@
       <c r="I119" t="s">
         <v>11</v>
       </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>47</v>
       </c>
@@ -5054,11 +5168,11 @@
       <c r="I120" t="s">
         <v>11</v>
       </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>47</v>
       </c>
@@ -5071,11 +5185,11 @@
       <c r="I121" t="s">
         <v>11</v>
       </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -5088,11 +5202,11 @@
       <c r="I122" t="s">
         <v>11</v>
       </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>47</v>
       </c>
@@ -5105,11 +5219,11 @@
       <c r="I123" t="s">
         <v>11</v>
       </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>47</v>
       </c>
@@ -5122,11 +5236,11 @@
       <c r="I124" t="s">
         <v>11</v>
       </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>47</v>
       </c>
@@ -5139,11 +5253,11 @@
       <c r="I125" t="s">
         <v>11</v>
       </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>47</v>
       </c>
@@ -5156,11 +5270,11 @@
       <c r="I126" t="s">
         <v>11</v>
       </c>
-      <c r="O126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>47</v>
       </c>
@@ -5173,11 +5287,11 @@
       <c r="I127" t="s">
         <v>11</v>
       </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>47</v>
       </c>
@@ -5190,11 +5304,11 @@
       <c r="I128" t="s">
         <v>11</v>
       </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>172</v>
       </c>
@@ -5219,11 +5333,11 @@
       <c r="I129" t="s">
         <v>11</v>
       </c>
-      <c r="O129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>172</v>
       </c>
@@ -5248,11 +5362,11 @@
       <c r="I130" t="s">
         <v>11</v>
       </c>
-      <c r="O130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>172</v>
       </c>
@@ -5277,11 +5391,11 @@
       <c r="I131" t="s">
         <v>11</v>
       </c>
-      <c r="O131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>172</v>
       </c>
@@ -5306,11 +5420,11 @@
       <c r="I132" t="s">
         <v>11</v>
       </c>
-      <c r="O132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>172</v>
       </c>
@@ -5335,11 +5449,11 @@
       <c r="I133" t="s">
         <v>11</v>
       </c>
-      <c r="O133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>172</v>
       </c>
@@ -5364,11 +5478,11 @@
       <c r="I134" t="s">
         <v>11</v>
       </c>
-      <c r="O134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>172</v>
       </c>
@@ -5393,11 +5507,11 @@
       <c r="I135" t="s">
         <v>11</v>
       </c>
-      <c r="O135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>172</v>
       </c>
@@ -5422,7 +5536,7 @@
       <c r="I136" t="s">
         <v>11</v>
       </c>
-      <c r="O136">
+      <c r="P136">
         <v>1</v>
       </c>
     </row>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DA0C92-55F9-EC4A-9F61-FCB3C441E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B97AF-BAA6-7844-8F37-36FCA09E5D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
+    <workbookView xWindow="2200" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="283">
   <si>
     <t>Author</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Skin melanoma</t>
   </si>
   <si>
-    <t>Lung cancer</t>
-  </si>
-  <si>
     <t>Colon cancer</t>
   </si>
   <si>
@@ -152,15 +149,6 @@
     <t>https://www.10xgenomics.com/datasets/human-skin-preview-data-xenium-human-skin-gene-expression-panel-1-standard</t>
   </si>
   <si>
-    <t>https://www.10xgenomics.com/datasets/preview-data-ffpe-human-lung-cancer-with-xenium-multimodal-cell-segmentation-1-standard</t>
-  </si>
-  <si>
-    <t>https://www.10xgenomics.com/datasets/xenium-human-brain-preview-data-1-standard</t>
-  </si>
-  <si>
-    <t>https://www.10xgenomics.com/datasets/human-colon-preview-data-xenium-human-colon-gene-expression-panel-1-standard</t>
-  </si>
-  <si>
     <t>https://nanostring.com/products/cosmx-spatial-molecular-imager/ffpe-dataset/</t>
   </si>
   <si>
@@ -701,30 +689,6 @@
     <t>Ovary</t>
   </si>
   <si>
-    <t>Curio_ovary_1</t>
-  </si>
-  <si>
-    <t>Curio_ovary_2</t>
-  </si>
-  <si>
-    <t>Curio_ovary_3</t>
-  </si>
-  <si>
-    <t>Curio_ovary_4</t>
-  </si>
-  <si>
-    <t>Curio_ovary_5</t>
-  </si>
-  <si>
-    <t>Curio_ovary_6</t>
-  </si>
-  <si>
-    <t>Curio_ovary_7</t>
-  </si>
-  <si>
-    <t>Curio_ovary_8</t>
-  </si>
-  <si>
     <t>Visium_HD</t>
   </si>
   <si>
@@ -780,6 +744,147 @@
   </si>
   <si>
     <t>PV_workflow_comparison</t>
+  </si>
+  <si>
+    <t>https://zm1pqa.bl.files.1drv.com/y4myEmeEhGhWGjoKCr7rBCm0r1Doj8zyHCTAZnkblVKq2toSeza6vQBxzAKiW0xu3Ki9oxBjNQsTBvic3q5si4Npj9d8gt99fUX7CLHUxRSKg9Lz1N3rWFZVEjwAmrbguYYqaXF9pKZJDpyeSjjuDhSnL6wUvtUTYFVV3_00eLIpzx2VnL49oJU0RyU7SUKtbbkFG-WXlYlMa0OFlhwUxa47Q</t>
+  </si>
+  <si>
+    <t>Xenium_pancreas</t>
+  </si>
+  <si>
+    <t>https://ael2ng.bl.files.1drv.com/y4mY5Lk4ZFIdfvWU6ClNNHQGeE8wL4mSrgDPxUSBlVk36RZFC3z_7B561f95IFDQl68L4Roc8t1azkz_2N0X01JyS8yzzH_E6wKvPfjOb3M_vgwkuPWwL9P55N1ulRh6s6OviTm-nfvWKzR1LY6lwRYkIvspJKBdhhzc2qndnPlejNgJK2cp3-ZF3M7vxDOFFnjPBvuRU1KsfERQWykv_Kh-A</t>
+  </si>
+  <si>
+    <t>https://jsgq5w.bl.files.1drv.com/y4mqXEaeQKEPawSQk9wtLSe9LED3iD_PAhtF65xaeIM611ErKmtYKaonEEyyweVH5yRV8tEbJ4atRpUapAtWcH6-lz02Bc_aAzXZoJ2N-2fcyLGvHucrpzqgZSK-4tTitMjrH-1wvQaXIi2czBehxAqyhyDPn_7LEZUJeve61tBJrCcwGeBD0Jp2txB63GSOySEi7FGt0HfFitib3KJ8D1m4w</t>
+  </si>
+  <si>
+    <t>https://wnqboq.bl.files.1drv.com/y4mkeW11yB1rxyMMEZ_n0HZ4X7s-MiVBE5aol9ISYb1Cvi_tZFmap31QqlIffMF4xR2WgMzJBeI8N5oerJq1lRskmbIiZq8BFliWp7lRf6H-SHmFRj_Gic-7VIubZN_PvdQnlWdc9Gvz_gLJ-C5SaKLHCsDSympjLcqyOF_822dbrkEF6uvjxJ7qy_eKc_5lyJwKn4k3gMxv3Hk-n8egVLx7A</t>
+  </si>
+  <si>
+    <t>https://kt24iq.bl.files.1drv.com/y4mAEAL932He-j3hdPcawV9Ng-h8_L8PeyfgvyaeJHgN61JqR4qPph2Nyw9ooJt96UKvS1oAX9LY3psAsOev7i38Bca8pL2JwUafzPBCme000v68Ae0oh1TYhL2JKsWYAPdV6uNlLS1vFfMrOsK_Equ3YOI7ij5EOKOdbzRQqcIh1ySvRgoxoitoNH8O95zOyLGMc8x4j6BMEsapbE99qKh6w</t>
+  </si>
+  <si>
+    <t>https://s3-us-west-2.amazonaws.com/10x.files/samples/xenium/2.0.0/Xenium_V1_Human_Brain_GBM_FFPE/Xenium_V1_Human_Brain_GBM_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>Xenium_brain_2</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/1.4.0/Xenium_V1_FFPE_wildtype_13_4_months/Xenium_V1_FFPE_wildtype_13_4_months_outs.zip</t>
+  </si>
+  <si>
+    <t>Xenium_brain_1</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/1.9.0/Xenium_V1_hSkin_nondiseased_section_2_FFPE/Xenium_V1_hSkin_nondiseased_section_2_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>Xenium_skin</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-skin-data-xenium-human-multi-tissue-and-cancer-panel-1-standard</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/1.7.0/Xeniumranger_V1_hSkin_Melanoma_Add_on_FFPE/Xeniumranger_V1_hSkin_Melanoma_Add_on_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>Colon</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/2.0.0/Xenium_V1_mouse_Colon_FF/Xenium_V1_mouse_Colon_FF_outs.zip</t>
+  </si>
+  <si>
+    <t>Xenium_colon</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/fresh-frozen-mouse-colon-with-xenium-multimodal-cell-segmentation-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-lymph-node-preview-data-xenium-human-multi-tissue-and-cancer-panel-1-standard</t>
+  </si>
+  <si>
+    <t>Lymph node</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/1.5.0/Xenium_V1_hLymphNode_nondiseased_section/Xenium_V1_hLymphNode_nondiseased_section_outs.zip</t>
+  </si>
+  <si>
+    <t>Xenium_lymph_node</t>
+  </si>
+  <si>
+    <t>Xenium_melanoma</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-tonsil-data-xenium-human-multi-tissue-and-cancer-panel-1-standard</t>
+  </si>
+  <si>
+    <t>https://s3-us-west-2.amazonaws.com/10x.files/samples/xenium/1.9.0/Xenium_V1_hTonsil_reactive_follicular_hyperplasia_section_FFPE/Xenium_V1_hTonsil_reactive_follicular_hyperplasia_section_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>Xenium_tonsil</t>
+  </si>
+  <si>
+    <t>Tonsil</t>
+  </si>
+  <si>
+    <t>Vizgen_heart_1</t>
+  </si>
+  <si>
+    <t>Vizgen_heart_4</t>
+  </si>
+  <si>
+    <t>Vizgen_heart_3</t>
+  </si>
+  <si>
+    <t>Vizgen_heart_2</t>
+  </si>
+  <si>
+    <t>https://7awnfw.bl.files.1drv.com/y4moheclVrpZEFq-w41UzEX74vyhBFAbLT0v-JizO-Nn-PsiQy6GSWe6Mq0i4LdUE3BFLgUrUg01dxchnzaLULvvdrrvSXY9Q3gxWqFSrSYxN1H2sRwOirXm_cAmusjBZVj3S8bXMP52dFvu6BaFvVV3yYqUaj6alCWp853lQZL9xF0TkDwuYvJKax39wlK7JrW3ak3MvPGZXwU3T1oz5V87w</t>
+  </si>
+  <si>
+    <t>Curio_ovary_0hr</t>
+  </si>
+  <si>
+    <t>Curio_ovary_1hr</t>
+  </si>
+  <si>
+    <t>Curio_ovary_6hr</t>
+  </si>
+  <si>
+    <t>Curio_ovary_8hr</t>
+  </si>
+  <si>
+    <t>Curio_ovary_11hr</t>
+  </si>
+  <si>
+    <t>Curio_ovary_12hr</t>
+  </si>
+  <si>
+    <t>Curio_ovary_imature</t>
+  </si>
+  <si>
+    <t>Curio_ovary_4hr</t>
+  </si>
+  <si>
+    <t>https://ael1ng.bl.files.1drv.com/y4mhgOZB-8vy2uOVlNq7G6k8DlN-t6i3KD-1Oj6rG-X9Na1TG9dPPd8rHdvRhCEI0w8xT6jX6bTThMiAuVlEa-7Sw0q1VWSjEslPWX5N5gTc9zDa7cGOYmFb96SjjFJaVhWFb_CsZbVW4nuQtZW8mzJItQ4w1j6dDlKxkyyFr1NV9C2eytSmEXVtfeReoi5cH1uT9k5f3by_5M_GB-k2V_acw</t>
+  </si>
+  <si>
+    <t>https://jsgt5w.bl.files.1drv.com/y4mlpbeshxkyS_zuhROxeDpEsy2oldUViZmzcI4986IeaEEE0rzz549OVc-pVsKuAk-AyQzXirpRQOkcbxkOZpezYMYSUx0yTLmeJSU2D-ADDkCi8pLlA34E9Qv_njzhcROPoyObaNBZyzJGAMBxXixALzECGOwm50mPow8gjvVWn5Av5bUXUsqfHnD0S9LFSB9PRBZyYw1CXMy5WbQTGBTCA</t>
+  </si>
+  <si>
+    <t>https://kt27iq.bl.files.1drv.com/y4mSDFr2OUFILbCJXNiXxp6xOKE_s_XXIlhEd6ZXQmixBb2f-4RysXhAztTWMwh7K96cq4ItyMZbULdHdpIXvQHem053acVnnQQ9z52SKDs0Rj1jxEyzbtfA3CFE0lH8ibmcc56IiO8p_u0-5c4qBA_rWAv1X-UClF8E64Vhqa5xjffIMfwsqzzsDjsH3FxxUmzVuL3ejb4AlFu7q3jnPwBVA</t>
+  </si>
+  <si>
+    <t>https://ivz1xa.bl.files.1drv.com/y4mF9l410t3ONuT-rmzOnqfSHOnTt3lRdY3OQ3HwygSp0_FlHCTFtRCevWJT3Y65PRLK-nNwyrAvPzpL6TvmbGFFWS8ghX3VcDqvE_h86IGK_SENW2KAHu9cye9cryPkQL7G5f8Unfls2fWn4_VnuwiKdGpvsEVHNuG1hc-qjkUM83eoID5r7pdKsUNHJzaxHoA3jWmOTV83hrsw9lXs8MkFA</t>
+  </si>
+  <si>
+    <t>https://81nsra.bl.files.1drv.com/y4maJY8DWif45o4ZRAji09jIpAHjqjOlTtDSnAOZ1ECPU2iC3AELFSIvITlNGZTH_VeRv6bVWRbveq81O119b9IZLV0BU5HGlpl0XchYUzL8-SYvvBOsAn_uBETOhG35e50XC5BhE6rxyq3eCjUjs7b1h0MPLP2129REKTBNdyXjTTq3VRMVQhG7mZUHRcntC6c-haixThEsJh6yk3LFVjyWg</t>
+  </si>
+  <si>
+    <t>https://wnqeoq.bl.files.1drv.com/y4mX4_llIAUxcnNLddD81j4FSziPyezxCHIxbkIkZMudKYaE9U-oNuaVQXzYQSNjY8DW-C-oIflcg1ue3S0Calt-2XQ7H8KhCLHp7tAC8XWhvyMLX8jwtJyJGW5eTQC6t8ddReuijJ3tfwqMn4zMkN2PsO-iI9fT3-uttdc2KSd9gv5bjdgOuEF8Mq7qoJQGAVTImxOG3DzutA4PJIv2z54AQ</t>
   </si>
 </sst>
 </file>
@@ -1190,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1226,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1238,28 +1343,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1270,13 +1375,13 @@
         <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1294,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1317,13 +1422,13 @@
         <v>2023</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1364,13 +1469,13 @@
         <v>2023</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1388,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1411,19 +1516,19 @@
         <v>2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1435,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1458,19 +1563,19 @@
         <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1505,19 +1610,19 @@
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1552,19 +1657,19 @@
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1599,19 +1704,19 @@
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1623,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1646,19 +1751,19 @@
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1693,19 +1798,22 @@
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1737,19 +1845,22 @@
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1758,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1775,25 +1886,28 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B13">
         <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1819,25 +1933,28 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B14">
         <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1863,19 +1980,19 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>2024</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -1887,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1928,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1969,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1991,38 +2108,30 @@
       <c r="B18">
         <v>2023</v>
       </c>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>260</v>
+      </c>
+      <c r="E18" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" t="s">
+        <v>262</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -2033,13 +2142,19 @@
         <v>2023</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" t="s">
+        <v>259</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -2051,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2073,38 +2188,26 @@
       <c r="B20">
         <v>2023</v>
       </c>
-      <c r="D20" t="s">
-        <v>40</v>
+      <c r="E20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" t="s">
+        <v>245</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>1</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -2112,10 +2215,13 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>2023</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
+        <v>2024</v>
+      </c>
+      <c r="E21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" t="s">
+        <v>243</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -2126,96 +2232,63 @@
       <c r="I21" t="s">
         <v>12</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>52</v>
+        <v>2024</v>
+      </c>
+      <c r="E22" t="s">
+        <v>236</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>2023</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>50</v>
+      <c r="D23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" t="s">
+        <v>257</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -2227,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2242,30 +2315,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>2023</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>51</v>
+      <c r="D24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" t="s">
+        <v>252</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2274,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2289,42 +2362,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>2023</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>49</v>
+      <c r="D25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" t="s">
+        <v>247</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2336,45 +2409,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>2023</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -2383,30 +2456,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>2023</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>69</v>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -2417,11 +2487,14 @@
       <c r="K27">
         <v>0</v>
       </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2430,30 +2503,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>2023</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
@@ -2464,11 +2534,14 @@
       <c r="K28">
         <v>0</v>
       </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2477,45 +2550,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>2023</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" t="s">
-        <v>99</v>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2526,28 +2599,28 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>2023</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -2559,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2573,28 +2646,28 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>2023</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -2620,28 +2693,28 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>2023</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -2667,28 +2740,28 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>2023</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
@@ -2714,28 +2787,28 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>2023</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>
@@ -2746,8 +2819,11 @@
       <c r="K34">
         <v>0</v>
       </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2761,28 +2837,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>2023</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" t="s">
         <v>97</v>
       </c>
-      <c r="E35" t="s">
-        <v>105</v>
-      </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -2808,28 +2884,28 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>2023</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -2855,28 +2931,28 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>2023</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -2902,28 +2978,28 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>2023</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
@@ -2949,28 +3025,28 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>2023</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
@@ -2996,28 +3072,28 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>2023</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
@@ -3043,28 +3119,28 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>2023</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
@@ -3090,28 +3166,28 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42">
         <v>2023</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
@@ -3137,28 +3213,28 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
         <v>12</v>
@@ -3184,28 +3260,28 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s">
         <v>12</v>
@@ -3217,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3231,28 +3307,28 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s">
         <v>12</v>
@@ -3278,28 +3354,28 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46">
         <v>2023</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
@@ -3325,28 +3401,28 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>2023</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -3372,28 +3448,28 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48">
         <v>2023</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I48" t="s">
         <v>12</v>
@@ -3419,28 +3495,28 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>2023</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -3466,28 +3542,28 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>2023</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s">
         <v>12</v>
@@ -3513,28 +3589,28 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>2023</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s">
         <v>12</v>
@@ -3545,8 +3621,11 @@
       <c r="K51">
         <v>0</v>
       </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3560,28 +3639,28 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>2023</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I52" t="s">
         <v>12</v>
@@ -3607,28 +3686,28 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>2023</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
@@ -3654,28 +3733,31 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>2023</v>
       </c>
+      <c r="C54" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D54" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
+      </c>
+      <c r="E54" t="s">
+        <v>115</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3684,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -3697,175 +3779,208 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55">
+        <v>2023</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56">
+        <v>2023</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57">
+        <v>2023</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <v>2023</v>
+      </c>
+      <c r="D58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>196</v>
+      </c>
+      <c r="F59" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59" t="s">
         <v>33</v>
-      </c>
-      <c r="E55" t="s">
-        <v>200</v>
-      </c>
-      <c r="F55" t="s">
-        <v>191</v>
-      </c>
-      <c r="G55" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" t="s">
-        <v>201</v>
-      </c>
-      <c r="F56" t="s">
-        <v>192</v>
-      </c>
-      <c r="G56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H56" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" t="s">
-        <v>11</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" t="s">
-        <v>202</v>
-      </c>
-      <c r="F57" t="s">
-        <v>193</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
-      <c r="H57" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" t="s">
-        <v>203</v>
-      </c>
-      <c r="F58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G58" t="s">
-        <v>34</v>
-      </c>
-      <c r="H58" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" t="s">
-        <v>204</v>
-      </c>
-      <c r="F59" t="s">
-        <v>195</v>
-      </c>
-      <c r="G59" t="s">
-        <v>34</v>
       </c>
       <c r="H59" t="s">
         <v>10</v>
@@ -3873,406 +3988,529 @@
       <c r="I59" t="s">
         <v>11</v>
       </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>197</v>
+      </c>
       <c r="F60" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H60" t="s">
-        <v>220</v>
+        <v>10</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" t="s">
+        <v>198</v>
+      </c>
       <c r="F61" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H61" t="s">
-        <v>220</v>
+        <v>10</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>199</v>
+      </c>
       <c r="F62" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H62" t="s">
-        <v>220</v>
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="s">
+        <v>200</v>
+      </c>
       <c r="F63" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63" t="s">
-        <v>220</v>
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>268</v>
+      </c>
       <c r="F64" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64" t="s">
-        <v>220</v>
+        <v>216</v>
+      </c>
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>277</v>
+      </c>
       <c r="F65" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H65" t="s">
-        <v>220</v>
+        <v>216</v>
+      </c>
+      <c r="I65" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F66" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" t="s">
+        <v>216</v>
+      </c>
+      <c r="I66" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>278</v>
+      </c>
+      <c r="F67" t="s">
+        <v>271</v>
+      </c>
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" t="s">
+        <v>216</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>279</v>
+      </c>
+      <c r="F68" t="s">
+        <v>272</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s">
+        <v>216</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>280</v>
+      </c>
+      <c r="F69" t="s">
+        <v>273</v>
+      </c>
+      <c r="G69" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" t="s">
+        <v>216</v>
+      </c>
+      <c r="I69" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>281</v>
+      </c>
+      <c r="F70" t="s">
+        <v>274</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" t="s">
+        <v>216</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F71" t="s">
+        <v>275</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" t="s">
+        <v>216</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>2023</v>
+      </c>
+      <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" t="s">
+        <v>174</v>
+      </c>
+      <c r="G72" t="s">
         <v>34</v>
       </c>
-      <c r="H66" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F67" t="s">
-        <v>228</v>
-      </c>
-      <c r="G67" t="s">
-        <v>34</v>
-      </c>
-      <c r="H67" t="s">
-        <v>220</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B68">
-        <v>2023</v>
-      </c>
-      <c r="D68" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" t="s">
-        <v>175</v>
-      </c>
-      <c r="F68" t="s">
-        <v>178</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="H72" t="s">
         <v>35</v>
       </c>
-      <c r="H68" t="s">
-        <v>36</v>
-      </c>
-      <c r="I68" t="s">
-        <v>11</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69">
-        <v>2023</v>
-      </c>
-      <c r="D69" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" t="s">
-        <v>176</v>
-      </c>
-      <c r="F69" t="s">
-        <v>179</v>
-      </c>
-      <c r="G69" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" t="s">
-        <v>36</v>
-      </c>
-      <c r="I69" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>173</v>
-      </c>
-      <c r="B70">
-        <v>2023</v>
-      </c>
-      <c r="D70" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" t="s">
-        <v>177</v>
-      </c>
-      <c r="F70" t="s">
-        <v>180</v>
-      </c>
-      <c r="G70" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" t="s">
-        <v>36</v>
-      </c>
-      <c r="I70" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71">
-        <v>2024</v>
-      </c>
-      <c r="D71" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" t="s">
-        <v>56</v>
-      </c>
-      <c r="F71" t="s">
-        <v>181</v>
-      </c>
-      <c r="G71" t="s">
-        <v>229</v>
-      </c>
-      <c r="H71" t="s">
-        <v>123</v>
-      </c>
-      <c r="I71" t="s">
-        <v>11</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72">
-        <v>2024</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F72" t="s">
-        <v>182</v>
-      </c>
-      <c r="G72" t="s">
-        <v>229</v>
-      </c>
-      <c r="H72" t="s">
-        <v>124</v>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
       <c r="O72">
         <v>0</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="B73">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="F73" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G73" t="s">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="H73" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="I73" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
       <c r="O73">
         <v>0</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="B74">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="D74" t="s">
+        <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="F74" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G74" t="s">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="H74" t="s">
-        <v>126</v>
+        <v>35</v>
+      </c>
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
       <c r="O74">
         <v>0</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="B75">
         <v>2024</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E75" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>185</v>
+        <v>52</v>
+      </c>
+      <c r="F75" t="s">
+        <v>177</v>
       </c>
       <c r="G75" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H75" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I75" t="s">
         <v>11</v>
@@ -4297,17 +4535,17 @@
       <c r="B76">
         <v>2024</v>
       </c>
-      <c r="E76" t="s">
-        <v>190</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>186</v>
+      <c r="E76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F76" t="s">
+        <v>178</v>
       </c>
       <c r="G76" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H76" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4330,19 +4568,28 @@
         <v>2024</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>187</v>
+        <v>40</v>
+      </c>
+      <c r="E77" t="s">
+        <v>53</v>
+      </c>
+      <c r="F77" t="s">
+        <v>179</v>
       </c>
       <c r="G77" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H77" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I77" t="s">
         <v>12</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -4358,14 +4605,23 @@
       <c r="B78">
         <v>2024</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>188</v>
+      <c r="E78" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78" t="s">
+        <v>180</v>
       </c>
       <c r="G78" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H78" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -4376,24 +4632,33 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>18</v>
+      </c>
+      <c r="B79">
+        <v>2024</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>59</v>
-      </c>
-      <c r="F79" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="H79" t="s">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="I79" t="s">
+        <v>11</v>
       </c>
       <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
         <v>1</v>
       </c>
       <c r="O79">
@@ -4405,22 +4670,28 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" t="s">
-        <v>218</v>
+        <v>18</v>
+      </c>
+      <c r="B80">
+        <v>2024</v>
       </c>
       <c r="E80" t="s">
-        <v>210</v>
-      </c>
-      <c r="F80" t="s">
-        <v>205</v>
+        <v>186</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="H80" t="s">
-        <v>21</v>
+        <v>124</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -4431,22 +4702,28 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>18</v>
+      </c>
+      <c r="B81">
+        <v>2024</v>
       </c>
       <c r="D81" t="s">
-        <v>218</v>
-      </c>
-      <c r="E81" t="s">
-        <v>211</v>
-      </c>
-      <c r="F81" t="s">
-        <v>206</v>
+        <v>42</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="H81" t="s">
-        <v>216</v>
+        <v>125</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -4457,24 +4734,21 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>47</v>
-      </c>
-      <c r="D82" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" t="s">
-        <v>212</v>
-      </c>
-      <c r="F82" t="s">
-        <v>207</v>
+        <v>18</v>
+      </c>
+      <c r="B82">
+        <v>2024</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="H82" t="s">
-        <v>217</v>
-      </c>
-      <c r="M82">
+        <v>126</v>
+      </c>
+      <c r="L82">
         <v>1</v>
       </c>
       <c r="O82">
@@ -4486,22 +4760,22 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E83" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="F83" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H83" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -4515,22 +4789,25 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E84" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F84" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G84" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H84" t="s">
-        <v>215</v>
+        <v>20</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -4541,16 +4818,25 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D85" t="s">
+        <v>214</v>
+      </c>
+      <c r="E85" t="s">
+        <v>207</v>
+      </c>
+      <c r="F85" t="s">
+        <v>202</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
-      </c>
-      <c r="I85" t="s">
-        <v>12</v>
+        <v>212</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -4561,16 +4847,28 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" t="s">
+        <v>203</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H86" t="s">
-        <v>48</v>
-      </c>
-      <c r="I86" t="s">
-        <v>12</v>
+        <v>213</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -4581,16 +4879,25 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D87" t="s">
+        <v>215</v>
+      </c>
+      <c r="E87" t="s">
+        <v>209</v>
+      </c>
+      <c r="F87" t="s">
+        <v>204</v>
       </c>
       <c r="G87" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H87" t="s">
-        <v>48</v>
-      </c>
-      <c r="I87" t="s">
-        <v>12</v>
+        <v>211</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -4601,16 +4908,28 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D88" t="s">
+        <v>215</v>
+      </c>
+      <c r="E88" t="s">
+        <v>210</v>
+      </c>
+      <c r="F88" t="s">
+        <v>205</v>
       </c>
       <c r="G88" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H88" t="s">
-        <v>48</v>
-      </c>
-      <c r="I88" t="s">
-        <v>12</v>
+        <v>211</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -4618,25 +4937,28 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>230</v>
-      </c>
-      <c r="B89">
-        <v>2023</v>
-      </c>
-      <c r="D89" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H89" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I89" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -4644,22 +4966,28 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>47</v>
-      </c>
-      <c r="D90" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H90" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I90" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -4667,25 +4995,28 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>47</v>
-      </c>
-      <c r="D91" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H91" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -4693,33 +5024,48 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>47</v>
-      </c>
-      <c r="D92" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H92" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="B93">
+        <v>2023</v>
+      </c>
+      <c r="D93" t="s">
+        <v>223</v>
+      </c>
+      <c r="E93" t="s">
+        <v>238</v>
+      </c>
+      <c r="F93" t="s">
+        <v>219</v>
       </c>
       <c r="G93" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H93" t="s">
         <v>10</v>
@@ -4727,13 +5073,28 @@
       <c r="I93" t="s">
         <v>11</v>
       </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>218</v>
+      </c>
+      <c r="D94" t="s">
+        <v>223</v>
+      </c>
+      <c r="E94" t="s">
+        <v>239</v>
+      </c>
+      <c r="F94" t="s">
+        <v>220</v>
       </c>
       <c r="G94" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H94" t="s">
         <v>10</v>
@@ -4741,13 +5102,28 @@
       <c r="I94" t="s">
         <v>11</v>
       </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D95" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95" t="s">
+        <v>240</v>
+      </c>
+      <c r="F95" t="s">
+        <v>221</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H95" t="s">
         <v>10</v>
@@ -4755,13 +5131,28 @@
       <c r="I95" t="s">
         <v>11</v>
       </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D96" t="s">
+        <v>223</v>
+      </c>
+      <c r="E96" t="s">
+        <v>241</v>
+      </c>
+      <c r="F96" t="s">
+        <v>222</v>
       </c>
       <c r="G96" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H96" t="s">
         <v>10</v>
@@ -4769,13 +5160,16 @@
       <c r="I96" t="s">
         <v>11</v>
       </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H97" t="s">
         <v>10</v>
@@ -4786,10 +5180,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s">
         <v>10</v>
@@ -4800,10 +5194,10 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s">
         <v>10</v>
@@ -4811,16 +5205,13 @@
       <c r="I99" t="s">
         <v>11</v>
       </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H100" t="s">
         <v>10</v>
@@ -4828,16 +5219,13 @@
       <c r="I100" t="s">
         <v>11</v>
       </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H101" t="s">
         <v>10</v>
@@ -4845,16 +5233,13 @@
       <c r="I101" t="s">
         <v>11</v>
       </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H102" t="s">
         <v>10</v>
@@ -4862,16 +5247,13 @@
       <c r="I102" t="s">
         <v>11</v>
       </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H103" t="s">
         <v>10</v>
@@ -4885,10 +5267,10 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H104" t="s">
         <v>10</v>
@@ -4902,10 +5284,10 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H105" t="s">
         <v>10</v>
@@ -4919,10 +5301,10 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H106" t="s">
         <v>10</v>
@@ -4936,10 +5318,10 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H107" t="s">
         <v>10</v>
@@ -4953,10 +5335,10 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H108" t="s">
         <v>10</v>
@@ -4970,10 +5352,10 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H109" t="s">
         <v>10</v>
@@ -4987,10 +5369,10 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H110" t="s">
         <v>10</v>
@@ -5004,10 +5386,10 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H111" t="s">
         <v>10</v>
@@ -5021,10 +5403,10 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H112" t="s">
         <v>10</v>
@@ -5038,10 +5420,10 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H113" t="s">
         <v>10</v>
@@ -5055,10 +5437,10 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H114" t="s">
         <v>10</v>
@@ -5072,10 +5454,10 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H115" t="s">
         <v>10</v>
@@ -5089,10 +5471,10 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H116" t="s">
         <v>10</v>
@@ -5106,10 +5488,10 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H117" t="s">
         <v>10</v>
@@ -5123,10 +5505,10 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H118" t="s">
         <v>10</v>
@@ -5140,10 +5522,10 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H119" t="s">
         <v>10</v>
@@ -5157,10 +5539,10 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H120" t="s">
         <v>10</v>
@@ -5174,10 +5556,10 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H121" t="s">
         <v>10</v>
@@ -5191,10 +5573,10 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H122" t="s">
         <v>10</v>
@@ -5208,10 +5590,10 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H123" t="s">
         <v>10</v>
@@ -5225,10 +5607,10 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H124" t="s">
         <v>10</v>
@@ -5242,10 +5624,10 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H125" t="s">
         <v>10</v>
@@ -5259,10 +5641,10 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H126" t="s">
         <v>10</v>
@@ -5276,10 +5658,10 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H127" t="s">
         <v>10</v>
@@ -5293,10 +5675,10 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H128" t="s">
         <v>10</v>
@@ -5310,22 +5692,10 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>172</v>
-      </c>
-      <c r="B129">
-        <v>2024</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D129" t="s">
-        <v>156</v>
-      </c>
-      <c r="F129" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H129" t="s">
         <v>10</v>
@@ -5334,27 +5704,15 @@
         <v>11</v>
       </c>
       <c r="P129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>172</v>
-      </c>
-      <c r="B130">
-        <v>2024</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D130" t="s">
-        <v>157</v>
-      </c>
-      <c r="F130" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H130" t="s">
         <v>10</v>
@@ -5363,27 +5721,15 @@
         <v>11</v>
       </c>
       <c r="P130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>172</v>
-      </c>
-      <c r="B131">
-        <v>2024</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D131" t="s">
-        <v>158</v>
-      </c>
-      <c r="F131" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H131" t="s">
         <v>10</v>
@@ -5392,27 +5738,15 @@
         <v>11</v>
       </c>
       <c r="P131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>172</v>
-      </c>
-      <c r="B132">
-        <v>2024</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D132" t="s">
-        <v>159</v>
-      </c>
-      <c r="F132" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H132" t="s">
         <v>10</v>
@@ -5421,27 +5755,27 @@
         <v>11</v>
       </c>
       <c r="P132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="B133">
         <v>2024</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D133" t="s">
+        <v>152</v>
+      </c>
+      <c r="F133" t="s">
         <v>160</v>
       </c>
-      <c r="F133" t="s">
-        <v>168</v>
-      </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133" t="s">
         <v>10</v>
@@ -5455,22 +5789,22 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B134">
         <v>2024</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D134" t="s">
+        <v>153</v>
+      </c>
+      <c r="F134" t="s">
         <v>161</v>
       </c>
-      <c r="F134" t="s">
-        <v>169</v>
-      </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134" t="s">
         <v>10</v>
@@ -5484,22 +5818,22 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B135">
         <v>2024</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D135" t="s">
+        <v>154</v>
+      </c>
+      <c r="F135" t="s">
         <v>162</v>
       </c>
-      <c r="F135" t="s">
-        <v>170</v>
-      </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H135" t="s">
         <v>10</v>
@@ -5513,22 +5847,22 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B136">
         <v>2024</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D136" t="s">
         <v>155</v>
       </c>
-      <c r="D136" t="s">
+      <c r="F136" t="s">
         <v>163</v>
       </c>
-      <c r="F136" t="s">
-        <v>171</v>
-      </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H136" t="s">
         <v>10</v>
@@ -5538,6 +5872,127 @@
       </c>
       <c r="P136">
         <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>168</v>
+      </c>
+      <c r="B137">
+        <v>2024</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D137" t="s">
+        <v>156</v>
+      </c>
+      <c r="F137" t="s">
+        <v>164</v>
+      </c>
+      <c r="G137" t="s">
+        <v>29</v>
+      </c>
+      <c r="H137" t="s">
+        <v>10</v>
+      </c>
+      <c r="I137" t="s">
+        <v>11</v>
+      </c>
+      <c r="P137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>168</v>
+      </c>
+      <c r="B138">
+        <v>2024</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D138" t="s">
+        <v>157</v>
+      </c>
+      <c r="F138" t="s">
+        <v>165</v>
+      </c>
+      <c r="G138" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" t="s">
+        <v>11</v>
+      </c>
+      <c r="P138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>168</v>
+      </c>
+      <c r="B139">
+        <v>2024</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D139" t="s">
+        <v>158</v>
+      </c>
+      <c r="F139" t="s">
+        <v>166</v>
+      </c>
+      <c r="G139" t="s">
+        <v>29</v>
+      </c>
+      <c r="H139" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" t="s">
+        <v>11</v>
+      </c>
+      <c r="P139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140">
+        <v>2024</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D140" t="s">
+        <v>159</v>
+      </c>
+      <c r="F140" t="s">
+        <v>167</v>
+      </c>
+      <c r="G140" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" t="s">
+        <v>11</v>
+      </c>
+      <c r="P140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5545,37 +6000,37 @@
   <hyperlinks>
     <hyperlink ref="C16" r:id="rId1" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{EBB9E06F-3785-BF48-AD54-F663DAAD66E3}"/>
     <hyperlink ref="C17" r:id="rId2" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{DB028E2E-514E-B24E-B12A-54BF19CC098C}"/>
-    <hyperlink ref="C26" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
-    <hyperlink ref="E25" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
-    <hyperlink ref="E22" r:id="rId5" xr:uid="{5BA81582-EC37-0D4D-B7A9-7AF8598A9DF2}"/>
-    <hyperlink ref="C27" r:id="rId6" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{8F9A199E-EC71-B249-AF59-FF24DB4609B1}"/>
-    <hyperlink ref="C28" r:id="rId7" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{853F30D2-01D5-1548-B4FF-52D758F3D556}"/>
-    <hyperlink ref="C29" r:id="rId8" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C48DB5F5-21AE-CE4D-BB27-7CF2B2B712A7}"/>
-    <hyperlink ref="C30" r:id="rId9" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9ED5901C-DC91-CC49-A723-A9C49A700057}"/>
-    <hyperlink ref="C31" r:id="rId10" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{681B51E0-45E0-AF4A-A5EE-28748A165692}"/>
-    <hyperlink ref="C32" r:id="rId11" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{BA262E0F-F122-CE49-B193-E111B00E4D19}"/>
-    <hyperlink ref="C33" r:id="rId12" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2C9985A0-6AD7-9A41-9565-94AA54B8F20A}"/>
-    <hyperlink ref="C34" r:id="rId13" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{42C6419B-1F9C-464D-942C-629DBE1A763F}"/>
-    <hyperlink ref="C35" r:id="rId14" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFF16103-3C13-2B47-B8FA-7ED24283F351}"/>
-    <hyperlink ref="C36" r:id="rId15" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{E38CC7D2-2BD2-AC45-99BE-32F76871EC00}"/>
-    <hyperlink ref="C37" r:id="rId16" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C9FC1701-99F3-314F-8A4C-4CCCDD235EA2}"/>
-    <hyperlink ref="C38" r:id="rId17" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EC4E26BD-F1A6-2647-A8E9-40DA20AB83BF}"/>
-    <hyperlink ref="C39" r:id="rId18" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{B86C6F60-6096-CD42-B6D4-337F4666A137}"/>
-    <hyperlink ref="C40" r:id="rId19" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{33B4FEAD-F100-6845-A5C0-78998BA2E0AD}"/>
-    <hyperlink ref="C41" r:id="rId20" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{A7F28363-67D9-DE4F-8511-F087659BD3BB}"/>
-    <hyperlink ref="C42" r:id="rId21" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C7DDCDCC-39CA-5A4A-9204-AC06FD62324C}"/>
-    <hyperlink ref="C43" r:id="rId22" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CDD3098C-5532-2243-91DE-779275449D7C}"/>
-    <hyperlink ref="C44" r:id="rId23" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2FDC7CE7-0E8D-7A43-B2CB-F08FEB0D0C86}"/>
-    <hyperlink ref="C45" r:id="rId24" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{3EAD12EB-7FAA-6644-8CD0-282CF442DD5F}"/>
-    <hyperlink ref="C46" r:id="rId25" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{37ED5057-FB64-104D-A1AD-880EE76BBBF6}"/>
-    <hyperlink ref="C47" r:id="rId26" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{919807C3-656E-5541-AC46-175D90A0E650}"/>
-    <hyperlink ref="C48" r:id="rId27" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFD73339-E4A6-F444-95CC-E5EF5306A91D}"/>
-    <hyperlink ref="C49" r:id="rId28" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{DE5BB967-701B-3A4E-9953-5C391D746A0E}"/>
-    <hyperlink ref="C50" r:id="rId29" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9D9F29E0-C81C-7B44-9831-E6853C80A7FA}"/>
-    <hyperlink ref="C51" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
-    <hyperlink ref="C52" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
-    <hyperlink ref="C53" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
-    <hyperlink ref="E72" r:id="rId33" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
+    <hyperlink ref="C30" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
+    <hyperlink ref="E29" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
+    <hyperlink ref="E26" r:id="rId5" xr:uid="{5BA81582-EC37-0D4D-B7A9-7AF8598A9DF2}"/>
+    <hyperlink ref="C31" r:id="rId6" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{8F9A199E-EC71-B249-AF59-FF24DB4609B1}"/>
+    <hyperlink ref="C32" r:id="rId7" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{853F30D2-01D5-1548-B4FF-52D758F3D556}"/>
+    <hyperlink ref="C33" r:id="rId8" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C48DB5F5-21AE-CE4D-BB27-7CF2B2B712A7}"/>
+    <hyperlink ref="C34" r:id="rId9" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9ED5901C-DC91-CC49-A723-A9C49A700057}"/>
+    <hyperlink ref="C35" r:id="rId10" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{681B51E0-45E0-AF4A-A5EE-28748A165692}"/>
+    <hyperlink ref="C36" r:id="rId11" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{BA262E0F-F122-CE49-B193-E111B00E4D19}"/>
+    <hyperlink ref="C37" r:id="rId12" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2C9985A0-6AD7-9A41-9565-94AA54B8F20A}"/>
+    <hyperlink ref="C38" r:id="rId13" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{42C6419B-1F9C-464D-942C-629DBE1A763F}"/>
+    <hyperlink ref="C39" r:id="rId14" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFF16103-3C13-2B47-B8FA-7ED24283F351}"/>
+    <hyperlink ref="C40" r:id="rId15" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{E38CC7D2-2BD2-AC45-99BE-32F76871EC00}"/>
+    <hyperlink ref="C41" r:id="rId16" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C9FC1701-99F3-314F-8A4C-4CCCDD235EA2}"/>
+    <hyperlink ref="C42" r:id="rId17" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EC4E26BD-F1A6-2647-A8E9-40DA20AB83BF}"/>
+    <hyperlink ref="C43" r:id="rId18" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{B86C6F60-6096-CD42-B6D4-337F4666A137}"/>
+    <hyperlink ref="C44" r:id="rId19" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{33B4FEAD-F100-6845-A5C0-78998BA2E0AD}"/>
+    <hyperlink ref="C45" r:id="rId20" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{A7F28363-67D9-DE4F-8511-F087659BD3BB}"/>
+    <hyperlink ref="C46" r:id="rId21" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C7DDCDCC-39CA-5A4A-9204-AC06FD62324C}"/>
+    <hyperlink ref="C47" r:id="rId22" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CDD3098C-5532-2243-91DE-779275449D7C}"/>
+    <hyperlink ref="C48" r:id="rId23" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2FDC7CE7-0E8D-7A43-B2CB-F08FEB0D0C86}"/>
+    <hyperlink ref="C49" r:id="rId24" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{3EAD12EB-7FAA-6644-8CD0-282CF442DD5F}"/>
+    <hyperlink ref="C50" r:id="rId25" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{37ED5057-FB64-104D-A1AD-880EE76BBBF6}"/>
+    <hyperlink ref="C51" r:id="rId26" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{919807C3-656E-5541-AC46-175D90A0E650}"/>
+    <hyperlink ref="C52" r:id="rId27" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFD73339-E4A6-F444-95CC-E5EF5306A91D}"/>
+    <hyperlink ref="C53" r:id="rId28" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{DE5BB967-701B-3A4E-9953-5C391D746A0E}"/>
+    <hyperlink ref="C54" r:id="rId29" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9D9F29E0-C81C-7B44-9831-E6853C80A7FA}"/>
+    <hyperlink ref="C55" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
+    <hyperlink ref="C56" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
+    <hyperlink ref="C57" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
+    <hyperlink ref="E76" r:id="rId33" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
     <hyperlink ref="E2" r:id="rId34" xr:uid="{E191A043-72B0-CC4E-9B58-FE4C461D40C9}"/>
     <hyperlink ref="C14" r:id="rId35" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{88E6D632-2160-2B4D-AD77-9459075894C4}"/>
     <hyperlink ref="C13" r:id="rId36" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{ED18E71A-43E8-A644-BA73-C69B86D50DCF}"/>
@@ -5587,15 +6042,15 @@
     <hyperlink ref="C10" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
     <hyperlink ref="C11" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
     <hyperlink ref="C12" r:id="rId44" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
-    <hyperlink ref="C129" r:id="rId45" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
-    <hyperlink ref="C130" r:id="rId46" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
-    <hyperlink ref="C131" r:id="rId47" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
-    <hyperlink ref="C132" r:id="rId48" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
-    <hyperlink ref="C133" r:id="rId49" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
-    <hyperlink ref="C134" r:id="rId50" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
-    <hyperlink ref="C135" r:id="rId51" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
-    <hyperlink ref="C136" r:id="rId52" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
-    <hyperlink ref="E54" r:id="rId53" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
+    <hyperlink ref="C133" r:id="rId45" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C134" r:id="rId46" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C135" r:id="rId47" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C136" r:id="rId48" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C137" r:id="rId49" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C138" r:id="rId50" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C139" r:id="rId51" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C140" r:id="rId52" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="E58" r:id="rId53" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B97AF-BAA6-7844-8F37-36FCA09E5D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D1B955-929C-E742-91F9-0FEFABE89C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="283">
   <si>
     <t>Author</t>
   </si>
@@ -485,9 +485,6 @@
     <t>Allen_Brain_Merfish</t>
   </si>
   <si>
-    <t>Dataset_merge_seqfish</t>
-  </si>
-  <si>
     <t>Dataset_merge_visium</t>
   </si>
   <si>
@@ -885,6 +882,9 @@
   </si>
   <si>
     <t>https://wnqeoq.bl.files.1drv.com/y4mX4_llIAUxcnNLddD81j4FSziPyezxCHIxbkIkZMudKYaE9U-oNuaVQXzYQSNjY8DW-C-oIflcg1ue3S0Calt-2XQ7H8KhCLHp7tAC8XWhvyMLX8jwtJyJGW5eTQC6t8ddReuijJ3tfwqMn4zMkN2PsO-iI9fT3-uttdc2KSd9gv5bjdgOuEF8Mq7qoJQGAVTImxOG3DzutA4PJIv2z54AQ</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41586-024-07171-z</t>
   </si>
 </sst>
 </file>
@@ -1295,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:Q141"/>
+  <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,7 +1314,7 @@
     <col min="15" max="15" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>148</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>147</v>
@@ -1363,11 +1363,8 @@
       <c r="P1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1458,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1475,7 +1472,7 @@
         <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1508,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +1516,7 @@
         <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F5" t="s">
         <v>135</v>
@@ -1555,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1563,7 @@
         <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
         <v>136</v>
@@ -1602,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1610,7 @@
         <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F7" t="s">
         <v>137</v>
@@ -1649,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1657,7 @@
         <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
         <v>138</v>
@@ -1696,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1707,7 +1704,7 @@
         <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
         <v>139</v>
@@ -1743,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1754,10 +1751,10 @@
         <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
         <v>133</v>
@@ -1790,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F11" t="s">
         <v>140</v>
@@ -1837,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1845,7 @@
         <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F12" t="s">
         <v>141</v>
@@ -1884,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -1895,10 +1892,10 @@
         <v>142</v>
       </c>
       <c r="E13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" t="s">
         <v>192</v>
-      </c>
-      <c r="F13" t="s">
-        <v>193</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1931,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -1942,10 +1939,10 @@
         <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1978,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2019,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2110,19 +2107,19 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" t="s">
         <v>260</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>261</v>
-      </c>
-      <c r="F18" t="s">
-        <v>262</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -2132,6 +2129,9 @@
       </c>
       <c r="M18">
         <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -2145,10 +2145,10 @@
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -2189,10 +2189,10 @@
         <v>2023</v>
       </c>
       <c r="E20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" t="s">
         <v>244</v>
-      </c>
-      <c r="F20" t="s">
-        <v>245</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -2207,6 +2207,9 @@
         <v>1</v>
       </c>
       <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>1</v>
       </c>
     </row>
@@ -2218,10 +2221,10 @@
         <v>2024</v>
       </c>
       <c r="E21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" t="s">
         <v>242</v>
-      </c>
-      <c r="F21" t="s">
-        <v>243</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -2247,10 +2250,10 @@
         <v>2024</v>
       </c>
       <c r="E22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" t="s">
         <v>236</v>
-      </c>
-      <c r="F22" t="s">
-        <v>237</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -2276,19 +2279,19 @@
         <v>2023</v>
       </c>
       <c r="D23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" t="s">
         <v>257</v>
-      </c>
-      <c r="F23" t="s">
-        <v>258</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -2323,19 +2326,19 @@
         <v>2023</v>
       </c>
       <c r="D24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" t="s">
         <v>252</v>
-      </c>
-      <c r="F24" t="s">
-        <v>253</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -2370,19 +2373,19 @@
         <v>2023</v>
       </c>
       <c r="D25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" t="s">
         <v>247</v>
-      </c>
-      <c r="F25" t="s">
-        <v>248</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -3319,7 +3322,7 @@
         <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
         <v>80</v>
@@ -3927,7 +3930,7 @@
         <v>2023</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>63</v>
@@ -3974,10 +3977,10 @@
         <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -4015,10 +4018,10 @@
         <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G60" t="s">
         <v>33</v>
@@ -4056,10 +4059,10 @@
         <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -4094,10 +4097,10 @@
         <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -4135,10 +4138,10 @@
         <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -4158,16 +4161,16 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" t="s">
         <v>268</v>
-      </c>
-      <c r="F64" t="s">
-        <v>269</v>
       </c>
       <c r="G64" t="s">
         <v>33</v>
       </c>
       <c r="H64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I64" t="s">
         <v>11</v>
@@ -4181,16 +4184,16 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
       </c>
       <c r="H65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I65" t="s">
         <v>11</v>
@@ -4204,13 +4207,13 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
       </c>
       <c r="H66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I66" t="s">
         <v>11</v>
@@ -4224,16 +4227,16 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
       </c>
       <c r="H67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I67" t="s">
         <v>11</v>
@@ -4247,16 +4250,16 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I68" t="s">
         <v>11</v>
@@ -4270,16 +4273,16 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
       </c>
       <c r="H69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I69" t="s">
         <v>11</v>
@@ -4293,16 +4296,16 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
       </c>
       <c r="H70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I70" t="s">
         <v>11</v>
@@ -4316,16 +4319,16 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
       </c>
       <c r="H71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I71" t="s">
         <v>11</v>
@@ -4360,10 +4363,10 @@
         <v>38</v>
       </c>
       <c r="E72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G72" t="s">
         <v>34</v>
@@ -4393,12 +4396,12 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B73">
         <v>2023</v>
@@ -4407,10 +4410,10 @@
         <v>38</v>
       </c>
       <c r="E73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -4440,12 +4443,12 @@
         <v>0</v>
       </c>
       <c r="P73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B74">
         <v>2023</v>
@@ -4454,10 +4457,10 @@
         <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -4487,12 +4490,12 @@
         <v>0</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B75">
         <v>2024</v>
@@ -4504,10 +4507,10 @@
         <v>52</v>
       </c>
       <c r="F75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H75" t="s">
         <v>119</v>
@@ -4525,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -4539,10 +4542,10 @@
         <v>127</v>
       </c>
       <c r="F76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H76" t="s">
         <v>120</v>
@@ -4574,10 +4577,10 @@
         <v>53</v>
       </c>
       <c r="F77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H77" t="s">
         <v>121</v>
@@ -4606,13 +4609,13 @@
         <v>2024</v>
       </c>
       <c r="E78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H78" t="s">
         <v>122</v>
@@ -4644,10 +4647,10 @@
         <v>54</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H79" t="s">
         <v>123</v>
@@ -4676,13 +4679,13 @@
         <v>2024</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H80" t="s">
         <v>124</v>
@@ -4711,10 +4714,10 @@
         <v>42</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H81" t="s">
         <v>125</v>
@@ -4740,10 +4743,10 @@
         <v>2024</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H82" t="s">
         <v>126</v>
@@ -4763,7 +4766,7 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E83" t="s">
         <v>55</v>
@@ -4784,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -4792,13 +4795,13 @@
         <v>43</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G84" t="s">
         <v>43</v>
@@ -4821,19 +4824,19 @@
         <v>43</v>
       </c>
       <c r="D85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G85" t="s">
         <v>43</v>
       </c>
       <c r="H85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -4850,19 +4853,19 @@
         <v>43</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G86" t="s">
         <v>43</v>
       </c>
       <c r="H86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -4882,19 +4885,19 @@
         <v>43</v>
       </c>
       <c r="D87" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
       </c>
       <c r="H87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -4911,19 +4914,19 @@
         <v>43</v>
       </c>
       <c r="D88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E88" t="s">
+        <v>209</v>
+      </c>
+      <c r="F88" t="s">
+        <v>204</v>
+      </c>
+      <c r="G88" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" t="s">
         <v>210</v>
-      </c>
-      <c r="F88" t="s">
-        <v>205</v>
-      </c>
-      <c r="G88" t="s">
-        <v>43</v>
-      </c>
-      <c r="H88" t="s">
-        <v>211</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -4939,8 +4942,11 @@
       <c r="A89" t="s">
         <v>43</v>
       </c>
+      <c r="D89" t="s">
+        <v>282</v>
+      </c>
       <c r="F89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G89" t="s">
         <v>43</v>
@@ -4968,8 +4974,11 @@
       <c r="A90" t="s">
         <v>43</v>
       </c>
+      <c r="D90" t="s">
+        <v>282</v>
+      </c>
       <c r="F90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G90" t="s">
         <v>43</v>
@@ -4997,8 +5006,11 @@
       <c r="A91" t="s">
         <v>43</v>
       </c>
+      <c r="D91" t="s">
+        <v>282</v>
+      </c>
       <c r="F91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G91" t="s">
         <v>43</v>
@@ -5026,8 +5038,11 @@
       <c r="A92" t="s">
         <v>43</v>
       </c>
+      <c r="D92" t="s">
+        <v>282</v>
+      </c>
       <c r="F92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G92" t="s">
         <v>43</v>
@@ -5056,13 +5071,13 @@
         <v>2023</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G93" t="s">
         <v>43</v>
@@ -5082,16 +5097,16 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -5114,13 +5129,13 @@
         <v>43</v>
       </c>
       <c r="D95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G95" t="s">
         <v>43</v>
@@ -5143,13 +5158,13 @@
         <v>43</v>
       </c>
       <c r="D96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G96" t="s">
         <v>43</v>
@@ -5163,6 +5178,9 @@
       <c r="L96">
         <v>1</v>
       </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -5177,6 +5195,9 @@
       <c r="I97" t="s">
         <v>11</v>
       </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -5766,13 +5787,13 @@
         <v>2024</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D133" t="s">
         <v>151</v>
       </c>
-      <c r="D133" t="s">
-        <v>152</v>
-      </c>
       <c r="F133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G133" t="s">
         <v>29</v>
@@ -5789,19 +5810,19 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B134">
         <v>2024</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D134" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -5818,19 +5839,19 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B135">
         <v>2024</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G135" t="s">
         <v>29</v>
@@ -5842,24 +5863,24 @@
         <v>11</v>
       </c>
       <c r="P135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B136">
         <v>2024</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F136" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G136" t="s">
         <v>29</v>
@@ -5871,24 +5892,24 @@
         <v>11</v>
       </c>
       <c r="P136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B137">
         <v>2024</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G137" t="s">
         <v>29</v>
@@ -5900,24 +5921,24 @@
         <v>11</v>
       </c>
       <c r="P137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B138">
         <v>2024</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F138" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G138" t="s">
         <v>29</v>
@@ -5929,24 +5950,24 @@
         <v>11</v>
       </c>
       <c r="P138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139">
         <v>2024</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G139" t="s">
         <v>29</v>
@@ -5958,24 +5979,24 @@
         <v>11</v>
       </c>
       <c r="P139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B140">
         <v>2024</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F140" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G140" t="s">
         <v>29</v>
@@ -5987,12 +6008,12 @@
         <v>11</v>
       </c>
       <c r="P140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D1B955-929C-E742-91F9-0FEFABE89C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B9C46C-14F8-564B-9545-67763BA3C7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="285">
   <si>
     <t>Author</t>
   </si>
@@ -885,6 +885,12 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/s41586-024-07171-z</t>
+  </si>
+  <si>
+    <t>https://jcgr5w.bl.files.1drv.com/y4mdpOjO3J91PV7eKQaNDUYgfVzXhkbkBMQ2ZHU1bVY7_pV8chlQC900W9495nIm7_LnjFlvoPGty6bjhrA7ix08ErbY0nAiX4uzF7C27OGhyYQ8VW-qmJlh7gUkX4TocxKVW-01K0MBgKr2BIIW7oZ5Sxb3QZ6ie0J50WfzYFsifh8sDL43FIJV-oexwmW4g_u980KZgxk73WpfoRh8Drdvg</t>
+  </si>
+  <si>
+    <t>https://kd25iq.bl.files.1drv.com/y4m0bQ8gUOcrdNk37lX59jn-1Cdildh-F6jC5SwTcdjnafTSRzHsNHowkcpdjdLfKEK2Z1McH1kGu7kNt9RvFVdMX1jkp-urIZTMdbDkCslkLSrwhaVy2zHJ1GUZy7icMnh_3MY37Rv2f0k7k1lHYozWxQQktvhJMrhQzQ3_vx9Lhcoo4i3qIpNSjsFrTIRod0H2rA8bcCdkxByslBwC3Y49A</t>
   </si>
 </sst>
 </file>
@@ -1297,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="D114" zoomScale="75" workbookViewId="0">
+      <selection activeCell="P134" sqref="P134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5792,6 +5798,9 @@
       <c r="D133" t="s">
         <v>151</v>
       </c>
+      <c r="E133" t="s">
+        <v>283</v>
+      </c>
       <c r="F133" t="s">
         <v>159</v>
       </c>
@@ -5834,7 +5843,7 @@
         <v>11</v>
       </c>
       <c r="P134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
@@ -5908,6 +5917,9 @@
       <c r="D137" t="s">
         <v>155</v>
       </c>
+      <c r="E137" t="s">
+        <v>284</v>
+      </c>
       <c r="F137" t="s">
         <v>163</v>
       </c>
@@ -5921,7 +5933,7 @@
         <v>11</v>
       </c>
       <c r="P137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B9C46C-14F8-564B-9545-67763BA3C7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A599E31-7147-144B-B49D-8EAC942AB934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="286">
   <si>
     <t>Author</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t>https://kd25iq.bl.files.1drv.com/y4m0bQ8gUOcrdNk37lX59jn-1Cdildh-F6jC5SwTcdjnafTSRzHsNHowkcpdjdLfKEK2Z1McH1kGu7kNt9RvFVdMX1jkp-urIZTMdbDkCslkLSrwhaVy2zHJ1GUZy7icMnh_3MY37Rv2f0k7k1lHYozWxQQktvhJMrhQzQ3_vx9Lhcoo4i3qIpNSjsFrTIRod0H2rA8bcCdkxByslBwC3Y49A</t>
+  </si>
+  <si>
+    <t>Brain case study</t>
   </si>
 </sst>
 </file>
@@ -1301,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:P141"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D114" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P134" sqref="P134"/>
+    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1320,7 +1323,7 @@
     <col min="15" max="15" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1369,8 +1372,11 @@
       <c r="P1" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1416,8 +1422,11 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1463,8 +1472,11 @@
       <c r="P3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1510,8 +1522,11 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1557,8 +1572,11 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1604,8 +1622,11 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1651,8 +1672,11 @@
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1698,8 +1722,11 @@
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1745,8 +1772,11 @@
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1792,8 +1822,11 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1839,8 +1872,11 @@
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1886,8 +1922,11 @@
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -1933,8 +1972,11 @@
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -1980,8 +2022,11 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2021,8 +2066,11 @@
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4709,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -4741,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -4767,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -4795,8 +4843,11 @@
       <c r="P83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>43</v>
       </c>
@@ -4825,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -4854,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>43</v>
       </c>
@@ -4886,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>43</v>
       </c>
@@ -4915,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -4944,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>43</v>
       </c>
@@ -4976,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>43</v>
       </c>
@@ -5008,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>43</v>
       </c>
@@ -5040,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>43</v>
       </c>
@@ -5069,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>43</v>
       </c>
@@ -5101,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>217</v>
       </c>
@@ -5130,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>43</v>
       </c>
@@ -5159,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>43</v>
       </c>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A599E31-7147-144B-B49D-8EAC942AB934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CBCC5-29BE-5C4E-ACBF-2CE9B6353842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="293">
   <si>
     <t>Author</t>
   </si>
@@ -894,6 +894,27 @@
   </si>
   <si>
     <t>Brain case study</t>
+  </si>
+  <si>
+    <t>Xenium_ovarian</t>
+  </si>
+  <si>
+    <t>Xenium_colorectal</t>
+  </si>
+  <si>
+    <t>Colorectal cancer</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/2.0.0/Xenium_V1_Human_Colorectal_Cancer_Addon_FFPE/Xenium_V1_Human_Colorectal_Cancer_Addon_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/2.0.0/Xenium_V1_Human_Ovarian_Cancer_Addon_FFPE/Xenium_V1_Human_Ovarian_Cancer_Addon_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/ffpe-human-colorectal-cancer-data-with-human-immuno-oncology-profiling-panel-and-custom-add-on-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/ffpe-human-ovarian-cancer-data-with-human-immuno-oncology-profiling-panel-and-custom-add-on-1-standard</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:Q141"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Q83" sqref="Q83"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1473,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -2240,30 +2261,30 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="D20" t="s">
+        <v>292</v>
       </c>
       <c r="E20" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="F20" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="P20">
         <v>1</v>
       </c>
     </row>
@@ -2274,17 +2295,20 @@
       <c r="B21">
         <v>2024</v>
       </c>
+      <c r="D21" t="s">
+        <v>291</v>
+      </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="F21" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -2301,27 +2325,30 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F22" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="P22">
         <v>1</v>
       </c>
     </row>
@@ -2330,46 +2357,28 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>2023</v>
-      </c>
-      <c r="D23" t="s">
-        <v>254</v>
+        <v>2024</v>
       </c>
       <c r="E23" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F23" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
         <v>1</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -2377,46 +2386,28 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>2023</v>
-      </c>
-      <c r="D24" t="s">
-        <v>253</v>
+        <v>2024</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
         <v>1</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -2427,19 +2418,19 @@
         <v>2023</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E25" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F25" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -2466,33 +2457,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="B26">
         <v>2023</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>48</v>
+      <c r="D26" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" t="s">
+        <v>251</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2513,27 +2504,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>2023</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>46</v>
+      <c r="D27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" t="s">
+        <v>246</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -2545,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2562,7 +2553,7 @@
     </row>
     <row r="28" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>2023</v>
@@ -2571,10 +2562,10 @@
         <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
@@ -2586,7 +2577,7 @@
         <v>12</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2618,13 +2609,13 @@
         <v>25</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
         <v>21</v>
@@ -2633,7 +2624,7 @@
         <v>12</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2654,30 +2645,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
       <c r="B30">
         <v>2023</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>61</v>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -2688,11 +2676,14 @@
       <c r="K30">
         <v>0</v>
       </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2701,45 +2692,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>2023</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" t="s">
-        <v>65</v>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2750,7 +2741,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <v>2023</v>
@@ -2762,10 +2753,10 @@
         <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -2809,10 +2800,10 @@
         <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -2856,10 +2847,10 @@
         <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -2876,11 +2867,8 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2906,10 +2894,10 @@
         <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
@@ -2953,10 +2941,10 @@
         <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
@@ -2973,8 +2961,11 @@
       <c r="K36">
         <v>0</v>
       </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -3000,10 +2991,10 @@
         <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
@@ -3047,10 +3038,10 @@
         <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
@@ -3094,10 +3085,10 @@
         <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
@@ -3141,10 +3132,10 @@
         <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
@@ -3188,10 +3179,10 @@
         <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -3235,10 +3226,10 @@
         <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
@@ -3282,10 +3273,10 @@
         <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -3329,10 +3320,10 @@
         <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -3376,10 +3367,10 @@
         <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
@@ -3423,10 +3414,10 @@
         <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
@@ -3470,10 +3461,10 @@
         <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -3517,10 +3508,10 @@
         <v>93</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -3564,10 +3555,10 @@
         <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
@@ -3611,10 +3602,10 @@
         <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -3658,10 +3649,10 @@
         <v>93</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -3678,11 +3669,8 @@
       <c r="K51">
         <v>0</v>
       </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3708,10 +3696,10 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
@@ -3755,10 +3743,10 @@
         <v>93</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -3775,8 +3763,11 @@
       <c r="K53">
         <v>0</v>
       </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3802,10 +3793,10 @@
         <v>93</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -3849,10 +3840,10 @@
         <v>93</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
@@ -3896,10 +3887,10 @@
         <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
@@ -3943,10 +3934,10 @@
         <v>93</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
@@ -3983,23 +3974,26 @@
       <c r="B58">
         <v>2023</v>
       </c>
+      <c r="C58" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D58" t="s">
-        <v>169</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
+      </c>
+      <c r="E58" t="s">
+        <v>117</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -4007,14 +4001,11 @@
       <c r="K58">
         <v>0</v>
       </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -4025,25 +4016,31 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="B59">
+        <v>2023</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="E59" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="F59" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4051,14 +4048,11 @@
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -4068,20 +4062,26 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <v>2023</v>
+      </c>
       <c r="D60" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" t="s">
-        <v>196</v>
+        <v>169</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="F60" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
         <v>11</v>
@@ -4109,14 +4109,17 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
       <c r="D61" t="s">
         <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -4133,8 +4136,11 @@
       <c r="K61">
         <v>0</v>
       </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4151,10 +4157,10 @@
         <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -4172,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4192,10 +4198,10 @@
         <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F63" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -4206,62 +4212,98 @@
       <c r="I63" t="s">
         <v>11</v>
       </c>
-      <c r="L63">
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
         <v>0</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
       <c r="E64" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="F64" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="G64" t="s">
         <v>33</v>
       </c>
       <c r="H64" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="I64" t="s">
         <v>11</v>
       </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
       <c r="E65" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="F65" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
       </c>
       <c r="H65" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="I65" t="s">
         <v>11</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>267</v>
+      </c>
       <c r="F66" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
@@ -4281,10 +4323,10 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -4303,11 +4345,8 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E68" t="s">
-        <v>278</v>
-      </c>
       <c r="F68" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
@@ -4327,10 +4366,10 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F69" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -4350,10 +4389,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F70" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -4373,10 +4412,10 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -4387,93 +4426,48 @@
       <c r="I71" t="s">
         <v>11</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
       <c r="L71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B72">
-        <v>2023</v>
-      </c>
-      <c r="D72" t="s">
-        <v>38</v>
-      </c>
       <c r="E72" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="F72" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H72" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="I72" t="s">
         <v>11</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>168</v>
-      </c>
-      <c r="B73">
-        <v>2023</v>
-      </c>
-      <c r="D73" t="s">
-        <v>38</v>
-      </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="F73" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="I73" t="s">
         <v>11</v>
@@ -4488,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4501,9 +4495,6 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>168</v>
-      </c>
       <c r="B74">
         <v>2023</v>
       </c>
@@ -4511,10 +4502,10 @@
         <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F74" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -4552,63 +4543,87 @@
         <v>168</v>
       </c>
       <c r="B75">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="F75" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G75" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="H75" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="I75" t="s">
         <v>11</v>
       </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
       <c r="L75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>1</v>
       </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
       <c r="O75">
         <v>0</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="B76">
-        <v>2024</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>127</v>
+        <v>2023</v>
+      </c>
+      <c r="D76" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" t="s">
+        <v>172</v>
       </c>
       <c r="F76" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G76" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="H76" t="s">
-        <v>120</v>
+        <v>35</v>
+      </c>
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>1</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -4619,28 +4634,28 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="B77">
         <v>2024</v>
       </c>
       <c r="D77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G77" t="s">
         <v>216</v>
       </c>
       <c r="H77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4652,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -4662,17 +4677,17 @@
       <c r="B78">
         <v>2024</v>
       </c>
-      <c r="E78" t="s">
-        <v>184</v>
+      <c r="E78" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="F78" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G78" t="s">
         <v>216</v>
       </c>
       <c r="H78" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4695,22 +4710,22 @@
         <v>2024</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>180</v>
+        <v>53</v>
+      </c>
+      <c r="F79" t="s">
+        <v>178</v>
       </c>
       <c r="G79" t="s">
         <v>216</v>
       </c>
       <c r="H79" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -4733,16 +4748,16 @@
         <v>2024</v>
       </c>
       <c r="E80" t="s">
-        <v>185</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="F80" t="s">
+        <v>179</v>
       </c>
       <c r="G80" t="s">
         <v>216</v>
       </c>
       <c r="H80" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -4757,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -4765,23 +4780,29 @@
         <v>2024</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E81" t="s">
+        <v>54</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G81" t="s">
         <v>216</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
       <c r="O81">
         <v>0</v>
       </c>
@@ -4789,25 +4810,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>18</v>
       </c>
       <c r="B82">
         <v>2024</v>
       </c>
+      <c r="E82" t="s">
+        <v>185</v>
+      </c>
       <c r="F82" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G82" t="s">
         <v>216</v>
       </c>
       <c r="H82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
       <c r="O82">
         <v>0</v>
       </c>
@@ -4815,24 +4842,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>18</v>
       </c>
+      <c r="B83">
+        <v>2024</v>
+      </c>
       <c r="D83" t="s">
-        <v>213</v>
-      </c>
-      <c r="E83" t="s">
-        <v>55</v>
-      </c>
-      <c r="F83" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="H83" t="s">
-        <v>10</v>
+        <v>125</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -4841,30 +4871,24 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>43</v>
-      </c>
-      <c r="D84" t="s">
-        <v>213</v>
-      </c>
-      <c r="E84" t="s">
-        <v>205</v>
-      </c>
-      <c r="F84" t="s">
-        <v>200</v>
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>2024</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="H84" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -4876,24 +4900,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
         <v>213</v>
       </c>
       <c r="E85" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="F85" t="s">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="G85" t="s">
         <v>43</v>
       </c>
       <c r="H85" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -4902,10 +4926,10 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>43</v>
       </c>
@@ -4913,23 +4937,20 @@
         <v>213</v>
       </c>
       <c r="E86" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G86" t="s">
         <v>43</v>
       </c>
       <c r="H86" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
       <c r="O86">
         <v>0</v>
       </c>
@@ -4937,24 +4958,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>43</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E87" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F87" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
       </c>
       <c r="H87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -4966,28 +4987,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>43</v>
       </c>
       <c r="D88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E88" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F88" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G88" t="s">
         <v>43</v>
       </c>
       <c r="H88" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
       <c r="O88">
         <v>0</v>
       </c>
@@ -4995,29 +5019,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>43</v>
       </c>
       <c r="D89" t="s">
-        <v>282</v>
+        <v>214</v>
+      </c>
+      <c r="E89" t="s">
+        <v>208</v>
       </c>
       <c r="F89" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="G89" t="s">
         <v>43</v>
       </c>
       <c r="H89" t="s">
-        <v>44</v>
-      </c>
-      <c r="I89" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
         <v>1</v>
       </c>
       <c r="O89">
@@ -5027,29 +5048,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>43</v>
       </c>
       <c r="D90" t="s">
-        <v>282</v>
+        <v>214</v>
+      </c>
+      <c r="E90" t="s">
+        <v>209</v>
       </c>
       <c r="F90" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="G90" t="s">
         <v>43</v>
       </c>
       <c r="H90" t="s">
-        <v>44</v>
-      </c>
-      <c r="I90" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
         <v>1</v>
       </c>
       <c r="O90">
@@ -5059,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>43</v>
       </c>
@@ -5067,7 +5085,7 @@
         <v>282</v>
       </c>
       <c r="F91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G91" t="s">
         <v>43</v>
@@ -5091,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>43</v>
       </c>
@@ -5099,7 +5117,7 @@
         <v>282</v>
       </c>
       <c r="F92" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G92" t="s">
         <v>43</v>
@@ -5116,83 +5134,89 @@
       <c r="M92">
         <v>1</v>
       </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
       <c r="P92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>43</v>
       </c>
-      <c r="B93">
-        <v>2023</v>
-      </c>
       <c r="D93" t="s">
-        <v>222</v>
-      </c>
-      <c r="E93" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="F93" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="G93" t="s">
         <v>43</v>
       </c>
       <c r="H93" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="D94" t="s">
-        <v>222</v>
-      </c>
-      <c r="E94" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="F94" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
       </c>
       <c r="H94" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
         <v>1</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>43</v>
       </c>
+      <c r="B95">
+        <v>2023</v>
+      </c>
       <c r="D95" t="s">
         <v>222</v>
       </c>
       <c r="E95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F95" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G95" t="s">
         <v>43</v>
@@ -5210,18 +5234,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="D96" t="s">
         <v>222</v>
       </c>
       <c r="E96" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F96" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G96" t="s">
         <v>43</v>
@@ -5243,6 +5267,15 @@
       <c r="A97" t="s">
         <v>43</v>
       </c>
+      <c r="D97" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" t="s">
+        <v>239</v>
+      </c>
+      <c r="F97" t="s">
+        <v>220</v>
+      </c>
       <c r="G97" t="s">
         <v>43</v>
       </c>
@@ -5251,6 +5284,9 @@
       </c>
       <c r="I97" t="s">
         <v>11</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5260,6 +5296,15 @@
       <c r="A98" t="s">
         <v>43</v>
       </c>
+      <c r="D98" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" t="s">
+        <v>240</v>
+      </c>
+      <c r="F98" t="s">
+        <v>221</v>
+      </c>
       <c r="G98" t="s">
         <v>43</v>
       </c>
@@ -5268,14 +5313,35 @@
       </c>
       <c r="I98" t="s">
         <v>11</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>43</v>
       </c>
+      <c r="B99">
+        <v>2024</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D99" t="s">
+        <v>151</v>
+      </c>
+      <c r="E99" t="s">
+        <v>283</v>
+      </c>
+      <c r="F99" t="s">
+        <v>159</v>
+      </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H99" t="s">
         <v>10</v>
@@ -5283,13 +5349,28 @@
       <c r="I99" t="s">
         <v>11</v>
       </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>167</v>
+      </c>
+      <c r="B100">
+        <v>2024</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100" t="s">
+        <v>160</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H100" t="s">
         <v>10</v>
@@ -5297,13 +5378,28 @@
       <c r="I100" t="s">
         <v>11</v>
       </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>167</v>
+      </c>
+      <c r="B101">
+        <v>2024</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F101" t="s">
+        <v>161</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H101" t="s">
         <v>10</v>
@@ -5311,13 +5407,28 @@
       <c r="I101" t="s">
         <v>11</v>
       </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>43</v>
+        <v>167</v>
+      </c>
+      <c r="B102">
+        <v>2024</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" t="s">
+        <v>154</v>
+      </c>
+      <c r="F102" t="s">
+        <v>162</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H102" t="s">
         <v>10</v>
@@ -5325,13 +5436,31 @@
       <c r="I102" t="s">
         <v>11</v>
       </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>43</v>
+        <v>167</v>
+      </c>
+      <c r="B103">
+        <v>2024</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D103" t="s">
+        <v>155</v>
+      </c>
+      <c r="E103" t="s">
+        <v>284</v>
+      </c>
+      <c r="F103" t="s">
+        <v>163</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H103" t="s">
         <v>10</v>
@@ -5340,15 +5469,27 @@
         <v>11</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>43</v>
+        <v>167</v>
+      </c>
+      <c r="B104">
+        <v>2024</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D104" t="s">
+        <v>156</v>
+      </c>
+      <c r="F104" t="s">
+        <v>164</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H104" t="s">
         <v>10</v>
@@ -5362,10 +5503,22 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>167</v>
+      </c>
+      <c r="B105">
+        <v>2024</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D105" t="s">
+        <v>157</v>
+      </c>
+      <c r="F105" t="s">
+        <v>165</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H105" t="s">
         <v>10</v>
@@ -5379,10 +5532,22 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>43</v>
+        <v>167</v>
+      </c>
+      <c r="B106">
+        <v>2024</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106" t="s">
+        <v>158</v>
+      </c>
+      <c r="F106" t="s">
+        <v>166</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H106" t="s">
         <v>10</v>
@@ -5396,686 +5561,6 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>43</v>
-      </c>
-      <c r="G107" t="s">
-        <v>43</v>
-      </c>
-      <c r="H107" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107" t="s">
-        <v>11</v>
-      </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>43</v>
-      </c>
-      <c r="G108" t="s">
-        <v>43</v>
-      </c>
-      <c r="H108" t="s">
-        <v>10</v>
-      </c>
-      <c r="I108" t="s">
-        <v>11</v>
-      </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>43</v>
-      </c>
-      <c r="G109" t="s">
-        <v>43</v>
-      </c>
-      <c r="H109" t="s">
-        <v>10</v>
-      </c>
-      <c r="I109" t="s">
-        <v>11</v>
-      </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>43</v>
-      </c>
-      <c r="G110" t="s">
-        <v>43</v>
-      </c>
-      <c r="H110" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" t="s">
-        <v>11</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>43</v>
-      </c>
-      <c r="G111" t="s">
-        <v>43</v>
-      </c>
-      <c r="H111" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111" t="s">
-        <v>11</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>43</v>
-      </c>
-      <c r="G112" t="s">
-        <v>43</v>
-      </c>
-      <c r="H112" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" t="s">
-        <v>11</v>
-      </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>43</v>
-      </c>
-      <c r="G113" t="s">
-        <v>43</v>
-      </c>
-      <c r="H113" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" t="s">
-        <v>11</v>
-      </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>43</v>
-      </c>
-      <c r="G114" t="s">
-        <v>43</v>
-      </c>
-      <c r="H114" t="s">
-        <v>10</v>
-      </c>
-      <c r="I114" t="s">
-        <v>11</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>43</v>
-      </c>
-      <c r="G115" t="s">
-        <v>43</v>
-      </c>
-      <c r="H115" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" t="s">
-        <v>11</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>43</v>
-      </c>
-      <c r="G116" t="s">
-        <v>43</v>
-      </c>
-      <c r="H116" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" t="s">
-        <v>11</v>
-      </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>43</v>
-      </c>
-      <c r="G117" t="s">
-        <v>43</v>
-      </c>
-      <c r="H117" t="s">
-        <v>10</v>
-      </c>
-      <c r="I117" t="s">
-        <v>11</v>
-      </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>43</v>
-      </c>
-      <c r="G118" t="s">
-        <v>43</v>
-      </c>
-      <c r="H118" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" t="s">
-        <v>11</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>43</v>
-      </c>
-      <c r="G119" t="s">
-        <v>43</v>
-      </c>
-      <c r="H119" t="s">
-        <v>10</v>
-      </c>
-      <c r="I119" t="s">
-        <v>11</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>43</v>
-      </c>
-      <c r="G120" t="s">
-        <v>43</v>
-      </c>
-      <c r="H120" t="s">
-        <v>10</v>
-      </c>
-      <c r="I120" t="s">
-        <v>11</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>43</v>
-      </c>
-      <c r="G121" t="s">
-        <v>43</v>
-      </c>
-      <c r="H121" t="s">
-        <v>10</v>
-      </c>
-      <c r="I121" t="s">
-        <v>11</v>
-      </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>43</v>
-      </c>
-      <c r="G122" t="s">
-        <v>43</v>
-      </c>
-      <c r="H122" t="s">
-        <v>10</v>
-      </c>
-      <c r="I122" t="s">
-        <v>11</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>43</v>
-      </c>
-      <c r="G123" t="s">
-        <v>43</v>
-      </c>
-      <c r="H123" t="s">
-        <v>10</v>
-      </c>
-      <c r="I123" t="s">
-        <v>11</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>43</v>
-      </c>
-      <c r="G124" t="s">
-        <v>43</v>
-      </c>
-      <c r="H124" t="s">
-        <v>10</v>
-      </c>
-      <c r="I124" t="s">
-        <v>11</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>43</v>
-      </c>
-      <c r="G125" t="s">
-        <v>43</v>
-      </c>
-      <c r="H125" t="s">
-        <v>10</v>
-      </c>
-      <c r="I125" t="s">
-        <v>11</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>43</v>
-      </c>
-      <c r="G126" t="s">
-        <v>43</v>
-      </c>
-      <c r="H126" t="s">
-        <v>10</v>
-      </c>
-      <c r="I126" t="s">
-        <v>11</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>43</v>
-      </c>
-      <c r="G127" t="s">
-        <v>43</v>
-      </c>
-      <c r="H127" t="s">
-        <v>10</v>
-      </c>
-      <c r="I127" t="s">
-        <v>11</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>43</v>
-      </c>
-      <c r="G128" t="s">
-        <v>43</v>
-      </c>
-      <c r="H128" t="s">
-        <v>10</v>
-      </c>
-      <c r="I128" t="s">
-        <v>11</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>43</v>
-      </c>
-      <c r="G129" t="s">
-        <v>43</v>
-      </c>
-      <c r="H129" t="s">
-        <v>10</v>
-      </c>
-      <c r="I129" t="s">
-        <v>11</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>43</v>
-      </c>
-      <c r="G130" t="s">
-        <v>43</v>
-      </c>
-      <c r="H130" t="s">
-        <v>10</v>
-      </c>
-      <c r="I130" t="s">
-        <v>11</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>43</v>
-      </c>
-      <c r="G131" t="s">
-        <v>43</v>
-      </c>
-      <c r="H131" t="s">
-        <v>10</v>
-      </c>
-      <c r="I131" t="s">
-        <v>11</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>43</v>
-      </c>
-      <c r="G132" t="s">
-        <v>43</v>
-      </c>
-      <c r="H132" t="s">
-        <v>10</v>
-      </c>
-      <c r="I132" t="s">
-        <v>11</v>
-      </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>43</v>
-      </c>
-      <c r="B133">
-        <v>2024</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D133" t="s">
-        <v>151</v>
-      </c>
-      <c r="E133" t="s">
-        <v>283</v>
-      </c>
-      <c r="F133" t="s">
-        <v>159</v>
-      </c>
-      <c r="G133" t="s">
-        <v>29</v>
-      </c>
-      <c r="H133" t="s">
-        <v>10</v>
-      </c>
-      <c r="I133" t="s">
-        <v>11</v>
-      </c>
-      <c r="P133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>167</v>
-      </c>
-      <c r="B134">
-        <v>2024</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D134" t="s">
-        <v>152</v>
-      </c>
-      <c r="F134" t="s">
-        <v>160</v>
-      </c>
-      <c r="G134" t="s">
-        <v>29</v>
-      </c>
-      <c r="H134" t="s">
-        <v>10</v>
-      </c>
-      <c r="I134" t="s">
-        <v>11</v>
-      </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>167</v>
-      </c>
-      <c r="B135">
-        <v>2024</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D135" t="s">
-        <v>153</v>
-      </c>
-      <c r="F135" t="s">
-        <v>161</v>
-      </c>
-      <c r="G135" t="s">
-        <v>29</v>
-      </c>
-      <c r="H135" t="s">
-        <v>10</v>
-      </c>
-      <c r="I135" t="s">
-        <v>11</v>
-      </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>167</v>
-      </c>
-      <c r="B136">
-        <v>2024</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D136" t="s">
-        <v>154</v>
-      </c>
-      <c r="F136" t="s">
-        <v>162</v>
-      </c>
-      <c r="G136" t="s">
-        <v>29</v>
-      </c>
-      <c r="H136" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" t="s">
-        <v>11</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>167</v>
-      </c>
-      <c r="B137">
-        <v>2024</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D137" t="s">
-        <v>155</v>
-      </c>
-      <c r="E137" t="s">
-        <v>284</v>
-      </c>
-      <c r="F137" t="s">
-        <v>163</v>
-      </c>
-      <c r="G137" t="s">
-        <v>29</v>
-      </c>
-      <c r="H137" t="s">
-        <v>10</v>
-      </c>
-      <c r="I137" t="s">
-        <v>11</v>
-      </c>
-      <c r="P137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>167</v>
-      </c>
-      <c r="B138">
-        <v>2024</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D138" t="s">
-        <v>156</v>
-      </c>
-      <c r="F138" t="s">
-        <v>164</v>
-      </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
-      <c r="H138" t="s">
-        <v>10</v>
-      </c>
-      <c r="I138" t="s">
-        <v>11</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>167</v>
-      </c>
-      <c r="B139">
-        <v>2024</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D139" t="s">
-        <v>157</v>
-      </c>
-      <c r="F139" t="s">
-        <v>165</v>
-      </c>
-      <c r="G139" t="s">
-        <v>29</v>
-      </c>
-      <c r="H139" t="s">
-        <v>10</v>
-      </c>
-      <c r="I139" t="s">
-        <v>11</v>
-      </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>167</v>
-      </c>
-      <c r="B140">
-        <v>2024</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D140" t="s">
-        <v>158</v>
-      </c>
-      <c r="F140" t="s">
-        <v>166</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
-      <c r="H140" t="s">
-        <v>10</v>
-      </c>
-      <c r="I140" t="s">
-        <v>11</v>
-      </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6084,37 +5569,37 @@
   <hyperlinks>
     <hyperlink ref="C16" r:id="rId1" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{EBB9E06F-3785-BF48-AD54-F663DAAD66E3}"/>
     <hyperlink ref="C17" r:id="rId2" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{DB028E2E-514E-B24E-B12A-54BF19CC098C}"/>
-    <hyperlink ref="C30" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
-    <hyperlink ref="E29" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
-    <hyperlink ref="E26" r:id="rId5" xr:uid="{5BA81582-EC37-0D4D-B7A9-7AF8598A9DF2}"/>
-    <hyperlink ref="C31" r:id="rId6" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{8F9A199E-EC71-B249-AF59-FF24DB4609B1}"/>
-    <hyperlink ref="C32" r:id="rId7" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{853F30D2-01D5-1548-B4FF-52D758F3D556}"/>
-    <hyperlink ref="C33" r:id="rId8" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C48DB5F5-21AE-CE4D-BB27-7CF2B2B712A7}"/>
-    <hyperlink ref="C34" r:id="rId9" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9ED5901C-DC91-CC49-A723-A9C49A700057}"/>
-    <hyperlink ref="C35" r:id="rId10" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{681B51E0-45E0-AF4A-A5EE-28748A165692}"/>
-    <hyperlink ref="C36" r:id="rId11" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{BA262E0F-F122-CE49-B193-E111B00E4D19}"/>
-    <hyperlink ref="C37" r:id="rId12" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2C9985A0-6AD7-9A41-9565-94AA54B8F20A}"/>
-    <hyperlink ref="C38" r:id="rId13" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{42C6419B-1F9C-464D-942C-629DBE1A763F}"/>
-    <hyperlink ref="C39" r:id="rId14" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFF16103-3C13-2B47-B8FA-7ED24283F351}"/>
-    <hyperlink ref="C40" r:id="rId15" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{E38CC7D2-2BD2-AC45-99BE-32F76871EC00}"/>
-    <hyperlink ref="C41" r:id="rId16" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C9FC1701-99F3-314F-8A4C-4CCCDD235EA2}"/>
-    <hyperlink ref="C42" r:id="rId17" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EC4E26BD-F1A6-2647-A8E9-40DA20AB83BF}"/>
-    <hyperlink ref="C43" r:id="rId18" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{B86C6F60-6096-CD42-B6D4-337F4666A137}"/>
-    <hyperlink ref="C44" r:id="rId19" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{33B4FEAD-F100-6845-A5C0-78998BA2E0AD}"/>
-    <hyperlink ref="C45" r:id="rId20" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{A7F28363-67D9-DE4F-8511-F087659BD3BB}"/>
-    <hyperlink ref="C46" r:id="rId21" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C7DDCDCC-39CA-5A4A-9204-AC06FD62324C}"/>
-    <hyperlink ref="C47" r:id="rId22" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CDD3098C-5532-2243-91DE-779275449D7C}"/>
-    <hyperlink ref="C48" r:id="rId23" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2FDC7CE7-0E8D-7A43-B2CB-F08FEB0D0C86}"/>
-    <hyperlink ref="C49" r:id="rId24" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{3EAD12EB-7FAA-6644-8CD0-282CF442DD5F}"/>
-    <hyperlink ref="C50" r:id="rId25" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{37ED5057-FB64-104D-A1AD-880EE76BBBF6}"/>
-    <hyperlink ref="C51" r:id="rId26" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{919807C3-656E-5541-AC46-175D90A0E650}"/>
-    <hyperlink ref="C52" r:id="rId27" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFD73339-E4A6-F444-95CC-E5EF5306A91D}"/>
-    <hyperlink ref="C53" r:id="rId28" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{DE5BB967-701B-3A4E-9953-5C391D746A0E}"/>
-    <hyperlink ref="C54" r:id="rId29" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9D9F29E0-C81C-7B44-9831-E6853C80A7FA}"/>
-    <hyperlink ref="C55" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
-    <hyperlink ref="C56" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
-    <hyperlink ref="C57" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
-    <hyperlink ref="E76" r:id="rId33" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
+    <hyperlink ref="C32" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
+    <hyperlink ref="E31" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
+    <hyperlink ref="E28" r:id="rId5" xr:uid="{5BA81582-EC37-0D4D-B7A9-7AF8598A9DF2}"/>
+    <hyperlink ref="C33" r:id="rId6" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{8F9A199E-EC71-B249-AF59-FF24DB4609B1}"/>
+    <hyperlink ref="C34" r:id="rId7" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{853F30D2-01D5-1548-B4FF-52D758F3D556}"/>
+    <hyperlink ref="C35" r:id="rId8" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C48DB5F5-21AE-CE4D-BB27-7CF2B2B712A7}"/>
+    <hyperlink ref="C36" r:id="rId9" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9ED5901C-DC91-CC49-A723-A9C49A700057}"/>
+    <hyperlink ref="C37" r:id="rId10" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{681B51E0-45E0-AF4A-A5EE-28748A165692}"/>
+    <hyperlink ref="C38" r:id="rId11" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{BA262E0F-F122-CE49-B193-E111B00E4D19}"/>
+    <hyperlink ref="C39" r:id="rId12" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2C9985A0-6AD7-9A41-9565-94AA54B8F20A}"/>
+    <hyperlink ref="C40" r:id="rId13" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{42C6419B-1F9C-464D-942C-629DBE1A763F}"/>
+    <hyperlink ref="C41" r:id="rId14" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFF16103-3C13-2B47-B8FA-7ED24283F351}"/>
+    <hyperlink ref="C42" r:id="rId15" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{E38CC7D2-2BD2-AC45-99BE-32F76871EC00}"/>
+    <hyperlink ref="C43" r:id="rId16" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C9FC1701-99F3-314F-8A4C-4CCCDD235EA2}"/>
+    <hyperlink ref="C44" r:id="rId17" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EC4E26BD-F1A6-2647-A8E9-40DA20AB83BF}"/>
+    <hyperlink ref="C45" r:id="rId18" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{B86C6F60-6096-CD42-B6D4-337F4666A137}"/>
+    <hyperlink ref="C46" r:id="rId19" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{33B4FEAD-F100-6845-A5C0-78998BA2E0AD}"/>
+    <hyperlink ref="C47" r:id="rId20" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{A7F28363-67D9-DE4F-8511-F087659BD3BB}"/>
+    <hyperlink ref="C48" r:id="rId21" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C7DDCDCC-39CA-5A4A-9204-AC06FD62324C}"/>
+    <hyperlink ref="C49" r:id="rId22" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CDD3098C-5532-2243-91DE-779275449D7C}"/>
+    <hyperlink ref="C50" r:id="rId23" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2FDC7CE7-0E8D-7A43-B2CB-F08FEB0D0C86}"/>
+    <hyperlink ref="C51" r:id="rId24" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{3EAD12EB-7FAA-6644-8CD0-282CF442DD5F}"/>
+    <hyperlink ref="C52" r:id="rId25" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{37ED5057-FB64-104D-A1AD-880EE76BBBF6}"/>
+    <hyperlink ref="C53" r:id="rId26" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{919807C3-656E-5541-AC46-175D90A0E650}"/>
+    <hyperlink ref="C54" r:id="rId27" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFD73339-E4A6-F444-95CC-E5EF5306A91D}"/>
+    <hyperlink ref="C55" r:id="rId28" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{DE5BB967-701B-3A4E-9953-5C391D746A0E}"/>
+    <hyperlink ref="C56" r:id="rId29" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9D9F29E0-C81C-7B44-9831-E6853C80A7FA}"/>
+    <hyperlink ref="C57" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
+    <hyperlink ref="C58" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
+    <hyperlink ref="C59" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
+    <hyperlink ref="E78" r:id="rId33" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
     <hyperlink ref="E2" r:id="rId34" xr:uid="{E191A043-72B0-CC4E-9B58-FE4C461D40C9}"/>
     <hyperlink ref="C14" r:id="rId35" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{88E6D632-2160-2B4D-AD77-9459075894C4}"/>
     <hyperlink ref="C13" r:id="rId36" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{ED18E71A-43E8-A644-BA73-C69B86D50DCF}"/>
@@ -6126,15 +5611,15 @@
     <hyperlink ref="C10" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
     <hyperlink ref="C11" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
     <hyperlink ref="C12" r:id="rId44" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
-    <hyperlink ref="C133" r:id="rId45" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
-    <hyperlink ref="C134" r:id="rId46" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
-    <hyperlink ref="C135" r:id="rId47" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
-    <hyperlink ref="C136" r:id="rId48" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
-    <hyperlink ref="C137" r:id="rId49" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
-    <hyperlink ref="C138" r:id="rId50" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
-    <hyperlink ref="C139" r:id="rId51" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
-    <hyperlink ref="C140" r:id="rId52" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
-    <hyperlink ref="E58" r:id="rId53" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
+    <hyperlink ref="C99" r:id="rId45" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C100" r:id="rId46" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C101" r:id="rId47" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C102" r:id="rId48" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C103" r:id="rId49" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C104" r:id="rId50" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C105" r:id="rId51" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C106" r:id="rId52" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="E60" r:id="rId53" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CBCC5-29BE-5C4E-ACBF-2CE9B6353842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C495CA-3B6B-6747-A11F-157D121B6168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="294">
   <si>
     <t>Author</t>
   </si>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>https://www.10xgenomics.com/datasets/ffpe-human-ovarian-cancer-data-with-human-immuno-oncology-profiling-panel-and-custom-add-on-1-standard</t>
+  </si>
+  <si>
+    <t>Just Visium example</t>
   </si>
 </sst>
 </file>
@@ -1325,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1347,7 @@
     <col min="15" max="15" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1396,8 +1399,11 @@
       <c r="Q1" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1447,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1647,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5263,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>43</v>
       </c>
@@ -5292,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -5321,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>43</v>
       </c>
@@ -5352,8 +5358,11 @@
       <c r="P99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>167</v>
       </c>
@@ -5382,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>167</v>
       </c>
@@ -5411,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>167</v>
       </c>
@@ -5440,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>167</v>
       </c>
@@ -5471,8 +5480,11 @@
       <c r="P103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>167</v>
       </c>
@@ -5501,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>167</v>
       </c>
@@ -5530,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -5559,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>167</v>
       </c>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C495CA-3B6B-6747-A11F-157D121B6168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE8B02-5685-2740-B69C-F752690DE32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1220" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
+    <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="319">
   <si>
     <t>Author</t>
   </si>
@@ -918,6 +918,81 @@
   </si>
   <si>
     <t>Just Visium example</t>
+  </si>
+  <si>
+    <t>Olfactory bulb</t>
+  </si>
+  <si>
+    <t>Embryo</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/adult-mouse-olfactory-bulb-1-standard-1</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/adult-mouse-kidney-ffpe-1-standard-1-3-0</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-ovarian-cancer-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-breast-cancer-visium-fresh-frozen-whole-transcriptome-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/adult-mouse-brain-coronal-section-fresh-frozen-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-kidney-11-mm-capture-area-ffpe-2-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-cytassist-mouse-embryo-11-mm-capture-area-ffpe-2-standard</t>
+  </si>
+  <si>
+    <t>Visium_olf_bulb</t>
+  </si>
+  <si>
+    <t>Visium_kidney_mouse</t>
+  </si>
+  <si>
+    <t>Visium_ovarian_cancer</t>
+  </si>
+  <si>
+    <t>Visium_breast_cancer</t>
+  </si>
+  <si>
+    <t>Visium_brain</t>
+  </si>
+  <si>
+    <t>Visium_kidney_human</t>
+  </si>
+  <si>
+    <t>Visium_embryo</t>
+  </si>
+  <si>
+    <t>https://x2ocbw.bl.files.1drv.com/y4mR1ZXpUQbQIM5hSm5DuE0RmG5mync6IyU8Iodp_RFed9yo_ueW7pSlAfrR4DBt5AqodE6EOPlzaWCL-nkCGI2G5qaEs8mdUaKpQ_Ls0FUe20j7Bo4Jh_U10utmDdvOQDEuDWHXN22SamMQkeiJjgDZPk8_WQlaQ-z_7Him8CH_If5rFUjwh0N5Hu5escMoloId2NFHR3rVvf41f8Wtw6Z1Q</t>
+  </si>
+  <si>
+    <t>https://9gwmhw.bl.files.1drv.com/y4m21lGsG84x5YvNlK65A5B6LkpxnX8NdK9AhhExllpnsfdRDHJla33U47c6opHZi6K0YoTJY54yriIsvhFU2t-D0zAZpjWmGCdoEMyjq2_F1JYsU6oqow5J5Dn0d_TDp9Cc2_shhh8OKqp-VvHSf9ihb4JNcMx9bE6bUxsUM7G6UEZqV9m9pMyTOQC9TN5JWHhKjMuPUsAo1TnBbxgJU3NYA</t>
+  </si>
+  <si>
+    <t>https://ytqaqq.bl.files.1drv.com/y4mUcOiBHdjDdYz1DvTXv4Z1gNumtEZy-i4SCfaZrOuhbZJ0EVeuXx4dNrMbqwDLVYWNa6lhuWkzN1A7-Q52KpV84jbUaXVlCSv4gxB7P46RCT6t5BzJhAIqKTr7Mfy79FiT-khixVHPHpdhG0xtfgIqE3VdcPq698O8DycPOJj4AOyM1fJd4RjtYzXlDIUhowDiJcWt2T9QGorV2GtPCzPgQ</t>
+  </si>
+  <si>
+    <t>https://qvnota.bl.files.1drv.com/y4mkTerst2qgO8awvj5KruxDYL_4YI2UKXKRZ1JzDY_-9q38xh-j_oBLaNqiKvXL5X8SWV02OuE5WLaIXMQl1A0T_T3vtK25ZMxMpKKRjrVg_fReIIgKznneVW9rrOFciAInR37ESJ-RYeT1Ay5nRJWpYCpp_OCtOgz1CAl5Usn_OpDTd-_N4ubKID2ncO985fBWxn3hHoFyhIaMX0EoAgwaw</t>
+  </si>
+  <si>
+    <t>https://cpl1pg.bl.files.1drv.com/y4mDy2m7jRRx9lJZmCLQOl0y1RyG5s85iu_dOhJnU6ICMLOyZS5hhVe8pIM9pjb_zq_ZT05dIbEDAAoU418Pz1NgxgGXyHHGK6js-ho2whljFAEcF8OkBm-G1asnkXr721e4wqb60H6Ly9jlwD0hZC6vzp5VRSQw62ABh_8tdZHIAvn6yWU9YRvdiWlHSo3uvCcukTZoeAie8bq_Kfc9XqUsQ</t>
+  </si>
+  <si>
+    <t>https://mz23kq.bl.files.1drv.com/y4mG0545nd3mPv2J2pYWehC_UoqaWMTvR6PqZnpHLhTlPZ9PaM0rh2GdYrdAygLYVHLnkcW13KKgTl6L6QgzNCJvTOT16oSmRf49h-2y4Smq3hN3bSmG0pIb9rDL9FmOfV_S_-88gtQ3Xe6LiHF-dXb2Y5rXxDmqVZH5NuMKgSkE6MQlbiHPnJsaDlnK8oI0nw_3QYjW59kgSjKCDQVl4kSag</t>
+  </si>
+  <si>
+    <t>https://cg1oba.bl.files.1drv.com/y4mx4UjKNpxmTky9p84tsyymM9CIpQ_JqEu5PJOlc9G7iix7xuYQmmQPw_sVLgMLsSI3FjDNiQE8XIe_NW72eThWHxkdY-6PZBhiT6Z9kCRzhUfYQqLvB_tqMABSD02FqjX0bSvQ60jKX9hzZhVlD4EjM2z1bWWuhmiTPIpOFPQzECsRNH_NyuwM5JtV4BmRaNNdAhumA3dDJr0V7XtzRmj4w</t>
+  </si>
+  <si>
+    <t>https://mmgp7w.bl.files.1drv.com/y4m6rrHukO15I4Z0ayjDqsKOjLK67QXYeORSWY_P7N9OW9BFqj1cIchXQ9XYsEmuQ6a4s_e-7EzEq5k5ue2SFV1id3QXPKuF58QgIy6SPOCHP7hgpv2Kq3xQZFmqhlAMrynE1NY0UUQZyF288igTxIJbjDxrJgPShPzhRKhRp1S5YorjDnKvcykv02ICqqPJZ-8hc_2nbEPrAfHvjcM_mICKA</t>
+  </si>
+  <si>
+    <t>https://kyhnwq.bl.files.1drv.com/y4mVei1sn6_3jISVzN2lgGJdq8JGByWfetd7S83TsBBEiBXjNuslaS55xKI4w3fIJAePL_putj1zH_Hl5AuaNn1epBqNhn6tsApjM_bMzn268fwpRDS4LNnzcbFUBN4SWYqIG4ue4maGC0bAbAsANZaXAXxy5tTdIjEn1VpboBvN6Y8Ds03djdxlEKigWwo45IP7soSzNSJ18NJaCws7nENZw</t>
   </si>
 </sst>
 </file>
@@ -1328,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2107,6 +2182,9 @@
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E16" t="s">
+        <v>310</v>
+      </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
@@ -2148,6 +2226,9 @@
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E17" t="s">
+        <v>311</v>
+      </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -5329,7 +5410,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="B99">
         <v>2024</v>
@@ -5573,7 +5654,205 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>18</v>
+      </c>
+      <c r="B107">
+        <v>2024</v>
+      </c>
+      <c r="D107" t="s">
+        <v>296</v>
+      </c>
+      <c r="E107" t="s">
+        <v>318</v>
+      </c>
+      <c r="F107" t="s">
+        <v>303</v>
+      </c>
+      <c r="G107" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" t="s">
+        <v>294</v>
+      </c>
+      <c r="I107" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108">
+        <v>2024</v>
+      </c>
+      <c r="D108" t="s">
+        <v>297</v>
+      </c>
+      <c r="E108" t="s">
+        <v>316</v>
+      </c>
+      <c r="F108" t="s">
+        <v>304</v>
+      </c>
+      <c r="G108" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" t="s">
+        <v>35</v>
+      </c>
+      <c r="I108" t="s">
+        <v>11</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109">
+        <v>2024</v>
+      </c>
+      <c r="D109" t="s">
+        <v>298</v>
+      </c>
+      <c r="E109" t="s">
+        <v>315</v>
+      </c>
+      <c r="F109" t="s">
+        <v>305</v>
+      </c>
+      <c r="G109" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" t="s">
+        <v>212</v>
+      </c>
+      <c r="I109" t="s">
+        <v>12</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110">
+        <v>2024</v>
+      </c>
+      <c r="D110" t="s">
+        <v>299</v>
+      </c>
+      <c r="E110" t="s">
+        <v>317</v>
+      </c>
+      <c r="F110" t="s">
+        <v>306</v>
+      </c>
+      <c r="G110" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111">
+        <v>2024</v>
+      </c>
+      <c r="D111" t="s">
+        <v>300</v>
+      </c>
+      <c r="E111" t="s">
+        <v>314</v>
+      </c>
+      <c r="F111" t="s">
+        <v>307</v>
+      </c>
+      <c r="G111" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112">
+        <v>2024</v>
+      </c>
+      <c r="D112" t="s">
+        <v>301</v>
+      </c>
+      <c r="E112" t="s">
+        <v>312</v>
+      </c>
+      <c r="F112" t="s">
+        <v>308</v>
+      </c>
+      <c r="G112" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" t="s">
+        <v>12</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113">
+        <v>2024</v>
+      </c>
+      <c r="D113" t="s">
+        <v>302</v>
+      </c>
+      <c r="E113" t="s">
+        <v>313</v>
+      </c>
+      <c r="F113" t="s">
+        <v>309</v>
+      </c>
+      <c r="G113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" t="s">
+        <v>295</v>
+      </c>
+      <c r="I113" t="s">
+        <v>11</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE8B02-5685-2740-B69C-F752690DE32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158CC08-BE33-384B-89B6-76A5E03A3AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="323">
   <si>
     <t>Author</t>
   </si>
@@ -185,15 +185,6 @@
     <t>https://mz24iq.bl.files.1drv.com/y4mNobvja4UwuikWb1B1AuTNuFonILZreiw0X__lj1XktW0C7cfWv6ruuG8C6mKu8opT-PwOFX2SzNRyNDreijZOuGA7Vh35LDwdb3HitxR1A0G0iP_WopEreFPkazDhVjJmDHP7MITBt4BO6aYCLsVvshToVTvvek4P12iDRiOz51sxwHMlVdEf9BYaVxl6BP5d7HmEb7-htMzlxP7rNbFXw</t>
   </si>
   <si>
-    <t>KCL Spatial Facility</t>
-  </si>
-  <si>
-    <t>https://github.com/cancerbioinformatics/CosMx_Lite</t>
-  </si>
-  <si>
-    <t>Lymph Node</t>
-  </si>
-  <si>
     <t>https://kqaaxa.bl.files.1drv.com/y4m1vncufYYbEWZeyFeKzMMc4HwleEa84uMsxq5y0Nz-u0CTrcKxavxG-b8Rt4kUUaBIWhhdnOHewUUs_45YDFWu89PZTazp1uZ6XF-lVWq18jc-fE37Tf_4JOk11oQPYwnQt18hM2TivzFar_ZspH8VhxPGnpAps_AROgOtDeA6ysgso-HAKQ9HoA4uwrxbkAs-auxb_46FMs4cARZR-r9iQ</t>
   </si>
   <si>
@@ -993,6 +984,27 @@
   </si>
   <si>
     <t>https://kyhnwq.bl.files.1drv.com/y4mVei1sn6_3jISVzN2lgGJdq8JGByWfetd7S83TsBBEiBXjNuslaS55xKI4w3fIJAePL_putj1zH_Hl5AuaNn1epBqNhn6tsApjM_bMzn268fwpRDS4LNnzcbFUBN4SWYqIG4ue4maGC0bAbAsANZaXAXxy5tTdIjEn1VpboBvN6Y8Ds03djdxlEKigWwo45IP7soSzNSJ18NJaCws7nENZw</t>
+  </si>
+  <si>
+    <t>https://9gwjhw.bl.files.1drv.com/y4mrCNSO11NsOhuWyL1H0VsbgNV-6NrQp6A-NybRnM9h14V0c12wzQFK6ldBxIJM7hKTK2a5Uhhp-4TmWr8xlTWtSgNoAgNXNp2KuouB6lVL1RiC7cG5kFru8Lj0VJiR5tQRYMwEKjJUju72ZGOK-PI_fkf3EyEDCaYovZ-wiQ16gOrbY9eC8D2ghgVxKTnecX2Fp9GhfIxqIJAoHUq6a7wJA</t>
+  </si>
+  <si>
+    <t>https://x2ozbw.bl.files.1drv.com/y4mtovAhc1ZfV57rfvGrjBAb-uijV91y88oEvoGzMmgE85tpP1-1rARPn2xVC1Hk2i8A8RbYN1tSBNAC0wyTJBm9Ig3X-9NKJrD_-F8zMZWPtjL6KcJBC1yo1ivnguLhUJXKwDHsYWscYl0xU2gR8df-fVc4mvUh5UhbFMqpQoo1rzQ6Swf5fyyiOzz7CTTrDPH0kXMKqaMOuPTP_IoO7Ztrw</t>
+  </si>
+  <si>
+    <t>https://kyhkwq.bl.files.1drv.com/y4mJqLlLYInNyY2rihvtm0-JiDJMaUh6FYW29f2fpGOyscb9Du11b9OVjtYnYqMEMve82YjpN_aqjECCm6KSrffPW-z0i7LVxoKdc2ooiHRbfQdUYYO6G4YIVikOogAzvPj77_pqSp-hsPVN4PTdSzngELodgc_BGmoiwjLnD_7ikov_k5H5gJdGplPvLD6-FWAULjntrMyjQhw70CME89NNA</t>
+  </si>
+  <si>
+    <t>https://cg1lba.bl.files.1drv.com/y4mQfVBPq-hZA-W9BojMVTUUghU54RYl7RvqpQti1KWypRMlfp2qfrYAgQ80DpcVQiNACkENl-L2FMLaRu6WXfgHYEeL4W090Rqz_Xszn9s83S37Q2XAtZ_O4JArx7L548WNYhXMRFaEYGn37Bfz2aFhkAS0c_T95New8vz41OoZjv7SMld49Kke3T_EN1r9BzTPP6nelhthmYNqhHbzgQmQw</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41586-023-06818-7</t>
+  </si>
+  <si>
+    <t>CosMx_glioma</t>
+  </si>
+  <si>
+    <t>Xenium_glioma</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1454,28 +1466,28 @@
         <v>28</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1489,10 +1501,10 @@
         <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1539,10 +1551,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1589,10 +1601,10 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1636,19 +1648,19 @@
         <v>2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1686,19 +1698,19 @@
         <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1736,19 +1748,19 @@
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1786,19 +1798,19 @@
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1836,19 +1848,19 @@
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1886,19 +1898,19 @@
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1936,19 +1948,19 @@
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -1986,19 +1998,19 @@
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -2030,25 +2042,25 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B13">
         <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -2063,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2080,25 +2092,25 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B14">
         <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -2113,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2130,19 +2142,25 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>2024</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
+        <v>2023</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" t="s">
+        <v>321</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -2166,9 +2184,6 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
         <v>0</v>
       </c>
     </row>
@@ -2183,10 +2198,13 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="F16" t="s">
+        <v>322</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -2218,43 +2236,35 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>2023</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
+      <c r="C17" s="1"/>
+      <c r="D17" t="s">
+        <v>256</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>257</v>
+      </c>
+      <c r="F17" t="s">
+        <v>258</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
         <v>1</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2267,30 +2277,41 @@
       <c r="B18">
         <v>2023</v>
       </c>
-      <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F18" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
       </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2301,46 +2322,31 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
       <c r="E19" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
         <v>1</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -2351,19 +2357,19 @@
         <v>2024</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -2380,30 +2386,30 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>2024</v>
-      </c>
-      <c r="D21" t="s">
-        <v>291</v>
+        <v>2023</v>
       </c>
       <c r="E21" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="F21" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>288</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>1</v>
       </c>
     </row>
@@ -2412,13 +2418,13 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F22" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -2427,15 +2433,12 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="P22">
         <v>1</v>
       </c>
     </row>
@@ -2447,16 +2450,16 @@
         <v>2024</v>
       </c>
       <c r="E23" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -2473,28 +2476,46 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="D24" t="s">
+        <v>251</v>
       </c>
       <c r="E24" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
       </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
         <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -2505,22 +2526,22 @@
         <v>2023</v>
       </c>
       <c r="D25" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E25" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2552,22 +2573,22 @@
         <v>2023</v>
       </c>
       <c r="D26" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2591,33 +2612,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27">
         <v>2023</v>
       </c>
-      <c r="D27" t="s">
-        <v>248</v>
-      </c>
-      <c r="E27" t="s">
-        <v>246</v>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2640,7 +2661,7 @@
     </row>
     <row r="28" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>2023</v>
@@ -2649,10 +2670,10 @@
         <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
@@ -2664,16 +2685,16 @@
         <v>12</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2696,10 +2717,10 @@
         <v>25</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
@@ -2717,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2743,13 +2764,13 @@
         <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
         <v>21</v>
@@ -2758,13 +2779,13 @@
         <v>12</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2779,45 +2800,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
       <c r="B31">
         <v>2023</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>45</v>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2828,7 +2849,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>2023</v>
@@ -2837,13 +2858,13 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -2884,13 +2905,13 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -2931,13 +2952,13 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -2978,13 +2999,13 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
         <v>93</v>
       </c>
-      <c r="E35" t="s">
-        <v>95</v>
-      </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
@@ -3001,8 +3022,11 @@
       <c r="K35">
         <v>0</v>
       </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -3025,13 +3049,13 @@
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
@@ -3048,11 +3072,8 @@
       <c r="K36">
         <v>0</v>
       </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -3075,13 +3096,13 @@
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
@@ -3122,13 +3143,13 @@
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
@@ -3169,13 +3190,13 @@
         <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
@@ -3216,13 +3237,13 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
@@ -3263,13 +3284,13 @@
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -3310,13 +3331,13 @@
         <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
@@ -3357,13 +3378,13 @@
         <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -3404,13 +3425,13 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -3451,13 +3472,13 @@
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
@@ -3498,13 +3519,13 @@
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
@@ -3545,13 +3566,13 @@
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -3592,13 +3613,13 @@
         <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -3639,13 +3660,13 @@
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
@@ -3686,13 +3707,13 @@
         <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -3733,13 +3754,13 @@
         <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -3780,13 +3801,13 @@
         <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
@@ -3803,8 +3824,11 @@
       <c r="K52">
         <v>0</v>
       </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3827,13 +3851,13 @@
         <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -3850,11 +3874,8 @@
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3877,13 +3898,13 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -3924,13 +3945,13 @@
         <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
@@ -3971,13 +3992,13 @@
         <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
@@ -4018,13 +4039,13 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
@@ -4065,13 +4086,13 @@
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
@@ -4108,26 +4129,23 @@
       <c r="B59">
         <v>2023</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D59" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" t="s">
-        <v>118</v>
+        <v>166</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F59" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4135,11 +4153,14 @@
       <c r="K59">
         <v>0</v>
       </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -4150,25 +4171,25 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60">
-        <v>2023</v>
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>320</v>
       </c>
       <c r="D60" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I60" t="s">
         <v>11</v>
@@ -4196,17 +4217,17 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>18</v>
+      <c r="C61" t="s">
+        <v>320</v>
       </c>
       <c r="D61" t="s">
         <v>32</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -4240,14 +4261,17 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>320</v>
+      </c>
       <c r="D62" t="s">
         <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -4281,14 +4305,17 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>320</v>
+      </c>
       <c r="D63" t="s">
         <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F63" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -4305,6 +4332,9 @@
       <c r="K63">
         <v>0</v>
       </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
       <c r="M63">
         <v>0</v>
       </c>
@@ -4319,14 +4349,17 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>320</v>
+      </c>
       <c r="D64" t="s">
         <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G64" t="s">
         <v>33</v>
@@ -4337,43 +4370,25 @@
       <c r="I64" t="s">
         <v>11</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D65" t="s">
-        <v>32</v>
-      </c>
       <c r="E65" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="F65" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
       </c>
       <c r="H65" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="I65" t="s">
         <v>11</v>
@@ -4387,174 +4402,195 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
       </c>
       <c r="H66" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I66" t="s">
         <v>11</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E67" t="s">
-        <v>276</v>
-      </c>
       <c r="F67" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
       </c>
       <c r="H67" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I67" t="s">
         <v>11</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>274</v>
+      </c>
       <c r="F68" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I68" t="s">
         <v>11</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F69" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
       </c>
       <c r="H69" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I69" t="s">
         <v>11</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F70" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
       </c>
       <c r="H70" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I70" t="s">
         <v>11</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F71" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
       </c>
       <c r="H71" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I71" t="s">
         <v>11</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F72" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
       </c>
       <c r="H72" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I72" t="s">
         <v>11</v>
       </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>2023</v>
+      </c>
+      <c r="D73" t="s">
+        <v>38</v>
+      </c>
       <c r="E73" t="s">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="F73" t="s">
-        <v>274</v>
+        <v>170</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H73" t="s">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="I73" t="s">
         <v>11</v>
@@ -4569,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4582,6 +4618,9 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>165</v>
+      </c>
       <c r="B74">
         <v>2023</v>
       </c>
@@ -4589,10 +4628,10 @@
         <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -4627,7 +4666,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B75">
         <v>2023</v>
@@ -4636,10 +4675,10 @@
         <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F75" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G75" t="s">
         <v>34</v>
@@ -4674,75 +4713,60 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B76">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="H76" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="I76" t="s">
         <v>11</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
       <c r="L76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76">
         <v>1</v>
       </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
       <c r="O76">
         <v>0</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="B77">
         <v>2024</v>
       </c>
-      <c r="D77" t="s">
-        <v>39</v>
-      </c>
-      <c r="E77" t="s">
-        <v>52</v>
+      <c r="E77" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F77" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G77" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H77" t="s">
-        <v>119</v>
-      </c>
-      <c r="I77" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4754,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -4764,17 +4788,23 @@
       <c r="B78">
         <v>2024</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>127</v>
+      <c r="D78" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" t="s">
+        <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G78" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H78" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4796,23 +4826,17 @@
       <c r="B79">
         <v>2024</v>
       </c>
-      <c r="D79" t="s">
-        <v>40</v>
-      </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="F79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G79" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H79" t="s">
-        <v>121</v>
-      </c>
-      <c r="I79" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -4834,17 +4858,23 @@
       <c r="B80">
         <v>2024</v>
       </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
       <c r="E80" t="s">
-        <v>184</v>
-      </c>
-      <c r="F80" t="s">
-        <v>179</v>
+        <v>51</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="G80" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H80" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="I80" t="s">
+        <v>11</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -4866,23 +4896,17 @@
       <c r="B81">
         <v>2024</v>
       </c>
-      <c r="D81" t="s">
-        <v>41</v>
-      </c>
       <c r="E81" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H81" t="s">
-        <v>123</v>
-      </c>
-      <c r="I81" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -4904,17 +4928,20 @@
       <c r="B82">
         <v>2024</v>
       </c>
-      <c r="E82" t="s">
-        <v>185</v>
+      <c r="D82" t="s">
+        <v>42</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G82" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H82" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -4936,22 +4963,19 @@
       <c r="B83">
         <v>2024</v>
       </c>
-      <c r="D83" t="s">
-        <v>42</v>
-      </c>
       <c r="F83" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G83" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H83" t="s">
-        <v>125</v>
-      </c>
-      <c r="I83" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
         <v>1</v>
       </c>
       <c r="O83">
@@ -4965,55 +4989,64 @@
       <c r="A84" t="s">
         <v>18</v>
       </c>
-      <c r="B84">
-        <v>2024</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>183</v>
+      <c r="D84" t="s">
+        <v>210</v>
+      </c>
+      <c r="E84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" t="s">
+        <v>53</v>
       </c>
       <c r="G84" t="s">
-        <v>216</v>
+        <v>43</v>
       </c>
       <c r="H84" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
       <c r="O84">
         <v>0</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D85" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E85" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c r="G85" t="s">
         <v>43</v>
       </c>
       <c r="H85" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
       <c r="O85">
         <v>0</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
@@ -5021,21 +5054,24 @@
         <v>43</v>
       </c>
       <c r="D86" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F86" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G86" t="s">
         <v>43</v>
       </c>
       <c r="H86" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
         <v>1</v>
       </c>
       <c r="O86">
@@ -5050,21 +5086,24 @@
         <v>43</v>
       </c>
       <c r="D87" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E87" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F87" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
       </c>
       <c r="H87" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
         <v>1</v>
       </c>
       <c r="O87">
@@ -5079,19 +5118,19 @@
         <v>43</v>
       </c>
       <c r="D88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E88" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F88" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G88" t="s">
         <v>43</v>
       </c>
       <c r="H88" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5111,21 +5150,24 @@
         <v>43</v>
       </c>
       <c r="D89" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E89" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F89" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G89" t="s">
         <v>43</v>
       </c>
       <c r="H89" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
         <v>1</v>
       </c>
       <c r="O89">
@@ -5140,21 +5182,27 @@
         <v>43</v>
       </c>
       <c r="D90" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="E90" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="F90" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="G90" t="s">
         <v>43</v>
       </c>
       <c r="H90" t="s">
-        <v>210</v>
+        <v>44</v>
+      </c>
+      <c r="I90" t="s">
+        <v>12</v>
       </c>
       <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
         <v>1</v>
       </c>
       <c r="O90">
@@ -5169,7 +5217,10 @@
         <v>43</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="E91" t="s">
+        <v>317</v>
       </c>
       <c r="F91" t="s">
         <v>263</v>
@@ -5201,10 +5252,13 @@
         <v>43</v>
       </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="E92" t="s">
+        <v>318</v>
       </c>
       <c r="F92" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G92" t="s">
         <v>43</v>
@@ -5233,10 +5287,13 @@
         <v>43</v>
       </c>
       <c r="D93" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="E93" t="s">
+        <v>319</v>
       </c>
       <c r="F93" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G93" t="s">
         <v>43</v>
@@ -5252,9 +5309,6 @@
       </c>
       <c r="M93">
         <v>1</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5264,23 +5318,29 @@
       <c r="A94" t="s">
         <v>43</v>
       </c>
+      <c r="B94">
+        <v>2023</v>
+      </c>
       <c r="D94" t="s">
-        <v>282</v>
+        <v>219</v>
+      </c>
+      <c r="E94" t="s">
+        <v>234</v>
       </c>
       <c r="F94" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
       </c>
       <c r="H94" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -5291,19 +5351,16 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95">
-        <v>2023</v>
+        <v>214</v>
       </c>
       <c r="D95" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E95" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F95" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G95" t="s">
         <v>43</v>
@@ -5323,16 +5380,16 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" t="s">
+        <v>219</v>
+      </c>
+      <c r="E96" t="s">
+        <v>236</v>
+      </c>
+      <c r="F96" t="s">
         <v>217</v>
-      </c>
-      <c r="D96" t="s">
-        <v>222</v>
-      </c>
-      <c r="E96" t="s">
-        <v>238</v>
-      </c>
-      <c r="F96" t="s">
-        <v>219</v>
       </c>
       <c r="G96" t="s">
         <v>43</v>
@@ -5344,6 +5401,9 @@
         <v>11</v>
       </c>
       <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
         <v>1</v>
       </c>
       <c r="P96">
@@ -5355,13 +5415,13 @@
         <v>43</v>
       </c>
       <c r="D97" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E97" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F97" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -5381,19 +5441,25 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>164</v>
+      </c>
+      <c r="B98">
+        <v>2024</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="E98" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="F98" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H98" t="s">
         <v>10</v>
@@ -5401,31 +5467,31 @@
       <c r="I98" t="s">
         <v>11</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>1</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B99">
         <v>2024</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
-      </c>
-      <c r="E99" t="s">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="F99" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G99" t="s">
         <v>29</v>
@@ -5437,27 +5503,24 @@
         <v>11</v>
       </c>
       <c r="P99">
-        <v>1</v>
-      </c>
-      <c r="R99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B100">
         <v>2024</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" t="s">
         <v>150</v>
       </c>
-      <c r="D100" t="s">
-        <v>152</v>
-      </c>
       <c r="F100" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G100" t="s">
         <v>29</v>
@@ -5474,19 +5537,19 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B101">
         <v>2024</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D101" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G101" t="s">
         <v>29</v>
@@ -5503,19 +5566,22 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B102">
         <v>2024</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D102" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="E102" t="s">
+        <v>281</v>
       </c>
       <c r="F102" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G102" t="s">
         <v>29</v>
@@ -5526,28 +5592,31 @@
       <c r="I102" t="s">
         <v>11</v>
       </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
       <c r="P102">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B103">
         <v>2024</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D103" t="s">
-        <v>155</v>
-      </c>
-      <c r="E103" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="F103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
@@ -5559,27 +5628,24 @@
         <v>11</v>
       </c>
       <c r="P103">
-        <v>1</v>
-      </c>
-      <c r="R103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B104">
         <v>2024</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D104" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F104" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G104" t="s">
         <v>29</v>
@@ -5596,19 +5662,19 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B105">
         <v>2024</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D105" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F105" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G105" t="s">
         <v>29</v>
@@ -5625,31 +5691,31 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="B106">
         <v>2024</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="D106" t="s">
-        <v>158</v>
+        <v>293</v>
+      </c>
+      <c r="E106" t="s">
+        <v>315</v>
       </c>
       <c r="F106" t="s">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
       </c>
       <c r="H106" t="s">
-        <v>10</v>
+        <v>291</v>
       </c>
       <c r="I106" t="s">
         <v>11</v>
       </c>
-      <c r="P106">
-        <v>0</v>
+      <c r="M106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
@@ -5660,19 +5726,19 @@
         <v>2024</v>
       </c>
       <c r="D107" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E107" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F107" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
       </c>
       <c r="H107" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="I107" t="s">
         <v>11</v>
@@ -5689,22 +5755,22 @@
         <v>2024</v>
       </c>
       <c r="D108" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E108" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F108" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
       </c>
       <c r="H108" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="I108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M108">
         <v>1</v>
@@ -5718,19 +5784,19 @@
         <v>2024</v>
       </c>
       <c r="D109" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E109" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F109" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
       </c>
       <c r="H109" t="s">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="I109" t="s">
         <v>12</v>
@@ -5747,22 +5813,22 @@
         <v>2024</v>
       </c>
       <c r="D110" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E110" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F110" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
       </c>
       <c r="H110" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -5776,22 +5842,22 @@
         <v>2024</v>
       </c>
       <c r="D111" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E111" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F111" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
       </c>
       <c r="H111" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M111">
         <v>1</v>
@@ -5805,92 +5871,63 @@
         <v>2024</v>
       </c>
       <c r="D112" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E112" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F112" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G112" t="s">
         <v>29</v>
       </c>
       <c r="H112" t="s">
-        <v>35</v>
+        <v>292</v>
       </c>
       <c r="I112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>18</v>
-      </c>
-      <c r="B113">
-        <v>2024</v>
-      </c>
-      <c r="D113" t="s">
-        <v>302</v>
-      </c>
-      <c r="E113" t="s">
-        <v>313</v>
-      </c>
-      <c r="F113" t="s">
-        <v>309</v>
-      </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
-      <c r="H113" t="s">
-        <v>295</v>
-      </c>
-      <c r="I113" t="s">
-        <v>11</v>
-      </c>
-      <c r="M113">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{EBB9E06F-3785-BF48-AD54-F663DAAD66E3}"/>
-    <hyperlink ref="C17" r:id="rId2" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{DB028E2E-514E-B24E-B12A-54BF19CC098C}"/>
-    <hyperlink ref="C32" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
-    <hyperlink ref="E31" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
-    <hyperlink ref="E28" r:id="rId5" xr:uid="{5BA81582-EC37-0D4D-B7A9-7AF8598A9DF2}"/>
-    <hyperlink ref="C33" r:id="rId6" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{8F9A199E-EC71-B249-AF59-FF24DB4609B1}"/>
-    <hyperlink ref="C34" r:id="rId7" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{853F30D2-01D5-1548-B4FF-52D758F3D556}"/>
-    <hyperlink ref="C35" r:id="rId8" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C48DB5F5-21AE-CE4D-BB27-7CF2B2B712A7}"/>
-    <hyperlink ref="C36" r:id="rId9" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9ED5901C-DC91-CC49-A723-A9C49A700057}"/>
-    <hyperlink ref="C37" r:id="rId10" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{681B51E0-45E0-AF4A-A5EE-28748A165692}"/>
-    <hyperlink ref="C38" r:id="rId11" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{BA262E0F-F122-CE49-B193-E111B00E4D19}"/>
-    <hyperlink ref="C39" r:id="rId12" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2C9985A0-6AD7-9A41-9565-94AA54B8F20A}"/>
-    <hyperlink ref="C40" r:id="rId13" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{42C6419B-1F9C-464D-942C-629DBE1A763F}"/>
-    <hyperlink ref="C41" r:id="rId14" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFF16103-3C13-2B47-B8FA-7ED24283F351}"/>
-    <hyperlink ref="C42" r:id="rId15" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{E38CC7D2-2BD2-AC45-99BE-32F76871EC00}"/>
-    <hyperlink ref="C43" r:id="rId16" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C9FC1701-99F3-314F-8A4C-4CCCDD235EA2}"/>
-    <hyperlink ref="C44" r:id="rId17" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EC4E26BD-F1A6-2647-A8E9-40DA20AB83BF}"/>
-    <hyperlink ref="C45" r:id="rId18" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{B86C6F60-6096-CD42-B6D4-337F4666A137}"/>
-    <hyperlink ref="C46" r:id="rId19" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{33B4FEAD-F100-6845-A5C0-78998BA2E0AD}"/>
-    <hyperlink ref="C47" r:id="rId20" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{A7F28363-67D9-DE4F-8511-F087659BD3BB}"/>
-    <hyperlink ref="C48" r:id="rId21" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C7DDCDCC-39CA-5A4A-9204-AC06FD62324C}"/>
-    <hyperlink ref="C49" r:id="rId22" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CDD3098C-5532-2243-91DE-779275449D7C}"/>
-    <hyperlink ref="C50" r:id="rId23" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2FDC7CE7-0E8D-7A43-B2CB-F08FEB0D0C86}"/>
-    <hyperlink ref="C51" r:id="rId24" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{3EAD12EB-7FAA-6644-8CD0-282CF442DD5F}"/>
-    <hyperlink ref="C52" r:id="rId25" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{37ED5057-FB64-104D-A1AD-880EE76BBBF6}"/>
-    <hyperlink ref="C53" r:id="rId26" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{919807C3-656E-5541-AC46-175D90A0E650}"/>
-    <hyperlink ref="C54" r:id="rId27" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFD73339-E4A6-F444-95CC-E5EF5306A91D}"/>
-    <hyperlink ref="C55" r:id="rId28" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{DE5BB967-701B-3A4E-9953-5C391D746A0E}"/>
-    <hyperlink ref="C56" r:id="rId29" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9D9F29E0-C81C-7B44-9831-E6853C80A7FA}"/>
-    <hyperlink ref="C57" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
-    <hyperlink ref="C58" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
-    <hyperlink ref="C59" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
-    <hyperlink ref="E78" r:id="rId33" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
+    <hyperlink ref="C15" r:id="rId1" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{EBB9E06F-3785-BF48-AD54-F663DAAD66E3}"/>
+    <hyperlink ref="C16" r:id="rId2" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{DB028E2E-514E-B24E-B12A-54BF19CC098C}"/>
+    <hyperlink ref="C31" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
+    <hyperlink ref="E30" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
+    <hyperlink ref="E27" r:id="rId5" xr:uid="{5BA81582-EC37-0D4D-B7A9-7AF8598A9DF2}"/>
+    <hyperlink ref="C32" r:id="rId6" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{8F9A199E-EC71-B249-AF59-FF24DB4609B1}"/>
+    <hyperlink ref="C33" r:id="rId7" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{853F30D2-01D5-1548-B4FF-52D758F3D556}"/>
+    <hyperlink ref="C34" r:id="rId8" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C48DB5F5-21AE-CE4D-BB27-7CF2B2B712A7}"/>
+    <hyperlink ref="C35" r:id="rId9" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9ED5901C-DC91-CC49-A723-A9C49A700057}"/>
+    <hyperlink ref="C36" r:id="rId10" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{681B51E0-45E0-AF4A-A5EE-28748A165692}"/>
+    <hyperlink ref="C37" r:id="rId11" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{BA262E0F-F122-CE49-B193-E111B00E4D19}"/>
+    <hyperlink ref="C38" r:id="rId12" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2C9985A0-6AD7-9A41-9565-94AA54B8F20A}"/>
+    <hyperlink ref="C39" r:id="rId13" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{42C6419B-1F9C-464D-942C-629DBE1A763F}"/>
+    <hyperlink ref="C40" r:id="rId14" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFF16103-3C13-2B47-B8FA-7ED24283F351}"/>
+    <hyperlink ref="C41" r:id="rId15" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{E38CC7D2-2BD2-AC45-99BE-32F76871EC00}"/>
+    <hyperlink ref="C42" r:id="rId16" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C9FC1701-99F3-314F-8A4C-4CCCDD235EA2}"/>
+    <hyperlink ref="C43" r:id="rId17" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EC4E26BD-F1A6-2647-A8E9-40DA20AB83BF}"/>
+    <hyperlink ref="C44" r:id="rId18" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{B86C6F60-6096-CD42-B6D4-337F4666A137}"/>
+    <hyperlink ref="C45" r:id="rId19" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{33B4FEAD-F100-6845-A5C0-78998BA2E0AD}"/>
+    <hyperlink ref="C46" r:id="rId20" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{A7F28363-67D9-DE4F-8511-F087659BD3BB}"/>
+    <hyperlink ref="C47" r:id="rId21" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C7DDCDCC-39CA-5A4A-9204-AC06FD62324C}"/>
+    <hyperlink ref="C48" r:id="rId22" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CDD3098C-5532-2243-91DE-779275449D7C}"/>
+    <hyperlink ref="C49" r:id="rId23" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2FDC7CE7-0E8D-7A43-B2CB-F08FEB0D0C86}"/>
+    <hyperlink ref="C50" r:id="rId24" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{3EAD12EB-7FAA-6644-8CD0-282CF442DD5F}"/>
+    <hyperlink ref="C51" r:id="rId25" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{37ED5057-FB64-104D-A1AD-880EE76BBBF6}"/>
+    <hyperlink ref="C52" r:id="rId26" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{919807C3-656E-5541-AC46-175D90A0E650}"/>
+    <hyperlink ref="C53" r:id="rId27" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFD73339-E4A6-F444-95CC-E5EF5306A91D}"/>
+    <hyperlink ref="C54" r:id="rId28" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{DE5BB967-701B-3A4E-9953-5C391D746A0E}"/>
+    <hyperlink ref="C55" r:id="rId29" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9D9F29E0-C81C-7B44-9831-E6853C80A7FA}"/>
+    <hyperlink ref="C56" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
+    <hyperlink ref="C57" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
+    <hyperlink ref="C58" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
+    <hyperlink ref="E77" r:id="rId33" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
     <hyperlink ref="E2" r:id="rId34" xr:uid="{E191A043-72B0-CC4E-9B58-FE4C461D40C9}"/>
     <hyperlink ref="C14" r:id="rId35" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{88E6D632-2160-2B4D-AD77-9459075894C4}"/>
     <hyperlink ref="C13" r:id="rId36" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{ED18E71A-43E8-A644-BA73-C69B86D50DCF}"/>
@@ -5902,15 +5939,16 @@
     <hyperlink ref="C10" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
     <hyperlink ref="C11" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
     <hyperlink ref="C12" r:id="rId44" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
-    <hyperlink ref="C99" r:id="rId45" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
-    <hyperlink ref="C100" r:id="rId46" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
-    <hyperlink ref="C101" r:id="rId47" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
-    <hyperlink ref="C102" r:id="rId48" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
-    <hyperlink ref="C103" r:id="rId49" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
-    <hyperlink ref="C104" r:id="rId50" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
-    <hyperlink ref="C105" r:id="rId51" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
-    <hyperlink ref="C106" r:id="rId52" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
-    <hyperlink ref="E60" r:id="rId53" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
+    <hyperlink ref="C98" r:id="rId45" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C99" r:id="rId46" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C100" r:id="rId47" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C101" r:id="rId48" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C102" r:id="rId49" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C103" r:id="rId50" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C104" r:id="rId51" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C105" r:id="rId52" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="E59" r:id="rId53" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
+    <hyperlink ref="E60" r:id="rId54" xr:uid="{3FFA047D-54A7-1C4F-8F99-6C3E171DAF81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158CC08-BE33-384B-89B6-76A5E03A3AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D3EFF9-6600-C441-872F-F6FD06ECC4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="351">
   <si>
     <t>Author</t>
   </si>
@@ -1005,6 +1005,90 @@
   </si>
   <si>
     <t>Xenium_glioma</t>
+  </si>
+  <si>
+    <t>Vizgen_uterine_tumor</t>
+  </si>
+  <si>
+    <t>Uterine</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/preview-data-xenium-prime-gene-expression</t>
+  </si>
+  <si>
+    <t>https://s3-us-west-2.amazonaws.com/10x.files/samples/xenium/3.0.0/Xenium_Prime_Human_Lymph_Node_Reactive_FFPE/Xenium_Prime_Human_Lymph_Node_Reactive_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-libraries-of-mouse-kidney</t>
+  </si>
+  <si>
+    <t>Visium_HD_kidney_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_kidney_8um</t>
+  </si>
+  <si>
+    <t>Kidney_2um</t>
+  </si>
+  <si>
+    <t>Kidney_8um</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-libraries-of-mouse-embryo</t>
+  </si>
+  <si>
+    <t>Visium_HD_embryo_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_embryo_8um</t>
+  </si>
+  <si>
+    <t>Embryo_8um</t>
+  </si>
+  <si>
+    <t>Embryo_2um</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-libraries-human-pancreas</t>
+  </si>
+  <si>
+    <t>Visium_HD_pancreas_2um</t>
+  </si>
+  <si>
+    <t>Pancreas_2um</t>
+  </si>
+  <si>
+    <t>Pancreas_8um</t>
+  </si>
+  <si>
+    <t>Visium_HD_pancreas_8um</t>
+  </si>
+  <si>
+    <t>https://plo21a.bl.files.1drv.com/y4mAAWcvG_PEA51SfQq6dRQCLuyLUcg23IcQuyYWn_ZqX4QQ6pLkkB-wcwgzZsXYMNseQ7lR36evHPLdWQV7BBLaM4ugTzaYRPmkBuXIoBloDAvXESI60CS5jzztm2jIDWkVVr6kJDFlU9rGukzg0gHFRUlKrEhZw28lYu9ACwqBkPy7waXyzxjI3lP2y_XNvMhTBy8uRkMlQjbI_c-pjQK6w</t>
+  </si>
+  <si>
+    <t>https://kfaq7a.bl.files.1drv.com/y4mcc5kcI4fdgAhlbJgp05EnxgpPyRBZvDmGZ7blxsr0pag3INBPIF3RNEdnUw6PZmrU2c4ex2GFN9jv-UGTVZGnvSFbRiET1IWq4h94azqYmiCqPASZXKEyidPa-nHm84xShwiuUXX7TM7Apb3fdcnuWqF7On5sHYtRr1e3N2SwhlAc58YxSHOjd6yOPNwQG6E6mnJ74ILENLPRaC0BppJ2g</t>
+  </si>
+  <si>
+    <t>https://xgpnjw.bl.files.1drv.com/y4mXT5vwvcMvBGz2KPLSAj0fjYIewr3ByX1t6R8AdXbjFEH6ubhALJjv2wPbMMQjMf7bs7vpRENK1549XcwYAyTCfhThEusrW5Dt8yEENShoNfKI4PSULITAt88jl5-IMa9NTLJ4g6br3k-mvht3s4Y8t_CLrma2wKLOEOjZ6USym3ARMlQKgJ-Dlqu8iAsC-zTqYta3vf1d4rdbbxquSt6yA</t>
+  </si>
+  <si>
+    <t>https://bw2zja.bl.files.1drv.com/y4mRrmb_GzHjbX6slTKtW1Bp8kU7kLTCVVw06VGlacSv-QUt1aayNGDkEYFzAEXP1UvCpgXV8b_y7mXCmn5nQXnCvwrE4FfGH5fa2XdlghN8gazx28FOzgev5qr6jtwFXi9anWMtZpfQOXfQPg7AwTDurhJ1EeK89nVIhcF3mpCTr9cO59K-iADYj0dF2t7EQoJ_touNNCWYrQUntZpt0scqw</t>
+  </si>
+  <si>
+    <t>https://8wxxpw.bl.files.1drv.com/y4mnpDhhBRAiAigrANSwrREnPR9QEnbiPRjtUCVziTtb_WF8MX7n1wg9bXYN4C-Pyc8MsKRsLeIZ1lvAztkUBOBWs0Nwzu_qkzDodPVxabDnsL1e9rS8wKiK4e4sInuRLzhmSfBek6OPVIVyvqzlUab3XrStdCfraf5o08Ye166-UZph9oclA_V4IqYPJBl8_Y6L2lLFW-g_BWQ78C8EWxlaA</t>
+  </si>
+  <si>
+    <t>https://joeysg.bl.files.1drv.com/y4mFmO7DeqYMvKf82lbsTi_gItqBQZxHLIiz2s2hEYAm6ekWFMuDgXuI1Jikgk4RMo18yaNikJoz-qEaoE4bsqqMoIrA2onhC40BQKKsva7q-kjc3qJ6YYoAzTIxD6gyjsjzLQ2QME2gBuVb0oRhFWi1Eux4a4KzuEDYH4gWPOn7Ni_HGsmBhOiaVap03nGBY2kZtP2ZnMaFJEljFwlI9tNOw</t>
+  </si>
+  <si>
+    <t>https://cojalw.bl.files.1drv.com/y4m0H96PsxJ4GMiAfsiW1Wwp6GA6rXwnIdpvtaxK-2B98u32coqJ_v6JnCWORkfc_Dndm7Gve1dOV8r0bfLkML7zoTo6WYRP143abR2Z9-zcQA9Wl4NgcRQekEA8Vz2eLNv-V3OQ8cg71e8iYDEnE562aJIERO-oaPqI8XNJIW3eYZrGtS8egc3JPztmwtN1YsJoZDvz-F0Ktr2OMGLbqrjYw</t>
+  </si>
+  <si>
+    <t>https://lchadw.bl.files.1drv.com/y4m0mdWnnrKzAU5_C0aBk7PsC8J60rT89EGJ3aKvW1dQYLbeWJrTV6vxgzqB66ELvkcCAH_MKO9OcmFESY3-3cC4B0qVz7NeWGdU-a90avbedtr46daeeWbctM8lzosMJt-sbW4znesOgG5mh_Meew93H6tiXJDQjhfVEN0rgrhcjRu3s9sGYsIE30u0AqDygwRoO0vaMJS50HHw7ort4qQbA</t>
+  </si>
+  <si>
+    <t>https://8lnqra.bl.files.1drv.com/y4mFb8hHPvBNWVIW_jr7iFopoHbaVxSFUo8zr2Y02nc2dFwpt1cbRs7XflAC6ZeT6eVdjZHfG2QkIx8Doz3h9FjzU8fjtOgJ6o62hCMYuWi4bBM3ZcGkFGN_CGwDu4BGjA_fOkmsbQUt3u0hzg3NkJW1obP0AtVzjLuiaS6Pk2k9s84nN9lwQdqQJsaIhFZu0YPEnvPzJnZ_H4EYyF3iwEFtA</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:R112"/>
+  <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C93" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2436,10 +2520,10 @@
         <v>12</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -2476,13 +2560,13 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="E24" t="s">
-        <v>253</v>
+        <v>326</v>
       </c>
       <c r="F24" t="s">
         <v>254</v>
@@ -2496,26 +2580,11 @@
       <c r="I24" t="s">
         <v>12</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
         <v>1</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -2526,22 +2595,22 @@
         <v>2023</v>
       </c>
       <c r="D25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E25" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2573,22 +2642,22 @@
         <v>2023</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E26" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2612,33 +2681,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27">
         <v>2023</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>48</v>
+      <c r="D27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" t="s">
+        <v>243</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2661,7 +2730,7 @@
     </row>
     <row r="28" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>2023</v>
@@ -2670,10 +2739,10 @@
         <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
@@ -2685,16 +2754,16 @@
         <v>12</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2717,10 +2786,10 @@
         <v>25</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
@@ -2738,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2764,13 +2833,13 @@
         <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
         <v>21</v>
@@ -2779,13 +2848,13 @@
         <v>12</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2800,45 +2869,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
       <c r="B31">
         <v>2023</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" t="s">
-        <v>58</v>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2849,7 +2918,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <v>2023</v>
@@ -2861,10 +2930,10 @@
         <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -2908,10 +2977,10 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -2955,10 +3024,10 @@
         <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -3002,10 +3071,10 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
@@ -3022,11 +3091,8 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -3052,10 +3118,10 @@
         <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
@@ -3072,8 +3138,11 @@
       <c r="K36">
         <v>0</v>
       </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -3099,10 +3168,10 @@
         <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
@@ -3146,10 +3215,10 @@
         <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
@@ -3193,10 +3262,10 @@
         <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
@@ -3240,10 +3309,10 @@
         <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
@@ -3287,10 +3356,10 @@
         <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -3334,10 +3403,10 @@
         <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
@@ -3381,10 +3450,10 @@
         <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -3428,10 +3497,10 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -3475,10 +3544,10 @@
         <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
@@ -3522,10 +3591,10 @@
         <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
@@ -3569,10 +3638,10 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -3616,10 +3685,10 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -3663,10 +3732,10 @@
         <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
@@ -3710,10 +3779,10 @@
         <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -3757,10 +3826,10 @@
         <v>90</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -3804,10 +3873,10 @@
         <v>90</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
@@ -3824,11 +3893,8 @@
       <c r="K52">
         <v>0</v>
       </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3854,10 +3920,10 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -3874,8 +3940,11 @@
       <c r="K53">
         <v>0</v>
       </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3901,10 +3970,10 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -3948,10 +4017,10 @@
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
@@ -3995,10 +4064,10 @@
         <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
@@ -4042,10 +4111,10 @@
         <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
@@ -4089,10 +4158,10 @@
         <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
@@ -4129,23 +4198,26 @@
       <c r="B59">
         <v>2023</v>
       </c>
+      <c r="C59" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D59" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="E59" t="s">
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4153,14 +4225,11 @@
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -4171,25 +4240,25 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" t="s">
-        <v>320</v>
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <v>2023</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
         <v>11</v>
@@ -4217,17 +4286,20 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
       <c r="C61" t="s">
         <v>320</v>
       </c>
       <c r="D61" t="s">
         <v>32</v>
       </c>
-      <c r="E61" t="s">
-        <v>193</v>
+      <c r="E61" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="F61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -4268,10 +4340,10 @@
         <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -4312,10 +4384,10 @@
         <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -4333,10 +4405,10 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4356,10 +4428,10 @@
         <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G64" t="s">
         <v>33</v>
@@ -4370,25 +4442,46 @@
       <c r="I64" t="s">
         <v>11</v>
       </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>320</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
       <c r="E65" t="s">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="F65" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
       </c>
       <c r="H65" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="I65" t="s">
         <v>11</v>
@@ -4402,10 +4495,10 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
@@ -4417,15 +4510,18 @@
         <v>11</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>273</v>
+      </c>
       <c r="F67" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -4437,18 +4533,15 @@
         <v>11</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E68" t="s">
-        <v>274</v>
-      </c>
       <c r="F68" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
@@ -4460,18 +4553,18 @@
         <v>11</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -4483,18 +4576,18 @@
         <v>11</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -4506,18 +4599,18 @@
         <v>11</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -4529,18 +4622,18 @@
         <v>11</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -4551,46 +4644,25 @@
       <c r="I72" t="s">
         <v>11</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B73">
-        <v>2023</v>
-      </c>
-      <c r="D73" t="s">
-        <v>38</v>
-      </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="F73" t="s">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="I73" t="s">
         <v>11</v>
@@ -4605,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4618,9 +4690,6 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>165</v>
-      </c>
       <c r="B74">
         <v>2023</v>
       </c>
@@ -4628,10 +4697,10 @@
         <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -4652,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4675,10 +4744,10 @@
         <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G75" t="s">
         <v>34</v>
@@ -4699,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4716,57 +4785,72 @@
         <v>165</v>
       </c>
       <c r="B76">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="F76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G76" t="s">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="H76" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="I76" t="s">
         <v>11</v>
       </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
       <c r="L76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
       </c>
       <c r="O76">
         <v>0</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B77">
         <v>2024</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>124</v>
+      <c r="D77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" t="s">
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G77" t="s">
         <v>213</v>
       </c>
       <c r="H77" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4778,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -4788,23 +4872,17 @@
       <c r="B78">
         <v>2024</v>
       </c>
-      <c r="D78" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" t="s">
-        <v>50</v>
+      <c r="E78" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G78" t="s">
         <v>213</v>
       </c>
       <c r="H78" t="s">
-        <v>118</v>
-      </c>
-      <c r="I78" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4826,17 +4904,23 @@
       <c r="B79">
         <v>2024</v>
       </c>
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G79" t="s">
         <v>213</v>
       </c>
       <c r="H79" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -4858,23 +4942,17 @@
       <c r="B80">
         <v>2024</v>
       </c>
-      <c r="D80" t="s">
-        <v>41</v>
-      </c>
       <c r="E80" t="s">
-        <v>51</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="F80" t="s">
+        <v>176</v>
       </c>
       <c r="G80" t="s">
         <v>213</v>
       </c>
       <c r="H80" t="s">
-        <v>120</v>
-      </c>
-      <c r="I80" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -4896,29 +4974,29 @@
       <c r="B81">
         <v>2024</v>
       </c>
+      <c r="D81" t="s">
+        <v>327</v>
+      </c>
       <c r="E81" t="s">
-        <v>182</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>178</v>
+        <v>345</v>
+      </c>
+      <c r="F81" t="s">
+        <v>328</v>
       </c>
       <c r="G81" t="s">
         <v>213</v>
       </c>
       <c r="H81" t="s">
-        <v>121</v>
+        <v>330</v>
+      </c>
+      <c r="I81" t="s">
+        <v>11</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81">
         <v>1</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -4928,32 +5006,23 @@
       <c r="B82">
         <v>2024</v>
       </c>
-      <c r="D82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>179</v>
+      <c r="E82" t="s">
+        <v>348</v>
+      </c>
+      <c r="F82" t="s">
+        <v>329</v>
       </c>
       <c r="G82" t="s">
         <v>213</v>
       </c>
       <c r="H82" t="s">
-        <v>122</v>
-      </c>
-      <c r="I82" t="s">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82">
         <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -4963,142 +5032,136 @@
       <c r="B83">
         <v>2024</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>180</v>
+      <c r="D83" t="s">
+        <v>332</v>
+      </c>
+      <c r="E83" t="s">
+        <v>344</v>
+      </c>
+      <c r="F83" t="s">
+        <v>333</v>
       </c>
       <c r="G83" t="s">
         <v>213</v>
       </c>
       <c r="H83" t="s">
-        <v>123</v>
+        <v>336</v>
+      </c>
+      <c r="I83" t="s">
+        <v>11</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
       <c r="M83">
         <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>18</v>
       </c>
-      <c r="D84" t="s">
-        <v>210</v>
+      <c r="B84">
+        <v>2024</v>
       </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>347</v>
       </c>
       <c r="F84" t="s">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="H84" t="s">
-        <v>10</v>
+        <v>335</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="B85">
+        <v>2024</v>
       </c>
       <c r="D85" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="E85" t="s">
-        <v>202</v>
+        <v>343</v>
       </c>
       <c r="F85" t="s">
-        <v>197</v>
+        <v>338</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
       <c r="M85">
         <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D86" t="s">
-        <v>210</v>
+        <v>18</v>
+      </c>
+      <c r="B86">
+        <v>2024</v>
       </c>
       <c r="E86" t="s">
-        <v>203</v>
+        <v>346</v>
       </c>
       <c r="F86" t="s">
-        <v>198</v>
+        <v>341</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="H86" t="s">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
       <c r="M86">
         <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="B87">
+        <v>2024</v>
       </c>
       <c r="D87" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="E87" t="s">
-        <v>204</v>
-      </c>
-      <c r="F87" t="s">
-        <v>199</v>
+        <v>51</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="H87" t="s">
-        <v>209</v>
+        <v>120</v>
+      </c>
+      <c r="I87" t="s">
+        <v>11</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -5115,22 +5178,22 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" t="s">
-        <v>211</v>
+        <v>18</v>
+      </c>
+      <c r="B88">
+        <v>2024</v>
       </c>
       <c r="E88" t="s">
-        <v>205</v>
-      </c>
-      <c r="F88" t="s">
-        <v>200</v>
+        <v>182</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="H88" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5147,22 +5210,28 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="B89">
+        <v>2024</v>
       </c>
       <c r="D89" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="E89" t="s">
-        <v>206</v>
-      </c>
-      <c r="F89" t="s">
-        <v>201</v>
+        <v>349</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="H89" t="s">
-        <v>207</v>
+        <v>122</v>
+      </c>
+      <c r="I89" t="s">
+        <v>12</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5179,28 +5248,25 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" t="s">
-        <v>279</v>
+        <v>18</v>
+      </c>
+      <c r="B90">
+        <v>2024</v>
       </c>
       <c r="E90" t="s">
-        <v>316</v>
-      </c>
-      <c r="F90" t="s">
-        <v>260</v>
+        <v>350</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="H90" t="s">
-        <v>44</v>
-      </c>
-      <c r="I90" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <v>1</v>
@@ -5214,28 +5280,25 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="E91" t="s">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="F91" t="s">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c r="G91" t="s">
         <v>43</v>
       </c>
       <c r="H91" t="s">
-        <v>44</v>
-      </c>
-      <c r="I91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -5244,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
@@ -5252,25 +5315,22 @@
         <v>43</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="E92" t="s">
-        <v>318</v>
+        <v>202</v>
       </c>
       <c r="F92" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="G92" t="s">
         <v>43</v>
       </c>
       <c r="H92" t="s">
-        <v>44</v>
-      </c>
-      <c r="I92" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -5287,28 +5347,28 @@
         <v>43</v>
       </c>
       <c r="D93" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="E93" t="s">
-        <v>319</v>
+        <v>203</v>
       </c>
       <c r="F93" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="G93" t="s">
         <v>43</v>
       </c>
       <c r="H93" t="s">
-        <v>44</v>
-      </c>
-      <c r="I93" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93">
         <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5318,61 +5378,58 @@
       <c r="A94" t="s">
         <v>43</v>
       </c>
-      <c r="B94">
-        <v>2023</v>
-      </c>
       <c r="D94" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="F94" t="s">
-        <v>215</v>
+        <v>323</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
       </c>
       <c r="H94" t="s">
-        <v>10</v>
+        <v>324</v>
       </c>
       <c r="I94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94">
         <v>1</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="D95" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E95" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="F95" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="G95" t="s">
         <v>43</v>
       </c>
       <c r="H95" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="L95">
         <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5383,28 +5440,28 @@
         <v>43</v>
       </c>
       <c r="D96" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E96" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="F96" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G96" t="s">
         <v>43</v>
       </c>
       <c r="H96" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="L96">
         <v>1</v>
       </c>
       <c r="M96">
         <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -5415,25 +5472,28 @@
         <v>43</v>
       </c>
       <c r="D97" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E97" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="F97" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="L97">
         <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5441,66 +5501,69 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>164</v>
-      </c>
-      <c r="B98">
-        <v>2024</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="D98" t="s">
-        <v>148</v>
+        <v>279</v>
       </c>
       <c r="E98" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="F98" t="s">
-        <v>156</v>
+        <v>260</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I98" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
       <c r="P98">
-        <v>1</v>
-      </c>
-      <c r="R98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>164</v>
-      </c>
-      <c r="B99">
-        <v>2024</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="D99" t="s">
-        <v>149</v>
+        <v>279</v>
+      </c>
+      <c r="E99" t="s">
+        <v>317</v>
       </c>
       <c r="F99" t="s">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I99" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -5508,28 +5571,34 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>164</v>
-      </c>
-      <c r="B100">
-        <v>2024</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="D100" t="s">
-        <v>150</v>
+        <v>279</v>
+      </c>
+      <c r="E100" t="s">
+        <v>318</v>
       </c>
       <c r="F100" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H100" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I100" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -5537,28 +5606,31 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>164</v>
-      </c>
-      <c r="B101">
-        <v>2024</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>279</v>
+      </c>
+      <c r="E101" t="s">
+        <v>319</v>
       </c>
       <c r="F101" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H101" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I101" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -5566,25 +5638,22 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="B102">
-        <v>2024</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>147</v>
+        <v>2023</v>
       </c>
       <c r="D102" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="E102" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="F102" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H102" t="s">
         <v>10</v>
@@ -5592,34 +5661,31 @@
       <c r="I102" t="s">
         <v>11</v>
       </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
       <c r="M102">
         <v>1</v>
       </c>
       <c r="P102">
-        <v>1</v>
-      </c>
-      <c r="R102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>164</v>
-      </c>
-      <c r="B103">
-        <v>2024</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="D103" t="s">
-        <v>153</v>
+        <v>219</v>
+      </c>
+      <c r="E103" t="s">
+        <v>235</v>
       </c>
       <c r="F103" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H103" t="s">
         <v>10</v>
@@ -5627,28 +5693,28 @@
       <c r="I103" t="s">
         <v>11</v>
       </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
       <c r="P103">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>164</v>
-      </c>
-      <c r="B104">
-        <v>2024</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="D104" t="s">
-        <v>154</v>
+        <v>219</v>
+      </c>
+      <c r="E104" t="s">
+        <v>236</v>
       </c>
       <c r="F104" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H104" t="s">
         <v>10</v>
@@ -5656,28 +5722,31 @@
       <c r="I104" t="s">
         <v>11</v>
       </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
       <c r="P104">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>164</v>
-      </c>
-      <c r="B105">
-        <v>2024</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="D105" t="s">
-        <v>155</v>
+        <v>219</v>
+      </c>
+      <c r="E105" t="s">
+        <v>237</v>
       </c>
       <c r="F105" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H105" t="s">
         <v>10</v>
@@ -5685,31 +5754,37 @@
       <c r="I105" t="s">
         <v>11</v>
       </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
       <c r="P105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B106">
         <v>2024</v>
       </c>
+      <c r="C106" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D106" t="s">
-        <v>293</v>
+        <v>148</v>
       </c>
       <c r="E106" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="F106" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
       </c>
       <c r="H106" t="s">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="I106" t="s">
         <v>11</v>
@@ -5717,109 +5792,118 @@
       <c r="M106">
         <v>1</v>
       </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B107">
         <v>2024</v>
       </c>
+      <c r="C107" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D107" t="s">
-        <v>294</v>
-      </c>
-      <c r="E107" t="s">
-        <v>313</v>
+        <v>149</v>
       </c>
       <c r="F107" t="s">
-        <v>301</v>
+        <v>157</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
       </c>
       <c r="H107" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I107" t="s">
         <v>11</v>
       </c>
-      <c r="M107">
-        <v>1</v>
+      <c r="P107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B108">
         <v>2024</v>
       </c>
+      <c r="C108" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D108" t="s">
-        <v>295</v>
-      </c>
-      <c r="E108" t="s">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="F108" t="s">
-        <v>302</v>
+        <v>158</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
       </c>
       <c r="H108" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="I108" t="s">
-        <v>12</v>
-      </c>
-      <c r="M108">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B109">
         <v>2024</v>
       </c>
+      <c r="C109" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D109" t="s">
-        <v>296</v>
-      </c>
-      <c r="E109" t="s">
-        <v>314</v>
+        <v>151</v>
       </c>
       <c r="F109" t="s">
-        <v>303</v>
+        <v>159</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
       </c>
       <c r="H109" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I109" t="s">
-        <v>12</v>
-      </c>
-      <c r="M109">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B110">
         <v>2024</v>
       </c>
+      <c r="C110" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D110" t="s">
-        <v>297</v>
+        <v>152</v>
       </c>
       <c r="E110" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F110" t="s">
-        <v>304</v>
+        <v>160</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -5833,62 +5917,300 @@
       <c r="M110">
         <v>1</v>
       </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B111">
         <v>2024</v>
       </c>
+      <c r="C111" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D111" t="s">
-        <v>298</v>
-      </c>
-      <c r="E111" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
       <c r="F111" t="s">
-        <v>305</v>
+        <v>161</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
       </c>
       <c r="H111" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I111" t="s">
-        <v>12</v>
-      </c>
-      <c r="M111">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B112">
         <v>2024</v>
       </c>
+      <c r="C112" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D112" t="s">
-        <v>299</v>
-      </c>
-      <c r="E112" t="s">
-        <v>310</v>
+        <v>154</v>
       </c>
       <c r="F112" t="s">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="G112" t="s">
         <v>29</v>
       </c>
       <c r="H112" t="s">
-        <v>292</v>
+        <v>10</v>
       </c>
       <c r="I112" t="s">
         <v>11</v>
       </c>
-      <c r="M112">
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113">
+        <v>2024</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D113" t="s">
+        <v>155</v>
+      </c>
+      <c r="F113" t="s">
+        <v>163</v>
+      </c>
+      <c r="G113" t="s">
+        <v>29</v>
+      </c>
+      <c r="H113" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" t="s">
+        <v>11</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114">
+        <v>2024</v>
+      </c>
+      <c r="D114" t="s">
+        <v>293</v>
+      </c>
+      <c r="E114" t="s">
+        <v>315</v>
+      </c>
+      <c r="F114" t="s">
+        <v>300</v>
+      </c>
+      <c r="G114" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" t="s">
+        <v>291</v>
+      </c>
+      <c r="I114" t="s">
+        <v>11</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115">
+        <v>2024</v>
+      </c>
+      <c r="D115" t="s">
+        <v>294</v>
+      </c>
+      <c r="E115" t="s">
+        <v>313</v>
+      </c>
+      <c r="F115" t="s">
+        <v>301</v>
+      </c>
+      <c r="G115" t="s">
+        <v>29</v>
+      </c>
+      <c r="H115" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116">
+        <v>2024</v>
+      </c>
+      <c r="D116" t="s">
+        <v>295</v>
+      </c>
+      <c r="E116" t="s">
+        <v>312</v>
+      </c>
+      <c r="F116" t="s">
+        <v>302</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+      <c r="H116" t="s">
+        <v>209</v>
+      </c>
+      <c r="I116" t="s">
+        <v>12</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117">
+        <v>2024</v>
+      </c>
+      <c r="D117" t="s">
+        <v>296</v>
+      </c>
+      <c r="E117" t="s">
+        <v>314</v>
+      </c>
+      <c r="F117" t="s">
+        <v>303</v>
+      </c>
+      <c r="G117" t="s">
+        <v>29</v>
+      </c>
+      <c r="H117" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" t="s">
+        <v>12</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118">
+        <v>2024</v>
+      </c>
+      <c r="D118" t="s">
+        <v>297</v>
+      </c>
+      <c r="E118" t="s">
+        <v>311</v>
+      </c>
+      <c r="F118" t="s">
+        <v>304</v>
+      </c>
+      <c r="G118" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" t="s">
+        <v>11</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119">
+        <v>2024</v>
+      </c>
+      <c r="D119" t="s">
+        <v>298</v>
+      </c>
+      <c r="E119" t="s">
+        <v>309</v>
+      </c>
+      <c r="F119" t="s">
+        <v>305</v>
+      </c>
+      <c r="G119" t="s">
+        <v>29</v>
+      </c>
+      <c r="H119" t="s">
+        <v>35</v>
+      </c>
+      <c r="I119" t="s">
+        <v>12</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120">
+        <v>2024</v>
+      </c>
+      <c r="D120" t="s">
+        <v>299</v>
+      </c>
+      <c r="E120" t="s">
+        <v>310</v>
+      </c>
+      <c r="F120" t="s">
+        <v>306</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" t="s">
+        <v>292</v>
+      </c>
+      <c r="I120" t="s">
+        <v>11</v>
+      </c>
+      <c r="M120">
         <v>1</v>
       </c>
     </row>
@@ -5897,37 +6219,37 @@
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{EBB9E06F-3785-BF48-AD54-F663DAAD66E3}"/>
     <hyperlink ref="C16" r:id="rId2" display="https://doi.org/10.1093/noajnl/vdad142" xr:uid="{DB028E2E-514E-B24E-B12A-54BF19CC098C}"/>
-    <hyperlink ref="C31" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
-    <hyperlink ref="E30" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
-    <hyperlink ref="E27" r:id="rId5" xr:uid="{5BA81582-EC37-0D4D-B7A9-7AF8598A9DF2}"/>
-    <hyperlink ref="C32" r:id="rId6" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{8F9A199E-EC71-B249-AF59-FF24DB4609B1}"/>
-    <hyperlink ref="C33" r:id="rId7" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{853F30D2-01D5-1548-B4FF-52D758F3D556}"/>
-    <hyperlink ref="C34" r:id="rId8" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C48DB5F5-21AE-CE4D-BB27-7CF2B2B712A7}"/>
-    <hyperlink ref="C35" r:id="rId9" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9ED5901C-DC91-CC49-A723-A9C49A700057}"/>
-    <hyperlink ref="C36" r:id="rId10" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{681B51E0-45E0-AF4A-A5EE-28748A165692}"/>
-    <hyperlink ref="C37" r:id="rId11" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{BA262E0F-F122-CE49-B193-E111B00E4D19}"/>
-    <hyperlink ref="C38" r:id="rId12" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2C9985A0-6AD7-9A41-9565-94AA54B8F20A}"/>
-    <hyperlink ref="C39" r:id="rId13" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{42C6419B-1F9C-464D-942C-629DBE1A763F}"/>
-    <hyperlink ref="C40" r:id="rId14" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFF16103-3C13-2B47-B8FA-7ED24283F351}"/>
-    <hyperlink ref="C41" r:id="rId15" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{E38CC7D2-2BD2-AC45-99BE-32F76871EC00}"/>
-    <hyperlink ref="C42" r:id="rId16" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C9FC1701-99F3-314F-8A4C-4CCCDD235EA2}"/>
-    <hyperlink ref="C43" r:id="rId17" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EC4E26BD-F1A6-2647-A8E9-40DA20AB83BF}"/>
-    <hyperlink ref="C44" r:id="rId18" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{B86C6F60-6096-CD42-B6D4-337F4666A137}"/>
-    <hyperlink ref="C45" r:id="rId19" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{33B4FEAD-F100-6845-A5C0-78998BA2E0AD}"/>
-    <hyperlink ref="C46" r:id="rId20" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{A7F28363-67D9-DE4F-8511-F087659BD3BB}"/>
-    <hyperlink ref="C47" r:id="rId21" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C7DDCDCC-39CA-5A4A-9204-AC06FD62324C}"/>
-    <hyperlink ref="C48" r:id="rId22" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CDD3098C-5532-2243-91DE-779275449D7C}"/>
-    <hyperlink ref="C49" r:id="rId23" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2FDC7CE7-0E8D-7A43-B2CB-F08FEB0D0C86}"/>
-    <hyperlink ref="C50" r:id="rId24" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{3EAD12EB-7FAA-6644-8CD0-282CF442DD5F}"/>
-    <hyperlink ref="C51" r:id="rId25" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{37ED5057-FB64-104D-A1AD-880EE76BBBF6}"/>
-    <hyperlink ref="C52" r:id="rId26" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{919807C3-656E-5541-AC46-175D90A0E650}"/>
-    <hyperlink ref="C53" r:id="rId27" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFD73339-E4A6-F444-95CC-E5EF5306A91D}"/>
-    <hyperlink ref="C54" r:id="rId28" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{DE5BB967-701B-3A4E-9953-5C391D746A0E}"/>
-    <hyperlink ref="C55" r:id="rId29" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9D9F29E0-C81C-7B44-9831-E6853C80A7FA}"/>
-    <hyperlink ref="C56" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
-    <hyperlink ref="C57" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
-    <hyperlink ref="C58" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
-    <hyperlink ref="E77" r:id="rId33" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
+    <hyperlink ref="C32" r:id="rId3" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D024058B-65E6-7B46-8A4C-DBC60E16FDDB}"/>
+    <hyperlink ref="E31" r:id="rId4" xr:uid="{81EBE112-4C5B-AA45-835C-1A9E9E25B84E}"/>
+    <hyperlink ref="E28" r:id="rId5" xr:uid="{5BA81582-EC37-0D4D-B7A9-7AF8598A9DF2}"/>
+    <hyperlink ref="C33" r:id="rId6" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{8F9A199E-EC71-B249-AF59-FF24DB4609B1}"/>
+    <hyperlink ref="C34" r:id="rId7" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{853F30D2-01D5-1548-B4FF-52D758F3D556}"/>
+    <hyperlink ref="C35" r:id="rId8" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C48DB5F5-21AE-CE4D-BB27-7CF2B2B712A7}"/>
+    <hyperlink ref="C36" r:id="rId9" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9ED5901C-DC91-CC49-A723-A9C49A700057}"/>
+    <hyperlink ref="C37" r:id="rId10" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{681B51E0-45E0-AF4A-A5EE-28748A165692}"/>
+    <hyperlink ref="C38" r:id="rId11" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{BA262E0F-F122-CE49-B193-E111B00E4D19}"/>
+    <hyperlink ref="C39" r:id="rId12" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2C9985A0-6AD7-9A41-9565-94AA54B8F20A}"/>
+    <hyperlink ref="C40" r:id="rId13" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{42C6419B-1F9C-464D-942C-629DBE1A763F}"/>
+    <hyperlink ref="C41" r:id="rId14" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFF16103-3C13-2B47-B8FA-7ED24283F351}"/>
+    <hyperlink ref="C42" r:id="rId15" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{E38CC7D2-2BD2-AC45-99BE-32F76871EC00}"/>
+    <hyperlink ref="C43" r:id="rId16" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C9FC1701-99F3-314F-8A4C-4CCCDD235EA2}"/>
+    <hyperlink ref="C44" r:id="rId17" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EC4E26BD-F1A6-2647-A8E9-40DA20AB83BF}"/>
+    <hyperlink ref="C45" r:id="rId18" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{B86C6F60-6096-CD42-B6D4-337F4666A137}"/>
+    <hyperlink ref="C46" r:id="rId19" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{33B4FEAD-F100-6845-A5C0-78998BA2E0AD}"/>
+    <hyperlink ref="C47" r:id="rId20" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{A7F28363-67D9-DE4F-8511-F087659BD3BB}"/>
+    <hyperlink ref="C48" r:id="rId21" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{C7DDCDCC-39CA-5A4A-9204-AC06FD62324C}"/>
+    <hyperlink ref="C49" r:id="rId22" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CDD3098C-5532-2243-91DE-779275449D7C}"/>
+    <hyperlink ref="C50" r:id="rId23" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{2FDC7CE7-0E8D-7A43-B2CB-F08FEB0D0C86}"/>
+    <hyperlink ref="C51" r:id="rId24" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{3EAD12EB-7FAA-6644-8CD0-282CF442DD5F}"/>
+    <hyperlink ref="C52" r:id="rId25" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{37ED5057-FB64-104D-A1AD-880EE76BBBF6}"/>
+    <hyperlink ref="C53" r:id="rId26" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{919807C3-656E-5541-AC46-175D90A0E650}"/>
+    <hyperlink ref="C54" r:id="rId27" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{CFD73339-E4A6-F444-95CC-E5EF5306A91D}"/>
+    <hyperlink ref="C55" r:id="rId28" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{DE5BB967-701B-3A4E-9953-5C391D746A0E}"/>
+    <hyperlink ref="C56" r:id="rId29" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{9D9F29E0-C81C-7B44-9831-E6853C80A7FA}"/>
+    <hyperlink ref="C57" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
+    <hyperlink ref="C58" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
+    <hyperlink ref="C59" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
+    <hyperlink ref="E78" r:id="rId33" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
     <hyperlink ref="E2" r:id="rId34" xr:uid="{E191A043-72B0-CC4E-9B58-FE4C461D40C9}"/>
     <hyperlink ref="C14" r:id="rId35" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{88E6D632-2160-2B4D-AD77-9459075894C4}"/>
     <hyperlink ref="C13" r:id="rId36" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{ED18E71A-43E8-A644-BA73-C69B86D50DCF}"/>
@@ -5939,16 +6261,16 @@
     <hyperlink ref="C10" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
     <hyperlink ref="C11" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
     <hyperlink ref="C12" r:id="rId44" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
-    <hyperlink ref="C98" r:id="rId45" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
-    <hyperlink ref="C99" r:id="rId46" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
-    <hyperlink ref="C100" r:id="rId47" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
-    <hyperlink ref="C101" r:id="rId48" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
-    <hyperlink ref="C102" r:id="rId49" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
-    <hyperlink ref="C103" r:id="rId50" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
-    <hyperlink ref="C104" r:id="rId51" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
-    <hyperlink ref="C105" r:id="rId52" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
-    <hyperlink ref="E59" r:id="rId53" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
-    <hyperlink ref="E60" r:id="rId54" xr:uid="{3FFA047D-54A7-1C4F-8F99-6C3E171DAF81}"/>
+    <hyperlink ref="C106" r:id="rId45" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C107" r:id="rId46" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C108" r:id="rId47" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C109" r:id="rId48" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C110" r:id="rId49" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C111" r:id="rId50" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C112" r:id="rId51" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C113" r:id="rId52" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="E60" r:id="rId53" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
+    <hyperlink ref="E61" r:id="rId54" xr:uid="{3FFA047D-54A7-1C4F-8F99-6C3E171DAF81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D3EFF9-6600-C441-872F-F6FD06ECC4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCB0E41-9E95-8049-AD5A-26429DC9E231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="352">
   <si>
     <t>Author</t>
   </si>
@@ -1089,6 +1089,9 @@
   </si>
   <si>
     <t>https://8lnqra.bl.files.1drv.com/y4mFb8hHPvBNWVIW_jr7iFopoHbaVxSFUo8zr2Y02nc2dFwpt1cbRs7XflAC6ZeT6eVdjZHfG2QkIx8Doz3h9FjzU8fjtOgJ6o62hCMYuWi4bBM3ZcGkFGN_CGwDu4BGjA_fOkmsbQUt3u0hzg3NkJW1obP0AtVzjLuiaS6Pk2k9s84nN9lwQdqQJsaIhFZu0YPEnvPzJnZ_H4EYyF3iwEFtA</t>
+  </si>
+  <si>
+    <t>Xenium_lymph_node_2</t>
   </si>
 </sst>
 </file>
@@ -1501,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C93" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2601,7 +2604,7 @@
         <v>253</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>351</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCB0E41-9E95-8049-AD5A-26429DC9E231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1980B2CE-2132-5542-991C-FB1382FDD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="357">
   <si>
     <t>Author</t>
   </si>
@@ -473,9 +473,6 @@
     <t>Comparing_all_tech</t>
   </si>
   <si>
-    <t>Allen_Brain_Merfish</t>
-  </si>
-  <si>
     <t>Dataset_merge_visium</t>
   </si>
   <si>
@@ -1092,6 +1089,24 @@
   </si>
   <si>
     <t>Xenium_lymph_node_2</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/10048057</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE211956</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/ffpe-human-pancreas-with-xenium-multimodal-cell-segmentation-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/xenium-in-situ-analysis-of-alzheimers-disease-mouse-model-brain-coronal-sections-from-one-hemisphere-over-a-time-course-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/doi/10.1073/pnas.2317418121</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE240271</t>
   </si>
 </sst>
 </file>
@@ -1502,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:R120"/>
+  <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1515,13 +1530,13 @@
     <col min="5" max="5" width="38" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" customWidth="1"/>
-    <col min="14" max="14" width="27.5" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" customWidth="1"/>
+    <col min="13" max="13" width="27.5" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,31 +1568,28 @@
         <v>28</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1606,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1627,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1656,28 +1668,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1691,7 +1703,7 @@
         <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1706,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1727,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1737,8 +1749,11 @@
       <c r="C5" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
         <v>132</v>
@@ -1756,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1777,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1787,8 +1802,11 @@
       <c r="C6" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
         <v>133</v>
@@ -1815,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1827,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1837,8 +1855,11 @@
       <c r="C7" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
         <v>134</v>
@@ -1865,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1877,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1887,8 +1908,11 @@
       <c r="C8" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
         <v>135</v>
@@ -1915,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1927,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1937,8 +1961,11 @@
       <c r="C9" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
       <c r="E9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
         <v>136</v>
@@ -1956,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1977,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1987,11 +2014,14 @@
       <c r="C10" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G10" t="s">
         <v>130</v>
@@ -2015,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2027,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2037,8 +2067,11 @@
       <c r="C11" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
       <c r="E11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
         <v>137</v>
@@ -2065,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2077,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2087,8 +2120,11 @@
       <c r="C12" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F12" t="s">
         <v>138</v>
@@ -2106,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2127,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -2137,11 +2173,14 @@
       <c r="C13" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="D13" t="s">
+        <v>351</v>
+      </c>
       <c r="E13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" t="s">
         <v>188</v>
-      </c>
-      <c r="F13" t="s">
-        <v>189</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -2159,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2177,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>141</v>
       </c>
@@ -2187,11 +2226,14 @@
       <c r="C14" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="D14" t="s">
+        <v>352</v>
+      </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -2209,12 +2251,12 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14">
@@ -2227,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2238,10 +2280,10 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2256,25 +2298,28 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2285,10 +2330,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -2303,25 +2348,28 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
         <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2330,34 +2378,49 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" t="s">
         <v>256</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>257</v>
-      </c>
-      <c r="F17" t="s">
-        <v>258</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
       </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2368,10 +2431,10 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
@@ -2386,25 +2449,28 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
         <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2412,31 +2478,49 @@
         <v>2024</v>
       </c>
       <c r="D19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
       </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2444,42 +2528,63 @@
         <v>2024</v>
       </c>
       <c r="D20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
       </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21">
         <v>2023</v>
       </c>
+      <c r="D21" t="s">
+        <v>354</v>
+      </c>
       <c r="E21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" t="s">
         <v>240</v>
-      </c>
-      <c r="F21" t="s">
-        <v>241</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -2490,17 +2595,32 @@
       <c r="I21" t="s">
         <v>11</v>
       </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2508,10 +2628,10 @@
         <v>2024</v>
       </c>
       <c r="E22" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" t="s">
         <v>238</v>
-      </c>
-      <c r="F22" t="s">
-        <v>239</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -2522,25 +2642,46 @@
       <c r="I22" t="s">
         <v>12</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23">
         <v>2024</v>
       </c>
+      <c r="D23" t="s">
+        <v>353</v>
+      </c>
       <c r="E23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" t="s">
         <v>232</v>
-      </c>
-      <c r="F23" t="s">
-        <v>233</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
@@ -2551,14 +2692,32 @@
       <c r="I23" t="s">
         <v>12</v>
       </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2566,31 +2725,49 @@
         <v>2024</v>
       </c>
       <c r="D24" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" t="s">
         <v>325</v>
       </c>
-      <c r="E24" t="s">
-        <v>326</v>
-      </c>
       <c r="F24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
       </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2598,19 +2775,19 @@
         <v>2023</v>
       </c>
       <c r="D25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -2619,25 +2796,28 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
         <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2645,19 +2825,19 @@
         <v>2023</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" t="s">
         <v>248</v>
-      </c>
-      <c r="F26" t="s">
-        <v>249</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -2666,25 +2846,28 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2692,19 +2875,19 @@
         <v>2023</v>
       </c>
       <c r="D27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
+        <v>242</v>
+      </c>
+      <c r="F27" t="s">
         <v>243</v>
-      </c>
-      <c r="F27" t="s">
-        <v>244</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -2713,25 +2896,28 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
         <v>0</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2760,25 +2946,28 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2815,17 +3004,20 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2854,25 +3046,28 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
         <v>0</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2904,22 +3099,25 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
         <v>0</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2953,20 +3151,26 @@
       <c r="K32">
         <v>0</v>
       </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
       <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3000,20 +3204,26 @@
       <c r="K33">
         <v>0</v>
       </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
       <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3047,20 +3257,26 @@
       <c r="K34">
         <v>0</v>
       </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
       <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3094,20 +3310,26 @@
       <c r="K35">
         <v>0</v>
       </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
       <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -3139,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -3147,17 +3369,20 @@
       <c r="M36">
         <v>1</v>
       </c>
-      <c r="N36">
-        <v>1</v>
+      <c r="N36" s="4">
+        <v>0</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -3191,20 +3416,26 @@
       <c r="K37">
         <v>0</v>
       </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
       <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -3238,20 +3469,26 @@
       <c r="K38">
         <v>0</v>
       </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
       <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -3285,20 +3522,26 @@
       <c r="K39">
         <v>0</v>
       </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
       <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -3332,20 +3575,26 @@
       <c r="K40">
         <v>0</v>
       </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
       <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -3379,20 +3628,26 @@
       <c r="K41">
         <v>0</v>
       </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
       <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -3426,20 +3681,26 @@
       <c r="K42">
         <v>0</v>
       </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
       <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -3473,20 +3734,26 @@
       <c r="K43">
         <v>0</v>
       </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
       <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -3520,20 +3787,26 @@
       <c r="K44">
         <v>0</v>
       </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
       <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -3567,20 +3840,26 @@
       <c r="K45">
         <v>0</v>
       </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
       <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -3614,20 +3893,26 @@
       <c r="K46">
         <v>0</v>
       </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
       <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -3641,7 +3926,7 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F47" t="s">
         <v>77</v>
@@ -3661,20 +3946,26 @@
       <c r="K47">
         <v>0</v>
       </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
       <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -3708,20 +3999,26 @@
       <c r="K48">
         <v>0</v>
       </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
       <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -3755,20 +4052,26 @@
       <c r="K49">
         <v>0</v>
       </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
       <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -3802,20 +4105,26 @@
       <c r="K50">
         <v>0</v>
       </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
       <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -3849,20 +4158,26 @@
       <c r="K51">
         <v>0</v>
       </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
       <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -3896,20 +4211,26 @@
       <c r="K52">
         <v>0</v>
       </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
       <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -3941,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3949,17 +4270,20 @@
       <c r="M53">
         <v>1</v>
       </c>
-      <c r="N53">
-        <v>1</v>
+      <c r="N53" s="4">
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -3993,20 +4317,26 @@
       <c r="K54">
         <v>0</v>
       </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
       <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -4040,20 +4370,26 @@
       <c r="K55">
         <v>0</v>
       </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
       <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -4087,20 +4423,26 @@
       <c r="K56">
         <v>0</v>
       </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
       <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N56" s="4">
+        <v>0</v>
       </c>
       <c r="O56">
         <v>0</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -4134,20 +4476,26 @@
       <c r="K57">
         <v>0</v>
       </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
       <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N57" s="4">
+        <v>0</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -4181,20 +4529,26 @@
       <c r="K58">
         <v>0</v>
       </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
       <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N58" s="4">
+        <v>0</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -4228,28 +4582,34 @@
       <c r="K59">
         <v>0</v>
       </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
       <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N59" s="4">
+        <v>0</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B60">
         <v>2023</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>60</v>
@@ -4270,39 +4630,42 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="N60" s="4">
         <v>0</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>18</v>
+      <c r="P60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>2023</v>
       </c>
       <c r="C61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D61" t="s">
         <v>32</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -4317,36 +4680,42 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="N61" s="4">
         <v>0</v>
       </c>
       <c r="O61">
         <v>0</v>
       </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>2023</v>
+      </c>
       <c r="C62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D62" t="s">
         <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -4361,36 +4730,42 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="N62" s="4">
         <v>0</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>2023</v>
+      </c>
       <c r="C63" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D63" t="s">
         <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -4405,36 +4780,42 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="N63" s="4">
         <v>0</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>2023</v>
+      </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D64" t="s">
         <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G64" t="s">
         <v>33</v>
@@ -4457,28 +4838,34 @@
       <c r="M64">
         <v>0</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="4">
         <v>0</v>
       </c>
       <c r="O64">
         <v>0</v>
       </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>2023</v>
+      </c>
       <c r="C65" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D65" t="s">
         <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -4489,188 +4876,404 @@
       <c r="I65" t="s">
         <v>11</v>
       </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
+      <c r="N65" s="4">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>2024</v>
+      </c>
+      <c r="C66" t="s">
+        <v>355</v>
+      </c>
+      <c r="D66" t="s">
+        <v>356</v>
+      </c>
       <c r="E66" t="s">
+        <v>263</v>
+      </c>
+      <c r="F66" t="s">
         <v>264</v>
-      </c>
-      <c r="F66" t="s">
-        <v>265</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
       </c>
       <c r="H66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I66" t="s">
         <v>11</v>
       </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
+      <c r="N66" s="4">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>2024</v>
+      </c>
+      <c r="C67" t="s">
+        <v>355</v>
+      </c>
+      <c r="D67" t="s">
+        <v>356</v>
+      </c>
       <c r="E67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
       </c>
       <c r="H67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I67" t="s">
         <v>11</v>
       </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
       <c r="L67">
         <v>1</v>
       </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>2024</v>
+      </c>
+      <c r="C68" t="s">
+        <v>355</v>
+      </c>
+      <c r="D68" t="s">
+        <v>356</v>
+      </c>
       <c r="F68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I68" t="s">
         <v>11</v>
       </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
       <c r="L68">
         <v>0</v>
       </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
+      <c r="N68" s="4">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>2024</v>
+      </c>
+      <c r="C69" t="s">
+        <v>355</v>
+      </c>
+      <c r="D69" t="s">
+        <v>356</v>
+      </c>
       <c r="E69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
       </c>
       <c r="H69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I69" t="s">
         <v>11</v>
       </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
       <c r="L69">
         <v>1</v>
       </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
+      <c r="N69" s="4">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>2024</v>
+      </c>
+      <c r="C70" t="s">
+        <v>355</v>
+      </c>
+      <c r="D70" t="s">
+        <v>356</v>
+      </c>
       <c r="E70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
       </c>
       <c r="H70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I70" t="s">
         <v>11</v>
       </c>
+      <c r="J70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M70" s="4">
+        <v>0</v>
+      </c>
+      <c r="N70" s="4">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>2024</v>
+      </c>
+      <c r="C71" t="s">
+        <v>355</v>
+      </c>
+      <c r="D71" t="s">
+        <v>356</v>
+      </c>
       <c r="E71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
       </c>
       <c r="H71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I71" t="s">
         <v>11</v>
       </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
       <c r="L71">
         <v>1</v>
       </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>2024</v>
+      </c>
+      <c r="C72" t="s">
+        <v>355</v>
+      </c>
+      <c r="D72" t="s">
+        <v>356</v>
+      </c>
       <c r="E72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
       </c>
       <c r="H72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I72" t="s">
         <v>11</v>
       </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M72" s="4">
+        <v>0</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>2024</v>
+      </c>
+      <c r="C73" t="s">
+        <v>355</v>
+      </c>
+      <c r="D73" t="s">
+        <v>356</v>
+      </c>
       <c r="E73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G73" t="s">
         <v>33</v>
       </c>
       <c r="H73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I73" t="s">
         <v>11</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="4">
         <v>0</v>
       </c>
       <c r="K73">
@@ -4679,20 +5282,26 @@
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="4">
         <v>0</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>164</v>
+      </c>
       <c r="B74">
         <v>2023</v>
       </c>
@@ -4700,10 +5309,10 @@
         <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -4714,7 +5323,7 @@
       <c r="I74" t="s">
         <v>11</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="4">
         <v>0</v>
       </c>
       <c r="K74">
@@ -4723,22 +5332,25 @@
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
+      <c r="M74" s="4">
+        <v>0</v>
+      </c>
+      <c r="N74" s="4">
         <v>0</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B75">
         <v>2023</v>
@@ -4747,10 +5359,10 @@
         <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G75" t="s">
         <v>34</v>
@@ -4761,7 +5373,7 @@
       <c r="I75" t="s">
         <v>11</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="4">
         <v>0</v>
       </c>
       <c r="K75">
@@ -4770,22 +5382,25 @@
       <c r="L75">
         <v>0</v>
       </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
+      <c r="M75" s="4">
+        <v>0</v>
+      </c>
+      <c r="N75" s="4">
         <v>0</v>
       </c>
       <c r="O75">
         <v>0</v>
       </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B76">
         <v>2023</v>
@@ -4794,10 +5409,10 @@
         <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -4808,7 +5423,7 @@
       <c r="I76" t="s">
         <v>11</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="4">
         <v>0</v>
       </c>
       <c r="K76">
@@ -4817,22 +5432,25 @@
       <c r="L76">
         <v>0</v>
       </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
+      <c r="M76" s="4">
+        <v>0</v>
+      </c>
+      <c r="N76" s="4">
         <v>0</v>
       </c>
       <c r="O76">
         <v>0</v>
       </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P76" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="B77">
         <v>2024</v>
@@ -4844,10 +5462,10 @@
         <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H77" t="s">
         <v>116</v>
@@ -4855,20 +5473,32 @@
       <c r="I77" t="s">
         <v>11</v>
       </c>
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
       <c r="L77">
         <v>1</v>
       </c>
-      <c r="M77">
-        <v>1</v>
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
+      <c r="N77" s="4">
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -4879,28 +5509,40 @@
         <v>124</v>
       </c>
       <c r="F78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H78" t="s">
         <v>117</v>
       </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
       <c r="L78">
         <v>1</v>
       </c>
-      <c r="M78">
-        <v>1</v>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+      <c r="N78" s="4">
+        <v>0</v>
       </c>
       <c r="O78">
         <v>0</v>
       </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P78" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -4914,10 +5556,10 @@
         <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H79" t="s">
         <v>118</v>
@@ -4925,20 +5567,32 @@
       <c r="I79" t="s">
         <v>12</v>
       </c>
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
       <c r="L79">
         <v>1</v>
       </c>
-      <c r="M79">
-        <v>1</v>
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
+      <c r="N79" s="4">
+        <v>0</v>
       </c>
       <c r="O79">
         <v>0</v>
       </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -4946,31 +5600,43 @@
         <v>2024</v>
       </c>
       <c r="E80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H80" t="s">
         <v>119</v>
       </c>
+      <c r="J80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
       <c r="L80">
         <v>1</v>
       </c>
-      <c r="M80">
-        <v>1</v>
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
+      <c r="N80" s="4">
+        <v>0</v>
       </c>
       <c r="O80">
         <v>0</v>
       </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P80" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -4978,31 +5644,49 @@
         <v>2024</v>
       </c>
       <c r="D81" t="s">
+        <v>326</v>
+      </c>
+      <c r="E81" t="s">
+        <v>344</v>
+      </c>
+      <c r="F81" t="s">
         <v>327</v>
       </c>
-      <c r="E81" t="s">
-        <v>345</v>
-      </c>
-      <c r="F81" t="s">
-        <v>328</v>
-      </c>
       <c r="G81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H81" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I81" t="s">
         <v>11</v>
       </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
       <c r="L81">
         <v>1</v>
       </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M81" s="4">
+        <v>0</v>
+      </c>
+      <c r="N81" s="4">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -5010,25 +5694,43 @@
         <v>2024</v>
       </c>
       <c r="E82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G82" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H82" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="J82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M82" s="4">
+        <v>0</v>
+      </c>
+      <c r="N82" s="4">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -5036,31 +5738,49 @@
         <v>2024</v>
       </c>
       <c r="D83" t="s">
+        <v>331</v>
+      </c>
+      <c r="E83" t="s">
+        <v>343</v>
+      </c>
+      <c r="F83" t="s">
         <v>332</v>
       </c>
-      <c r="E83" t="s">
-        <v>344</v>
-      </c>
-      <c r="F83" t="s">
-        <v>333</v>
-      </c>
       <c r="G83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H83" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I83" t="s">
         <v>11</v>
       </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
       <c r="L83">
         <v>1</v>
       </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M83" s="4">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -5068,25 +5788,43 @@
         <v>2024</v>
       </c>
       <c r="E84" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F84" t="s">
+        <v>333</v>
+      </c>
+      <c r="G84" t="s">
+        <v>212</v>
+      </c>
+      <c r="H84" t="s">
         <v>334</v>
       </c>
-      <c r="G84" t="s">
-        <v>213</v>
-      </c>
-      <c r="H84" t="s">
-        <v>335</v>
+      <c r="J84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M84" s="4">
+        <v>0</v>
+      </c>
+      <c r="N84" s="4">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -5094,28 +5832,46 @@
         <v>2024</v>
       </c>
       <c r="D85" t="s">
+        <v>336</v>
+      </c>
+      <c r="E85" t="s">
+        <v>342</v>
+      </c>
+      <c r="F85" t="s">
         <v>337</v>
       </c>
-      <c r="E85" t="s">
-        <v>343</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
+        <v>212</v>
+      </c>
+      <c r="H85" t="s">
         <v>338</v>
       </c>
-      <c r="G85" t="s">
-        <v>213</v>
-      </c>
-      <c r="H85" t="s">
-        <v>339</v>
+      <c r="J85" s="4">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -5123,25 +5879,43 @@
         <v>2024</v>
       </c>
       <c r="E86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H86" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M86" s="4">
+        <v>0</v>
+      </c>
+      <c r="N86" s="4">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -5155,10 +5929,10 @@
         <v>51</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H87" t="s">
         <v>120</v>
@@ -5166,20 +5940,32 @@
       <c r="I87" t="s">
         <v>11</v>
       </c>
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
       <c r="L87">
         <v>1</v>
       </c>
-      <c r="M87">
-        <v>1</v>
+      <c r="M87" s="4">
+        <v>0</v>
+      </c>
+      <c r="N87" s="4">
+        <v>0</v>
       </c>
       <c r="O87">
         <v>0</v>
       </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -5187,31 +5973,43 @@
         <v>2024</v>
       </c>
       <c r="E88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G88" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H88" t="s">
         <v>121</v>
       </c>
+      <c r="J88" s="4">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
       <c r="L88">
         <v>1</v>
       </c>
-      <c r="M88">
-        <v>1</v>
+      <c r="M88" s="4">
+        <v>0</v>
+      </c>
+      <c r="N88" s="4">
+        <v>0</v>
       </c>
       <c r="O88">
         <v>0</v>
       </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -5222,13 +6020,13 @@
         <v>42</v>
       </c>
       <c r="E89" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H89" t="s">
         <v>122</v>
@@ -5236,20 +6034,32 @@
       <c r="I89" t="s">
         <v>12</v>
       </c>
+      <c r="J89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
       <c r="L89">
         <v>1</v>
       </c>
-      <c r="M89">
-        <v>1</v>
+      <c r="M89" s="4">
+        <v>0</v>
+      </c>
+      <c r="N89" s="4">
+        <v>0</v>
       </c>
       <c r="O89">
         <v>0</v>
       </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -5257,36 +6067,51 @@
         <v>2024</v>
       </c>
       <c r="E90" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H90" t="s">
         <v>123</v>
       </c>
+      <c r="J90" s="4">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
       <c r="L90">
         <v>1</v>
       </c>
-      <c r="M90">
-        <v>1</v>
+      <c r="M90" s="4">
+        <v>0</v>
+      </c>
+      <c r="N90" s="4">
+        <v>0</v>
       </c>
       <c r="O90">
         <v>0</v>
       </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P90" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="B91">
+        <v>2023</v>
       </c>
       <c r="D91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E91" t="s">
         <v>52</v>
@@ -5300,31 +6125,46 @@
       <c r="H91" t="s">
         <v>10</v>
       </c>
+      <c r="J91" s="4">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
       <c r="L91">
         <v>1</v>
       </c>
-      <c r="M91">
-        <v>1</v>
+      <c r="M91" s="4">
+        <v>0</v>
+      </c>
+      <c r="N91" s="4">
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>43</v>
       </c>
+      <c r="B92">
+        <v>2023</v>
+      </c>
       <c r="D92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G92" t="s">
         <v>43</v>
@@ -5332,188 +6172,284 @@
       <c r="H92" t="s">
         <v>20</v>
       </c>
+      <c r="J92" s="4">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
       <c r="L92">
         <v>1</v>
       </c>
-      <c r="M92">
-        <v>1</v>
+      <c r="M92" s="4">
+        <v>0</v>
+      </c>
+      <c r="N92" s="4">
+        <v>0</v>
       </c>
       <c r="O92">
         <v>0</v>
       </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>43</v>
       </c>
+      <c r="B93">
+        <v>2023</v>
+      </c>
       <c r="D93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G93" t="s">
         <v>43</v>
       </c>
       <c r="H93" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
-      <c r="M93">
-        <v>1</v>
+      <c r="M93" s="4">
+        <v>0</v>
+      </c>
+      <c r="N93" s="4">
+        <v>0</v>
       </c>
       <c r="O93">
         <v>0</v>
       </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>43</v>
       </c>
+      <c r="B94">
+        <v>2023</v>
+      </c>
       <c r="D94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E94" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F94" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
       </c>
       <c r="H94" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I94" t="s">
         <v>12</v>
       </c>
+      <c r="J94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
       <c r="L94">
         <v>1</v>
       </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M94" s="4">
+        <v>0</v>
+      </c>
+      <c r="N94" s="4">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>43</v>
       </c>
+      <c r="B95">
+        <v>2023</v>
+      </c>
       <c r="D95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G95" t="s">
         <v>43</v>
       </c>
       <c r="H95" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
-      <c r="M95">
-        <v>1</v>
+      <c r="M95" s="4">
+        <v>0</v>
+      </c>
+      <c r="N95" s="4">
+        <v>0</v>
       </c>
       <c r="O95">
         <v>0</v>
       </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P95" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>43</v>
       </c>
+      <c r="B96">
+        <v>2023</v>
+      </c>
       <c r="D96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G96" t="s">
         <v>43</v>
       </c>
       <c r="H96" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="J96" s="4">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
       </c>
       <c r="L96">
         <v>1</v>
       </c>
-      <c r="M96">
-        <v>1</v>
+      <c r="M96" s="4">
+        <v>0</v>
+      </c>
+      <c r="N96" s="4">
+        <v>0</v>
       </c>
       <c r="O96">
         <v>0</v>
       </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P96" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>43</v>
       </c>
+      <c r="B97">
+        <v>2023</v>
+      </c>
       <c r="D97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F97" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="J97" s="4">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
       </c>
       <c r="L97">
         <v>1</v>
       </c>
-      <c r="M97">
-        <v>1</v>
+      <c r="M97" s="4">
+        <v>0</v>
+      </c>
+      <c r="N97" s="4">
+        <v>0</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P97" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>43</v>
       </c>
+      <c r="B98">
+        <v>2023</v>
+      </c>
       <c r="D98" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E98" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G98" t="s">
         <v>43</v>
@@ -5524,31 +6460,46 @@
       <c r="I98" t="s">
         <v>12</v>
       </c>
+      <c r="J98" s="4">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
       <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M98" s="4">
+        <v>0</v>
+      </c>
+      <c r="N98" s="4">
+        <v>0</v>
       </c>
       <c r="O98">
         <v>0</v>
       </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P98" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>43</v>
       </c>
+      <c r="B99">
+        <v>2023</v>
+      </c>
       <c r="D99" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E99" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F99" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G99" t="s">
         <v>43</v>
@@ -5559,31 +6510,46 @@
       <c r="I99" t="s">
         <v>12</v>
       </c>
+      <c r="J99" s="4">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
       <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M99" s="4">
+        <v>0</v>
+      </c>
+      <c r="N99" s="4">
+        <v>0</v>
       </c>
       <c r="O99">
         <v>0</v>
       </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P99" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>43</v>
       </c>
+      <c r="B100">
+        <v>2023</v>
+      </c>
       <c r="D100" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G100" t="s">
         <v>43</v>
@@ -5594,31 +6560,46 @@
       <c r="I100" t="s">
         <v>12</v>
       </c>
+      <c r="J100" s="4">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
       <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M100" s="4">
+        <v>0</v>
+      </c>
+      <c r="N100" s="4">
+        <v>0</v>
       </c>
       <c r="O100">
         <v>0</v>
       </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P100" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>43</v>
       </c>
+      <c r="B101">
+        <v>2023</v>
+      </c>
       <c r="D101" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E101" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G101" t="s">
         <v>43</v>
@@ -5629,31 +6610,46 @@
       <c r="I101" t="s">
         <v>12</v>
       </c>
+      <c r="J101" s="4">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
       <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>1</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M101" s="4">
+        <v>0</v>
+      </c>
+      <c r="N101" s="4">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="B102">
         <v>2023</v>
       </c>
       <c r="D102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -5664,28 +6660,46 @@
       <c r="I102" t="s">
         <v>11</v>
       </c>
+      <c r="J102" s="4">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
       <c r="L102">
         <v>1</v>
       </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M102" s="4">
+        <v>0</v>
+      </c>
+      <c r="N102" s="4">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="B103">
+        <v>2023</v>
       </c>
       <c r="D103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G103" t="s">
         <v>43</v>
@@ -5696,25 +6710,46 @@
       <c r="I103" t="s">
         <v>11</v>
       </c>
+      <c r="J103" s="4">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
       <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M103" s="4">
+        <v>0</v>
+      </c>
+      <c r="N103" s="4">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>43</v>
+        <v>213</v>
+      </c>
+      <c r="B104">
+        <v>2023</v>
       </c>
       <c r="D104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G104" t="s">
         <v>43</v>
@@ -5725,28 +6760,46 @@
       <c r="I104" t="s">
         <v>11</v>
       </c>
+      <c r="J104" s="4">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
       <c r="L104">
         <v>1</v>
       </c>
-      <c r="M104">
-        <v>1</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M104" s="4">
+        <v>0</v>
+      </c>
+      <c r="N104" s="4">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>213</v>
+      </c>
+      <c r="B105">
+        <v>2023</v>
       </c>
       <c r="D105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G105" t="s">
         <v>43</v>
@@ -5757,31 +6810,49 @@
       <c r="I105" t="s">
         <v>11</v>
       </c>
+      <c r="J105" s="4">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
       <c r="L105">
-        <v>1</v>
-      </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M105" s="4">
+        <v>0</v>
+      </c>
+      <c r="N105" s="4">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B106">
         <v>2024</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D106" t="s">
         <v>147</v>
       </c>
-      <c r="D106" t="s">
-        <v>148</v>
-      </c>
       <c r="E106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -5792,31 +6863,46 @@
       <c r="I106" t="s">
         <v>11</v>
       </c>
-      <c r="M106">
-        <v>1</v>
-      </c>
-      <c r="P106">
-        <v>1</v>
-      </c>
-      <c r="R106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J106" s="4">
+        <v>0</v>
+      </c>
+      <c r="K106" s="4">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106" s="4">
+        <v>0</v>
+      </c>
+      <c r="N106" s="4">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B107">
         <v>2024</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -5827,25 +6913,46 @@
       <c r="I107" t="s">
         <v>11</v>
       </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J107" s="4">
+        <v>0</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" s="4">
+        <v>0</v>
+      </c>
+      <c r="N107" s="4">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B108">
         <v>2024</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
@@ -5856,25 +6963,46 @@
       <c r="I108" t="s">
         <v>11</v>
       </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J108" s="4">
+        <v>0</v>
+      </c>
+      <c r="K108" s="4">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" s="4">
+        <v>0</v>
+      </c>
+      <c r="N108" s="4">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B109">
         <v>2024</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -5885,28 +7013,49 @@
       <c r="I109" t="s">
         <v>11</v>
       </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J109" s="4">
+        <v>0</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109" s="4">
+        <v>0</v>
+      </c>
+      <c r="N109" s="4">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B110">
         <v>2024</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E110" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -5917,31 +7066,46 @@
       <c r="I110" t="s">
         <v>11</v>
       </c>
-      <c r="M110">
-        <v>1</v>
-      </c>
-      <c r="P110">
-        <v>1</v>
-      </c>
-      <c r="R110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J110" s="4">
+        <v>0</v>
+      </c>
+      <c r="K110" s="4">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" s="4">
+        <v>0</v>
+      </c>
+      <c r="N110" s="4">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B111">
         <v>2024</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
@@ -5952,25 +7116,46 @@
       <c r="I111" t="s">
         <v>11</v>
       </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J111" s="4">
+        <v>0</v>
+      </c>
+      <c r="K111" s="4">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" s="4">
+        <v>0</v>
+      </c>
+      <c r="N111" s="4">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B112">
         <v>2024</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G112" t="s">
         <v>29</v>
@@ -5981,25 +7166,46 @@
       <c r="I112" t="s">
         <v>11</v>
       </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J112" s="4">
+        <v>0</v>
+      </c>
+      <c r="K112" s="4">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112" s="4">
+        <v>0</v>
+      </c>
+      <c r="N112" s="4">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B113">
         <v>2024</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
@@ -6010,11 +7216,32 @@
       <c r="I113" t="s">
         <v>11</v>
       </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J113" s="4">
+        <v>0</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113" s="4">
+        <v>0</v>
+      </c>
+      <c r="N113" s="4">
+        <v>0</v>
+      </c>
+      <c r="O113" s="4">
+        <v>0</v>
+      </c>
+      <c r="P113" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -6022,28 +7249,49 @@
         <v>2024</v>
       </c>
       <c r="D114" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E114" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F114" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
       </c>
       <c r="H114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I114" t="s">
         <v>11</v>
       </c>
-      <c r="M114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J114" s="4">
+        <v>0</v>
+      </c>
+      <c r="K114" s="4">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114" s="4">
+        <v>0</v>
+      </c>
+      <c r="N114" s="4">
+        <v>0</v>
+      </c>
+      <c r="O114" s="4">
+        <v>0</v>
+      </c>
+      <c r="P114" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -6051,13 +7299,13 @@
         <v>2024</v>
       </c>
       <c r="D115" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E115" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F115" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G115" t="s">
         <v>29</v>
@@ -6068,11 +7316,32 @@
       <c r="I115" t="s">
         <v>11</v>
       </c>
-      <c r="M115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J115" s="4">
+        <v>0</v>
+      </c>
+      <c r="K115" s="4">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115" s="4">
+        <v>0</v>
+      </c>
+      <c r="N115" s="4">
+        <v>0</v>
+      </c>
+      <c r="O115" s="4">
+        <v>0</v>
+      </c>
+      <c r="P115" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -6080,28 +7349,49 @@
         <v>2024</v>
       </c>
       <c r="D116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F116" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G116" t="s">
         <v>29</v>
       </c>
       <c r="H116" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I116" t="s">
         <v>12</v>
       </c>
-      <c r="M116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J116" s="4">
+        <v>0</v>
+      </c>
+      <c r="K116" s="4">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116" s="4">
+        <v>0</v>
+      </c>
+      <c r="N116" s="4">
+        <v>0</v>
+      </c>
+      <c r="O116" s="4">
+        <v>0</v>
+      </c>
+      <c r="P116" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -6109,13 +7399,13 @@
         <v>2024</v>
       </c>
       <c r="D117" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E117" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F117" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G117" t="s">
         <v>29</v>
@@ -6126,11 +7416,32 @@
       <c r="I117" t="s">
         <v>12</v>
       </c>
-      <c r="M117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J117" s="4">
+        <v>0</v>
+      </c>
+      <c r="K117" s="4">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117" s="4">
+        <v>0</v>
+      </c>
+      <c r="N117" s="4">
+        <v>0</v>
+      </c>
+      <c r="O117" s="4">
+        <v>0</v>
+      </c>
+      <c r="P117" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -6138,13 +7449,13 @@
         <v>2024</v>
       </c>
       <c r="D118" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E118" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F118" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G118" t="s">
         <v>29</v>
@@ -6155,11 +7466,32 @@
       <c r="I118" t="s">
         <v>11</v>
       </c>
-      <c r="M118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J118" s="4">
+        <v>0</v>
+      </c>
+      <c r="K118" s="4">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118" s="4">
+        <v>0</v>
+      </c>
+      <c r="N118" s="4">
+        <v>0</v>
+      </c>
+      <c r="O118" s="4">
+        <v>0</v>
+      </c>
+      <c r="P118" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -6167,13 +7499,13 @@
         <v>2024</v>
       </c>
       <c r="D119" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E119" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F119" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G119" t="s">
         <v>29</v>
@@ -6184,11 +7516,32 @@
       <c r="I119" t="s">
         <v>12</v>
       </c>
-      <c r="M119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J119" s="4">
+        <v>0</v>
+      </c>
+      <c r="K119" s="4">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119" s="4">
+        <v>0</v>
+      </c>
+      <c r="N119" s="4">
+        <v>0</v>
+      </c>
+      <c r="O119" s="4">
+        <v>0</v>
+      </c>
+      <c r="P119" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -6196,26 +7549,271 @@
         <v>2024</v>
       </c>
       <c r="D120" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F120" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G120" t="s">
         <v>29</v>
       </c>
       <c r="H120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I120" t="s">
         <v>11</v>
       </c>
-      <c r="M120">
-        <v>1</v>
-      </c>
+      <c r="J120" s="4">
+        <v>0</v>
+      </c>
+      <c r="K120" s="4">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120" s="4">
+        <v>0</v>
+      </c>
+      <c r="N120" s="4">
+        <v>0</v>
+      </c>
+      <c r="O120" s="4">
+        <v>0</v>
+      </c>
+      <c r="P120" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+    </row>
+    <row r="129" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+    </row>
+    <row r="130" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+    </row>
+    <row r="131" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+    </row>
+    <row r="132" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+    </row>
+    <row r="133" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+    </row>
+    <row r="134" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+    </row>
+    <row r="135" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+    </row>
+    <row r="136" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+    </row>
+    <row r="137" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+    </row>
+    <row r="138" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+    </row>
+    <row r="139" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+    </row>
+    <row r="140" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+    </row>
+    <row r="141" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+    </row>
+    <row r="142" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+    </row>
+    <row r="143" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+    </row>
+    <row r="144" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+    </row>
+    <row r="145" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+    </row>
+    <row r="146" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+    </row>
+    <row r="147" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N147" s="4"/>
+      <c r="P147" s="4"/>
+    </row>
+    <row r="148" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N148" s="4"/>
+      <c r="P148" s="4"/>
+    </row>
+    <row r="149" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N149" s="4"/>
+      <c r="P149" s="4"/>
+    </row>
+    <row r="150" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="P150" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1980B2CE-2132-5542-991C-FB1382FDD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1C99C2-0C1A-0C43-BEEC-43DCF4FB059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="361">
   <si>
     <t>Author</t>
   </si>
@@ -410,9 +410,6 @@
     <t>Colorectal cancer_8um</t>
   </si>
   <si>
-    <t>https://znqioq.bl.files.1drv.com/y4mhGIs0AIFqG8JWC_fT1hSEVWbeg5yP27WC1gYOy8grLtffpKI-iE-P4YsS8tt2z6juye5UCMoEJT3wDtOJ9ovzEAt3grtcZMozbcRcbOXXaU5G3k6X0Z1MOcbxKvgHBcGbRONOh7RebS6fZueUugRl5iKARsS_uKoVVt_6QAWyg9NLvqHtt1rcMF8hSP4rmcyiXiSJFxWGLz-S-oV3rwNvg</t>
-  </si>
-  <si>
     <t>https://dg1oqa.bl.files.1drv.com/y4m2CulsqPOHi88uM3y4R3bpe_E0oV-5QWcibRtQAa6_OEwaeDJp2szwSfQLHeZ9hukrY97lU2Mzzghwvm77jm3jqzjsYHWWmwcn-_lRMn7e1R1tOBrFkHba5uaoOv2yQcDobXlqrpmChbiHihhY_4uT2L3ayWbLGj-OBQIIulTUqBSMDshOXZmZhfGQfa3i3GHgzgYf6-2z0sWlKjMlQhv-w</t>
   </si>
   <si>
@@ -677,9 +674,6 @@
     <t>Visium_HD</t>
   </si>
   <si>
-    <t>Allen Institute</t>
-  </si>
-  <si>
     <t>Vizgen_brain_allen_0</t>
   </si>
   <si>
@@ -1107,6 +1101,24 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE240271</t>
+  </si>
+  <si>
+    <t>Farah et al.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41586-024-07171-z</t>
+  </si>
+  <si>
+    <t>https://j4hhwq.bl.files.1drv.com/y4mGuOVENeMKSLWoeNU-jtUaqTmPxNQnYCTaMvGEk8U4zh6YAbknEooPdN41eIEuGSwoXNWLK-JHV4QD_mGACQ_9du_aYmmzQ_e2_-d8BLkaqhVVEBjOAGOv3giZ_3qNWhVvJ_PpAK3F6M9VN9dcsxuqX59MkGyPl0KRQZEvmA2zwjqPvQQ9UkLpuyfQAlERE5PohCf4l3U3Dlii-pLEWkujw</t>
+  </si>
+  <si>
+    <t>Yao et al</t>
+  </si>
+  <si>
+    <t>Langlieb et al.</t>
+  </si>
+  <si>
+    <t>Mantri et al</t>
   </si>
 </sst>
 </file>
@@ -1519,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1568,25 +1580,25 @@
         <v>28</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1600,10 +1612,10 @@
         <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
         <v>125</v>
-      </c>
-      <c r="F2" t="s">
-        <v>126</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1650,10 +1662,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1700,10 +1712,10 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1747,22 +1759,22 @@
         <v>2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" t="s">
         <v>130</v>
-      </c>
-      <c r="H5" t="s">
-        <v>131</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1800,22 +1812,22 @@
         <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" t="s">
         <v>130</v>
-      </c>
-      <c r="H6" t="s">
-        <v>131</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1853,22 +1865,22 @@
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" t="s">
         <v>130</v>
-      </c>
-      <c r="H7" t="s">
-        <v>131</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1906,22 +1918,22 @@
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" t="s">
         <v>130</v>
-      </c>
-      <c r="H8" t="s">
-        <v>131</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1959,22 +1971,22 @@
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" t="s">
         <v>130</v>
-      </c>
-      <c r="H9" t="s">
-        <v>131</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -2012,22 +2024,22 @@
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" t="s">
         <v>130</v>
-      </c>
-      <c r="H10" t="s">
-        <v>131</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -2065,22 +2077,22 @@
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" t="s">
         <v>130</v>
-      </c>
-      <c r="H11" t="s">
-        <v>131</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -2118,22 +2130,22 @@
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" t="s">
         <v>130</v>
-      </c>
-      <c r="H12" t="s">
-        <v>131</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -2165,28 +2177,28 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" t="s">
         <v>187</v>
-      </c>
-      <c r="F13" t="s">
-        <v>188</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -2218,28 +2230,28 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14">
         <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -2280,10 +2292,10 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2330,10 +2342,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -2378,19 +2390,19 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" t="s">
         <v>255</v>
-      </c>
-      <c r="E17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" t="s">
-        <v>257</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -2431,10 +2443,10 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
@@ -2478,19 +2490,19 @@
         <v>2024</v>
       </c>
       <c r="D19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -2528,19 +2540,19 @@
         <v>2024</v>
       </c>
       <c r="D20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -2578,13 +2590,13 @@
         <v>2023</v>
       </c>
       <c r="D21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -2628,10 +2640,10 @@
         <v>2024</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -2675,13 +2687,13 @@
         <v>2024</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
@@ -2725,19 +2737,19 @@
         <v>2024</v>
       </c>
       <c r="D24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -2775,19 +2787,19 @@
         <v>2023</v>
       </c>
       <c r="D25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" t="s">
         <v>250</v>
       </c>
-      <c r="E25" t="s">
-        <v>252</v>
-      </c>
       <c r="F25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -2825,19 +2837,19 @@
         <v>2023</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -2875,19 +2887,19 @@
         <v>2023</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -3361,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -3926,7 +3938,7 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F47" t="s">
         <v>77</v>
@@ -4262,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -4609,7 +4621,7 @@
         <v>2023</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>60</v>
@@ -4652,20 +4664,23 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>359</v>
+      </c>
       <c r="B61">
         <v>2023</v>
       </c>
       <c r="C61" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D61" t="s">
         <v>32</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -4702,20 +4717,23 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>359</v>
+      </c>
       <c r="B62">
         <v>2023</v>
       </c>
       <c r="C62" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D62" t="s">
         <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -4752,20 +4770,23 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>359</v>
+      </c>
       <c r="B63">
         <v>2023</v>
       </c>
       <c r="C63" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D63" t="s">
         <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -4802,20 +4823,23 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>359</v>
+      </c>
       <c r="B64">
         <v>2023</v>
       </c>
       <c r="C64" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D64" t="s">
         <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G64" t="s">
         <v>33</v>
@@ -4852,20 +4876,23 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>359</v>
+      </c>
       <c r="B65">
         <v>2023</v>
       </c>
       <c r="C65" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D65" t="s">
         <v>32</v>
       </c>
       <c r="E65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -4902,26 +4929,29 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>360</v>
+      </c>
       <c r="B66">
         <v>2024</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D66" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E66" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
       </c>
       <c r="H66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I66" t="s">
         <v>11</v>
@@ -4952,26 +4982,29 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>360</v>
+      </c>
       <c r="B67">
         <v>2024</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D67" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E67" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F67" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
       </c>
       <c r="H67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I67" t="s">
         <v>11</v>
@@ -5002,23 +5035,26 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>360</v>
+      </c>
       <c r="B68">
         <v>2024</v>
       </c>
       <c r="C68" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F68" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I68" t="s">
         <v>11</v>
@@ -5049,26 +5085,29 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>360</v>
+      </c>
       <c r="B69">
         <v>2024</v>
       </c>
       <c r="C69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D69" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E69" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F69" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
       </c>
       <c r="H69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I69" t="s">
         <v>11</v>
@@ -5099,26 +5138,29 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>360</v>
+      </c>
       <c r="B70">
         <v>2024</v>
       </c>
       <c r="C70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D70" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E70" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
       </c>
       <c r="H70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I70" t="s">
         <v>11</v>
@@ -5149,26 +5191,29 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>360</v>
+      </c>
       <c r="B71">
         <v>2024</v>
       </c>
       <c r="C71" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D71" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E71" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
       </c>
       <c r="H71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I71" t="s">
         <v>11</v>
@@ -5199,26 +5244,29 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>360</v>
+      </c>
       <c r="B72">
         <v>2024</v>
       </c>
       <c r="C72" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D72" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E72" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F72" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
       </c>
       <c r="H72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I72" t="s">
         <v>11</v>
@@ -5249,26 +5297,29 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>360</v>
+      </c>
       <c r="B73">
         <v>2024</v>
       </c>
       <c r="C73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D73" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E73" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F73" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G73" t="s">
         <v>33</v>
       </c>
       <c r="H73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I73" t="s">
         <v>11</v>
@@ -5300,7 +5351,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B74">
         <v>2023</v>
@@ -5309,10 +5360,10 @@
         <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -5350,7 +5401,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75">
         <v>2023</v>
@@ -5359,10 +5410,10 @@
         <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G75" t="s">
         <v>34</v>
@@ -5400,7 +5451,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B76">
         <v>2023</v>
@@ -5409,10 +5460,10 @@
         <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -5462,10 +5513,10 @@
         <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H77" t="s">
         <v>116</v>
@@ -5506,13 +5557,13 @@
         <v>2024</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="F78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H78" t="s">
         <v>117</v>
@@ -5556,10 +5607,10 @@
         <v>50</v>
       </c>
       <c r="F79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H79" t="s">
         <v>118</v>
@@ -5600,13 +5651,13 @@
         <v>2024</v>
       </c>
       <c r="E80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G80" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H80" t="s">
         <v>119</v>
@@ -5644,19 +5695,19 @@
         <v>2024</v>
       </c>
       <c r="D81" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E81" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F81" t="s">
+        <v>325</v>
+      </c>
+      <c r="G81" t="s">
+        <v>211</v>
+      </c>
+      <c r="H81" t="s">
         <v>327</v>
-      </c>
-      <c r="G81" t="s">
-        <v>212</v>
-      </c>
-      <c r="H81" t="s">
-        <v>329</v>
       </c>
       <c r="I81" t="s">
         <v>11</v>
@@ -5694,16 +5745,16 @@
         <v>2024</v>
       </c>
       <c r="E82" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F82" t="s">
+        <v>326</v>
+      </c>
+      <c r="G82" t="s">
+        <v>211</v>
+      </c>
+      <c r="H82" t="s">
         <v>328</v>
-      </c>
-      <c r="G82" t="s">
-        <v>212</v>
-      </c>
-      <c r="H82" t="s">
-        <v>330</v>
       </c>
       <c r="J82" s="4">
         <v>0</v>
@@ -5738,19 +5789,19 @@
         <v>2024</v>
       </c>
       <c r="D83" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E83" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F83" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H83" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I83" t="s">
         <v>11</v>
@@ -5788,16 +5839,16 @@
         <v>2024</v>
       </c>
       <c r="E84" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H84" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J84" s="4">
         <v>0</v>
@@ -5832,19 +5883,19 @@
         <v>2024</v>
       </c>
       <c r="D85" t="s">
+        <v>334</v>
+      </c>
+      <c r="E85" t="s">
+        <v>340</v>
+      </c>
+      <c r="F85" t="s">
+        <v>335</v>
+      </c>
+      <c r="G85" t="s">
+        <v>211</v>
+      </c>
+      <c r="H85" t="s">
         <v>336</v>
-      </c>
-      <c r="E85" t="s">
-        <v>342</v>
-      </c>
-      <c r="F85" t="s">
-        <v>337</v>
-      </c>
-      <c r="G85" t="s">
-        <v>212</v>
-      </c>
-      <c r="H85" t="s">
-        <v>338</v>
       </c>
       <c r="J85" s="4">
         <v>0</v>
@@ -5879,16 +5930,16 @@
         <v>2024</v>
       </c>
       <c r="E86" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F86" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H86" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J86" s="4">
         <v>0</v>
@@ -5929,10 +5980,10 @@
         <v>51</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H87" t="s">
         <v>120</v>
@@ -5973,13 +6024,13 @@
         <v>2024</v>
       </c>
       <c r="E88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H88" t="s">
         <v>121</v>
@@ -6020,13 +6071,13 @@
         <v>42</v>
       </c>
       <c r="E89" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H89" t="s">
         <v>122</v>
@@ -6067,13 +6118,13 @@
         <v>2024</v>
       </c>
       <c r="E90" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H90" t="s">
         <v>123</v>
@@ -6111,7 +6162,7 @@
         <v>2023</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E91" t="s">
         <v>52</v>
@@ -6158,13 +6209,13 @@
         <v>2023</v>
       </c>
       <c r="D92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G92" t="s">
         <v>43</v>
@@ -6205,19 +6256,19 @@
         <v>2023</v>
       </c>
       <c r="D93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G93" t="s">
         <v>43</v>
       </c>
       <c r="H93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J93" s="4">
         <v>0</v>
@@ -6252,19 +6303,19 @@
         <v>2023</v>
       </c>
       <c r="D94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E94" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F94" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
       </c>
       <c r="H94" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I94" t="s">
         <v>12</v>
@@ -6302,19 +6353,19 @@
         <v>2023</v>
       </c>
       <c r="D95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G95" t="s">
         <v>43</v>
       </c>
       <c r="H95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J95" s="4">
         <v>0</v>
@@ -6349,19 +6400,19 @@
         <v>2023</v>
       </c>
       <c r="D96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G96" t="s">
         <v>43</v>
       </c>
       <c r="H96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J96" s="4">
         <v>0</v>
@@ -6396,19 +6447,19 @@
         <v>2023</v>
       </c>
       <c r="D97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J97" s="4">
         <v>0</v>
@@ -6435,21 +6486,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="B98">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="D98" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F98" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G98" t="s">
         <v>43</v>
@@ -6485,21 +6539,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="B99">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="D99" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F99" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G99" t="s">
         <v>43</v>
@@ -6535,21 +6592,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="B100">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F100" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G100" t="s">
         <v>43</v>
@@ -6585,21 +6645,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="B101">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="D101" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G101" t="s">
         <v>43</v>
@@ -6637,19 +6700,19 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>213</v>
+        <v>358</v>
       </c>
       <c r="B102">
         <v>2023</v>
       </c>
       <c r="D102" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E102" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F102" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -6687,19 +6750,19 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>358</v>
       </c>
       <c r="B103">
         <v>2023</v>
       </c>
       <c r="D103" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E103" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F103" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G103" t="s">
         <v>43</v>
@@ -6737,19 +6800,19 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>358</v>
       </c>
       <c r="B104">
         <v>2023</v>
       </c>
       <c r="D104" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E104" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F104" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G104" t="s">
         <v>43</v>
@@ -6787,19 +6850,19 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>213</v>
+        <v>358</v>
       </c>
       <c r="B105">
         <v>2023</v>
       </c>
       <c r="D105" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E105" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G105" t="s">
         <v>43</v>
@@ -6837,22 +6900,22 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B106">
         <v>2024</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" t="s">
         <v>146</v>
       </c>
-      <c r="D106" t="s">
-        <v>147</v>
-      </c>
       <c r="E106" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -6890,19 +6953,19 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B107">
         <v>2024</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -6940,19 +7003,19 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B108">
         <v>2024</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
@@ -6990,19 +7053,19 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B109">
         <v>2024</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -7040,22 +7103,22 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B110">
         <v>2024</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E110" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -7093,19 +7156,19 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B111">
         <v>2024</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
@@ -7143,19 +7206,19 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B112">
         <v>2024</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G112" t="s">
         <v>29</v>
@@ -7193,19 +7256,19 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B113">
         <v>2024</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
@@ -7249,19 +7312,19 @@
         <v>2024</v>
       </c>
       <c r="D114" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F114" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
       </c>
       <c r="H114" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I114" t="s">
         <v>11</v>
@@ -7299,13 +7362,13 @@
         <v>2024</v>
       </c>
       <c r="D115" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E115" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F115" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G115" t="s">
         <v>29</v>
@@ -7349,19 +7412,19 @@
         <v>2024</v>
       </c>
       <c r="D116" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E116" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F116" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G116" t="s">
         <v>29</v>
       </c>
       <c r="H116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I116" t="s">
         <v>12</v>
@@ -7399,13 +7462,13 @@
         <v>2024</v>
       </c>
       <c r="D117" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E117" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F117" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G117" t="s">
         <v>29</v>
@@ -7449,13 +7512,13 @@
         <v>2024</v>
       </c>
       <c r="D118" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E118" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F118" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G118" t="s">
         <v>29</v>
@@ -7499,13 +7562,13 @@
         <v>2024</v>
       </c>
       <c r="D119" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E119" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F119" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G119" t="s">
         <v>29</v>
@@ -7549,19 +7612,19 @@
         <v>2024</v>
       </c>
       <c r="D120" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E120" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F120" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G120" t="s">
         <v>29</v>
       </c>
       <c r="H120" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I120" t="s">
         <v>11</v>
@@ -7850,28 +7913,27 @@
     <hyperlink ref="C57" r:id="rId30" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{EDDD9F8D-F7A4-5E43-B44F-45FF2E5BB7C6}"/>
     <hyperlink ref="C58" r:id="rId31" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{4A2AAB32-D596-A549-A571-D384D3091028}"/>
     <hyperlink ref="C59" r:id="rId32" display="https://doi.org/10.1101%2F2023.12.15.571954" xr:uid="{D8450049-7E05-5948-8B8D-7D886E7330B4}"/>
-    <hyperlink ref="E78" r:id="rId33" xr:uid="{B391B2BF-3E75-1345-9E6F-74B3074A31BD}"/>
-    <hyperlink ref="E2" r:id="rId34" xr:uid="{E191A043-72B0-CC4E-9B58-FE4C461D40C9}"/>
-    <hyperlink ref="C14" r:id="rId35" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{88E6D632-2160-2B4D-AD77-9459075894C4}"/>
-    <hyperlink ref="C13" r:id="rId36" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{ED18E71A-43E8-A644-BA73-C69B86D50DCF}"/>
-    <hyperlink ref="C5" r:id="rId37" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{38821B49-6042-5042-8428-B8BD186CF7FB}"/>
-    <hyperlink ref="C6" r:id="rId38" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5C2B9BE0-AC88-2C45-87F0-F17854B8281E}"/>
-    <hyperlink ref="C7" r:id="rId39" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{2D68EF16-250B-CD4E-89AF-0D5B979194EB}"/>
-    <hyperlink ref="C8" r:id="rId40" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{FA19C14F-5330-E041-BF9D-07C424C85332}"/>
-    <hyperlink ref="C9" r:id="rId41" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{A3F8BBCD-8687-2947-AD87-50A2D562B7C0}"/>
-    <hyperlink ref="C10" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
-    <hyperlink ref="C11" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
-    <hyperlink ref="C12" r:id="rId44" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
-    <hyperlink ref="C106" r:id="rId45" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
-    <hyperlink ref="C107" r:id="rId46" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
-    <hyperlink ref="C108" r:id="rId47" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
-    <hyperlink ref="C109" r:id="rId48" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
-    <hyperlink ref="C110" r:id="rId49" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
-    <hyperlink ref="C111" r:id="rId50" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
-    <hyperlink ref="C112" r:id="rId51" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
-    <hyperlink ref="C113" r:id="rId52" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
-    <hyperlink ref="E60" r:id="rId53" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
-    <hyperlink ref="E61" r:id="rId54" xr:uid="{3FFA047D-54A7-1C4F-8F99-6C3E171DAF81}"/>
+    <hyperlink ref="E2" r:id="rId33" xr:uid="{E191A043-72B0-CC4E-9B58-FE4C461D40C9}"/>
+    <hyperlink ref="C14" r:id="rId34" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{88E6D632-2160-2B4D-AD77-9459075894C4}"/>
+    <hyperlink ref="C13" r:id="rId35" display="https://doi.org/10.1038/s41467-024-47271-y" xr:uid="{ED18E71A-43E8-A644-BA73-C69B86D50DCF}"/>
+    <hyperlink ref="C5" r:id="rId36" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{38821B49-6042-5042-8428-B8BD186CF7FB}"/>
+    <hyperlink ref="C6" r:id="rId37" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5C2B9BE0-AC88-2C45-87F0-F17854B8281E}"/>
+    <hyperlink ref="C7" r:id="rId38" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{2D68EF16-250B-CD4E-89AF-0D5B979194EB}"/>
+    <hyperlink ref="C8" r:id="rId39" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{FA19C14F-5330-E041-BF9D-07C424C85332}"/>
+    <hyperlink ref="C9" r:id="rId40" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{A3F8BBCD-8687-2947-AD87-50A2D562B7C0}"/>
+    <hyperlink ref="C10" r:id="rId41" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
+    <hyperlink ref="C11" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
+    <hyperlink ref="C12" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
+    <hyperlink ref="C106" r:id="rId44" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C107" r:id="rId45" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C108" r:id="rId46" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C109" r:id="rId47" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C110" r:id="rId48" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C111" r:id="rId49" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C112" r:id="rId50" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C113" r:id="rId51" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="E60" r:id="rId52" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
+    <hyperlink ref="E61" r:id="rId53" xr:uid="{3FFA047D-54A7-1C4F-8F99-6C3E171DAF81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1C99C2-0C1A-0C43-BEEC-43DCF4FB059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B611964-9537-7046-AA66-71A67A720EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="68" workbookViewId="0">
+      <selection activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91" s="4">
         <v>0</v>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B611964-9537-7046-AA66-71A67A720EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E929945C-1CB7-7349-AF0B-BC2C3DCB2F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="68" workbookViewId="0">
-      <selection activeCell="N93" sqref="N93"/>
+    <sheetView tabSelected="1" topLeftCell="D65" zoomScale="68" workbookViewId="0">
+      <selection activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E929945C-1CB7-7349-AF0B-BC2C3DCB2F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9397F5-FCF9-C342-A71C-2B8BCB58309F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1167,12 +1167,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1188,12 +1194,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1529,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:Q215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D65" zoomScale="68" workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4614,876 +4623,232 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60">
-        <v>2023</v>
-      </c>
-      <c r="D60" t="s">
-        <v>164</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F60" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s">
-        <v>23</v>
-      </c>
-      <c r="I60" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60" s="4">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="N60" s="4"/>
+      <c r="P60" s="4"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>359</v>
-      </c>
-      <c r="B61">
-        <v>2023</v>
-      </c>
-      <c r="C61" t="s">
-        <v>317</v>
-      </c>
-      <c r="D61" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61" t="s">
-        <v>181</v>
-      </c>
-      <c r="G61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61" s="4">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="N61" s="4"/>
+      <c r="P61" s="4"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>359</v>
-      </c>
-      <c r="B62">
-        <v>2023</v>
-      </c>
-      <c r="C62" t="s">
-        <v>317</v>
-      </c>
-      <c r="D62" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" t="s">
-        <v>191</v>
-      </c>
-      <c r="F62" t="s">
-        <v>182</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
-      <c r="H62" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62" s="4">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="N62" s="4"/>
+      <c r="P62" s="4"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>359</v>
-      </c>
-      <c r="B63">
-        <v>2023</v>
-      </c>
-      <c r="C63" t="s">
-        <v>317</v>
-      </c>
-      <c r="D63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" t="s">
-        <v>192</v>
-      </c>
-      <c r="F63" t="s">
-        <v>183</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63" s="4">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="N63" s="4"/>
+      <c r="P63" s="4"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>359</v>
-      </c>
-      <c r="B64">
-        <v>2023</v>
-      </c>
-      <c r="C64" t="s">
-        <v>317</v>
-      </c>
-      <c r="D64" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" t="s">
-        <v>193</v>
-      </c>
-      <c r="F64" t="s">
-        <v>184</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64" s="4">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="N64" s="4"/>
+      <c r="P64" s="4"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>359</v>
-      </c>
-      <c r="B65">
-        <v>2023</v>
-      </c>
-      <c r="C65" t="s">
-        <v>317</v>
-      </c>
-      <c r="D65" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" t="s">
-        <v>194</v>
-      </c>
-      <c r="F65" t="s">
-        <v>185</v>
-      </c>
-      <c r="G65" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65" s="4">
-        <v>0</v>
-      </c>
-      <c r="N65" s="4">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="N65" s="4"/>
+      <c r="P65" s="4"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>360</v>
-      </c>
-      <c r="B66">
-        <v>2024</v>
-      </c>
-      <c r="C66" t="s">
-        <v>353</v>
-      </c>
-      <c r="D66" t="s">
-        <v>354</v>
-      </c>
-      <c r="E66" t="s">
-        <v>261</v>
-      </c>
-      <c r="F66" t="s">
-        <v>262</v>
-      </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" t="s">
-        <v>210</v>
-      </c>
-      <c r="I66" t="s">
-        <v>11</v>
-      </c>
-      <c r="J66" s="4">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66" s="4">
-        <v>0</v>
-      </c>
-      <c r="N66" s="4">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="N66" s="4"/>
+      <c r="P66" s="4"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>360</v>
-      </c>
-      <c r="B67">
-        <v>2024</v>
-      </c>
-      <c r="C67" t="s">
-        <v>353</v>
-      </c>
-      <c r="D67" t="s">
-        <v>354</v>
-      </c>
-      <c r="E67" t="s">
-        <v>270</v>
-      </c>
-      <c r="F67" t="s">
-        <v>263</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
-      </c>
-      <c r="H67" t="s">
-        <v>210</v>
-      </c>
-      <c r="I67" t="s">
-        <v>11</v>
-      </c>
-      <c r="J67" s="4">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67" s="4">
-        <v>0</v>
-      </c>
-      <c r="N67" s="4">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="N67" s="4"/>
+      <c r="P67" s="4"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>360</v>
-      </c>
-      <c r="B68">
-        <v>2024</v>
-      </c>
-      <c r="C68" t="s">
-        <v>353</v>
-      </c>
-      <c r="D68" t="s">
-        <v>354</v>
-      </c>
-      <c r="F68" t="s">
-        <v>269</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" t="s">
-        <v>210</v>
-      </c>
-      <c r="I68" t="s">
-        <v>11</v>
-      </c>
-      <c r="J68" s="4">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68" s="4">
-        <v>0</v>
-      </c>
-      <c r="N68" s="4">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="N68" s="4"/>
+      <c r="P68" s="4"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>360</v>
-      </c>
-      <c r="B69">
-        <v>2024</v>
-      </c>
-      <c r="C69" t="s">
-        <v>353</v>
-      </c>
-      <c r="D69" t="s">
-        <v>354</v>
-      </c>
-      <c r="E69" t="s">
-        <v>271</v>
-      </c>
-      <c r="F69" t="s">
-        <v>264</v>
-      </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
-      <c r="H69" t="s">
-        <v>210</v>
-      </c>
-      <c r="I69" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="4">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69" s="4">
-        <v>0</v>
-      </c>
-      <c r="N69" s="4">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="N69" s="4"/>
+      <c r="P69" s="4"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>360</v>
-      </c>
-      <c r="B70">
-        <v>2024</v>
-      </c>
-      <c r="C70" t="s">
-        <v>353</v>
-      </c>
-      <c r="D70" t="s">
-        <v>354</v>
-      </c>
-      <c r="E70" t="s">
-        <v>272</v>
-      </c>
-      <c r="F70" t="s">
-        <v>265</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" t="s">
-        <v>210</v>
-      </c>
-      <c r="I70" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" s="4">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70" s="4">
-        <v>0</v>
-      </c>
-      <c r="N70" s="4">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="N70" s="4"/>
+      <c r="P70" s="4"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>360</v>
-      </c>
-      <c r="B71">
-        <v>2024</v>
-      </c>
-      <c r="C71" t="s">
-        <v>353</v>
-      </c>
-      <c r="D71" t="s">
-        <v>354</v>
-      </c>
-      <c r="E71" t="s">
-        <v>273</v>
-      </c>
-      <c r="F71" t="s">
-        <v>266</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
-      <c r="H71" t="s">
-        <v>210</v>
-      </c>
-      <c r="I71" t="s">
-        <v>11</v>
-      </c>
-      <c r="J71" s="4">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71" s="4">
-        <v>0</v>
-      </c>
-      <c r="N71" s="4">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="N71" s="4"/>
+      <c r="P71" s="4"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>360</v>
-      </c>
-      <c r="B72">
-        <v>2024</v>
-      </c>
-      <c r="C72" t="s">
-        <v>353</v>
-      </c>
-      <c r="D72" t="s">
-        <v>354</v>
-      </c>
-      <c r="E72" t="s">
-        <v>274</v>
-      </c>
-      <c r="F72" t="s">
-        <v>267</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72" t="s">
-        <v>210</v>
-      </c>
-      <c r="I72" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" s="4">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72" s="4">
-        <v>0</v>
-      </c>
-      <c r="N72" s="4">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="N72" s="4"/>
+      <c r="P72" s="4"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>360</v>
-      </c>
-      <c r="B73">
-        <v>2024</v>
-      </c>
-      <c r="C73" t="s">
-        <v>353</v>
-      </c>
-      <c r="D73" t="s">
-        <v>354</v>
-      </c>
-      <c r="E73" t="s">
-        <v>275</v>
-      </c>
-      <c r="F73" t="s">
-        <v>268</v>
-      </c>
-      <c r="G73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H73" t="s">
-        <v>210</v>
-      </c>
-      <c r="I73" t="s">
-        <v>11</v>
-      </c>
-      <c r="J73" s="4">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73" s="4">
-        <v>0</v>
-      </c>
-      <c r="N73" s="4">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="N73" s="4"/>
+      <c r="P73" s="4"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>163</v>
-      </c>
-      <c r="B74">
-        <v>2023</v>
-      </c>
-      <c r="D74" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" t="s">
-        <v>165</v>
-      </c>
-      <c r="F74" t="s">
-        <v>168</v>
-      </c>
-      <c r="G74" t="s">
-        <v>34</v>
-      </c>
-      <c r="H74" t="s">
-        <v>35</v>
-      </c>
-      <c r="I74" t="s">
-        <v>11</v>
-      </c>
-      <c r="J74" s="4">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74" s="4">
-        <v>0</v>
-      </c>
-      <c r="N74" s="4">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="N74" s="4"/>
+      <c r="P74" s="4"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75">
-        <v>2023</v>
-      </c>
-      <c r="D75" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" t="s">
-        <v>166</v>
-      </c>
-      <c r="F75" t="s">
-        <v>169</v>
-      </c>
-      <c r="G75" t="s">
-        <v>34</v>
-      </c>
-      <c r="H75" t="s">
-        <v>35</v>
-      </c>
-      <c r="I75" t="s">
-        <v>11</v>
-      </c>
-      <c r="J75" s="4">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75" s="4">
-        <v>0</v>
-      </c>
-      <c r="N75" s="4">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="N75" s="4"/>
+      <c r="P75" s="4"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="B76">
         <v>2023</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F76" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I76" t="s">
         <v>11</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76" s="4">
+        <v>1</v>
+      </c>
+      <c r="M76">
         <v>0</v>
       </c>
       <c r="N76" s="4">
@@ -5501,30 +4866,33 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>359</v>
       </c>
       <c r="B77">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="C77" t="s">
+        <v>317</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
-      </c>
-      <c r="E77" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="F77" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G77" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H77" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="I77" t="s">
         <v>11</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
@@ -5533,14 +4901,14 @@
       <c r="L77">
         <v>1</v>
       </c>
-      <c r="M77" s="4">
+      <c r="M77">
         <v>0</v>
       </c>
       <c r="N77" s="4">
         <v>0</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" s="4">
         <v>0</v>
@@ -5551,24 +4919,33 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>359</v>
       </c>
       <c r="B78">
-        <v>2024</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>357</v>
+        <v>2023</v>
+      </c>
+      <c r="C78" t="s">
+        <v>317</v>
+      </c>
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" t="s">
+        <v>191</v>
       </c>
       <c r="F78" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G78" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H78" t="s">
-        <v>117</v>
-      </c>
-      <c r="J78" s="4">
+        <v>10</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
@@ -5577,7 +4954,7 @@
       <c r="L78">
         <v>1</v>
       </c>
-      <c r="M78" s="4">
+      <c r="M78">
         <v>0</v>
       </c>
       <c r="N78" s="4">
@@ -5595,30 +4972,33 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>359</v>
       </c>
       <c r="B79">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="C79" t="s">
+        <v>317</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="F79" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G79" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H79" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="I79" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" s="4">
+        <v>11</v>
+      </c>
+      <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
@@ -5627,7 +5007,7 @@
       <c r="L79">
         <v>1</v>
       </c>
-      <c r="M79" s="4">
+      <c r="M79">
         <v>0</v>
       </c>
       <c r="N79" s="4">
@@ -5645,33 +5025,42 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>359</v>
       </c>
       <c r="B80">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="C80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
       </c>
       <c r="E80" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F80" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G80" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H80" t="s">
-        <v>119</v>
-      </c>
-      <c r="J80" s="4">
+        <v>10</v>
+      </c>
+      <c r="I80" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80" s="4">
+        <v>0</v>
+      </c>
+      <c r="M80">
         <v>0</v>
       </c>
       <c r="N80" s="4">
@@ -5689,25 +5078,28 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>359</v>
       </c>
       <c r="B81">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="C81" t="s">
+        <v>317</v>
       </c>
       <c r="D81" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="E81" t="s">
-        <v>342</v>
+        <v>194</v>
       </c>
       <c r="F81" t="s">
-        <v>325</v>
+        <v>185</v>
       </c>
       <c r="G81" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H81" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="I81" t="s">
         <v>11</v>
@@ -5716,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" s="4">
         <v>0</v>
@@ -5739,31 +5131,40 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="B82">
         <v>2024</v>
       </c>
+      <c r="C82" t="s">
+        <v>353</v>
+      </c>
+      <c r="D82" t="s">
+        <v>354</v>
+      </c>
       <c r="E82" t="s">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="F82" t="s">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="G82" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H82" t="s">
-        <v>328</v>
+        <v>210</v>
+      </c>
+      <c r="I82" t="s">
+        <v>11</v>
       </c>
       <c r="J82" s="4">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" s="4">
         <v>0</v>
@@ -5783,25 +5184,28 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="B83">
         <v>2024</v>
       </c>
+      <c r="C83" t="s">
+        <v>353</v>
+      </c>
       <c r="D83" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="E83" t="s">
-        <v>341</v>
+        <v>270</v>
       </c>
       <c r="F83" t="s">
-        <v>330</v>
+        <v>263</v>
       </c>
       <c r="G83" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H83" t="s">
-        <v>333</v>
+        <v>210</v>
       </c>
       <c r="I83" t="s">
         <v>11</v>
@@ -5833,31 +5237,37 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="B84">
         <v>2024</v>
       </c>
-      <c r="E84" t="s">
-        <v>344</v>
+      <c r="C84" t="s">
+        <v>353</v>
+      </c>
+      <c r="D84" t="s">
+        <v>354</v>
       </c>
       <c r="F84" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="G84" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H84" t="s">
-        <v>332</v>
+        <v>210</v>
+      </c>
+      <c r="I84" t="s">
+        <v>11</v>
       </c>
       <c r="J84" s="4">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" s="4">
         <v>0</v>
@@ -5877,25 +5287,31 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="B85">
         <v>2024</v>
       </c>
+      <c r="C85" t="s">
+        <v>353</v>
+      </c>
       <c r="D85" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E85" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="F85" t="s">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="G85" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H85" t="s">
-        <v>336</v>
+        <v>210</v>
+      </c>
+      <c r="I85" t="s">
+        <v>11</v>
       </c>
       <c r="J85" s="4">
         <v>0</v>
@@ -5924,31 +5340,40 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="B86">
         <v>2024</v>
       </c>
+      <c r="C86" t="s">
+        <v>353</v>
+      </c>
+      <c r="D86" t="s">
+        <v>354</v>
+      </c>
       <c r="E86" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="F86" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="G86" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H86" t="s">
-        <v>337</v>
+        <v>210</v>
+      </c>
+      <c r="I86" t="s">
+        <v>11</v>
       </c>
       <c r="J86" s="4">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" s="4">
         <v>0</v>
@@ -5968,25 +5393,28 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="B87">
         <v>2024</v>
       </c>
+      <c r="C87" t="s">
+        <v>353</v>
+      </c>
       <c r="D87" t="s">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="E87" t="s">
-        <v>51</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>175</v>
+        <v>273</v>
+      </c>
+      <c r="F87" t="s">
+        <v>266</v>
       </c>
       <c r="G87" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H87" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="I87" t="s">
         <v>11</v>
@@ -6018,31 +5446,40 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="B88">
         <v>2024</v>
       </c>
+      <c r="C88" t="s">
+        <v>353</v>
+      </c>
+      <c r="D88" t="s">
+        <v>354</v>
+      </c>
       <c r="E88" t="s">
-        <v>180</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>176</v>
+        <v>274</v>
+      </c>
+      <c r="F88" t="s">
+        <v>267</v>
       </c>
       <c r="G88" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H88" t="s">
-        <v>121</v>
+        <v>210</v>
+      </c>
+      <c r="I88" t="s">
+        <v>11</v>
       </c>
       <c r="J88" s="4">
         <v>0</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88" s="4">
         <v>0</v>
@@ -6062,37 +5499,40 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="B89">
         <v>2024</v>
       </c>
+      <c r="C89" t="s">
+        <v>353</v>
+      </c>
       <c r="D89" t="s">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="E89" t="s">
-        <v>346</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>177</v>
+        <v>275</v>
+      </c>
+      <c r="F89" t="s">
+        <v>268</v>
       </c>
       <c r="G89" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H89" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="I89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J89" s="4">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" s="4">
         <v>0</v>
@@ -6112,31 +5552,37 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="B90">
-        <v>2024</v>
+        <v>2023</v>
+      </c>
+      <c r="D90" t="s">
+        <v>38</v>
       </c>
       <c r="E90" t="s">
-        <v>347</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>178</v>
+        <v>165</v>
+      </c>
+      <c r="F90" t="s">
+        <v>168</v>
       </c>
       <c r="G90" t="s">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="H90" t="s">
-        <v>123</v>
+        <v>35</v>
+      </c>
+      <c r="I90" t="s">
+        <v>11</v>
       </c>
       <c r="J90" s="4">
         <v>0</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" s="4">
         <v>0</v>
@@ -6156,34 +5602,37 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="B91">
         <v>2023</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="F91" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H91" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="I91" t="s">
+        <v>11</v>
       </c>
       <c r="J91" s="4">
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91" s="4">
         <v>0</v>
@@ -6203,34 +5652,37 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="B92">
         <v>2023</v>
       </c>
       <c r="D92" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="E92" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="F92" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="I92" t="s">
+        <v>11</v>
       </c>
       <c r="J92" s="4">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" s="4">
         <v>0</v>
@@ -6250,25 +5702,28 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B93">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D93" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="E93" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H93" t="s">
-        <v>206</v>
+        <v>116</v>
+      </c>
+      <c r="I93" t="s">
+        <v>11</v>
       </c>
       <c r="J93" s="4">
         <v>0</v>
@@ -6286,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93" s="4">
         <v>0</v>
@@ -6297,28 +5752,22 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B94">
-        <v>2023</v>
-      </c>
-      <c r="D94" t="s">
-        <v>208</v>
-      </c>
-      <c r="E94" t="s">
-        <v>339</v>
+        <v>2024</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="F94" t="s">
-        <v>320</v>
+        <v>172</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H94" t="s">
-        <v>321</v>
-      </c>
-      <c r="I94" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="J94" s="4">
         <v>0</v>
@@ -6347,25 +5796,28 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B95">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D95" t="s">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="E95" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="F95" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H95" t="s">
-        <v>207</v>
+        <v>118</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
       </c>
       <c r="J95" s="4">
         <v>0</v>
@@ -6394,25 +5846,22 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B96">
-        <v>2023</v>
-      </c>
-      <c r="D96" t="s">
-        <v>209</v>
+        <v>2024</v>
       </c>
       <c r="E96" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H96" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="J96" s="4">
         <v>0</v>
@@ -6441,25 +5890,28 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B97">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>324</v>
       </c>
       <c r="E97" t="s">
-        <v>204</v>
+        <v>342</v>
       </c>
       <c r="F97" t="s">
-        <v>199</v>
+        <v>325</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H97" t="s">
-        <v>205</v>
+        <v>327</v>
+      </c>
+      <c r="I97" t="s">
+        <v>11</v>
       </c>
       <c r="J97" s="4">
         <v>0</v>
@@ -6486,39 +5938,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>355</v>
+        <v>18</v>
       </c>
       <c r="B98">
         <v>2024</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D98" t="s">
-        <v>276</v>
-      </c>
       <c r="E98" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="F98" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H98" t="s">
-        <v>44</v>
-      </c>
-      <c r="I98" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="J98" s="4">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -6539,39 +5982,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>355</v>
+        <v>18</v>
       </c>
       <c r="B99">
         <v>2024</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="D99" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="E99" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="F99" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H99" t="s">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="I99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J99" s="4">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -6592,39 +6032,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>355</v>
+        <v>18</v>
       </c>
       <c r="B100">
         <v>2024</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D100" t="s">
-        <v>276</v>
-      </c>
       <c r="E100" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="F100" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H100" t="s">
-        <v>44</v>
-      </c>
-      <c r="I100" t="s">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="J100" s="4">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -6645,39 +6076,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>355</v>
+        <v>18</v>
       </c>
       <c r="B101">
         <v>2024</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="D101" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="E101" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="F101" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H101" t="s">
-        <v>44</v>
-      </c>
-      <c r="I101" t="s">
-        <v>12</v>
+        <v>336</v>
       </c>
       <c r="J101" s="4">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -6700,28 +6125,22 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>358</v>
+        <v>18</v>
       </c>
       <c r="B102">
-        <v>2023</v>
-      </c>
-      <c r="D102" t="s">
-        <v>216</v>
+        <v>2024</v>
       </c>
       <c r="E102" t="s">
-        <v>231</v>
+        <v>343</v>
       </c>
       <c r="F102" t="s">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H102" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="J102" s="4">
         <v>0</v>
@@ -6750,25 +6169,25 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>358</v>
+        <v>18</v>
       </c>
       <c r="B103">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D103" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="E103" t="s">
-        <v>232</v>
-      </c>
-      <c r="F103" t="s">
-        <v>213</v>
+        <v>51</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H103" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="I103" t="s">
         <v>11</v>
@@ -6780,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" s="4">
         <v>0</v>
@@ -6800,28 +6219,22 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>358</v>
+        <v>18</v>
       </c>
       <c r="B104">
-        <v>2023</v>
-      </c>
-      <c r="D104" t="s">
-        <v>216</v>
+        <v>2024</v>
       </c>
       <c r="E104" t="s">
-        <v>233</v>
-      </c>
-      <c r="F104" t="s">
-        <v>214</v>
+        <v>180</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H104" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="J104" s="4">
         <v>0</v>
@@ -6850,28 +6263,28 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>358</v>
+        <v>18</v>
       </c>
       <c r="B105">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D105" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="E105" t="s">
-        <v>234</v>
-      </c>
-      <c r="F105" t="s">
-        <v>215</v>
+        <v>346</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="H105" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="I105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J105" s="4">
         <v>0</v>
@@ -6880,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" s="4">
         <v>0</v>
@@ -6900,37 +6313,28 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="B106">
         <v>2024</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D106" t="s">
-        <v>146</v>
-      </c>
       <c r="E106" t="s">
-        <v>277</v>
-      </c>
-      <c r="F106" t="s">
-        <v>154</v>
+        <v>347</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="H106" t="s">
-        <v>10</v>
-      </c>
-      <c r="I106" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="J106" s="4">
         <v>0</v>
       </c>
-      <c r="K106" s="4">
-        <v>0</v>
+      <c r="K106">
+        <v>1</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -6942,941 +6346,2443 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P106" s="4">
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>162</v>
-      </c>
-      <c r="B107">
-        <v>2024</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D107" t="s">
-        <v>147</v>
-      </c>
-      <c r="F107" t="s">
-        <v>155</v>
-      </c>
-      <c r="G107" t="s">
-        <v>29</v>
-      </c>
-      <c r="H107" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107" t="s">
-        <v>11</v>
-      </c>
-      <c r="J107" s="4">
-        <v>0</v>
-      </c>
-      <c r="K107" s="4">
-        <v>0</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107" s="4">
-        <v>0</v>
-      </c>
-      <c r="N107" s="4">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="P107" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="J107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="P107" s="4"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>162</v>
-      </c>
-      <c r="B108">
-        <v>2024</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D108" t="s">
-        <v>148</v>
-      </c>
-      <c r="F108" t="s">
-        <v>156</v>
-      </c>
-      <c r="G108" t="s">
-        <v>29</v>
-      </c>
-      <c r="H108" t="s">
-        <v>10</v>
-      </c>
-      <c r="I108" t="s">
-        <v>11</v>
-      </c>
-      <c r="J108" s="4">
-        <v>0</v>
-      </c>
-      <c r="K108" s="4">
-        <v>0</v>
-      </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108" s="4">
-        <v>0</v>
-      </c>
-      <c r="N108" s="4">
-        <v>0</v>
-      </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-      <c r="P108" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="J108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="P108" s="4"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>162</v>
-      </c>
-      <c r="B109">
-        <v>2024</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D109" t="s">
-        <v>149</v>
-      </c>
-      <c r="F109" t="s">
-        <v>157</v>
-      </c>
-      <c r="G109" t="s">
-        <v>29</v>
-      </c>
-      <c r="H109" t="s">
-        <v>10</v>
-      </c>
-      <c r="I109" t="s">
-        <v>11</v>
-      </c>
-      <c r="J109" s="4">
-        <v>0</v>
-      </c>
-      <c r="K109" s="4">
-        <v>0</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109" s="4">
-        <v>0</v>
-      </c>
-      <c r="N109" s="4">
-        <v>0</v>
-      </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-      <c r="P109" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="J109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="P109" s="4"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>162</v>
-      </c>
-      <c r="B110">
-        <v>2024</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D110" t="s">
-        <v>150</v>
-      </c>
-      <c r="E110" t="s">
-        <v>278</v>
-      </c>
-      <c r="F110" t="s">
-        <v>158</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
-      <c r="H110" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" t="s">
-        <v>11</v>
-      </c>
-      <c r="J110" s="4">
-        <v>0</v>
-      </c>
-      <c r="K110" s="4">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>1</v>
-      </c>
-      <c r="M110" s="4">
-        <v>0</v>
-      </c>
-      <c r="N110" s="4">
-        <v>0</v>
-      </c>
-      <c r="O110">
-        <v>1</v>
-      </c>
-      <c r="P110" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>1</v>
-      </c>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="J110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="P110" s="4"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>162</v>
-      </c>
-      <c r="B111">
-        <v>2024</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D111" t="s">
-        <v>151</v>
-      </c>
-      <c r="F111" t="s">
-        <v>159</v>
-      </c>
-      <c r="G111" t="s">
-        <v>29</v>
-      </c>
-      <c r="H111" t="s">
-        <v>10</v>
-      </c>
-      <c r="I111" t="s">
-        <v>11</v>
-      </c>
-      <c r="J111" s="4">
-        <v>0</v>
-      </c>
-      <c r="K111" s="4">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111" s="4">
-        <v>0</v>
-      </c>
-      <c r="N111" s="4">
-        <v>0</v>
-      </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="P111" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="4">
-        <v>0</v>
-      </c>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="J111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="P111" s="4"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>162</v>
-      </c>
-      <c r="B112">
-        <v>2024</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D112" t="s">
-        <v>152</v>
-      </c>
-      <c r="F112" t="s">
-        <v>160</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
-      <c r="H112" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" t="s">
-        <v>11</v>
-      </c>
-      <c r="J112" s="4">
-        <v>0</v>
-      </c>
-      <c r="K112" s="4">
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112" s="4">
-        <v>0</v>
-      </c>
-      <c r="N112" s="4">
-        <v>0</v>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="P112" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>162</v>
-      </c>
-      <c r="B113">
-        <v>2024</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D113" t="s">
-        <v>153</v>
-      </c>
-      <c r="F113" t="s">
-        <v>161</v>
-      </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
-      <c r="H113" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" t="s">
-        <v>11</v>
-      </c>
-      <c r="J113" s="4">
-        <v>0</v>
-      </c>
-      <c r="K113" s="4">
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113" s="4">
-        <v>0</v>
-      </c>
-      <c r="N113" s="4">
-        <v>0</v>
-      </c>
-      <c r="O113" s="4">
-        <v>0</v>
-      </c>
-      <c r="P113" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>18</v>
-      </c>
-      <c r="B114">
-        <v>2024</v>
-      </c>
-      <c r="D114" t="s">
-        <v>290</v>
-      </c>
-      <c r="E114" t="s">
-        <v>312</v>
-      </c>
-      <c r="F114" t="s">
-        <v>297</v>
-      </c>
-      <c r="G114" t="s">
-        <v>29</v>
-      </c>
-      <c r="H114" t="s">
-        <v>288</v>
-      </c>
-      <c r="I114" t="s">
-        <v>11</v>
-      </c>
-      <c r="J114" s="4">
-        <v>0</v>
-      </c>
-      <c r="K114" s="4">
-        <v>0</v>
-      </c>
-      <c r="L114">
-        <v>1</v>
-      </c>
-      <c r="M114" s="4">
-        <v>0</v>
-      </c>
-      <c r="N114" s="4">
-        <v>0</v>
-      </c>
-      <c r="O114" s="4">
-        <v>0</v>
-      </c>
-      <c r="P114" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115">
-        <v>2024</v>
-      </c>
-      <c r="D115" t="s">
-        <v>291</v>
-      </c>
-      <c r="E115" t="s">
-        <v>310</v>
-      </c>
-      <c r="F115" t="s">
-        <v>298</v>
-      </c>
-      <c r="G115" t="s">
-        <v>29</v>
-      </c>
-      <c r="H115" t="s">
-        <v>35</v>
-      </c>
-      <c r="I115" t="s">
-        <v>11</v>
-      </c>
-      <c r="J115" s="4">
-        <v>0</v>
-      </c>
-      <c r="K115" s="4">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
-      <c r="M115" s="4">
-        <v>0</v>
-      </c>
-      <c r="N115" s="4">
-        <v>0</v>
-      </c>
-      <c r="O115" s="4">
-        <v>0</v>
-      </c>
-      <c r="P115" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q115" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>18</v>
-      </c>
-      <c r="B116">
-        <v>2024</v>
-      </c>
-      <c r="D116" t="s">
-        <v>292</v>
-      </c>
-      <c r="E116" t="s">
-        <v>309</v>
-      </c>
-      <c r="F116" t="s">
-        <v>299</v>
-      </c>
-      <c r="G116" t="s">
-        <v>29</v>
-      </c>
-      <c r="H116" t="s">
-        <v>207</v>
-      </c>
-      <c r="I116" t="s">
-        <v>12</v>
-      </c>
-      <c r="J116" s="4">
-        <v>0</v>
-      </c>
-      <c r="K116" s="4">
-        <v>0</v>
-      </c>
-      <c r="L116">
-        <v>1</v>
-      </c>
-      <c r="M116" s="4">
-        <v>0</v>
-      </c>
-      <c r="N116" s="4">
-        <v>0</v>
-      </c>
-      <c r="O116" s="4">
-        <v>0</v>
-      </c>
-      <c r="P116" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>18</v>
-      </c>
-      <c r="B117">
-        <v>2024</v>
-      </c>
-      <c r="D117" t="s">
-        <v>293</v>
-      </c>
-      <c r="E117" t="s">
-        <v>311</v>
-      </c>
-      <c r="F117" t="s">
-        <v>300</v>
-      </c>
-      <c r="G117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H117" t="s">
-        <v>21</v>
-      </c>
-      <c r="I117" t="s">
-        <v>12</v>
-      </c>
-      <c r="J117" s="4">
-        <v>0</v>
-      </c>
-      <c r="K117" s="4">
-        <v>0</v>
-      </c>
-      <c r="L117">
-        <v>1</v>
-      </c>
-      <c r="M117" s="4">
-        <v>0</v>
-      </c>
-      <c r="N117" s="4">
-        <v>0</v>
-      </c>
-      <c r="O117" s="4">
-        <v>0</v>
-      </c>
-      <c r="P117" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>18</v>
-      </c>
-      <c r="B118">
-        <v>2024</v>
-      </c>
-      <c r="D118" t="s">
-        <v>294</v>
-      </c>
-      <c r="E118" t="s">
-        <v>308</v>
-      </c>
-      <c r="F118" t="s">
-        <v>301</v>
-      </c>
-      <c r="G118" t="s">
-        <v>29</v>
-      </c>
-      <c r="H118" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" t="s">
-        <v>11</v>
-      </c>
-      <c r="J118" s="4">
-        <v>0</v>
-      </c>
-      <c r="K118" s="4">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>1</v>
-      </c>
-      <c r="M118" s="4">
-        <v>0</v>
-      </c>
-      <c r="N118" s="4">
-        <v>0</v>
-      </c>
-      <c r="O118" s="4">
-        <v>0</v>
-      </c>
-      <c r="P118" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>18</v>
-      </c>
-      <c r="B119">
-        <v>2024</v>
-      </c>
-      <c r="D119" t="s">
-        <v>295</v>
-      </c>
-      <c r="E119" t="s">
-        <v>306</v>
-      </c>
-      <c r="F119" t="s">
-        <v>302</v>
-      </c>
-      <c r="G119" t="s">
-        <v>29</v>
-      </c>
-      <c r="H119" t="s">
-        <v>35</v>
-      </c>
-      <c r="I119" t="s">
-        <v>12</v>
-      </c>
-      <c r="J119" s="4">
-        <v>0</v>
-      </c>
-      <c r="K119" s="4">
-        <v>0</v>
-      </c>
-      <c r="L119">
-        <v>1</v>
-      </c>
-      <c r="M119" s="4">
-        <v>0</v>
-      </c>
-      <c r="N119" s="4">
-        <v>0</v>
-      </c>
-      <c r="O119" s="4">
-        <v>0</v>
-      </c>
-      <c r="P119" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q119" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>18</v>
-      </c>
-      <c r="B120">
-        <v>2024</v>
-      </c>
-      <c r="D120" t="s">
-        <v>296</v>
-      </c>
-      <c r="E120" t="s">
-        <v>307</v>
-      </c>
-      <c r="F120" t="s">
-        <v>303</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
-      <c r="H120" t="s">
-        <v>289</v>
-      </c>
-      <c r="I120" t="s">
-        <v>11</v>
-      </c>
-      <c r="J120" s="4">
-        <v>0</v>
-      </c>
-      <c r="K120" s="4">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>1</v>
-      </c>
-      <c r="M120" s="4">
-        <v>0</v>
-      </c>
-      <c r="N120" s="4">
-        <v>0</v>
-      </c>
-      <c r="O120" s="4">
-        <v>0</v>
-      </c>
-      <c r="P120" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="J112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="P112" s="4"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="J113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="P113" s="4"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="J114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="P114" s="4"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="J115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="P115" s="4"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="J116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="P116" s="4"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="J117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="P117" s="4"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="J118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="P118" s="4"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="J119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="P119" s="4"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="J120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="P120" s="4"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
       <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
       <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
       <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
       <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
       <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
       <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
       <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
       <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-    </row>
-    <row r="129" spans="10:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
       <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-    </row>
-    <row r="130" spans="10:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
       <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-    </row>
-    <row r="131" spans="10:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
       <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-    </row>
-    <row r="132" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-    </row>
-    <row r="133" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-    </row>
-    <row r="134" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-    </row>
-    <row r="135" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-    </row>
-    <row r="136" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-    </row>
-    <row r="137" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-    </row>
-    <row r="138" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-    </row>
-    <row r="139" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-    </row>
-    <row r="140" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-    </row>
-    <row r="141" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-    </row>
-    <row r="142" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-    </row>
-    <row r="143" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-    </row>
-    <row r="144" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-    </row>
-    <row r="145" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
-    </row>
-    <row r="146" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-    </row>
-    <row r="147" spans="14:16" x14ac:dyDescent="0.2">
-      <c r="N147" s="4"/>
-      <c r="P147" s="4"/>
-    </row>
-    <row r="148" spans="14:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133">
+        <v>2023</v>
+      </c>
+      <c r="D133" t="s">
+        <v>208</v>
+      </c>
+      <c r="E133" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" t="s">
+        <v>53</v>
+      </c>
+      <c r="G133" t="s">
+        <v>43</v>
+      </c>
+      <c r="H133" t="s">
+        <v>10</v>
+      </c>
+      <c r="J133" s="4">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133" s="4">
+        <v>0</v>
+      </c>
+      <c r="N133" s="4">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134">
+        <v>2023</v>
+      </c>
+      <c r="D134" t="s">
+        <v>208</v>
+      </c>
+      <c r="E134" t="s">
+        <v>200</v>
+      </c>
+      <c r="F134" t="s">
+        <v>195</v>
+      </c>
+      <c r="G134" t="s">
+        <v>43</v>
+      </c>
+      <c r="H134" t="s">
+        <v>20</v>
+      </c>
+      <c r="J134" s="4">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134" s="4">
+        <v>0</v>
+      </c>
+      <c r="N134" s="4">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135">
+        <v>2023</v>
+      </c>
+      <c r="D135" t="s">
+        <v>208</v>
+      </c>
+      <c r="E135" t="s">
+        <v>201</v>
+      </c>
+      <c r="F135" t="s">
+        <v>196</v>
+      </c>
+      <c r="G135" t="s">
+        <v>43</v>
+      </c>
+      <c r="H135" t="s">
+        <v>206</v>
+      </c>
+      <c r="J135" s="4">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135" s="4">
+        <v>0</v>
+      </c>
+      <c r="N135" s="4">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136">
+        <v>2023</v>
+      </c>
+      <c r="D136" t="s">
+        <v>208</v>
+      </c>
+      <c r="E136" t="s">
+        <v>339</v>
+      </c>
+      <c r="F136" t="s">
+        <v>320</v>
+      </c>
+      <c r="G136" t="s">
+        <v>43</v>
+      </c>
+      <c r="H136" t="s">
+        <v>321</v>
+      </c>
+      <c r="I136" t="s">
+        <v>12</v>
+      </c>
+      <c r="J136" s="4">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136" s="4">
+        <v>0</v>
+      </c>
+      <c r="N136" s="4">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137">
+        <v>2023</v>
+      </c>
+      <c r="D137" t="s">
+        <v>208</v>
+      </c>
+      <c r="E137" t="s">
+        <v>202</v>
+      </c>
+      <c r="F137" t="s">
+        <v>197</v>
+      </c>
+      <c r="G137" t="s">
+        <v>43</v>
+      </c>
+      <c r="H137" t="s">
+        <v>207</v>
+      </c>
+      <c r="J137" s="4">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137" s="4">
+        <v>0</v>
+      </c>
+      <c r="N137" s="4">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138">
+        <v>2023</v>
+      </c>
+      <c r="D138" t="s">
+        <v>209</v>
+      </c>
+      <c r="E138" t="s">
+        <v>203</v>
+      </c>
+      <c r="F138" t="s">
+        <v>198</v>
+      </c>
+      <c r="G138" t="s">
+        <v>43</v>
+      </c>
+      <c r="H138" t="s">
+        <v>205</v>
+      </c>
+      <c r="J138" s="4">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138" s="4">
+        <v>0</v>
+      </c>
+      <c r="N138" s="4">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139">
+        <v>2023</v>
+      </c>
+      <c r="D139" t="s">
+        <v>209</v>
+      </c>
+      <c r="E139" t="s">
+        <v>204</v>
+      </c>
+      <c r="F139" t="s">
+        <v>199</v>
+      </c>
+      <c r="G139" t="s">
+        <v>43</v>
+      </c>
+      <c r="H139" t="s">
+        <v>205</v>
+      </c>
+      <c r="J139" s="4">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139" s="4">
+        <v>0</v>
+      </c>
+      <c r="N139" s="4">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>355</v>
+      </c>
+      <c r="B140">
+        <v>2024</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D140" t="s">
+        <v>276</v>
+      </c>
+      <c r="E140" t="s">
+        <v>313</v>
+      </c>
+      <c r="F140" t="s">
+        <v>257</v>
+      </c>
+      <c r="G140" t="s">
+        <v>43</v>
+      </c>
+      <c r="H140" t="s">
+        <v>44</v>
+      </c>
+      <c r="I140" t="s">
+        <v>12</v>
+      </c>
+      <c r="J140" s="4">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140" s="4">
+        <v>0</v>
+      </c>
+      <c r="N140" s="4">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>355</v>
+      </c>
+      <c r="B141">
+        <v>2024</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D141" t="s">
+        <v>276</v>
+      </c>
+      <c r="E141" t="s">
+        <v>314</v>
+      </c>
+      <c r="F141" t="s">
+        <v>260</v>
+      </c>
+      <c r="G141" t="s">
+        <v>43</v>
+      </c>
+      <c r="H141" t="s">
+        <v>44</v>
+      </c>
+      <c r="I141" t="s">
+        <v>12</v>
+      </c>
+      <c r="J141" s="4">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141" s="4">
+        <v>0</v>
+      </c>
+      <c r="N141" s="4">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>355</v>
+      </c>
+      <c r="B142">
+        <v>2024</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D142" t="s">
+        <v>276</v>
+      </c>
+      <c r="E142" t="s">
+        <v>315</v>
+      </c>
+      <c r="F142" t="s">
+        <v>259</v>
+      </c>
+      <c r="G142" t="s">
+        <v>43</v>
+      </c>
+      <c r="H142" t="s">
+        <v>44</v>
+      </c>
+      <c r="I142" t="s">
+        <v>12</v>
+      </c>
+      <c r="J142" s="4">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142" s="4">
+        <v>0</v>
+      </c>
+      <c r="N142" s="4">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>355</v>
+      </c>
+      <c r="B143">
+        <v>2024</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D143" t="s">
+        <v>276</v>
+      </c>
+      <c r="E143" t="s">
+        <v>316</v>
+      </c>
+      <c r="F143" t="s">
+        <v>258</v>
+      </c>
+      <c r="G143" t="s">
+        <v>43</v>
+      </c>
+      <c r="H143" t="s">
+        <v>44</v>
+      </c>
+      <c r="I143" t="s">
+        <v>12</v>
+      </c>
+      <c r="J143" s="4">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143" s="4">
+        <v>0</v>
+      </c>
+      <c r="N143" s="4">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>358</v>
+      </c>
+      <c r="B144">
+        <v>2023</v>
+      </c>
+      <c r="D144" t="s">
+        <v>216</v>
+      </c>
+      <c r="E144" t="s">
+        <v>231</v>
+      </c>
+      <c r="F144" t="s">
+        <v>212</v>
+      </c>
+      <c r="G144" t="s">
+        <v>43</v>
+      </c>
+      <c r="H144" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" t="s">
+        <v>11</v>
+      </c>
+      <c r="J144" s="4">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144" s="4">
+        <v>0</v>
+      </c>
+      <c r="N144" s="4">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>358</v>
+      </c>
+      <c r="B145">
+        <v>2023</v>
+      </c>
+      <c r="D145" t="s">
+        <v>216</v>
+      </c>
+      <c r="E145" t="s">
+        <v>232</v>
+      </c>
+      <c r="F145" t="s">
+        <v>213</v>
+      </c>
+      <c r="G145" t="s">
+        <v>43</v>
+      </c>
+      <c r="H145" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" t="s">
+        <v>11</v>
+      </c>
+      <c r="J145" s="4">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145" s="4">
+        <v>0</v>
+      </c>
+      <c r="N145" s="4">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>358</v>
+      </c>
+      <c r="B146">
+        <v>2023</v>
+      </c>
+      <c r="D146" t="s">
+        <v>216</v>
+      </c>
+      <c r="E146" t="s">
+        <v>233</v>
+      </c>
+      <c r="F146" t="s">
+        <v>214</v>
+      </c>
+      <c r="G146" t="s">
+        <v>43</v>
+      </c>
+      <c r="H146" t="s">
+        <v>10</v>
+      </c>
+      <c r="I146" t="s">
+        <v>11</v>
+      </c>
+      <c r="J146" s="4">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146" s="4">
+        <v>0</v>
+      </c>
+      <c r="N146" s="4">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>358</v>
+      </c>
+      <c r="B147">
+        <v>2023</v>
+      </c>
+      <c r="D147" t="s">
+        <v>216</v>
+      </c>
+      <c r="E147" t="s">
+        <v>234</v>
+      </c>
+      <c r="F147" t="s">
+        <v>215</v>
+      </c>
+      <c r="G147" t="s">
+        <v>43</v>
+      </c>
+      <c r="H147" t="s">
+        <v>10</v>
+      </c>
+      <c r="I147" t="s">
+        <v>11</v>
+      </c>
+      <c r="J147" s="4">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147" s="4">
+        <v>0</v>
+      </c>
+      <c r="N147" s="4">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="4"/>
+      <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="P148" s="4"/>
     </row>
-    <row r="149" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="4"/>
+      <c r="M149" s="4"/>
       <c r="N149" s="4"/>
       <c r="P149" s="4"/>
     </row>
-    <row r="150" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
       <c r="P150" s="4"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="P151" s="4"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="P152" s="4"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="P153" s="4"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="P154" s="4"/>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="P155" s="4"/>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="P156" s="4"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="P157" s="4"/>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="P158" s="4"/>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="P159" s="4"/>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="P160" s="4"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="P161" s="4"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
+      <c r="P162" s="4"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="P163" s="4"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="P164" s="4"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="P165" s="4"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="P166" s="4"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+      <c r="P167" s="4"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="4"/>
+      <c r="P168" s="4"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
+      <c r="P169" s="4"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="P170" s="4"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171">
+        <v>2024</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D171" t="s">
+        <v>146</v>
+      </c>
+      <c r="E171" t="s">
+        <v>277</v>
+      </c>
+      <c r="F171" t="s">
+        <v>154</v>
+      </c>
+      <c r="G171" t="s">
+        <v>29</v>
+      </c>
+      <c r="H171" t="s">
+        <v>10</v>
+      </c>
+      <c r="I171" t="s">
+        <v>11</v>
+      </c>
+      <c r="J171" s="4">
+        <v>0</v>
+      </c>
+      <c r="K171" s="4">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171" s="4">
+        <v>0</v>
+      </c>
+      <c r="N171" s="4">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>1</v>
+      </c>
+      <c r="P171" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172">
+        <v>2024</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D172" t="s">
+        <v>147</v>
+      </c>
+      <c r="F172" t="s">
+        <v>155</v>
+      </c>
+      <c r="G172" t="s">
+        <v>29</v>
+      </c>
+      <c r="H172" t="s">
+        <v>10</v>
+      </c>
+      <c r="I172" t="s">
+        <v>11</v>
+      </c>
+      <c r="J172" s="4">
+        <v>0</v>
+      </c>
+      <c r="K172" s="4">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172" s="4">
+        <v>0</v>
+      </c>
+      <c r="N172" s="4">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173">
+        <v>2024</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D173" t="s">
+        <v>148</v>
+      </c>
+      <c r="F173" t="s">
+        <v>156</v>
+      </c>
+      <c r="G173" t="s">
+        <v>29</v>
+      </c>
+      <c r="H173" t="s">
+        <v>10</v>
+      </c>
+      <c r="I173" t="s">
+        <v>11</v>
+      </c>
+      <c r="J173" s="4">
+        <v>0</v>
+      </c>
+      <c r="K173" s="4">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173" s="4">
+        <v>0</v>
+      </c>
+      <c r="N173" s="4">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>162</v>
+      </c>
+      <c r="B174">
+        <v>2024</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D174" t="s">
+        <v>149</v>
+      </c>
+      <c r="F174" t="s">
+        <v>157</v>
+      </c>
+      <c r="G174" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" t="s">
+        <v>10</v>
+      </c>
+      <c r="I174" t="s">
+        <v>11</v>
+      </c>
+      <c r="J174" s="4">
+        <v>0</v>
+      </c>
+      <c r="K174" s="4">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174" s="4">
+        <v>0</v>
+      </c>
+      <c r="N174" s="4">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>162</v>
+      </c>
+      <c r="B175">
+        <v>2024</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D175" t="s">
+        <v>150</v>
+      </c>
+      <c r="E175" t="s">
+        <v>278</v>
+      </c>
+      <c r="F175" t="s">
+        <v>158</v>
+      </c>
+      <c r="G175" t="s">
+        <v>29</v>
+      </c>
+      <c r="H175" t="s">
+        <v>10</v>
+      </c>
+      <c r="I175" t="s">
+        <v>11</v>
+      </c>
+      <c r="J175" s="4">
+        <v>0</v>
+      </c>
+      <c r="K175" s="4">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175" s="4">
+        <v>0</v>
+      </c>
+      <c r="N175" s="4">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
+      </c>
+      <c r="P175" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>162</v>
+      </c>
+      <c r="B176">
+        <v>2024</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D176" t="s">
+        <v>151</v>
+      </c>
+      <c r="F176" t="s">
+        <v>159</v>
+      </c>
+      <c r="G176" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176" t="s">
+        <v>10</v>
+      </c>
+      <c r="I176" t="s">
+        <v>11</v>
+      </c>
+      <c r="J176" s="4">
+        <v>0</v>
+      </c>
+      <c r="K176" s="4">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176" s="4">
+        <v>0</v>
+      </c>
+      <c r="N176" s="4">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177">
+        <v>2024</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D177" t="s">
+        <v>152</v>
+      </c>
+      <c r="F177" t="s">
+        <v>160</v>
+      </c>
+      <c r="G177" t="s">
+        <v>29</v>
+      </c>
+      <c r="H177" t="s">
+        <v>10</v>
+      </c>
+      <c r="I177" t="s">
+        <v>11</v>
+      </c>
+      <c r="J177" s="4">
+        <v>0</v>
+      </c>
+      <c r="K177" s="4">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177" s="4">
+        <v>0</v>
+      </c>
+      <c r="N177" s="4">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178">
+        <v>2024</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D178" t="s">
+        <v>153</v>
+      </c>
+      <c r="F178" t="s">
+        <v>161</v>
+      </c>
+      <c r="G178" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178" t="s">
+        <v>10</v>
+      </c>
+      <c r="I178" t="s">
+        <v>11</v>
+      </c>
+      <c r="J178" s="4">
+        <v>0</v>
+      </c>
+      <c r="K178" s="4">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178" s="4">
+        <v>0</v>
+      </c>
+      <c r="N178" s="4">
+        <v>0</v>
+      </c>
+      <c r="O178" s="4">
+        <v>0</v>
+      </c>
+      <c r="P178" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179">
+        <v>2024</v>
+      </c>
+      <c r="D179" t="s">
+        <v>290</v>
+      </c>
+      <c r="E179" t="s">
+        <v>312</v>
+      </c>
+      <c r="F179" t="s">
+        <v>297</v>
+      </c>
+      <c r="G179" t="s">
+        <v>29</v>
+      </c>
+      <c r="H179" t="s">
+        <v>288</v>
+      </c>
+      <c r="I179" t="s">
+        <v>11</v>
+      </c>
+      <c r="J179" s="4">
+        <v>0</v>
+      </c>
+      <c r="K179" s="4">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179" s="4">
+        <v>0</v>
+      </c>
+      <c r="N179" s="4">
+        <v>0</v>
+      </c>
+      <c r="O179" s="4">
+        <v>0</v>
+      </c>
+      <c r="P179" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180">
+        <v>2024</v>
+      </c>
+      <c r="D180" t="s">
+        <v>291</v>
+      </c>
+      <c r="E180" t="s">
+        <v>310</v>
+      </c>
+      <c r="F180" t="s">
+        <v>298</v>
+      </c>
+      <c r="G180" t="s">
+        <v>29</v>
+      </c>
+      <c r="H180" t="s">
+        <v>35</v>
+      </c>
+      <c r="I180" t="s">
+        <v>11</v>
+      </c>
+      <c r="J180" s="4">
+        <v>0</v>
+      </c>
+      <c r="K180" s="4">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180" s="4">
+        <v>0</v>
+      </c>
+      <c r="N180" s="4">
+        <v>0</v>
+      </c>
+      <c r="O180" s="4">
+        <v>0</v>
+      </c>
+      <c r="P180" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181">
+        <v>2024</v>
+      </c>
+      <c r="D181" t="s">
+        <v>292</v>
+      </c>
+      <c r="E181" t="s">
+        <v>309</v>
+      </c>
+      <c r="F181" t="s">
+        <v>299</v>
+      </c>
+      <c r="G181" t="s">
+        <v>29</v>
+      </c>
+      <c r="H181" t="s">
+        <v>207</v>
+      </c>
+      <c r="I181" t="s">
+        <v>12</v>
+      </c>
+      <c r="J181" s="4">
+        <v>0</v>
+      </c>
+      <c r="K181" s="4">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181" s="4">
+        <v>0</v>
+      </c>
+      <c r="N181" s="4">
+        <v>0</v>
+      </c>
+      <c r="O181" s="4">
+        <v>0</v>
+      </c>
+      <c r="P181" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182">
+        <v>2024</v>
+      </c>
+      <c r="D182" t="s">
+        <v>293</v>
+      </c>
+      <c r="E182" t="s">
+        <v>311</v>
+      </c>
+      <c r="F182" t="s">
+        <v>300</v>
+      </c>
+      <c r="G182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182" t="s">
+        <v>21</v>
+      </c>
+      <c r="I182" t="s">
+        <v>12</v>
+      </c>
+      <c r="J182" s="4">
+        <v>0</v>
+      </c>
+      <c r="K182" s="4">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182" s="4">
+        <v>0</v>
+      </c>
+      <c r="N182" s="4">
+        <v>0</v>
+      </c>
+      <c r="O182" s="4">
+        <v>0</v>
+      </c>
+      <c r="P182" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183">
+        <v>2024</v>
+      </c>
+      <c r="D183" t="s">
+        <v>294</v>
+      </c>
+      <c r="E183" t="s">
+        <v>308</v>
+      </c>
+      <c r="F183" t="s">
+        <v>301</v>
+      </c>
+      <c r="G183" t="s">
+        <v>29</v>
+      </c>
+      <c r="H183" t="s">
+        <v>10</v>
+      </c>
+      <c r="I183" t="s">
+        <v>11</v>
+      </c>
+      <c r="J183" s="4">
+        <v>0</v>
+      </c>
+      <c r="K183" s="4">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183" s="4">
+        <v>0</v>
+      </c>
+      <c r="N183" s="4">
+        <v>0</v>
+      </c>
+      <c r="O183" s="4">
+        <v>0</v>
+      </c>
+      <c r="P183" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184">
+        <v>2024</v>
+      </c>
+      <c r="D184" t="s">
+        <v>295</v>
+      </c>
+      <c r="E184" t="s">
+        <v>306</v>
+      </c>
+      <c r="F184" t="s">
+        <v>302</v>
+      </c>
+      <c r="G184" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" t="s">
+        <v>35</v>
+      </c>
+      <c r="I184" t="s">
+        <v>12</v>
+      </c>
+      <c r="J184" s="4">
+        <v>0</v>
+      </c>
+      <c r="K184" s="4">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184" s="4">
+        <v>0</v>
+      </c>
+      <c r="N184" s="4">
+        <v>0</v>
+      </c>
+      <c r="O184" s="4">
+        <v>0</v>
+      </c>
+      <c r="P184" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185">
+        <v>2024</v>
+      </c>
+      <c r="D185" t="s">
+        <v>296</v>
+      </c>
+      <c r="E185" t="s">
+        <v>307</v>
+      </c>
+      <c r="F185" t="s">
+        <v>303</v>
+      </c>
+      <c r="G185" t="s">
+        <v>29</v>
+      </c>
+      <c r="H185" t="s">
+        <v>289</v>
+      </c>
+      <c r="I185" t="s">
+        <v>11</v>
+      </c>
+      <c r="J185" s="4">
+        <v>0</v>
+      </c>
+      <c r="K185" s="4">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185" s="4">
+        <v>0</v>
+      </c>
+      <c r="N185" s="4">
+        <v>0</v>
+      </c>
+      <c r="O185" s="4">
+        <v>0</v>
+      </c>
+      <c r="P185" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="4"/>
+      <c r="O187" s="4"/>
+      <c r="P187" s="4"/>
+      <c r="Q187" s="4"/>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
+      <c r="Q190" s="4"/>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
+    </row>
+    <row r="193" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="4"/>
+      <c r="O193" s="4"/>
+      <c r="P193" s="4"/>
+      <c r="Q193" s="4"/>
+    </row>
+    <row r="194" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
+      <c r="M194" s="4"/>
+      <c r="N194" s="4"/>
+      <c r="O194" s="4"/>
+      <c r="P194" s="4"/>
+      <c r="Q194" s="4"/>
+    </row>
+    <row r="195" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="4"/>
+      <c r="P195" s="4"/>
+      <c r="Q195" s="4"/>
+    </row>
+    <row r="196" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+    </row>
+    <row r="197" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+    </row>
+    <row r="198" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
+      <c r="Q198" s="4"/>
+    </row>
+    <row r="199" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
+    </row>
+    <row r="200" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+    </row>
+    <row r="201" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+    </row>
+    <row r="202" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+    </row>
+    <row r="203" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+    </row>
+    <row r="204" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+    </row>
+    <row r="205" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+    </row>
+    <row r="206" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+    </row>
+    <row r="207" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+    </row>
+    <row r="208" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+    </row>
+    <row r="209" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="4"/>
+      <c r="Q209" s="4"/>
+    </row>
+    <row r="210" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="N210" s="4"/>
+      <c r="O210" s="4"/>
+      <c r="P210" s="4"/>
+    </row>
+    <row r="211" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+    </row>
+    <row r="212" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="N212" s="4"/>
+      <c r="P212" s="4"/>
+    </row>
+    <row r="213" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="N213" s="4"/>
+      <c r="P213" s="4"/>
+    </row>
+    <row r="214" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="N214" s="4"/>
+      <c r="P214" s="4"/>
+    </row>
+    <row r="215" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="P215" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7924,16 +8830,16 @@
     <hyperlink ref="C10" r:id="rId41" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
     <hyperlink ref="C11" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
     <hyperlink ref="C12" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
-    <hyperlink ref="C106" r:id="rId44" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
-    <hyperlink ref="C107" r:id="rId45" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
-    <hyperlink ref="C108" r:id="rId46" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
-    <hyperlink ref="C109" r:id="rId47" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
-    <hyperlink ref="C110" r:id="rId48" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
-    <hyperlink ref="C111" r:id="rId49" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
-    <hyperlink ref="C112" r:id="rId50" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
-    <hyperlink ref="C113" r:id="rId51" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
-    <hyperlink ref="E60" r:id="rId52" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
-    <hyperlink ref="E61" r:id="rId53" xr:uid="{3FFA047D-54A7-1C4F-8F99-6C3E171DAF81}"/>
+    <hyperlink ref="C171" r:id="rId44" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C172" r:id="rId45" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C173" r:id="rId46" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C174" r:id="rId47" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C175" r:id="rId48" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C176" r:id="rId49" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C177" r:id="rId50" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C178" r:id="rId51" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="E76" r:id="rId52" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
+    <hyperlink ref="E77" r:id="rId53" xr:uid="{3FFA047D-54A7-1C4F-8F99-6C3E171DAF81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9397F5-FCF9-C342-A71C-2B8BCB58309F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F627773-6888-3740-9160-7427A74F5AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="465">
   <si>
     <t>Author</t>
   </si>
@@ -89,9 +89,6 @@
     <t>High-grade glioma</t>
   </si>
   <si>
-    <t>Xenium</t>
-  </si>
-  <si>
     <t>10X</t>
   </si>
   <si>
@@ -1119,13 +1116,328 @@
   </si>
   <si>
     <t>Mantri et al</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-human-breast-cancer-fixed-frozen</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-human-breast-cancer-fresh-frozen</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-human-lung-cancer-fixed-frozen</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-human-tonsil-fresh-frozen</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-human-tonsil-fresh-frozen-if</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-mouse-brain-fixed-frozen</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-mouse-brain-fresh-frozen</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-mouse-lung-fresh-frozen</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/visium-hd-cytassist-gene-expression-human-lung-cancer-post-xenium-expt</t>
+  </si>
+  <si>
+    <t>Breast_cancer</t>
+  </si>
+  <si>
+    <t>Xenium_v1</t>
+  </si>
+  <si>
+    <t>Xenium_prime</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/xenium-prime-ffpe-human-prostate</t>
+  </si>
+  <si>
+    <t>Prostate adenocarcinoma</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/xenium-prime-ffpe-human-skin</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/xenium-prime-fresh-frozen-mouse-brain</t>
+  </si>
+  <si>
+    <t>Brain hemisphere</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/xenium-prime-ffpe-human-cervical-cancer</t>
+  </si>
+  <si>
+    <t>Cervical cancer</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/xenium-prime-ffpe-human-ovarian-cancer</t>
+  </si>
+  <si>
+    <t>Ovarian adenocarcinoma</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/xenium-prime-fresh-frozen-human-ovary</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/xenium-prime-ffpe-neonatal-mouse</t>
+  </si>
+  <si>
+    <t>Whole mouse pup</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/xenium-prime-ffpe-human-breast-cancer</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/preview-data-ffpe-human-lung-cancer-with-xenium-multimodal-cell-segmentation-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-kidney-preview-data-xenium-human-multi-tissue-and-cancer-panel-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-pancreas-preview-data-xenium-human-multi-tissue-and-cancer-panel-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-colon-preview-data-xenium-human-colon-gene-expression-panel-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-skin-preview-data-xenium-human-skin-gene-expression-panel-add-on-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-heart-data-xenium-human-multi-tissue-and-cancer-panel-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-liver-data-xenium-human-multi-tissue-and-cancer-panel-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/xenium-human-lung-cancer-post-xenium-technote</t>
+  </si>
+  <si>
+    <t>Visium_probe</t>
+  </si>
+  <si>
+    <t>Visium_polyA</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/fresh-frozen-visium-on-cytassist-mouse-brain-probe-based-whole-transcriptome-profiling-2-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/fresh-frozen-visium-on-cytassist-human-breast-cancer-probe-based-whole-transcriptome-profiling-2-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/aggregate-of-mouse-brain-sections-visium-fresh-frozen-whole-transcriptome-1-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-cerebellum-whole-transcriptome-analysis-1-standard-1-2-0</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/human-breast-cancer-whole-transcriptome-analysis-1-standard-1-2-0</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/mouse-brain-section-coronal-1-standard-1-0-0</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/ffpe-visium-on-cytassist-mouse-brain-probe-based-whole-transcriptome-profiling-2-standard</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/fresh-frozen-visium-on-cytassist-mouse-brain-probe-based-whole-transcriptome-profiling-2-standard-1</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/datasets/fixed-frozen-visium-on-cytassist-mouse-brain-probe-based-whole-transcriptome-profiling-2-standard</t>
+  </si>
+  <si>
+    <t>Cerebellum</t>
+  </si>
+  <si>
+    <t>https://console.cloud.google.com/storage/browser/vz-1k-showcase</t>
+  </si>
+  <si>
+    <t>Lung cancer</t>
+  </si>
+  <si>
+    <t>Lung</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/3.0.0/Xenium_Prime_Mouse_Brain_Coronal_FF/Xenium_Prime_Mouse_Brain_Coronal_FF_outs.zip</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/3.0.0/Xenium_Prime_Human_Prostate_FFPE/Xenium_Prime_Human_Prostate_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/3.0.0/Xenium_Prime_Human_Skin_FFPE/Xenium_Prime_Human_Skin_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://s3-us-west-2.amazonaws.com/10x.files/samples/xenium/3.0.0/Xenium_Prime_Cervical_Cancer_FFPE/Xenium_Prime_Cervical_Cancer_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://s3-us-west-2.amazonaws.com/10x.files/samples/xenium/3.0.0/Xenium_Prime_Ovarian_Cancer_FFPE/Xenium_Prime_Ovarian_Cancer_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://s3-us-west-2.amazonaws.com/10x.files/samples/xenium/3.0.0/Xenium_Prime_Human_Ovary_FF/Xenium_Prime_Human_Ovary_FF_outs.zip</t>
+  </si>
+  <si>
+    <t>https://s3-us-west-2.amazonaws.com/10x.files/samples/xenium/3.0.0/Xenium_Prime_Mouse_Pup_FFPE/Xenium_Prime_Mouse_Pup_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://s3-us-west-2.amazonaws.com/10x.files/samples/xenium/3.0.0/Xenium_Prime_Breast_Cancer_FFPE/Xenium_Prime_Breast_Cancer_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/2.0.0/Xenium_V1_humanLung_Cancer_FFPE/Xenium_V1_humanLung_Cancer_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/1.5.0/Xenium_V1_hKidney_nondiseased_section/Xenium_V1_hKidney_nondiseased_section_outs.zip</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/1.5.0/Xenium_V1_hPancreas_nondiseased_section/Xenium_V1_hPancreas_nondiseased_section_outs.zip</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/1.6.0/Xenium_V1_hColon_Non_diseased_Base_FFPE/Xenium_V1_hColon_Non_diseased_Base_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/1.9.0/Xenium_V1_hHeart_nondiseased_section_FFPE/Xenium_V1_hHeart_nondiseased_section_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://cf.10xgenomics.com/samples/xenium/1.9.0/Xenium_V1_hLiver_nondiseased_section_FFPE/Xenium_V1_hLiver_nondiseased_section_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>curl -O https://cf.10xgenomics.com/samples/xenium/3.0.0/Xenium_V1_Human_Lung_Cancer_FFPE/Xenium_V1_Human_Lung_Cancer_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>https://s3-us-west-2.amazonaws.com/10x.files/samples/xenium/3.0.0/Xenium_Prime_Human_Lung_Cancer_FFPE/Xenium_Prime_Human_Lung_Cancer_FFPE_outs.zip</t>
+  </si>
+  <si>
+    <t>Visium_probe_brain</t>
+  </si>
+  <si>
+    <t>Visium_probe_breast_cancer</t>
+  </si>
+  <si>
+    <t>Visium_polyA_brain</t>
+  </si>
+  <si>
+    <t>Visium_polyA_cerebellum</t>
+  </si>
+  <si>
+    <t>Visium_polyA_breast_cancer</t>
+  </si>
+  <si>
+    <t>Visium_probe_brain2</t>
+  </si>
+  <si>
+    <t>Visium_probe_brain3</t>
+  </si>
+  <si>
+    <t>Visium_probe_brain4</t>
+  </si>
+  <si>
+    <t>Xenium_prime_prostate_human</t>
+  </si>
+  <si>
+    <t>Xenium_prime_melanoma_human</t>
+  </si>
+  <si>
+    <t>Xenium_prime_brain_hemi_mouse</t>
+  </si>
+  <si>
+    <t>Xenium_prime_cervical_human</t>
+  </si>
+  <si>
+    <t>Xenium_prime_ovarian_human</t>
+  </si>
+  <si>
+    <t>Xenium_prime_ovarian_human2</t>
+  </si>
+  <si>
+    <t>Xenium_prime_whole_mouse</t>
+  </si>
+  <si>
+    <t>Xenium_prime_breast_cancer_human</t>
+  </si>
+  <si>
+    <t>Xenium_v1_lung_cancer_human</t>
+  </si>
+  <si>
+    <t>Xenium_v1_kidney_human</t>
+  </si>
+  <si>
+    <t>Xenium_v1_pancreas_human</t>
+  </si>
+  <si>
+    <t>Xenium_v1_colon_human</t>
+  </si>
+  <si>
+    <t>Xenium_v1_skin_human</t>
+  </si>
+  <si>
+    <t>Xenium_v1_heart_human</t>
+  </si>
+  <si>
+    <t>Xenium_v1_liver_human</t>
+  </si>
+  <si>
+    <t>Xenium_prime_lung_cancer_human</t>
+  </si>
+  <si>
+    <t>Visium_HD_breast_cancer_human_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_breast_cancer_human_8um</t>
+  </si>
+  <si>
+    <t>Visium_HD_breast_cancer_human2_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_breast_cancer_human2_8um</t>
+  </si>
+  <si>
+    <t>Visium_HD_tonsil_human1_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_tonsil_human1_8um</t>
+  </si>
+  <si>
+    <t>Visium_HD_tonsil_human2_8um</t>
+  </si>
+  <si>
+    <t>Visium_HD_tonsil_human2_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_brain_mouse_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_brain_mouse_8um</t>
+  </si>
+  <si>
+    <t>Visium_HD_brain_mouse2_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_brain_mouse2_8um</t>
+  </si>
+  <si>
+    <t>Visium_HD_lung_mouse_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_lung_mouse_8um</t>
+  </si>
+  <si>
+    <t>Visium_HD_lung_cancer_human2_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_lung_cancer_human2_8um</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1166,6 +1478,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF445979"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1201,8 +1519,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1538,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:Q215"/>
+  <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1574,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1586,28 +1904,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1618,13 +1936,13 @@
         <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
         <v>124</v>
-      </c>
-      <c r="F2" t="s">
-        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1668,13 +1986,13 @@
         <v>2023</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1718,13 +2036,13 @@
         <v>2023</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1768,22 +2086,22 @@
         <v>2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" t="s">
         <v>129</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1821,22 +2139,22 @@
         <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" t="s">
         <v>129</v>
-      </c>
-      <c r="H6" t="s">
-        <v>130</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1874,22 +2192,22 @@
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" t="s">
         <v>129</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1927,22 +2245,22 @@
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" t="s">
         <v>129</v>
-      </c>
-      <c r="H8" t="s">
-        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1980,22 +2298,22 @@
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" t="s">
         <v>129</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -2033,22 +2351,22 @@
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" t="s">
         <v>129</v>
-      </c>
-      <c r="H10" t="s">
-        <v>130</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -2086,22 +2404,22 @@
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
         <v>129</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -2139,22 +2457,22 @@
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" t="s">
         <v>129</v>
-      </c>
-      <c r="H12" t="s">
-        <v>130</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -2186,28 +2504,28 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13">
         <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" t="s">
         <v>186</v>
-      </c>
-      <c r="F13" t="s">
-        <v>187</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -2239,28 +2557,28 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -2301,10 +2619,10 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2351,13 +2669,13 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -2392,26 +2710,26 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>2023</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" t="s">
         <v>253</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>254</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>370</v>
+      </c>
+      <c r="H17" t="s">
         <v>255</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>256</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -2443,25 +2761,25 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>2023</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -2493,25 +2811,25 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2024</v>
       </c>
       <c r="D19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -2543,25 +2861,25 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>2024</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F20" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" t="s">
+        <v>370</v>
+      </c>
+      <c r="H20" t="s">
         <v>281</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>282</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -2593,22 +2911,22 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>2023</v>
       </c>
       <c r="D21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" t="s">
         <v>237</v>
       </c>
-      <c r="F21" t="s">
-        <v>238</v>
-      </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
@@ -2643,19 +2961,19 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>2024</v>
       </c>
       <c r="E22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" t="s">
         <v>235</v>
       </c>
-      <c r="F22" t="s">
-        <v>236</v>
-      </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H22" t="s">
         <v>10</v>
@@ -2690,22 +3008,22 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>2024</v>
       </c>
       <c r="D23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" t="s">
         <v>229</v>
       </c>
-      <c r="F23" t="s">
-        <v>230</v>
-      </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
@@ -2740,25 +3058,25 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>2024</v>
       </c>
       <c r="D24" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" t="s">
         <v>322</v>
       </c>
-      <c r="E24" t="s">
-        <v>323</v>
-      </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>371</v>
       </c>
       <c r="H24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -2790,25 +3108,25 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>2023</v>
       </c>
       <c r="D25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" t="s">
+        <v>347</v>
+      </c>
+      <c r="G25" t="s">
+        <v>370</v>
+      </c>
+      <c r="H25" t="s">
         <v>248</v>
-      </c>
-      <c r="E25" t="s">
-        <v>250</v>
-      </c>
-      <c r="F25" t="s">
-        <v>348</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
-        <v>249</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -2840,25 +3158,25 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>2023</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E26" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" t="s">
         <v>245</v>
       </c>
-      <c r="F26" t="s">
-        <v>246</v>
-      </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -2890,25 +3208,25 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
         <v>2023</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" t="s">
         <v>240</v>
       </c>
-      <c r="F27" t="s">
-        <v>241</v>
-      </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -2940,25 +3258,25 @@
     </row>
     <row r="28" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>2023</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
@@ -2990,25 +3308,25 @@
     </row>
     <row r="29" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>2023</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -3040,25 +3358,25 @@
     </row>
     <row r="30" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>2023</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -3090,25 +3408,25 @@
     </row>
     <row r="31" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>2023</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -3140,28 +3458,28 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>2023</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
         <v>58</v>
       </c>
-      <c r="F32" t="s">
-        <v>59</v>
-      </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -3193,28 +3511,28 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>2023</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
         <v>62</v>
       </c>
-      <c r="F33" t="s">
-        <v>63</v>
-      </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
@@ -3246,28 +3564,28 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>2023</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
         <v>90</v>
       </c>
-      <c r="E34" t="s">
-        <v>91</v>
-      </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>
@@ -3299,28 +3617,28 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>2023</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -3352,28 +3670,28 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>2023</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -3405,28 +3723,28 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>2023</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -3458,28 +3776,28 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>2023</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
@@ -3511,28 +3829,28 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>2023</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
@@ -3564,28 +3882,28 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40">
         <v>2023</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
@@ -3617,28 +3935,28 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>2023</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
@@ -3670,28 +3988,28 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>2023</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
@@ -3723,28 +4041,28 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
         <v>12</v>
@@ -3776,28 +4094,28 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
         <v>12</v>
@@ -3829,28 +4147,28 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
         <v>12</v>
@@ -3882,28 +4200,28 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <v>2023</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
@@ -3935,28 +4253,28 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>2023</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -3988,28 +4306,28 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48">
         <v>2023</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
         <v>12</v>
@@ -4041,28 +4359,28 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>2023</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -4094,28 +4412,28 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>2023</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
         <v>12</v>
@@ -4147,28 +4465,28 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>2023</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
         <v>12</v>
@@ -4200,28 +4518,28 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>2023</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
         <v>12</v>
@@ -4253,28 +4571,28 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>2023</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
@@ -4306,28 +4624,28 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>2023</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
         <v>12</v>
@@ -4359,28 +4677,28 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>2023</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
         <v>12</v>
@@ -4412,28 +4730,28 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56">
         <v>2023</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
@@ -4465,28 +4783,28 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57">
         <v>2023</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
         <v>12</v>
@@ -4518,28 +4836,28 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58">
         <v>2023</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
         <v>12</v>
@@ -4571,28 +4889,28 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59">
         <v>2023</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>370</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
         <v>12</v>
@@ -4622,272 +4940,520 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
+    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>2024</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F60" t="s">
+        <v>433</v>
+      </c>
+      <c r="G60" t="s">
+        <v>371</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
       <c r="N60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61">
+        <v>2024</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F61" t="s">
+        <v>434</v>
+      </c>
+      <c r="G61" t="s">
+        <v>371</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N61" s="4"/>
       <c r="P61" s="4"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <v>2024</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="N62" s="4"/>
       <c r="P62" s="4"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+    <row r="63" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>2024</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N63" s="4"/>
       <c r="P63" s="4"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
+    <row r="64" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64">
+        <v>2024</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N64" s="4"/>
       <c r="P64" s="4"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
+    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65">
+        <v>2024</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
       <c r="N65" s="4"/>
       <c r="P65" s="4"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
+    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66">
+        <v>2024</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="N66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
+    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>2024</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68">
+        <v>2024</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F68" t="s">
+        <v>441</v>
+      </c>
+      <c r="G68" t="s">
+        <v>370</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
+    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69">
+        <v>2024</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F69" t="s">
+        <v>442</v>
+      </c>
+      <c r="G69" t="s">
+        <v>370</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
+    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70">
+        <v>2024</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F70" t="s">
+        <v>443</v>
+      </c>
+      <c r="G70" t="s">
+        <v>370</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N70" s="4"/>
       <c r="P70" s="4"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
+    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71">
+        <v>2024</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F71" t="s">
+        <v>444</v>
+      </c>
+      <c r="G71" t="s">
+        <v>370</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N71" s="4"/>
       <c r="P71" s="4"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72">
+        <v>2024</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F72" t="s">
+        <v>445</v>
+      </c>
+      <c r="G72" t="s">
+        <v>370</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N72" s="4"/>
       <c r="P72" s="4"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73">
+        <v>2024</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F73" t="s">
+        <v>446</v>
+      </c>
+      <c r="G73" t="s">
+        <v>370</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
+    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74">
+        <v>2024</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F74" t="s">
+        <v>447</v>
+      </c>
+      <c r="G74" t="s">
+        <v>370</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>2024</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F75" t="s">
+        <v>448</v>
+      </c>
+      <c r="G75" t="s">
+        <v>371</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N75" s="4"/>
       <c r="P75" s="4"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>2023</v>
-      </c>
-      <c r="D76" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>60</v>
+        <v>2024</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>423</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>441</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76" s="4">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="4"/>
+      <c r="P76" s="4"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>359</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <v>2023</v>
       </c>
-      <c r="C77" t="s">
-        <v>317</v>
-      </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="F77" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>370</v>
       </c>
       <c r="H77" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I77" t="s">
         <v>11</v>
@@ -4919,25 +5485,25 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B78">
         <v>2023</v>
       </c>
       <c r="C78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F78" t="s">
+        <v>180</v>
+      </c>
+      <c r="G78" t="s">
         <v>32</v>
-      </c>
-      <c r="E78" t="s">
-        <v>191</v>
-      </c>
-      <c r="F78" t="s">
-        <v>182</v>
-      </c>
-      <c r="G78" t="s">
-        <v>33</v>
       </c>
       <c r="H78" t="s">
         <v>10</v>
@@ -4972,25 +5538,25 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B79">
         <v>2023</v>
       </c>
       <c r="C79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" t="s">
+        <v>190</v>
+      </c>
+      <c r="F79" t="s">
+        <v>181</v>
+      </c>
+      <c r="G79" t="s">
         <v>32</v>
-      </c>
-      <c r="E79" t="s">
-        <v>192</v>
-      </c>
-      <c r="F79" t="s">
-        <v>183</v>
-      </c>
-      <c r="G79" t="s">
-        <v>33</v>
       </c>
       <c r="H79" t="s">
         <v>10</v>
@@ -5025,25 +5591,25 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B80">
         <v>2023</v>
       </c>
       <c r="C80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" t="s">
+        <v>191</v>
+      </c>
+      <c r="F80" t="s">
+        <v>182</v>
+      </c>
+      <c r="G80" t="s">
         <v>32</v>
-      </c>
-      <c r="E80" t="s">
-        <v>193</v>
-      </c>
-      <c r="F80" t="s">
-        <v>184</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
       </c>
       <c r="H80" t="s">
         <v>10</v>
@@ -5055,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5078,25 +5644,25 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B81">
         <v>2023</v>
       </c>
       <c r="C81" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" t="s">
+        <v>192</v>
+      </c>
+      <c r="F81" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" t="s">
         <v>32</v>
-      </c>
-      <c r="E81" t="s">
-        <v>194</v>
-      </c>
-      <c r="F81" t="s">
-        <v>185</v>
-      </c>
-      <c r="G81" t="s">
-        <v>33</v>
       </c>
       <c r="H81" t="s">
         <v>10</v>
@@ -5104,7 +5670,7 @@
       <c r="I81" t="s">
         <v>11</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81">
         <v>0</v>
       </c>
       <c r="K81">
@@ -5113,7 +5679,7 @@
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81" s="4">
+      <c r="M81">
         <v>0</v>
       </c>
       <c r="N81" s="4">
@@ -5131,28 +5697,28 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B82">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C82" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="D82" t="s">
-        <v>354</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="F82" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="I82" t="s">
         <v>11</v>
@@ -5184,28 +5750,28 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B83">
         <v>2024</v>
       </c>
       <c r="C83" t="s">
+        <v>352</v>
+      </c>
+      <c r="D83" t="s">
         <v>353</v>
       </c>
-      <c r="D83" t="s">
-        <v>354</v>
-      </c>
       <c r="E83" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F83" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I83" t="s">
         <v>11</v>
@@ -5214,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" s="4">
         <v>0</v>
@@ -5237,25 +5803,28 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B84">
         <v>2024</v>
       </c>
       <c r="C84" t="s">
+        <v>352</v>
+      </c>
+      <c r="D84" t="s">
         <v>353</v>
       </c>
-      <c r="D84" t="s">
-        <v>354</v>
+      <c r="E84" t="s">
+        <v>269</v>
       </c>
       <c r="F84" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I84" t="s">
         <v>11</v>
@@ -5264,10 +5833,10 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" s="4">
         <v>0</v>
@@ -5287,28 +5856,25 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B85">
         <v>2024</v>
       </c>
       <c r="C85" t="s">
+        <v>352</v>
+      </c>
+      <c r="D85" t="s">
         <v>353</v>
       </c>
-      <c r="D85" t="s">
-        <v>354</v>
-      </c>
-      <c r="E85" t="s">
-        <v>271</v>
-      </c>
       <c r="F85" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I85" t="s">
         <v>11</v>
@@ -5317,10 +5883,10 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" s="4">
         <v>0</v>
@@ -5340,28 +5906,28 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B86">
         <v>2024</v>
       </c>
       <c r="C86" t="s">
+        <v>352</v>
+      </c>
+      <c r="D86" t="s">
         <v>353</v>
       </c>
-      <c r="D86" t="s">
-        <v>354</v>
-      </c>
       <c r="E86" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F86" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I86" t="s">
         <v>11</v>
@@ -5370,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" s="4">
         <v>0</v>
@@ -5393,28 +5959,28 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B87">
         <v>2024</v>
       </c>
       <c r="C87" t="s">
+        <v>352</v>
+      </c>
+      <c r="D87" t="s">
         <v>353</v>
       </c>
-      <c r="D87" t="s">
-        <v>354</v>
-      </c>
       <c r="E87" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F87" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I87" t="s">
         <v>11</v>
@@ -5423,10 +5989,10 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87" s="4">
         <v>0</v>
@@ -5446,28 +6012,28 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B88">
         <v>2024</v>
       </c>
       <c r="C88" t="s">
+        <v>352</v>
+      </c>
+      <c r="D88" t="s">
         <v>353</v>
       </c>
-      <c r="D88" t="s">
-        <v>354</v>
-      </c>
       <c r="E88" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F88" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I88" t="s">
         <v>11</v>
@@ -5476,10 +6042,10 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" s="4">
         <v>0</v>
@@ -5499,28 +6065,28 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B89">
         <v>2024</v>
       </c>
       <c r="C89" t="s">
+        <v>352</v>
+      </c>
+      <c r="D89" t="s">
         <v>353</v>
       </c>
-      <c r="D89" t="s">
-        <v>354</v>
-      </c>
       <c r="E89" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F89" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I89" t="s">
         <v>11</v>
@@ -5552,25 +6118,28 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>359</v>
       </c>
       <c r="B90">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="C90" t="s">
+        <v>352</v>
       </c>
       <c r="D90" t="s">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>274</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H90" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="I90" t="s">
         <v>11</v>
@@ -5602,25 +6171,25 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B91">
         <v>2023</v>
       </c>
       <c r="D91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" t="s">
         <v>34</v>
-      </c>
-      <c r="H91" t="s">
-        <v>35</v>
       </c>
       <c r="I91" t="s">
         <v>11</v>
@@ -5652,25 +6221,25 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B92">
         <v>2023</v>
       </c>
       <c r="D92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" t="s">
         <v>34</v>
-      </c>
-      <c r="H92" t="s">
-        <v>35</v>
       </c>
       <c r="I92" t="s">
         <v>11</v>
@@ -5702,25 +6271,25 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="B93">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E93" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="F93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G93" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="I93" t="s">
         <v>11</v>
@@ -5729,10 +6298,10 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" s="4">
         <v>0</v>
@@ -5741,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P93" s="4">
         <v>0</v>
@@ -5752,22 +6321,28 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94">
         <v>2024</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>357</v>
+      <c r="D94" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" t="s">
+        <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="I94" t="s">
+        <v>11</v>
       </c>
       <c r="J94" s="4">
         <v>0</v>
@@ -5785,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94" s="4">
         <v>0</v>
@@ -5796,28 +6371,22 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95">
         <v>2024</v>
       </c>
-      <c r="D95" t="s">
-        <v>40</v>
-      </c>
-      <c r="E95" t="s">
-        <v>50</v>
+      <c r="E95" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="F95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H95" t="s">
-        <v>118</v>
-      </c>
-      <c r="I95" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="J95" s="4">
         <v>0</v>
@@ -5846,22 +6415,28 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B96">
         <v>2024</v>
       </c>
+      <c r="D96" t="s">
+        <v>39</v>
+      </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="I96" t="s">
+        <v>12</v>
       </c>
       <c r="J96" s="4">
         <v>0</v>
@@ -5890,28 +6465,22 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B97">
         <v>2024</v>
       </c>
-      <c r="D97" t="s">
-        <v>324</v>
-      </c>
       <c r="E97" t="s">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>325</v>
+        <v>173</v>
       </c>
       <c r="G97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H97" t="s">
-        <v>327</v>
-      </c>
-      <c r="I97" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="J97" s="4">
         <v>0</v>
@@ -5940,22 +6509,28 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98">
         <v>2024</v>
       </c>
+      <c r="D98" t="s">
+        <v>323</v>
+      </c>
       <c r="E98" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F98" t="s">
+        <v>324</v>
+      </c>
+      <c r="G98" t="s">
+        <v>210</v>
+      </c>
+      <c r="H98" t="s">
         <v>326</v>
       </c>
-      <c r="G98" t="s">
-        <v>211</v>
-      </c>
-      <c r="H98" t="s">
-        <v>328</v>
+      <c r="I98" t="s">
+        <v>11</v>
       </c>
       <c r="J98" s="4">
         <v>0</v>
@@ -5984,28 +6559,22 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B99">
         <v>2024</v>
       </c>
-      <c r="D99" t="s">
-        <v>329</v>
-      </c>
       <c r="E99" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F99" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H99" t="s">
-        <v>333</v>
-      </c>
-      <c r="I99" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="J99" s="4">
         <v>0</v>
@@ -6034,23 +6603,29 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B100">
         <v>2024</v>
       </c>
+      <c r="D100" t="s">
+        <v>328</v>
+      </c>
       <c r="E100" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F100" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H100" t="s">
         <v>332</v>
       </c>
+      <c r="I100" t="s">
+        <v>11</v>
+      </c>
       <c r="J100" s="4">
         <v>0</v>
       </c>
@@ -6078,25 +6653,22 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B101">
         <v>2024</v>
       </c>
-      <c r="D101" t="s">
-        <v>334</v>
-      </c>
       <c r="E101" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F101" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H101" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J101" s="4">
         <v>0</v>
@@ -6125,22 +6697,25 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B102">
         <v>2024</v>
       </c>
+      <c r="D102" t="s">
+        <v>333</v>
+      </c>
       <c r="E102" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F102" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H102" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J102" s="4">
         <v>0</v>
@@ -6169,28 +6744,22 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B103">
         <v>2024</v>
       </c>
-      <c r="D103" t="s">
-        <v>41</v>
-      </c>
       <c r="E103" t="s">
-        <v>51</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>175</v>
+        <v>342</v>
+      </c>
+      <c r="F103" t="s">
+        <v>337</v>
       </c>
       <c r="G103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H103" t="s">
-        <v>120</v>
-      </c>
-      <c r="I103" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="J103" s="4">
         <v>0</v>
@@ -6219,22 +6788,28 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B104">
         <v>2024</v>
       </c>
+      <c r="D104" t="s">
+        <v>40</v>
+      </c>
       <c r="E104" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H104" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="I104" t="s">
+        <v>11</v>
       </c>
       <c r="J104" s="4">
         <v>0</v>
@@ -6263,28 +6838,22 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B105">
         <v>2024</v>
       </c>
-      <c r="D105" t="s">
-        <v>42</v>
-      </c>
       <c r="E105" t="s">
-        <v>346</v>
+        <v>179</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H105" t="s">
-        <v>122</v>
-      </c>
-      <c r="I105" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="J105" s="4">
         <v>0</v>
@@ -6313,22 +6882,28 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B106">
         <v>2024</v>
       </c>
+      <c r="D106" t="s">
+        <v>41</v>
+      </c>
       <c r="E106" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H106" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="I106" t="s">
+        <v>12</v>
       </c>
       <c r="J106" s="4">
         <v>0</v>
@@ -6356,527 +6931,1068 @@
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="J107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="P107" s="4"/>
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107">
+        <v>2024</v>
+      </c>
+      <c r="E107" t="s">
+        <v>346</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G107" t="s">
+        <v>210</v>
+      </c>
+      <c r="H107" t="s">
+        <v>122</v>
+      </c>
+      <c r="J107" s="4">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107" s="4">
+        <v>0</v>
+      </c>
+      <c r="N107" s="4">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108">
+        <v>2024</v>
+      </c>
       <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
+      <c r="D108" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="E108" s="5"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+      <c r="F108" t="s">
+        <v>449</v>
+      </c>
+      <c r="G108" t="s">
+        <v>210</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I108" t="s">
+        <v>12</v>
+      </c>
       <c r="J108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="P108" s="4"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109">
+        <v>2024</v>
+      </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
+      <c r="F109" t="s">
+        <v>450</v>
+      </c>
+      <c r="G109" t="s">
+        <v>210</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I109" t="s">
+        <v>12</v>
+      </c>
       <c r="J109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="P109" s="4"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110">
+        <v>2024</v>
+      </c>
       <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
+      <c r="D110" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="E110" s="5"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
+      <c r="F110" t="s">
+        <v>451</v>
+      </c>
+      <c r="G110" t="s">
+        <v>210</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
       <c r="J110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="P110" s="4"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111">
+        <v>2024</v>
+      </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
+      <c r="F111" t="s">
+        <v>452</v>
+      </c>
+      <c r="G111" t="s">
+        <v>210</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I111" t="s">
+        <v>12</v>
+      </c>
       <c r="J111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="P111" s="4"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112">
+        <v>2024</v>
+      </c>
       <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
+      <c r="D112" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="E112" s="5"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
+      <c r="F112" t="s">
+        <v>172</v>
+      </c>
+      <c r="G112" t="s">
+        <v>210</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I112" t="s">
+        <v>12</v>
+      </c>
       <c r="J112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="P112" s="4"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113">
+        <v>2024</v>
+      </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
+      <c r="F113" t="s">
+        <v>173</v>
+      </c>
+      <c r="G113" t="s">
+        <v>210</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I113" t="s">
+        <v>12</v>
+      </c>
       <c r="J113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="P113" s="4"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114">
+        <v>2024</v>
+      </c>
       <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
+      <c r="D114" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="E114" s="5"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
+      <c r="F114" t="s">
+        <v>453</v>
+      </c>
+      <c r="G114" t="s">
+        <v>210</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I114" t="s">
+        <v>12</v>
+      </c>
       <c r="J114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="P114" s="4"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115">
+        <v>2024</v>
+      </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
+      <c r="F115" t="s">
+        <v>454</v>
+      </c>
+      <c r="G115" t="s">
+        <v>210</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I115" t="s">
+        <v>12</v>
+      </c>
       <c r="J115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="P115" s="4"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116">
+        <v>2024</v>
+      </c>
       <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
+      <c r="D116" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="E116" s="5"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
+      <c r="F116" t="s">
+        <v>456</v>
+      </c>
+      <c r="G116" t="s">
+        <v>210</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I116" t="s">
+        <v>12</v>
+      </c>
       <c r="J116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="P116" s="4"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117">
+        <v>2024</v>
+      </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
+      <c r="F117" t="s">
+        <v>455</v>
+      </c>
+      <c r="G117" t="s">
+        <v>210</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I117" t="s">
+        <v>12</v>
+      </c>
       <c r="J117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="P117" s="4"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118">
+        <v>2024</v>
+      </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
+      <c r="D118" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="E118" s="5"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
+      <c r="F118" t="s">
+        <v>457</v>
+      </c>
+      <c r="G118" t="s">
+        <v>210</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" t="s">
+        <v>11</v>
+      </c>
       <c r="J118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="P118" s="4"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119">
+        <v>2024</v>
+      </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
+      <c r="F119" t="s">
+        <v>458</v>
+      </c>
+      <c r="G119" t="s">
+        <v>210</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" t="s">
+        <v>11</v>
+      </c>
       <c r="J119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="P119" s="4"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120">
+        <v>2024</v>
+      </c>
       <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
+      <c r="D120" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="E120" s="5"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
+      <c r="F120" t="s">
+        <v>459</v>
+      </c>
+      <c r="G120" t="s">
+        <v>210</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" t="s">
+        <v>11</v>
+      </c>
       <c r="J120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="P120" s="4"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121">
+        <v>2024</v>
+      </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
+      <c r="F121" t="s">
+        <v>460</v>
+      </c>
+      <c r="G121" t="s">
+        <v>210</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" t="s">
+        <v>11</v>
+      </c>
       <c r="J121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122">
+        <v>2024</v>
+      </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="D122" s="5" t="s">
+        <v>367</v>
+      </c>
       <c r="E122" s="5"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
+      <c r="F122" t="s">
+        <v>461</v>
+      </c>
+      <c r="G122" t="s">
+        <v>210</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I122" t="s">
+        <v>11</v>
+      </c>
       <c r="J122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123">
+        <v>2024</v>
+      </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
+      <c r="F123" t="s">
+        <v>462</v>
+      </c>
+      <c r="G123" t="s">
+        <v>210</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I123" t="s">
+        <v>11</v>
+      </c>
       <c r="J123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124">
+        <v>2024</v>
+      </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
+      <c r="D124" s="5" t="s">
+        <v>368</v>
+      </c>
       <c r="E124" s="5"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
+      <c r="F124" t="s">
+        <v>463</v>
+      </c>
+      <c r="G124" t="s">
+        <v>210</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I124" t="s">
+        <v>12</v>
+      </c>
       <c r="J124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125">
+        <v>2024</v>
+      </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
+      <c r="F125" t="s">
+        <v>464</v>
+      </c>
+      <c r="G125" t="s">
+        <v>210</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I125" t="s">
+        <v>12</v>
+      </c>
       <c r="J125" s="4"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="P125" s="4"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="J126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="P126" s="4"/>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="J127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="P127" s="4"/>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="J128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="P128" s="4"/>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>42</v>
+      </c>
+      <c r="B126">
+        <v>2023</v>
+      </c>
+      <c r="D126" t="s">
+        <v>207</v>
+      </c>
+      <c r="E126" t="s">
+        <v>51</v>
+      </c>
+      <c r="F126" t="s">
+        <v>52</v>
+      </c>
+      <c r="G126" t="s">
+        <v>42</v>
+      </c>
+      <c r="H126" t="s">
+        <v>10</v>
+      </c>
+      <c r="J126" s="4">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126" s="4">
+        <v>0</v>
+      </c>
+      <c r="N126" s="4">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>42</v>
+      </c>
+      <c r="B127">
+        <v>2023</v>
+      </c>
+      <c r="D127" t="s">
+        <v>207</v>
+      </c>
+      <c r="E127" t="s">
+        <v>199</v>
+      </c>
+      <c r="F127" t="s">
+        <v>194</v>
+      </c>
+      <c r="G127" t="s">
+        <v>42</v>
+      </c>
+      <c r="H127" t="s">
+        <v>19</v>
+      </c>
+      <c r="J127" s="4">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127" s="4">
+        <v>0</v>
+      </c>
+      <c r="N127" s="4">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>42</v>
+      </c>
+      <c r="B128">
+        <v>2023</v>
+      </c>
+      <c r="D128" t="s">
+        <v>207</v>
+      </c>
+      <c r="E128" t="s">
+        <v>200</v>
+      </c>
+      <c r="F128" t="s">
+        <v>195</v>
+      </c>
+      <c r="G128" t="s">
+        <v>42</v>
+      </c>
+      <c r="H128" t="s">
+        <v>205</v>
+      </c>
+      <c r="J128" s="4">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128" s="4">
+        <v>0</v>
+      </c>
+      <c r="N128" s="4">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="J129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="P129" s="4"/>
+      <c r="A129" t="s">
+        <v>42</v>
+      </c>
+      <c r="B129">
+        <v>2023</v>
+      </c>
+      <c r="D129" t="s">
+        <v>207</v>
+      </c>
+      <c r="E129" t="s">
+        <v>338</v>
+      </c>
+      <c r="F129" t="s">
+        <v>319</v>
+      </c>
+      <c r="G129" t="s">
+        <v>42</v>
+      </c>
+      <c r="H129" t="s">
+        <v>320</v>
+      </c>
+      <c r="I129" t="s">
+        <v>12</v>
+      </c>
+      <c r="J129" s="4">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129" s="4">
+        <v>0</v>
+      </c>
+      <c r="N129" s="4">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="J130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="P130" s="4"/>
+      <c r="A130" t="s">
+        <v>42</v>
+      </c>
+      <c r="B130">
+        <v>2023</v>
+      </c>
+      <c r="D130" t="s">
+        <v>207</v>
+      </c>
+      <c r="E130" t="s">
+        <v>201</v>
+      </c>
+      <c r="F130" t="s">
+        <v>196</v>
+      </c>
+      <c r="G130" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130" t="s">
+        <v>206</v>
+      </c>
+      <c r="J130" s="4">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130" s="4">
+        <v>0</v>
+      </c>
+      <c r="N130" s="4">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="J131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="P131" s="4"/>
+      <c r="A131" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131">
+        <v>2023</v>
+      </c>
+      <c r="D131" t="s">
+        <v>208</v>
+      </c>
+      <c r="E131" t="s">
+        <v>202</v>
+      </c>
+      <c r="F131" t="s">
+        <v>197</v>
+      </c>
+      <c r="G131" t="s">
+        <v>42</v>
+      </c>
+      <c r="H131" t="s">
+        <v>204</v>
+      </c>
+      <c r="J131" s="4">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131" s="4">
+        <v>0</v>
+      </c>
+      <c r="N131" s="4">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>42</v>
+      </c>
+      <c r="B132">
+        <v>2023</v>
+      </c>
+      <c r="D132" t="s">
+        <v>208</v>
+      </c>
+      <c r="E132" t="s">
+        <v>203</v>
+      </c>
+      <c r="F132" t="s">
+        <v>198</v>
+      </c>
+      <c r="G132" t="s">
+        <v>42</v>
+      </c>
+      <c r="H132" t="s">
+        <v>204</v>
+      </c>
+      <c r="J132" s="4">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132" s="4">
+        <v>0</v>
+      </c>
+      <c r="N132" s="4">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>354</v>
+      </c>
+      <c r="B133">
+        <v>2024</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D133" t="s">
+        <v>275</v>
+      </c>
+      <c r="E133" t="s">
+        <v>312</v>
+      </c>
+      <c r="F133" t="s">
+        <v>256</v>
+      </c>
+      <c r="G133" t="s">
+        <v>42</v>
+      </c>
+      <c r="H133" t="s">
         <v>43</v>
       </c>
-      <c r="B133">
-        <v>2023</v>
-      </c>
-      <c r="D133" t="s">
-        <v>208</v>
-      </c>
-      <c r="E133" t="s">
-        <v>52</v>
-      </c>
-      <c r="F133" t="s">
-        <v>53</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="I133" t="s">
+        <v>12</v>
+      </c>
+      <c r="J133" s="4">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133" s="4">
+        <v>0</v>
+      </c>
+      <c r="N133" s="4">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>354</v>
+      </c>
+      <c r="B134">
+        <v>2024</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D134" t="s">
+        <v>275</v>
+      </c>
+      <c r="E134" t="s">
+        <v>313</v>
+      </c>
+      <c r="F134" t="s">
+        <v>259</v>
+      </c>
+      <c r="G134" t="s">
+        <v>42</v>
+      </c>
+      <c r="H134" t="s">
         <v>43</v>
       </c>
-      <c r="H133" t="s">
-        <v>10</v>
-      </c>
-      <c r="J133" s="4">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <v>1</v>
-      </c>
-      <c r="L133">
-        <v>1</v>
-      </c>
-      <c r="M133" s="4">
-        <v>0</v>
-      </c>
-      <c r="N133" s="4">
-        <v>0</v>
-      </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="I134" t="s">
+        <v>12</v>
+      </c>
+      <c r="J134" s="4">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134" s="4">
+        <v>0</v>
+      </c>
+      <c r="N134" s="4">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>354</v>
+      </c>
+      <c r="B135">
+        <v>2024</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D135" t="s">
+        <v>275</v>
+      </c>
+      <c r="E135" t="s">
+        <v>314</v>
+      </c>
+      <c r="F135" t="s">
+        <v>258</v>
+      </c>
+      <c r="G135" t="s">
+        <v>42</v>
+      </c>
+      <c r="H135" t="s">
         <v>43</v>
       </c>
-      <c r="B134">
-        <v>2023</v>
-      </c>
-      <c r="D134" t="s">
-        <v>208</v>
-      </c>
-      <c r="E134" t="s">
-        <v>200</v>
-      </c>
-      <c r="F134" t="s">
-        <v>195</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="I135" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" s="4">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135" s="4">
+        <v>0</v>
+      </c>
+      <c r="N135" s="4">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>354</v>
+      </c>
+      <c r="B136">
+        <v>2024</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D136" t="s">
+        <v>275</v>
+      </c>
+      <c r="E136" t="s">
+        <v>315</v>
+      </c>
+      <c r="F136" t="s">
+        <v>257</v>
+      </c>
+      <c r="G136" t="s">
+        <v>42</v>
+      </c>
+      <c r="H136" t="s">
         <v>43</v>
-      </c>
-      <c r="H134" t="s">
-        <v>20</v>
-      </c>
-      <c r="J134" s="4">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <v>1</v>
-      </c>
-      <c r="L134">
-        <v>1</v>
-      </c>
-      <c r="M134" s="4">
-        <v>0</v>
-      </c>
-      <c r="N134" s="4">
-        <v>0</v>
-      </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="P134" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>43</v>
-      </c>
-      <c r="B135">
-        <v>2023</v>
-      </c>
-      <c r="D135" t="s">
-        <v>208</v>
-      </c>
-      <c r="E135" t="s">
-        <v>201</v>
-      </c>
-      <c r="F135" t="s">
-        <v>196</v>
-      </c>
-      <c r="G135" t="s">
-        <v>43</v>
-      </c>
-      <c r="H135" t="s">
-        <v>206</v>
-      </c>
-      <c r="J135" s="4">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>1</v>
-      </c>
-      <c r="L135">
-        <v>1</v>
-      </c>
-      <c r="M135" s="4">
-        <v>0</v>
-      </c>
-      <c r="N135" s="4">
-        <v>0</v>
-      </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>43</v>
-      </c>
-      <c r="B136">
-        <v>2023</v>
-      </c>
-      <c r="D136" t="s">
-        <v>208</v>
-      </c>
-      <c r="E136" t="s">
-        <v>339</v>
-      </c>
-      <c r="F136" t="s">
-        <v>320</v>
-      </c>
-      <c r="G136" t="s">
-        <v>43</v>
-      </c>
-      <c r="H136" t="s">
-        <v>321</v>
       </c>
       <c r="I136" t="s">
         <v>12</v>
@@ -6885,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -6908,25 +8024,28 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>43</v>
+        <v>357</v>
       </c>
       <c r="B137">
         <v>2023</v>
       </c>
       <c r="D137" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E137" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="F137" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H137" t="s">
-        <v>207</v>
+        <v>10</v>
+      </c>
+      <c r="I137" t="s">
+        <v>11</v>
       </c>
       <c r="J137" s="4">
         <v>0</v>
@@ -6955,25 +8074,28 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>43</v>
+        <v>357</v>
       </c>
       <c r="B138">
         <v>2023</v>
       </c>
       <c r="D138" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E138" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="F138" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="G138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H138" t="s">
-        <v>205</v>
+        <v>10</v>
+      </c>
+      <c r="I138" t="s">
+        <v>11</v>
       </c>
       <c r="J138" s="4">
         <v>0</v>
@@ -6982,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M138" s="4">
         <v>0</v>
@@ -7002,25 +8124,28 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>43</v>
+        <v>357</v>
       </c>
       <c r="B139">
         <v>2023</v>
       </c>
       <c r="D139" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E139" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="F139" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H139" t="s">
-        <v>205</v>
+        <v>10</v>
+      </c>
+      <c r="I139" t="s">
+        <v>11</v>
       </c>
       <c r="J139" s="4">
         <v>0</v>
@@ -7047,144 +8172,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B140">
+        <v>2023</v>
+      </c>
+      <c r="D140" t="s">
+        <v>215</v>
+      </c>
+      <c r="E140" t="s">
+        <v>233</v>
+      </c>
+      <c r="F140" t="s">
+        <v>214</v>
+      </c>
+      <c r="G140" t="s">
+        <v>42</v>
+      </c>
+      <c r="H140" t="s">
+        <v>10</v>
+      </c>
+      <c r="I140" t="s">
+        <v>11</v>
+      </c>
+      <c r="J140" s="4">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140" s="4">
+        <v>0</v>
+      </c>
+      <c r="N140" s="4">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B141" s="5">
         <v>2024</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D140" t="s">
-        <v>276</v>
-      </c>
-      <c r="E140" t="s">
-        <v>313</v>
-      </c>
-      <c r="F140" t="s">
-        <v>257</v>
-      </c>
-      <c r="G140" t="s">
-        <v>43</v>
-      </c>
-      <c r="H140" t="s">
-        <v>44</v>
-      </c>
-      <c r="I140" t="s">
-        <v>12</v>
-      </c>
-      <c r="J140" s="4">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>1</v>
-      </c>
-      <c r="M140" s="4">
-        <v>0</v>
-      </c>
-      <c r="N140" s="4">
-        <v>0</v>
-      </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-      <c r="P140" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" ht="20" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>355</v>
-      </c>
-      <c r="B141">
-        <v>2024</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D141" t="s">
-        <v>276</v>
-      </c>
-      <c r="E141" t="s">
-        <v>314</v>
-      </c>
-      <c r="F141" t="s">
-        <v>260</v>
-      </c>
-      <c r="G141" t="s">
-        <v>43</v>
-      </c>
-      <c r="H141" t="s">
-        <v>44</v>
-      </c>
-      <c r="I141" t="s">
-        <v>12</v>
-      </c>
-      <c r="J141" s="4">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-      <c r="L141">
-        <v>1</v>
-      </c>
-      <c r="M141" s="4">
-        <v>0</v>
-      </c>
-      <c r="N141" s="4">
-        <v>0</v>
-      </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-      <c r="P141" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+      <c r="C141" s="5"/>
+      <c r="D141" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="P141" s="4"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>355</v>
+        <v>161</v>
       </c>
       <c r="B142">
         <v>2024</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>356</v>
+      <c r="C142" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D142" t="s">
+        <v>145</v>
+      </c>
+      <c r="E142" t="s">
         <v>276</v>
       </c>
-      <c r="E142" t="s">
-        <v>315</v>
-      </c>
       <c r="F142" t="s">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="H142" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J142" s="4">
         <v>0</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="4">
         <v>0</v>
       </c>
       <c r="L142">
@@ -7197,51 +8287,48 @@
         <v>0</v>
       </c>
       <c r="O142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P142" s="4">
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>355</v>
+        <v>161</v>
       </c>
       <c r="B143">
         <v>2024</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>356</v>
+      <c r="C143" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D143" t="s">
-        <v>276</v>
-      </c>
-      <c r="E143" t="s">
-        <v>316</v>
+        <v>146</v>
       </c>
       <c r="F143" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="H143" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J143" s="4">
         <v>0</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="4">
         <v>0</v>
       </c>
       <c r="L143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M143" s="4">
         <v>0</v>
@@ -7261,22 +8348,22 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>358</v>
+        <v>161</v>
       </c>
       <c r="B144">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D144" t="s">
-        <v>216</v>
-      </c>
-      <c r="E144" t="s">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="F144" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="H144" t="s">
         <v>10</v>
@@ -7287,11 +8374,11 @@
       <c r="J144" s="4">
         <v>0</v>
       </c>
-      <c r="K144">
-        <v>1</v>
+      <c r="K144" s="4">
+        <v>0</v>
       </c>
       <c r="L144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M144" s="4">
         <v>0</v>
@@ -7311,22 +8398,22 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>358</v>
+        <v>161</v>
       </c>
       <c r="B145">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D145" t="s">
-        <v>216</v>
-      </c>
-      <c r="E145" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="F145" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="H145" t="s">
         <v>10</v>
@@ -7337,8 +8424,8 @@
       <c r="J145" s="4">
         <v>0</v>
       </c>
-      <c r="K145">
-        <v>1</v>
+      <c r="K145" s="4">
+        <v>0</v>
       </c>
       <c r="L145">
         <v>0</v>
@@ -7361,22 +8448,25 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>358</v>
+        <v>161</v>
       </c>
       <c r="B146">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D146" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="H146" t="s">
         <v>10</v>
@@ -7387,8 +8477,8 @@
       <c r="J146" s="4">
         <v>0</v>
       </c>
-      <c r="K146">
-        <v>1</v>
+      <c r="K146" s="4">
+        <v>0</v>
       </c>
       <c r="L146">
         <v>1</v>
@@ -7400,33 +8490,33 @@
         <v>0</v>
       </c>
       <c r="O146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146" s="4">
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>358</v>
+        <v>161</v>
       </c>
       <c r="B147">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D147" t="s">
-        <v>216</v>
-      </c>
-      <c r="E147" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="F147" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="H147" t="s">
         <v>10</v>
@@ -7437,8 +8527,8 @@
       <c r="J147" s="4">
         <v>0</v>
       </c>
-      <c r="K147">
-        <v>1</v>
+      <c r="K147" s="4">
+        <v>0</v>
       </c>
       <c r="L147">
         <v>0</v>
@@ -7455,1334 +8545,811 @@
       <c r="P147" s="4">
         <v>0</v>
       </c>
-      <c r="Q147">
+      <c r="Q147" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="P148" s="4"/>
+      <c r="A148" t="s">
+        <v>161</v>
+      </c>
+      <c r="B148">
+        <v>2024</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D148" t="s">
+        <v>151</v>
+      </c>
+      <c r="F148" t="s">
+        <v>159</v>
+      </c>
+      <c r="G148" t="s">
+        <v>395</v>
+      </c>
+      <c r="H148" t="s">
+        <v>10</v>
+      </c>
+      <c r="I148" t="s">
+        <v>11</v>
+      </c>
+      <c r="J148" s="4">
+        <v>0</v>
+      </c>
+      <c r="K148" s="4">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148" s="4">
+        <v>0</v>
+      </c>
+      <c r="N148" s="4">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="P149" s="4"/>
+      <c r="A149" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149">
+        <v>2024</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D149" t="s">
+        <v>152</v>
+      </c>
+      <c r="F149" t="s">
+        <v>160</v>
+      </c>
+      <c r="G149" t="s">
+        <v>395</v>
+      </c>
+      <c r="H149" t="s">
+        <v>10</v>
+      </c>
+      <c r="I149" t="s">
+        <v>11</v>
+      </c>
+      <c r="J149" s="4">
+        <v>0</v>
+      </c>
+      <c r="K149" s="4">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149" s="4">
+        <v>0</v>
+      </c>
+      <c r="N149" s="4">
+        <v>0</v>
+      </c>
+      <c r="O149" s="4">
+        <v>0</v>
+      </c>
+      <c r="P149" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="P150" s="4"/>
+      <c r="A150" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150">
+        <v>2024</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E150" t="s">
+        <v>311</v>
+      </c>
+      <c r="F150" t="s">
+        <v>296</v>
+      </c>
+      <c r="G150" t="s">
+        <v>395</v>
+      </c>
+      <c r="H150" t="s">
+        <v>287</v>
+      </c>
+      <c r="I150" t="s">
+        <v>11</v>
+      </c>
+      <c r="J150" s="4">
+        <v>0</v>
+      </c>
+      <c r="K150" s="4">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150" s="4">
+        <v>0</v>
+      </c>
+      <c r="N150" s="4">
+        <v>0</v>
+      </c>
+      <c r="O150" s="4">
+        <v>0</v>
+      </c>
+      <c r="P150" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="P151" s="4"/>
+      <c r="A151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151">
+        <v>2024</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E151" t="s">
+        <v>309</v>
+      </c>
+      <c r="F151" t="s">
+        <v>297</v>
+      </c>
+      <c r="G151" t="s">
+        <v>394</v>
+      </c>
+      <c r="H151" t="s">
+        <v>34</v>
+      </c>
+      <c r="I151" t="s">
+        <v>11</v>
+      </c>
+      <c r="J151" s="4">
+        <v>0</v>
+      </c>
+      <c r="K151" s="4">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151" s="4">
+        <v>0</v>
+      </c>
+      <c r="N151" s="4">
+        <v>0</v>
+      </c>
+      <c r="O151" s="4">
+        <v>0</v>
+      </c>
+      <c r="P151" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="P152" s="4"/>
+      <c r="A152" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152">
+        <v>2024</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E152" t="s">
+        <v>308</v>
+      </c>
+      <c r="F152" t="s">
+        <v>298</v>
+      </c>
+      <c r="G152" t="s">
+        <v>394</v>
+      </c>
+      <c r="H152" t="s">
+        <v>206</v>
+      </c>
+      <c r="I152" t="s">
+        <v>12</v>
+      </c>
+      <c r="J152" s="4">
+        <v>0</v>
+      </c>
+      <c r="K152" s="4">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152" s="4">
+        <v>0</v>
+      </c>
+      <c r="N152" s="4">
+        <v>0</v>
+      </c>
+      <c r="O152" s="4">
+        <v>0</v>
+      </c>
+      <c r="P152" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="P153" s="4"/>
+      <c r="A153" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153">
+        <v>2024</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E153" t="s">
+        <v>310</v>
+      </c>
+      <c r="F153" t="s">
+        <v>299</v>
+      </c>
+      <c r="G153" t="s">
+        <v>395</v>
+      </c>
+      <c r="H153" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153" t="s">
+        <v>12</v>
+      </c>
+      <c r="J153" s="4">
+        <v>0</v>
+      </c>
+      <c r="K153" s="4">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153" s="4">
+        <v>0</v>
+      </c>
+      <c r="N153" s="4">
+        <v>0</v>
+      </c>
+      <c r="O153" s="4">
+        <v>0</v>
+      </c>
+      <c r="P153" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="P154" s="4"/>
+      <c r="A154" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154">
+        <v>2024</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E154" t="s">
+        <v>307</v>
+      </c>
+      <c r="F154" t="s">
+        <v>300</v>
+      </c>
+      <c r="G154" t="s">
+        <v>395</v>
+      </c>
+      <c r="H154" t="s">
+        <v>10</v>
+      </c>
+      <c r="I154" t="s">
+        <v>11</v>
+      </c>
+      <c r="J154" s="4">
+        <v>0</v>
+      </c>
+      <c r="K154" s="4">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154" s="4">
+        <v>0</v>
+      </c>
+      <c r="N154" s="4">
+        <v>0</v>
+      </c>
+      <c r="O154" s="4">
+        <v>0</v>
+      </c>
+      <c r="P154" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="P155" s="4"/>
+      <c r="A155" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155">
+        <v>2024</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E155" t="s">
+        <v>305</v>
+      </c>
+      <c r="F155" t="s">
+        <v>301</v>
+      </c>
+      <c r="G155" t="s">
+        <v>394</v>
+      </c>
+      <c r="H155" t="s">
+        <v>34</v>
+      </c>
+      <c r="I155" t="s">
+        <v>12</v>
+      </c>
+      <c r="J155" s="4">
+        <v>0</v>
+      </c>
+      <c r="K155" s="4">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155" s="4">
+        <v>0</v>
+      </c>
+      <c r="N155" s="4">
+        <v>0</v>
+      </c>
+      <c r="O155" s="4">
+        <v>0</v>
+      </c>
+      <c r="P155" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="P156" s="4"/>
+      <c r="A156" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156">
+        <v>2024</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
+        <v>302</v>
+      </c>
+      <c r="G156" t="s">
+        <v>394</v>
+      </c>
+      <c r="H156" t="s">
+        <v>288</v>
+      </c>
+      <c r="I156" t="s">
+        <v>11</v>
+      </c>
+      <c r="J156" s="4">
+        <v>0</v>
+      </c>
+      <c r="K156" s="4">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156" s="4">
+        <v>0</v>
+      </c>
+      <c r="N156" s="4">
+        <v>0</v>
+      </c>
+      <c r="O156" s="4">
+        <v>0</v>
+      </c>
+      <c r="P156" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
+      <c r="D157" s="6" t="s">
+        <v>396</v>
+      </c>
       <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
+      <c r="F157" t="s">
+        <v>425</v>
+      </c>
+      <c r="G157" t="s">
+        <v>394</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
       <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
+      <c r="D158" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
+      <c r="F158" t="s">
+        <v>426</v>
+      </c>
+      <c r="G158" t="s">
+        <v>394</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
       <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
+      <c r="D159" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
+      <c r="F159" t="s">
+        <v>427</v>
+      </c>
+      <c r="G159" t="s">
+        <v>395</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I159" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
       <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
+      <c r="D160" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
+      <c r="F160" t="s">
+        <v>428</v>
+      </c>
+      <c r="G160" t="s">
+        <v>395</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
       <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
+      <c r="D161" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
+      <c r="F161" t="s">
+        <v>429</v>
+      </c>
+      <c r="G161" t="s">
+        <v>395</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I161" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
+      <c r="O161" s="4"/>
       <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
+      <c r="D162" s="6" t="s">
+        <v>401</v>
+      </c>
       <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
+      <c r="F162" t="s">
+        <v>427</v>
+      </c>
+      <c r="G162" t="s">
+        <v>395</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
+      <c r="O162" s="4"/>
       <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+      <c r="D163" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
+      <c r="F163" t="s">
+        <v>430</v>
+      </c>
+      <c r="G163" t="s">
+        <v>394</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I163" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
       <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
+      <c r="D164" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
+      <c r="F164" t="s">
+        <v>431</v>
+      </c>
+      <c r="G164" t="s">
+        <v>394</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
       <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
+      <c r="D165" s="5" t="s">
+        <v>404</v>
+      </c>
       <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
+      <c r="F165" t="s">
+        <v>432</v>
+      </c>
+      <c r="G165" t="s">
+        <v>394</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I165" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
       <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
       <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
       <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
+      <c r="O168" s="4"/>
       <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
       <c r="P169" s="4"/>
+      <c r="Q169" s="4"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
       <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>162</v>
-      </c>
-      <c r="B171">
-        <v>2024</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D171" t="s">
-        <v>146</v>
-      </c>
-      <c r="E171" t="s">
-        <v>277</v>
-      </c>
-      <c r="F171" t="s">
-        <v>154</v>
-      </c>
-      <c r="G171" t="s">
-        <v>29</v>
-      </c>
-      <c r="H171" t="s">
-        <v>10</v>
-      </c>
-      <c r="I171" t="s">
-        <v>11</v>
-      </c>
-      <c r="J171" s="4">
-        <v>0</v>
-      </c>
-      <c r="K171" s="4">
-        <v>0</v>
-      </c>
-      <c r="L171">
-        <v>1</v>
-      </c>
-      <c r="M171" s="4">
-        <v>0</v>
-      </c>
-      <c r="N171" s="4">
-        <v>0</v>
-      </c>
-      <c r="O171">
-        <v>1</v>
-      </c>
-      <c r="P171" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q171">
-        <v>1</v>
-      </c>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>162</v>
-      </c>
-      <c r="B172">
-        <v>2024</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D172" t="s">
-        <v>147</v>
-      </c>
-      <c r="F172" t="s">
-        <v>155</v>
-      </c>
-      <c r="G172" t="s">
-        <v>29</v>
-      </c>
-      <c r="H172" t="s">
-        <v>10</v>
-      </c>
-      <c r="I172" t="s">
-        <v>11</v>
-      </c>
-      <c r="J172" s="4">
-        <v>0</v>
-      </c>
-      <c r="K172" s="4">
-        <v>0</v>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-      <c r="M172" s="4">
-        <v>0</v>
-      </c>
-      <c r="N172" s="4">
-        <v>0</v>
-      </c>
-      <c r="O172">
-        <v>0</v>
-      </c>
-      <c r="P172" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>162</v>
-      </c>
-      <c r="B173">
-        <v>2024</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D173" t="s">
-        <v>148</v>
-      </c>
-      <c r="F173" t="s">
-        <v>156</v>
-      </c>
-      <c r="G173" t="s">
-        <v>29</v>
-      </c>
-      <c r="H173" t="s">
-        <v>10</v>
-      </c>
-      <c r="I173" t="s">
-        <v>11</v>
-      </c>
-      <c r="J173" s="4">
-        <v>0</v>
-      </c>
-      <c r="K173" s="4">
-        <v>0</v>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-      <c r="M173" s="4">
-        <v>0</v>
-      </c>
-      <c r="N173" s="4">
-        <v>0</v>
-      </c>
-      <c r="O173">
-        <v>0</v>
-      </c>
-      <c r="P173" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q173">
-        <v>0</v>
-      </c>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>162</v>
-      </c>
-      <c r="B174">
-        <v>2024</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D174" t="s">
-        <v>149</v>
-      </c>
-      <c r="F174" t="s">
-        <v>157</v>
-      </c>
-      <c r="G174" t="s">
-        <v>29</v>
-      </c>
-      <c r="H174" t="s">
-        <v>10</v>
-      </c>
-      <c r="I174" t="s">
-        <v>11</v>
-      </c>
-      <c r="J174" s="4">
-        <v>0</v>
-      </c>
-      <c r="K174" s="4">
-        <v>0</v>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-      <c r="M174" s="4">
-        <v>0</v>
-      </c>
-      <c r="N174" s="4">
-        <v>0</v>
-      </c>
-      <c r="O174">
-        <v>0</v>
-      </c>
-      <c r="P174" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q174">
-        <v>0</v>
-      </c>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>162</v>
-      </c>
-      <c r="B175">
-        <v>2024</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D175" t="s">
-        <v>150</v>
-      </c>
-      <c r="E175" t="s">
-        <v>278</v>
-      </c>
-      <c r="F175" t="s">
-        <v>158</v>
-      </c>
-      <c r="G175" t="s">
-        <v>29</v>
-      </c>
-      <c r="H175" t="s">
-        <v>10</v>
-      </c>
-      <c r="I175" t="s">
-        <v>11</v>
-      </c>
-      <c r="J175" s="4">
-        <v>0</v>
-      </c>
-      <c r="K175" s="4">
-        <v>0</v>
-      </c>
-      <c r="L175">
-        <v>1</v>
-      </c>
-      <c r="M175" s="4">
-        <v>0</v>
-      </c>
-      <c r="N175" s="4">
-        <v>0</v>
-      </c>
-      <c r="O175">
-        <v>1</v>
-      </c>
-      <c r="P175" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q175">
-        <v>1</v>
-      </c>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>162</v>
-      </c>
-      <c r="B176">
-        <v>2024</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D176" t="s">
-        <v>151</v>
-      </c>
-      <c r="F176" t="s">
-        <v>159</v>
-      </c>
-      <c r="G176" t="s">
-        <v>29</v>
-      </c>
-      <c r="H176" t="s">
-        <v>10</v>
-      </c>
-      <c r="I176" t="s">
-        <v>11</v>
-      </c>
-      <c r="J176" s="4">
-        <v>0</v>
-      </c>
-      <c r="K176" s="4">
-        <v>0</v>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-      <c r="M176" s="4">
-        <v>0</v>
-      </c>
-      <c r="N176" s="4">
-        <v>0</v>
-      </c>
-      <c r="O176">
-        <v>0</v>
-      </c>
-      <c r="P176" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q176" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>162</v>
-      </c>
-      <c r="B177">
-        <v>2024</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D177" t="s">
-        <v>152</v>
-      </c>
-      <c r="F177" t="s">
-        <v>160</v>
-      </c>
-      <c r="G177" t="s">
-        <v>29</v>
-      </c>
-      <c r="H177" t="s">
-        <v>10</v>
-      </c>
-      <c r="I177" t="s">
-        <v>11</v>
-      </c>
-      <c r="J177" s="4">
-        <v>0</v>
-      </c>
-      <c r="K177" s="4">
-        <v>0</v>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-      <c r="M177" s="4">
-        <v>0</v>
-      </c>
-      <c r="N177" s="4">
-        <v>0</v>
-      </c>
-      <c r="O177">
-        <v>0</v>
-      </c>
-      <c r="P177" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q177" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>162</v>
-      </c>
-      <c r="B178">
-        <v>2024</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D178" t="s">
-        <v>153</v>
-      </c>
-      <c r="F178" t="s">
-        <v>161</v>
-      </c>
-      <c r="G178" t="s">
-        <v>29</v>
-      </c>
-      <c r="H178" t="s">
-        <v>10</v>
-      </c>
-      <c r="I178" t="s">
-        <v>11</v>
-      </c>
-      <c r="J178" s="4">
-        <v>0</v>
-      </c>
-      <c r="K178" s="4">
-        <v>0</v>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-      <c r="M178" s="4">
-        <v>0</v>
-      </c>
-      <c r="N178" s="4">
-        <v>0</v>
-      </c>
-      <c r="O178" s="4">
-        <v>0</v>
-      </c>
-      <c r="P178" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q178" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>18</v>
-      </c>
-      <c r="B179">
-        <v>2024</v>
-      </c>
-      <c r="D179" t="s">
-        <v>290</v>
-      </c>
-      <c r="E179" t="s">
-        <v>312</v>
-      </c>
-      <c r="F179" t="s">
-        <v>297</v>
-      </c>
-      <c r="G179" t="s">
-        <v>29</v>
-      </c>
-      <c r="H179" t="s">
-        <v>288</v>
-      </c>
-      <c r="I179" t="s">
-        <v>11</v>
-      </c>
-      <c r="J179" s="4">
-        <v>0</v>
-      </c>
-      <c r="K179" s="4">
-        <v>0</v>
-      </c>
-      <c r="L179">
-        <v>1</v>
-      </c>
-      <c r="M179" s="4">
-        <v>0</v>
-      </c>
-      <c r="N179" s="4">
-        <v>0</v>
-      </c>
-      <c r="O179" s="4">
-        <v>0</v>
-      </c>
-      <c r="P179" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q179" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>18</v>
-      </c>
-      <c r="B180">
-        <v>2024</v>
-      </c>
-      <c r="D180" t="s">
-        <v>291</v>
-      </c>
-      <c r="E180" t="s">
-        <v>310</v>
-      </c>
-      <c r="F180" t="s">
-        <v>298</v>
-      </c>
-      <c r="G180" t="s">
-        <v>29</v>
-      </c>
-      <c r="H180" t="s">
-        <v>35</v>
-      </c>
-      <c r="I180" t="s">
-        <v>11</v>
-      </c>
-      <c r="J180" s="4">
-        <v>0</v>
-      </c>
-      <c r="K180" s="4">
-        <v>0</v>
-      </c>
-      <c r="L180">
-        <v>1</v>
-      </c>
-      <c r="M180" s="4">
-        <v>0</v>
-      </c>
-      <c r="N180" s="4">
-        <v>0</v>
-      </c>
-      <c r="O180" s="4">
-        <v>0</v>
-      </c>
-      <c r="P180" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q180" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>18</v>
-      </c>
-      <c r="B181">
-        <v>2024</v>
-      </c>
-      <c r="D181" t="s">
-        <v>292</v>
-      </c>
-      <c r="E181" t="s">
-        <v>309</v>
-      </c>
-      <c r="F181" t="s">
-        <v>299</v>
-      </c>
-      <c r="G181" t="s">
-        <v>29</v>
-      </c>
-      <c r="H181" t="s">
-        <v>207</v>
-      </c>
-      <c r="I181" t="s">
-        <v>12</v>
-      </c>
-      <c r="J181" s="4">
-        <v>0</v>
-      </c>
-      <c r="K181" s="4">
-        <v>0</v>
-      </c>
-      <c r="L181">
-        <v>1</v>
-      </c>
-      <c r="M181" s="4">
-        <v>0</v>
-      </c>
-      <c r="N181" s="4">
-        <v>0</v>
-      </c>
-      <c r="O181" s="4">
-        <v>0</v>
-      </c>
-      <c r="P181" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q181" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>18</v>
-      </c>
-      <c r="B182">
-        <v>2024</v>
-      </c>
-      <c r="D182" t="s">
-        <v>293</v>
-      </c>
-      <c r="E182" t="s">
-        <v>311</v>
-      </c>
-      <c r="F182" t="s">
-        <v>300</v>
-      </c>
-      <c r="G182" t="s">
-        <v>29</v>
-      </c>
-      <c r="H182" t="s">
-        <v>21</v>
-      </c>
-      <c r="I182" t="s">
-        <v>12</v>
-      </c>
-      <c r="J182" s="4">
-        <v>0</v>
-      </c>
-      <c r="K182" s="4">
-        <v>0</v>
-      </c>
-      <c r="L182">
-        <v>1</v>
-      </c>
-      <c r="M182" s="4">
-        <v>0</v>
-      </c>
-      <c r="N182" s="4">
-        <v>0</v>
-      </c>
-      <c r="O182" s="4">
-        <v>0</v>
-      </c>
-      <c r="P182" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>18</v>
-      </c>
-      <c r="B183">
-        <v>2024</v>
-      </c>
-      <c r="D183" t="s">
-        <v>294</v>
-      </c>
-      <c r="E183" t="s">
-        <v>308</v>
-      </c>
-      <c r="F183" t="s">
-        <v>301</v>
-      </c>
-      <c r="G183" t="s">
-        <v>29</v>
-      </c>
-      <c r="H183" t="s">
-        <v>10</v>
-      </c>
-      <c r="I183" t="s">
-        <v>11</v>
-      </c>
-      <c r="J183" s="4">
-        <v>0</v>
-      </c>
-      <c r="K183" s="4">
-        <v>0</v>
-      </c>
-      <c r="L183">
-        <v>1</v>
-      </c>
-      <c r="M183" s="4">
-        <v>0</v>
-      </c>
-      <c r="N183" s="4">
-        <v>0</v>
-      </c>
-      <c r="O183" s="4">
-        <v>0</v>
-      </c>
-      <c r="P183" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q183" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>18</v>
-      </c>
-      <c r="B184">
-        <v>2024</v>
-      </c>
-      <c r="D184" t="s">
-        <v>295</v>
-      </c>
-      <c r="E184" t="s">
-        <v>306</v>
-      </c>
-      <c r="F184" t="s">
-        <v>302</v>
-      </c>
-      <c r="G184" t="s">
-        <v>29</v>
-      </c>
-      <c r="H184" t="s">
-        <v>35</v>
-      </c>
-      <c r="I184" t="s">
-        <v>12</v>
-      </c>
-      <c r="J184" s="4">
-        <v>0</v>
-      </c>
-      <c r="K184" s="4">
-        <v>0</v>
-      </c>
-      <c r="L184">
-        <v>1</v>
-      </c>
-      <c r="M184" s="4">
-        <v>0</v>
-      </c>
-      <c r="N184" s="4">
-        <v>0</v>
-      </c>
-      <c r="O184" s="4">
-        <v>0</v>
-      </c>
-      <c r="P184" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q184" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>18</v>
-      </c>
-      <c r="B185">
-        <v>2024</v>
-      </c>
-      <c r="D185" t="s">
-        <v>296</v>
-      </c>
-      <c r="E185" t="s">
-        <v>307</v>
-      </c>
-      <c r="F185" t="s">
-        <v>303</v>
-      </c>
-      <c r="G185" t="s">
-        <v>29</v>
-      </c>
-      <c r="H185" t="s">
-        <v>289</v>
-      </c>
-      <c r="I185" t="s">
-        <v>11</v>
-      </c>
-      <c r="J185" s="4">
-        <v>0</v>
-      </c>
-      <c r="K185" s="4">
-        <v>0</v>
-      </c>
-      <c r="L185">
-        <v>1</v>
-      </c>
-      <c r="M185" s="4">
-        <v>0</v>
-      </c>
-      <c r="N185" s="4">
-        <v>0</v>
-      </c>
-      <c r="O185" s="4">
-        <v>0</v>
-      </c>
-      <c r="P185" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q185" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J186" s="4"/>
-      <c r="K186" s="4"/>
-      <c r="M186" s="4"/>
-      <c r="N186" s="4"/>
-      <c r="O186" s="4"/>
-      <c r="P186" s="4"/>
-      <c r="Q186" s="4"/>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J187" s="4"/>
-      <c r="K187" s="4"/>
-      <c r="M187" s="4"/>
-      <c r="N187" s="4"/>
-      <c r="O187" s="4"/>
-      <c r="P187" s="4"/>
-      <c r="Q187" s="4"/>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
-      <c r="M188" s="4"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="4"/>
-      <c r="P188" s="4"/>
-      <c r="Q188" s="4"/>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J189" s="4"/>
-      <c r="K189" s="4"/>
-      <c r="M189" s="4"/>
-      <c r="N189" s="4"/>
-      <c r="O189" s="4"/>
-      <c r="P189" s="4"/>
-      <c r="Q189" s="4"/>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J190" s="4"/>
-      <c r="K190" s="4"/>
-      <c r="M190" s="4"/>
-      <c r="N190" s="4"/>
-      <c r="O190" s="4"/>
-      <c r="P190" s="4"/>
-      <c r="Q190" s="4"/>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J191" s="4"/>
-      <c r="K191" s="4"/>
-      <c r="M191" s="4"/>
-      <c r="N191" s="4"/>
-      <c r="O191" s="4"/>
-      <c r="P191" s="4"/>
-      <c r="Q191" s="4"/>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J192" s="4"/>
-      <c r="K192" s="4"/>
-      <c r="M192" s="4"/>
-      <c r="N192" s="4"/>
-      <c r="O192" s="4"/>
-      <c r="P192" s="4"/>
-      <c r="Q192" s="4"/>
-    </row>
-    <row r="193" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J193" s="4"/>
-      <c r="K193" s="4"/>
-      <c r="M193" s="4"/>
-      <c r="N193" s="4"/>
-      <c r="O193" s="4"/>
-      <c r="P193" s="4"/>
-      <c r="Q193" s="4"/>
-    </row>
-    <row r="194" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J194" s="4"/>
-      <c r="K194" s="4"/>
-      <c r="M194" s="4"/>
-      <c r="N194" s="4"/>
-      <c r="O194" s="4"/>
-      <c r="P194" s="4"/>
-      <c r="Q194" s="4"/>
-    </row>
-    <row r="195" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
-      <c r="M195" s="4"/>
-      <c r="N195" s="4"/>
-      <c r="O195" s="4"/>
-      <c r="P195" s="4"/>
-      <c r="Q195" s="4"/>
-    </row>
-    <row r="196" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J196" s="4"/>
-      <c r="K196" s="4"/>
-      <c r="M196" s="4"/>
-      <c r="N196" s="4"/>
-      <c r="O196" s="4"/>
-      <c r="P196" s="4"/>
-      <c r="Q196" s="4"/>
-    </row>
-    <row r="197" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J197" s="4"/>
-      <c r="K197" s="4"/>
-      <c r="M197" s="4"/>
-      <c r="N197" s="4"/>
-      <c r="O197" s="4"/>
-      <c r="P197" s="4"/>
-      <c r="Q197" s="4"/>
-    </row>
-    <row r="198" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K198" s="4"/>
-      <c r="M198" s="4"/>
-      <c r="N198" s="4"/>
-      <c r="O198" s="4"/>
-      <c r="P198" s="4"/>
-      <c r="Q198" s="4"/>
-    </row>
-    <row r="199" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K199" s="4"/>
-      <c r="M199" s="4"/>
-      <c r="N199" s="4"/>
-      <c r="O199" s="4"/>
-      <c r="P199" s="4"/>
-      <c r="Q199" s="4"/>
-    </row>
-    <row r="200" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K200" s="4"/>
-      <c r="M200" s="4"/>
-      <c r="N200" s="4"/>
-      <c r="O200" s="4"/>
-      <c r="P200" s="4"/>
-      <c r="Q200" s="4"/>
-    </row>
-    <row r="201" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K201" s="4"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-      <c r="P201" s="4"/>
-      <c r="Q201" s="4"/>
-    </row>
-    <row r="202" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K202" s="4"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="4"/>
-      <c r="O202" s="4"/>
-      <c r="P202" s="4"/>
-      <c r="Q202" s="4"/>
-    </row>
-    <row r="203" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K203" s="4"/>
-      <c r="M203" s="4"/>
-      <c r="N203" s="4"/>
-      <c r="O203" s="4"/>
-      <c r="P203" s="4"/>
-      <c r="Q203" s="4"/>
-    </row>
-    <row r="204" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K204" s="4"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="4"/>
-      <c r="O204" s="4"/>
-      <c r="P204" s="4"/>
-      <c r="Q204" s="4"/>
-    </row>
-    <row r="205" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="M205" s="4"/>
-      <c r="N205" s="4"/>
-      <c r="O205" s="4"/>
-      <c r="P205" s="4"/>
-      <c r="Q205" s="4"/>
-    </row>
-    <row r="206" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="M206" s="4"/>
-      <c r="N206" s="4"/>
-      <c r="O206" s="4"/>
-      <c r="P206" s="4"/>
-      <c r="Q206" s="4"/>
-    </row>
-    <row r="207" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="M207" s="4"/>
-      <c r="N207" s="4"/>
-      <c r="O207" s="4"/>
-      <c r="P207" s="4"/>
-      <c r="Q207" s="4"/>
-    </row>
-    <row r="208" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="M208" s="4"/>
-      <c r="N208" s="4"/>
-      <c r="O208" s="4"/>
-      <c r="P208" s="4"/>
-      <c r="Q208" s="4"/>
-    </row>
-    <row r="209" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="M209" s="4"/>
-      <c r="N209" s="4"/>
-      <c r="O209" s="4"/>
-      <c r="P209" s="4"/>
-      <c r="Q209" s="4"/>
-    </row>
-    <row r="210" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="N210" s="4"/>
-      <c r="O210" s="4"/>
-      <c r="P210" s="4"/>
-    </row>
-    <row r="211" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="N211" s="4"/>
-      <c r="O211" s="4"/>
-      <c r="P211" s="4"/>
-    </row>
-    <row r="212" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="N212" s="4"/>
-      <c r="P212" s="4"/>
-    </row>
-    <row r="213" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="N213" s="4"/>
-      <c r="P213" s="4"/>
-    </row>
-    <row r="214" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="N214" s="4"/>
-      <c r="P214" s="4"/>
-    </row>
-    <row r="215" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="P215" s="4"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+    </row>
+    <row r="177" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+    </row>
+    <row r="178" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N178" s="4"/>
+      <c r="P178" s="4"/>
+    </row>
+    <row r="179" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N179" s="4"/>
+      <c r="P179" s="4"/>
+    </row>
+    <row r="180" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="N180" s="4"/>
+      <c r="P180" s="4"/>
+    </row>
+    <row r="181" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="P181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8830,16 +9397,33 @@
     <hyperlink ref="C10" r:id="rId41" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
     <hyperlink ref="C11" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
     <hyperlink ref="C12" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
-    <hyperlink ref="C171" r:id="rId44" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
-    <hyperlink ref="C172" r:id="rId45" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
-    <hyperlink ref="C173" r:id="rId46" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
-    <hyperlink ref="C174" r:id="rId47" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
-    <hyperlink ref="C175" r:id="rId48" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
-    <hyperlink ref="C176" r:id="rId49" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
-    <hyperlink ref="C177" r:id="rId50" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
-    <hyperlink ref="C178" r:id="rId51" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
-    <hyperlink ref="E76" r:id="rId52" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
-    <hyperlink ref="E77" r:id="rId53" xr:uid="{3FFA047D-54A7-1C4F-8F99-6C3E171DAF81}"/>
+    <hyperlink ref="C142" r:id="rId44" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C143" r:id="rId45" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C144" r:id="rId46" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C145" r:id="rId47" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C146" r:id="rId48" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C147" r:id="rId49" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C148" r:id="rId50" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C149" r:id="rId51" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="E77" r:id="rId52" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
+    <hyperlink ref="E78" r:id="rId53" xr:uid="{3FFA047D-54A7-1C4F-8F99-6C3E171DAF81}"/>
+    <hyperlink ref="D17" r:id="rId54" xr:uid="{3ABCF888-2DE3-F241-AF72-0A8CC3470A5F}"/>
+    <hyperlink ref="D70" r:id="rId55" xr:uid="{1F241710-62DB-2E44-A747-109074C18B64}"/>
+    <hyperlink ref="D72" r:id="rId56" xr:uid="{26B96861-06BB-1843-BD89-C6AE442F656F}"/>
+    <hyperlink ref="D73" r:id="rId57" xr:uid="{8A7E9875-FDB3-4A44-A75E-05337B524EC2}"/>
+    <hyperlink ref="D150" r:id="rId58" xr:uid="{610B174C-804A-7040-AB83-A05706A11968}"/>
+    <hyperlink ref="D155" r:id="rId59" xr:uid="{A10F1E36-AFF2-EB41-95B1-EEB475790600}"/>
+    <hyperlink ref="D151" r:id="rId60" xr:uid="{AAE31702-CCEE-494E-AB15-F7DFD7C1277F}"/>
+    <hyperlink ref="D152" r:id="rId61" xr:uid="{0592BD43-1799-4D47-958B-F4C0BD89D869}"/>
+    <hyperlink ref="D153" r:id="rId62" xr:uid="{80001562-99A2-BD44-9DB5-C8BCF6980A1F}"/>
+    <hyperlink ref="D154" r:id="rId63" xr:uid="{4CEB79AD-A518-ED40-97BB-5F83112C6724}"/>
+    <hyperlink ref="D156" r:id="rId64" xr:uid="{63D86AFC-245D-234C-8DCF-BB70FC0FD06C}"/>
+    <hyperlink ref="D157" r:id="rId65" xr:uid="{E80A4473-FEAE-E34A-B92F-1185FF045DD5}"/>
+    <hyperlink ref="D162" r:id="rId66" xr:uid="{B0B4C14C-DEEA-574D-9011-11A44FA41DBB}"/>
+    <hyperlink ref="D94" r:id="rId67" xr:uid="{55436074-2924-ED43-B050-F0437D753837}"/>
+    <hyperlink ref="D60" r:id="rId68" xr:uid="{C80D528B-A854-B34D-8757-27BDF0C8EFD9}"/>
+    <hyperlink ref="D62" r:id="rId69" xr:uid="{3C8464E7-A1B4-2340-B366-338E16BC5ECC}"/>
+    <hyperlink ref="E62" r:id="rId70" xr:uid="{C3AE867C-7C47-8441-BCB2-DAA772403942}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F627773-6888-3740-9160-7427A74F5AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBEC6C4-F5B0-1C4F-8119-D52902998A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1858,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B96" zoomScale="75" workbookViewId="0">
       <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBEC6C4-F5B0-1C4F-8119-D52902998A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F57566-04BC-2C4D-BF1E-6E9E94B0DC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="466">
   <si>
     <t>Author</t>
   </si>
@@ -1431,6 +1431,9 @@
   </si>
   <si>
     <t>Visium_HD_lung_cancer_human2_8um</t>
+  </si>
+  <si>
+    <t>Vizgen_brain_human</t>
   </si>
 </sst>
 </file>
@@ -1858,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B96" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5025,6 +5028,9 @@
         <v>11</v>
       </c>
       <c r="N62" s="4"/>
+      <c r="O62">
+        <v>1</v>
+      </c>
       <c r="P62" s="4"/>
     </row>
     <row r="63" spans="1:17" ht="17" x14ac:dyDescent="0.25">
@@ -8234,10 +8240,18 @@
         <v>406</v>
       </c>
       <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
+      <c r="F141" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G141" t="s">
+        <v>42</v>
+      </c>
+      <c r="H141" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" t="s">
+        <v>12</v>
+      </c>
       <c r="J141" s="4"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
@@ -9163,7 +9177,9 @@
       <c r="K162" s="4"/>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
-      <c r="O162" s="4"/>
+      <c r="O162" s="4">
+        <v>1</v>
+      </c>
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
     </row>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F57566-04BC-2C4D-BF1E-6E9E94B0DC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207FB4CF-6CE0-9E45-9D15-4979A0C24657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="475">
   <si>
     <t>Author</t>
   </si>
@@ -1434,6 +1434,33 @@
   </si>
   <si>
     <t>Vizgen_brain_human</t>
+  </si>
+  <si>
+    <t>https://pqx5pw.bl.files.1drv.com/y4m1k6YonJXGKLiTulGsOp45us7JXJW0ZNI8hvZyeP7VbGYl11HgNc0TYiyDl9epflO41wJtZry2ViDHRCeS5jiW7CLkvYZQYgOg3SSTn-fLaJBpYjiIUZqMFG43VbM6FsUDlwmBhSs7EoEAxCYqLKHuWvJdzE_-xzvWOok3vPNUfzsNua3hTmUOoTtX907r7EjT-QTaPexJEhXESeS-nOh4w</t>
+  </si>
+  <si>
+    <t>https://zd8wmg.bl.files.1drv.com/y4mFIuvFG-rUmDJoLUuDFGNdX7z03MkzD_zewYoUBb5jICcDIcmrbHvW7ynOwYR1xnOQjtRb_4N4Yf--ZyRmCeqm8BFn7ooddnBo32j5Yy8zJzNZMJzDj5fdLYNVl7TzeOZKEQngnfI_vArehdRicQJ3pl0s5ruyyLFlqTZJYypF2NGQMRsTHEP56lVXp-b-lV8Dci5VIxjvjaniXjrXGYVHQ</t>
+  </si>
+  <si>
+    <t>https://c22gja.bl.files.1drv.com/y4mnUBXRZRVrZbMZyX5GjvNiFA-b1DkBDlXxpaJ8_bUjFZAyaMIDdtCZO-iG7rbchhTp7MHmtih05MWDGIDGNQqhUZzCKtLG5tMe4_sBpzOqTHtaQHERNKwRzBAEIW655-YBaHCwjWi_vYaNZa8F0IXRVAtye-NPQvSqQZRcBlhrM33Z6Q8Cp03BzLZ5ELZq0yK8_V-cMu0W-oz8XGMAUj6_g</t>
+  </si>
+  <si>
+    <t>https://pqx4pw.bl.files.1drv.com/y4mHCAIZBINAkxCOXgDq7kv5h0ibgonQrRMKhaqJfaCChN6eKA2qj_0fLrg6RtA2GdCsaC_VKlXr9jfKjZ8nLTm8ziKge7AGTjFAkpK00oguWuYUAflBzp6dfbmAFJbvRr5l_rxDVTFo7PTkaU4o2QEFulNg0UgB7D5wVQD6Ty8cSoHyic27HDFVuzRWsy95Qdc7uD1EEZsCI1GOyCKMfRnMQ</t>
+  </si>
+  <si>
+    <t>https://nj0ngg.bl.files.1drv.com/y4mJrLwNG_RYvQ0ua_r35d7NzQCjlppFTco6sc7C-RBR_JtVyUrqR7_5sh12Lwosv8Io2FDy9f_pauOGBLzAO57VmKGuGikPKQF5KE6rnN9ghG5Vgw7PSaEmjIt09FLQmhEH1Fx6OONripDvE0ZoMbSJr_utDdvNz2EUolQkwrdIN8AY_9MQfUq-2uaVEc6AHCA4bV3hV6fuWZGIDlJpb7UXg</t>
+  </si>
+  <si>
+    <t>https://afsp1a.bl.files.1drv.com/y4mn-IJZI3jP6_fAWmwU3BDC-2bVf1kYE3V4sJzxnk5XI2erTQ9tOvFDIMXgRZ8gCGRx0ktJDyt6W9FMZRaQRYZfJ-s3iCbqGIkGt4d3Us4rZrwFFdO8kNAyFlbPy0x47q68-pNd3BWs0pilOV-VFzXhMUsR5VUQMpPxsDgQtyor1lQ-UTkWJTD_qpGNdmEWQEUAJTnIXIaXyRk9LSSe0Ljnw</t>
+  </si>
+  <si>
+    <t>https://m8hldw.bl.files.1drv.com/y4mMEnF8k7nptGLvyoPmagBwnXxGpnIAdKQZziLupRelp2Npz0hefGTcaCpTguAJyVLOS7i_DYLyaF1A2pB1bRVvO80lrvyMdFgrcqSO29G4zz7NFKbs58C7zmfoxwMgElFLeDvP-zt8P_2tdeBmVtQt37a-yupT6Mt_wpI3v6ADou9_lRCvHK9ZrKgh69htw_qd_-JUNTwrmEG1gNq5jDW7g</t>
+  </si>
+  <si>
+    <t>https://liefsg.bl.files.1drv.com/y4mBz9z742JfXYOZ8SecerzSh5y3_37M6LJilb7LjMrpgglvGYJTKYNBE9l_4rs4kGb0R5q75m6NdW-terLoY8v1DRJ9CnleIlOIrzs-9czBbkmyuhyzFFjSJdl8iFGm2W7U-joHnaK-TVY_DqRt9HHlH70JdHtpaSyfgmvHsuLbUhrIbZ1MiDiK95hna65WmKDY8oRW3JFv12lp2GnrJ-Psw</t>
+  </si>
+  <si>
+    <t>https://dujhlw.bl.files.1drv.com/y4m3-C5tVnhLqMdZfTl3rDhHPXbNkxSXhjm58LF330E6XaDsi-y1v-Et6quwg8CPE9NW8cxTYB28qgn1lwuIFqZHroef68_Z2U9Xq9ZjwCd07qma2pnRILtV6dXrFWBLh4lZFexi34LyfeLZ5IdOlZJ5lpx45GWZ74luVsprEFcFY54r_q9bkOCGDCtcjLk02FQmhZ63VucXDLvSvEqy_USdg</t>
   </si>
 </sst>
 </file>
@@ -1861,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" topLeftCell="D127" zoomScale="75" workbookViewId="0">
+      <selection activeCell="O159" sqref="O159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9020,7 +9047,9 @@
       <c r="D157" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="F157" t="s">
         <v>425</v>
       </c>
@@ -9037,7 +9066,9 @@
       <c r="K157" s="4"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
-      <c r="O157" s="4"/>
+      <c r="O157" s="4">
+        <v>1</v>
+      </c>
       <c r="P157" s="4"/>
       <c r="Q157" s="4"/>
     </row>
@@ -9048,7 +9079,9 @@
       <c r="D158" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="E158" s="5"/>
+      <c r="E158" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="F158" t="s">
         <v>426</v>
       </c>
@@ -9076,7 +9109,9 @@
       <c r="D159" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>468</v>
+      </c>
       <c r="F159" t="s">
         <v>427</v>
       </c>
@@ -9104,7 +9139,9 @@
       <c r="D160" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="E160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>469</v>
+      </c>
       <c r="F160" t="s">
         <v>428</v>
       </c>
@@ -9132,7 +9169,9 @@
       <c r="D161" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="F161" t="s">
         <v>429</v>
       </c>
@@ -9160,7 +9199,9 @@
       <c r="D162" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="E162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>471</v>
+      </c>
       <c r="F162" t="s">
         <v>427</v>
       </c>
@@ -9190,7 +9231,9 @@
       <c r="D163" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>472</v>
+      </c>
       <c r="F163" t="s">
         <v>430</v>
       </c>
@@ -9218,7 +9261,9 @@
       <c r="D164" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E164" s="5"/>
+      <c r="E164" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="F164" t="s">
         <v>431</v>
       </c>
@@ -9246,7 +9291,9 @@
       <c r="D165" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E165" s="5"/>
+      <c r="E165" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="F165" t="s">
         <v>432</v>
       </c>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207FB4CF-6CE0-9E45-9D15-4979A0C24657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD03339-85D9-BE48-8327-8FD9D9D69583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="478">
   <si>
     <t>Author</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Visium_xenium_notebook</t>
   </si>
   <si>
-    <t>Visium</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -1319,9 +1316,6 @@
     <t>Visium_probe_breast_cancer</t>
   </si>
   <si>
-    <t>Visium_polyA_brain</t>
-  </si>
-  <si>
     <t>Visium_polyA_cerebellum</t>
   </si>
   <si>
@@ -1461,6 +1455,21 @@
   </si>
   <si>
     <t>https://dujhlw.bl.files.1drv.com/y4m3-C5tVnhLqMdZfTl3rDhHPXbNkxSXhjm58LF330E6XaDsi-y1v-Et6quwg8CPE9NW8cxTYB28qgn1lwuIFqZHroef68_Z2U9Xq9ZjwCd07qma2pnRILtV6dXrFWBLh4lZFexi34LyfeLZ5IdOlZJ5lpx45GWZ74luVsprEFcFY54r_q9bkOCGDCtcjLk02FQmhZ63VucXDLvSvEqy_USdg</t>
+  </si>
+  <si>
+    <t>Visium_polyA_brain1</t>
+  </si>
+  <si>
+    <t>Visium_polyA_brain2</t>
+  </si>
+  <si>
+    <t>Visium_HD_lung_cancer2_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_lung_cancer2_8um</t>
+  </si>
+  <si>
+    <t>Xenium_v1_lung_cancer2_human</t>
   </si>
 </sst>
 </file>
@@ -1888,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D127" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O159" sqref="O159"/>
+    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="63" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1897,7 +1906,7 @@
     <col min="3" max="3" width="54.33203125" customWidth="1"/>
     <col min="4" max="4" width="111.33203125" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
     <col min="10" max="10" width="22.5" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" customWidth="1"/>
     <col min="12" max="12" width="25.83203125" customWidth="1"/>
@@ -1922,7 +1931,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1937,25 +1946,25 @@
         <v>27</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1966,13 +1975,13 @@
         <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
         <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -2016,13 +2025,13 @@
         <v>2023</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -2066,13 +2075,13 @@
         <v>2023</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -2116,22 +2125,22 @@
         <v>2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" t="s">
         <v>128</v>
-      </c>
-      <c r="H5" t="s">
-        <v>129</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -2169,22 +2178,22 @@
         <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" t="s">
         <v>128</v>
-      </c>
-      <c r="H6" t="s">
-        <v>129</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -2222,22 +2231,22 @@
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" t="s">
         <v>128</v>
-      </c>
-      <c r="H7" t="s">
-        <v>129</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -2275,22 +2284,22 @@
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" t="s">
         <v>128</v>
-      </c>
-      <c r="H8" t="s">
-        <v>129</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -2328,22 +2337,22 @@
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" t="s">
         <v>128</v>
-      </c>
-      <c r="H9" t="s">
-        <v>129</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -2381,22 +2390,22 @@
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" t="s">
         <v>128</v>
-      </c>
-      <c r="H10" t="s">
-        <v>129</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -2434,22 +2443,22 @@
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" t="s">
         <v>128</v>
-      </c>
-      <c r="H11" t="s">
-        <v>129</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -2487,22 +2496,22 @@
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s">
         <v>128</v>
-      </c>
-      <c r="H12" t="s">
-        <v>129</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -2534,28 +2543,28 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13">
         <v>2024</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" t="s">
         <v>185</v>
-      </c>
-      <c r="F13" t="s">
-        <v>186</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -2587,28 +2596,28 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14">
         <v>2024</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>394</v>
       </c>
       <c r="H14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -2649,10 +2658,10 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2699,13 +2708,13 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -2747,19 +2756,19 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" t="s">
         <v>252</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>253</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>369</v>
+      </c>
+      <c r="H17" t="s">
         <v>254</v>
-      </c>
-      <c r="G17" t="s">
-        <v>370</v>
-      </c>
-      <c r="H17" t="s">
-        <v>255</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -2797,16 +2806,16 @@
         <v>2023</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
@@ -2847,19 +2856,19 @@
         <v>2024</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -2897,19 +2906,19 @@
         <v>2024</v>
       </c>
       <c r="D20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F20" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20" t="s">
+        <v>369</v>
+      </c>
+      <c r="H20" t="s">
         <v>280</v>
-      </c>
-      <c r="G20" t="s">
-        <v>370</v>
-      </c>
-      <c r="H20" t="s">
-        <v>281</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -2947,16 +2956,16 @@
         <v>2023</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E21" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" t="s">
         <v>236</v>
       </c>
-      <c r="F21" t="s">
-        <v>237</v>
-      </c>
       <c r="G21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
@@ -2997,13 +3006,13 @@
         <v>2024</v>
       </c>
       <c r="E22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" t="s">
         <v>234</v>
       </c>
-      <c r="F22" t="s">
-        <v>235</v>
-      </c>
       <c r="G22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H22" t="s">
         <v>10</v>
@@ -3044,16 +3053,16 @@
         <v>2024</v>
       </c>
       <c r="D23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E23" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" t="s">
         <v>228</v>
       </c>
-      <c r="F23" t="s">
-        <v>229</v>
-      </c>
       <c r="G23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
@@ -3094,19 +3103,19 @@
         <v>2024</v>
       </c>
       <c r="D24" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" t="s">
         <v>321</v>
       </c>
-      <c r="E24" t="s">
-        <v>322</v>
-      </c>
       <c r="F24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -3144,19 +3153,19 @@
         <v>2023</v>
       </c>
       <c r="D25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" t="s">
+        <v>346</v>
+      </c>
+      <c r="G25" t="s">
+        <v>369</v>
+      </c>
+      <c r="H25" t="s">
         <v>247</v>
-      </c>
-      <c r="E25" t="s">
-        <v>249</v>
-      </c>
-      <c r="F25" t="s">
-        <v>347</v>
-      </c>
-      <c r="G25" t="s">
-        <v>370</v>
-      </c>
-      <c r="H25" t="s">
-        <v>248</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -3194,19 +3203,19 @@
         <v>2023</v>
       </c>
       <c r="D26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E26" t="s">
+        <v>243</v>
+      </c>
+      <c r="F26" t="s">
         <v>244</v>
       </c>
-      <c r="F26" t="s">
-        <v>245</v>
-      </c>
       <c r="G26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -3244,19 +3253,19 @@
         <v>2023</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" t="s">
         <v>239</v>
       </c>
-      <c r="F27" t="s">
-        <v>240</v>
-      </c>
       <c r="G27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -3297,13 +3306,13 @@
         <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
@@ -3347,13 +3356,13 @@
         <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
@@ -3397,13 +3406,13 @@
         <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
@@ -3447,13 +3456,13 @@
         <v>24</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>393</v>
       </c>
       <c r="H31" t="s">
         <v>20</v>
@@ -3497,16 +3506,16 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
       </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
       <c r="G32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H32" t="s">
         <v>21</v>
@@ -3550,16 +3559,16 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
       </c>
-      <c r="F33" t="s">
-        <v>62</v>
-      </c>
       <c r="G33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H33" t="s">
         <v>21</v>
@@ -3603,16 +3612,16 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="s">
         <v>89</v>
       </c>
-      <c r="E34" t="s">
-        <v>90</v>
-      </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H34" t="s">
         <v>21</v>
@@ -3656,16 +3665,16 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H35" t="s">
         <v>21</v>
@@ -3709,16 +3718,16 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H36" t="s">
         <v>21</v>
@@ -3762,16 +3771,16 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H37" t="s">
         <v>21</v>
@@ -3815,16 +3824,16 @@
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H38" t="s">
         <v>21</v>
@@ -3868,16 +3877,16 @@
         <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H39" t="s">
         <v>21</v>
@@ -3921,16 +3930,16 @@
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H40" t="s">
         <v>21</v>
@@ -3974,16 +3983,16 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H41" t="s">
         <v>21</v>
@@ -4027,16 +4036,16 @@
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H42" t="s">
         <v>21</v>
@@ -4080,16 +4089,16 @@
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H43" t="s">
         <v>21</v>
@@ -4133,16 +4142,16 @@
         <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H44" t="s">
         <v>21</v>
@@ -4186,16 +4195,16 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H45" t="s">
         <v>21</v>
@@ -4239,16 +4248,16 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H46" t="s">
         <v>21</v>
@@ -4292,16 +4301,16 @@
         <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H47" t="s">
         <v>21</v>
@@ -4345,16 +4354,16 @@
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H48" t="s">
         <v>21</v>
@@ -4398,16 +4407,16 @@
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H49" t="s">
         <v>21</v>
@@ -4451,16 +4460,16 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H50" t="s">
         <v>21</v>
@@ -4504,16 +4513,16 @@
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H51" t="s">
         <v>21</v>
@@ -4557,16 +4566,16 @@
         <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H52" t="s">
         <v>21</v>
@@ -4610,16 +4619,16 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H53" t="s">
         <v>21</v>
@@ -4663,16 +4672,16 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H54" t="s">
         <v>21</v>
@@ -4716,16 +4725,16 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H55" t="s">
         <v>21</v>
@@ -4769,16 +4778,16 @@
         <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H56" t="s">
         <v>21</v>
@@ -4822,16 +4831,16 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H57" t="s">
         <v>21</v>
@@ -4875,16 +4884,16 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H58" t="s">
         <v>21</v>
@@ -4928,16 +4937,16 @@
         <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H59" t="s">
         <v>21</v>
@@ -4979,22 +4988,25 @@
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F60" t="s">
+        <v>431</v>
+      </c>
+      <c r="G60" t="s">
+        <v>370</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F60" t="s">
-        <v>433</v>
-      </c>
-      <c r="G60" t="s">
-        <v>371</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="I60" t="s">
         <v>12</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
       </c>
       <c r="N60" s="4"/>
       <c r="P60" s="4"/>
@@ -5008,22 +5020,25 @@
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F61" t="s">
+        <v>432</v>
+      </c>
+      <c r="G61" t="s">
+        <v>370</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F61" t="s">
-        <v>434</v>
-      </c>
-      <c r="G61" t="s">
-        <v>371</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
       </c>
       <c r="N61" s="4"/>
       <c r="P61" s="4"/>
@@ -5037,22 +5052,25 @@
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H62" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
       </c>
       <c r="N62" s="4"/>
       <c r="O62">
@@ -5069,22 +5087,25 @@
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
       </c>
       <c r="N63" s="4"/>
       <c r="P63" s="4"/>
@@ -5098,22 +5119,25 @@
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
       </c>
       <c r="N64" s="4"/>
       <c r="P64" s="4"/>
@@ -5127,22 +5151,25 @@
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I65" t="s">
         <v>12</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
       </c>
       <c r="N65" s="4"/>
       <c r="P65" s="4"/>
@@ -5156,22 +5183,25 @@
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
       </c>
       <c r="N66" s="4"/>
       <c r="P66" s="4"/>
@@ -5185,22 +5215,25 @@
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
       </c>
       <c r="N67" s="4"/>
       <c r="P67" s="4"/>
@@ -5214,22 +5247,25 @@
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F68" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
       </c>
       <c r="N68" s="4"/>
       <c r="P68" s="4"/>
@@ -5243,22 +5279,25 @@
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
       </c>
       <c r="N69" s="4"/>
       <c r="P69" s="4"/>
@@ -5272,22 +5311,25 @@
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F70" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
       </c>
       <c r="N70" s="4"/>
       <c r="P70" s="4"/>
@@ -5301,22 +5343,25 @@
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F71" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G71" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
       </c>
       <c r="N71" s="4"/>
       <c r="P71" s="4"/>
@@ -5330,22 +5375,25 @@
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F72" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
       </c>
       <c r="N72" s="4"/>
       <c r="P72" s="4"/>
@@ -5359,22 +5407,25 @@
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F73" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G73" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
       </c>
       <c r="N73" s="4"/>
       <c r="P73" s="4"/>
@@ -5388,22 +5439,25 @@
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F74" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G74" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
       </c>
       <c r="N74" s="4"/>
       <c r="P74" s="4"/>
@@ -5417,22 +5471,25 @@
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F75" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
       </c>
       <c r="N75" s="4"/>
       <c r="P75" s="4"/>
@@ -5446,22 +5503,25 @@
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F76" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="G76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
       </c>
       <c r="N76" s="4"/>
       <c r="P76" s="4"/>
@@ -5474,16 +5534,16 @@
         <v>2023</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" t="s">
         <v>59</v>
       </c>
-      <c r="F77" t="s">
-        <v>60</v>
-      </c>
       <c r="G77" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H77" t="s">
         <v>22</v>
@@ -5518,25 +5578,25 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B78">
         <v>2023</v>
       </c>
       <c r="C78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F78" t="s">
+        <v>179</v>
+      </c>
+      <c r="G78" t="s">
         <v>31</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F78" t="s">
-        <v>180</v>
-      </c>
-      <c r="G78" t="s">
-        <v>32</v>
       </c>
       <c r="H78" t="s">
         <v>10</v>
@@ -5571,25 +5631,25 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B79">
         <v>2023</v>
       </c>
       <c r="C79" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" t="s">
+        <v>189</v>
+      </c>
+      <c r="F79" t="s">
+        <v>180</v>
+      </c>
+      <c r="G79" t="s">
         <v>31</v>
-      </c>
-      <c r="E79" t="s">
-        <v>190</v>
-      </c>
-      <c r="F79" t="s">
-        <v>181</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
       </c>
       <c r="H79" t="s">
         <v>10</v>
@@ -5624,25 +5684,25 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B80">
         <v>2023</v>
       </c>
       <c r="C80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" t="s">
         <v>31</v>
-      </c>
-      <c r="E80" t="s">
-        <v>191</v>
-      </c>
-      <c r="F80" t="s">
-        <v>182</v>
-      </c>
-      <c r="G80" t="s">
-        <v>32</v>
       </c>
       <c r="H80" t="s">
         <v>10</v>
@@ -5677,25 +5737,25 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B81">
         <v>2023</v>
       </c>
       <c r="C81" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81" t="s">
+        <v>182</v>
+      </c>
+      <c r="G81" t="s">
         <v>31</v>
-      </c>
-      <c r="E81" t="s">
-        <v>192</v>
-      </c>
-      <c r="F81" t="s">
-        <v>183</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
       </c>
       <c r="H81" t="s">
         <v>10</v>
@@ -5730,25 +5790,25 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B82">
         <v>2023</v>
       </c>
       <c r="C82" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" t="s">
+        <v>192</v>
+      </c>
+      <c r="F82" t="s">
+        <v>183</v>
+      </c>
+      <c r="G82" t="s">
         <v>31</v>
-      </c>
-      <c r="E82" t="s">
-        <v>193</v>
-      </c>
-      <c r="F82" t="s">
-        <v>184</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
       </c>
       <c r="H82" t="s">
         <v>10</v>
@@ -5783,28 +5843,28 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B83">
         <v>2024</v>
       </c>
       <c r="C83" t="s">
+        <v>351</v>
+      </c>
+      <c r="D83" t="s">
         <v>352</v>
       </c>
-      <c r="D83" t="s">
-        <v>353</v>
-      </c>
       <c r="E83" t="s">
+        <v>259</v>
+      </c>
+      <c r="F83" t="s">
         <v>260</v>
       </c>
-      <c r="F83" t="s">
-        <v>261</v>
-      </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I83" t="s">
         <v>11</v>
@@ -5836,28 +5896,28 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B84">
         <v>2024</v>
       </c>
       <c r="C84" t="s">
+        <v>351</v>
+      </c>
+      <c r="D84" t="s">
         <v>352</v>
       </c>
-      <c r="D84" t="s">
-        <v>353</v>
-      </c>
       <c r="E84" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I84" t="s">
         <v>11</v>
@@ -5889,25 +5949,25 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B85">
         <v>2024</v>
       </c>
       <c r="C85" t="s">
+        <v>351</v>
+      </c>
+      <c r="D85" t="s">
         <v>352</v>
       </c>
-      <c r="D85" t="s">
-        <v>353</v>
-      </c>
       <c r="F85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I85" t="s">
         <v>11</v>
@@ -5939,28 +5999,28 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B86">
         <v>2024</v>
       </c>
       <c r="C86" t="s">
+        <v>351</v>
+      </c>
+      <c r="D86" t="s">
         <v>352</v>
       </c>
-      <c r="D86" t="s">
-        <v>353</v>
-      </c>
       <c r="E86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F86" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I86" t="s">
         <v>11</v>
@@ -5992,28 +6052,28 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B87">
         <v>2024</v>
       </c>
       <c r="C87" t="s">
+        <v>351</v>
+      </c>
+      <c r="D87" t="s">
         <v>352</v>
       </c>
-      <c r="D87" t="s">
-        <v>353</v>
-      </c>
       <c r="E87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I87" t="s">
         <v>11</v>
@@ -6045,28 +6105,28 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B88">
         <v>2024</v>
       </c>
       <c r="C88" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" t="s">
         <v>352</v>
       </c>
-      <c r="D88" t="s">
-        <v>353</v>
-      </c>
       <c r="E88" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I88" t="s">
         <v>11</v>
@@ -6098,28 +6158,28 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B89">
         <v>2024</v>
       </c>
       <c r="C89" t="s">
+        <v>351</v>
+      </c>
+      <c r="D89" t="s">
         <v>352</v>
       </c>
-      <c r="D89" t="s">
-        <v>353</v>
-      </c>
       <c r="E89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I89" t="s">
         <v>11</v>
@@ -6151,28 +6211,28 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B90">
         <v>2024</v>
       </c>
       <c r="C90" t="s">
+        <v>351</v>
+      </c>
+      <c r="D90" t="s">
         <v>352</v>
       </c>
-      <c r="D90" t="s">
-        <v>353</v>
-      </c>
       <c r="E90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I90" t="s">
         <v>11</v>
@@ -6204,25 +6264,25 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B91">
         <v>2023</v>
       </c>
       <c r="D91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" t="s">
         <v>33</v>
-      </c>
-      <c r="H91" t="s">
-        <v>34</v>
       </c>
       <c r="I91" t="s">
         <v>11</v>
@@ -6254,25 +6314,25 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B92">
         <v>2023</v>
       </c>
       <c r="D92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H92" t="s">
         <v>33</v>
-      </c>
-      <c r="H92" t="s">
-        <v>34</v>
       </c>
       <c r="I92" t="s">
         <v>11</v>
@@ -6304,25 +6364,25 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B93">
         <v>2023</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G93" t="s">
+        <v>32</v>
+      </c>
+      <c r="H93" t="s">
         <v>33</v>
-      </c>
-      <c r="H93" t="s">
-        <v>34</v>
       </c>
       <c r="I93" t="s">
         <v>11</v>
@@ -6360,19 +6420,19 @@
         <v>2024</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I94" t="s">
         <v>11</v>
@@ -6410,16 +6470,16 @@
         <v>2024</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J95" s="4">
         <v>0</v>
@@ -6454,19 +6514,19 @@
         <v>2024</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
@@ -6504,16 +6564,16 @@
         <v>2024</v>
       </c>
       <c r="E97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J97" s="4">
         <v>0</v>
@@ -6548,19 +6608,19 @@
         <v>2024</v>
       </c>
       <c r="D98" t="s">
+        <v>322</v>
+      </c>
+      <c r="E98" t="s">
+        <v>340</v>
+      </c>
+      <c r="F98" t="s">
         <v>323</v>
       </c>
-      <c r="E98" t="s">
-        <v>341</v>
-      </c>
-      <c r="F98" t="s">
-        <v>324</v>
-      </c>
       <c r="G98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I98" t="s">
         <v>11</v>
@@ -6598,16 +6658,16 @@
         <v>2024</v>
       </c>
       <c r="E99" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H99" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J99" s="4">
         <v>0</v>
@@ -6642,19 +6702,19 @@
         <v>2024</v>
       </c>
       <c r="D100" t="s">
+        <v>327</v>
+      </c>
+      <c r="E100" t="s">
+        <v>339</v>
+      </c>
+      <c r="F100" t="s">
         <v>328</v>
       </c>
-      <c r="E100" t="s">
-        <v>340</v>
-      </c>
-      <c r="F100" t="s">
-        <v>329</v>
-      </c>
       <c r="G100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H100" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I100" t="s">
         <v>11</v>
@@ -6692,16 +6752,16 @@
         <v>2024</v>
       </c>
       <c r="E101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F101" t="s">
+        <v>329</v>
+      </c>
+      <c r="G101" t="s">
+        <v>209</v>
+      </c>
+      <c r="H101" t="s">
         <v>330</v>
-      </c>
-      <c r="G101" t="s">
-        <v>210</v>
-      </c>
-      <c r="H101" t="s">
-        <v>331</v>
       </c>
       <c r="J101" s="4">
         <v>0</v>
@@ -6736,19 +6796,19 @@
         <v>2024</v>
       </c>
       <c r="D102" t="s">
+        <v>332</v>
+      </c>
+      <c r="E102" t="s">
+        <v>338</v>
+      </c>
+      <c r="F102" t="s">
         <v>333</v>
       </c>
-      <c r="E102" t="s">
-        <v>339</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
+        <v>209</v>
+      </c>
+      <c r="H102" t="s">
         <v>334</v>
-      </c>
-      <c r="G102" t="s">
-        <v>210</v>
-      </c>
-      <c r="H102" t="s">
-        <v>335</v>
       </c>
       <c r="J102" s="4">
         <v>0</v>
@@ -6783,16 +6843,16 @@
         <v>2024</v>
       </c>
       <c r="E103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F103" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G103" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H103" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J103" s="4">
         <v>0</v>
@@ -6827,19 +6887,19 @@
         <v>2024</v>
       </c>
       <c r="D104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I104" t="s">
         <v>11</v>
@@ -6877,16 +6937,16 @@
         <v>2024</v>
       </c>
       <c r="E105" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J105" s="4">
         <v>0</v>
@@ -6921,19 +6981,19 @@
         <v>2024</v>
       </c>
       <c r="D106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E106" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I106" t="s">
         <v>12</v>
@@ -6971,16 +7031,16 @@
         <v>2024</v>
       </c>
       <c r="E107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G107" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J107" s="4">
         <v>0</v>
@@ -7016,22 +7076,25 @@
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I108" t="s">
         <v>12</v>
       </c>
       <c r="J108" s="4"/>
+      <c r="K108">
+        <v>1</v>
+      </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="P108" s="4"/>
@@ -7047,18 +7110,21 @@
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G109" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I109" t="s">
         <v>12</v>
       </c>
       <c r="J109" s="4"/>
+      <c r="K109">
+        <v>1</v>
+      </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="P109" s="4"/>
@@ -7072,22 +7138,25 @@
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G110" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I110" t="s">
         <v>12</v>
       </c>
       <c r="J110" s="4"/>
+      <c r="K110">
+        <v>1</v>
+      </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="P110" s="4"/>
@@ -7103,18 +7172,21 @@
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G111" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I111" t="s">
         <v>12</v>
       </c>
       <c r="J111" s="4"/>
+      <c r="K111">
+        <v>1</v>
+      </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="P111" s="4"/>
@@ -7128,22 +7200,25 @@
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" t="s">
-        <v>172</v>
+        <v>475</v>
       </c>
       <c r="G112" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
       </c>
       <c r="J112" s="4"/>
+      <c r="K112">
+        <v>1</v>
+      </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="P112" s="4"/>
@@ -7159,18 +7234,21 @@
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" t="s">
-        <v>173</v>
+        <v>476</v>
       </c>
       <c r="G113" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
       </c>
       <c r="J113" s="4"/>
+      <c r="K113">
+        <v>1</v>
+      </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="P113" s="4"/>
@@ -7184,22 +7262,25 @@
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G114" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I114" t="s">
         <v>12</v>
       </c>
       <c r="J114" s="4"/>
+      <c r="K114">
+        <v>1</v>
+      </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="P114" s="4"/>
@@ -7215,18 +7296,21 @@
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G115" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I115" t="s">
         <v>12</v>
       </c>
       <c r="J115" s="4"/>
+      <c r="K115">
+        <v>1</v>
+      </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="P115" s="4"/>
@@ -7240,22 +7324,25 @@
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G116" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I116" t="s">
         <v>12</v>
       </c>
       <c r="J116" s="4"/>
+      <c r="K116">
+        <v>1</v>
+      </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="P116" s="4"/>
@@ -7271,18 +7358,21 @@
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G117" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I117" t="s">
         <v>12</v>
       </c>
       <c r="J117" s="4"/>
+      <c r="K117">
+        <v>1</v>
+      </c>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="P117" s="4"/>
@@ -7296,14 +7386,14 @@
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G118" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>10</v>
@@ -7312,6 +7402,9 @@
         <v>11</v>
       </c>
       <c r="J118" s="4"/>
+      <c r="K118">
+        <v>1</v>
+      </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="P118" s="4"/>
@@ -7327,10 +7420,10 @@
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G119" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>10</v>
@@ -7339,6 +7432,9 @@
         <v>11</v>
       </c>
       <c r="J119" s="4"/>
+      <c r="K119">
+        <v>1</v>
+      </c>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="P119" s="4"/>
@@ -7352,14 +7448,14 @@
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G120" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>10</v>
@@ -7368,6 +7464,9 @@
         <v>11</v>
       </c>
       <c r="J120" s="4"/>
+      <c r="K120">
+        <v>1</v>
+      </c>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="P120" s="4"/>
@@ -7383,10 +7482,10 @@
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G121" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>10</v>
@@ -7395,6 +7494,9 @@
         <v>11</v>
       </c>
       <c r="J121" s="4"/>
+      <c r="K121">
+        <v>1</v>
+      </c>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="P121" s="4"/>
@@ -7408,22 +7510,25 @@
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G122" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I122" t="s">
         <v>11</v>
       </c>
       <c r="J122" s="4"/>
+      <c r="K122">
+        <v>1</v>
+      </c>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="P122" s="4"/>
@@ -7439,18 +7544,21 @@
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G123" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I123" t="s">
         <v>11</v>
       </c>
       <c r="J123" s="4"/>
+      <c r="K123">
+        <v>1</v>
+      </c>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="P123" s="4"/>
@@ -7464,22 +7572,25 @@
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G124" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I124" t="s">
         <v>12</v>
       </c>
       <c r="J124" s="4"/>
+      <c r="K124">
+        <v>1</v>
+      </c>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="P124" s="4"/>
@@ -7495,40 +7606,43 @@
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G125" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I125" t="s">
         <v>12</v>
       </c>
       <c r="J125" s="4"/>
+      <c r="K125">
+        <v>1</v>
+      </c>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="P125" s="4"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B126">
         <v>2023</v>
       </c>
       <c r="D126" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E126" t="s">
+        <v>50</v>
+      </c>
+      <c r="F126" t="s">
         <v>51</v>
       </c>
-      <c r="F126" t="s">
-        <v>52</v>
-      </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H126" t="s">
         <v>10</v>
@@ -7560,22 +7674,22 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B127">
         <v>2023</v>
       </c>
       <c r="D127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E127" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H127" t="s">
         <v>19</v>
@@ -7607,25 +7721,25 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B128">
         <v>2023</v>
       </c>
       <c r="D128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E128" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H128" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J128" s="4">
         <v>0</v>
@@ -7654,25 +7768,25 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B129">
         <v>2023</v>
       </c>
       <c r="D129" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E129" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F129" t="s">
+        <v>318</v>
+      </c>
+      <c r="G129" t="s">
+        <v>41</v>
+      </c>
+      <c r="H129" t="s">
         <v>319</v>
-      </c>
-      <c r="G129" t="s">
-        <v>42</v>
-      </c>
-      <c r="H129" t="s">
-        <v>320</v>
       </c>
       <c r="I129" t="s">
         <v>12</v>
@@ -7704,25 +7818,25 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B130">
         <v>2023</v>
       </c>
       <c r="D130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E130" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J130" s="4">
         <v>0</v>
@@ -7751,25 +7865,25 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B131">
         <v>2023</v>
       </c>
       <c r="D131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E131" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H131" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J131" s="4">
         <v>0</v>
@@ -7798,25 +7912,25 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B132">
         <v>2023</v>
       </c>
       <c r="D132" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E132" t="s">
+        <v>202</v>
+      </c>
+      <c r="F132" t="s">
+        <v>197</v>
+      </c>
+      <c r="G132" t="s">
+        <v>41</v>
+      </c>
+      <c r="H132" t="s">
         <v>203</v>
-      </c>
-      <c r="F132" t="s">
-        <v>198</v>
-      </c>
-      <c r="G132" t="s">
-        <v>42</v>
-      </c>
-      <c r="H132" t="s">
-        <v>204</v>
       </c>
       <c r="J132" s="4">
         <v>0</v>
@@ -7845,28 +7959,28 @@
     </row>
     <row r="133" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B133">
         <v>2024</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D133" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E133" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G133" t="s">
+        <v>41</v>
+      </c>
+      <c r="H133" t="s">
         <v>42</v>
-      </c>
-      <c r="H133" t="s">
-        <v>43</v>
       </c>
       <c r="I133" t="s">
         <v>12</v>
@@ -7898,28 +8012,28 @@
     </row>
     <row r="134" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B134">
         <v>2024</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D134" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E134" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G134" t="s">
+        <v>41</v>
+      </c>
+      <c r="H134" t="s">
         <v>42</v>
-      </c>
-      <c r="H134" t="s">
-        <v>43</v>
       </c>
       <c r="I134" t="s">
         <v>12</v>
@@ -7951,28 +8065,28 @@
     </row>
     <row r="135" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B135">
         <v>2024</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E135" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G135" t="s">
+        <v>41</v>
+      </c>
+      <c r="H135" t="s">
         <v>42</v>
-      </c>
-      <c r="H135" t="s">
-        <v>43</v>
       </c>
       <c r="I135" t="s">
         <v>12</v>
@@ -8004,28 +8118,28 @@
     </row>
     <row r="136" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B136">
         <v>2024</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E136" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G136" t="s">
+        <v>41</v>
+      </c>
+      <c r="H136" t="s">
         <v>42</v>
-      </c>
-      <c r="H136" t="s">
-        <v>43</v>
       </c>
       <c r="I136" t="s">
         <v>12</v>
@@ -8057,22 +8171,22 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B137">
         <v>2023</v>
       </c>
       <c r="D137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E137" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F137" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H137" t="s">
         <v>10</v>
@@ -8107,22 +8221,22 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B138">
         <v>2023</v>
       </c>
       <c r="D138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E138" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F138" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H138" t="s">
         <v>10</v>
@@ -8157,22 +8271,22 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B139">
         <v>2023</v>
       </c>
       <c r="D139" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E139" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F139" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H139" t="s">
         <v>10</v>
@@ -8207,22 +8321,22 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B140">
         <v>2023</v>
       </c>
       <c r="D140" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E140" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H140" t="s">
         <v>10</v>
@@ -8257,21 +8371,21 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B141" s="5">
         <v>2024</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H141" t="s">
         <v>10</v>
@@ -8286,25 +8400,25 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B142">
         <v>2024</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" t="s">
         <v>144</v>
       </c>
-      <c r="D142" t="s">
-        <v>145</v>
-      </c>
       <c r="E142" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G142" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H142" t="s">
         <v>10</v>
@@ -8339,22 +8453,22 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B143">
         <v>2024</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F143" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G143" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H143" t="s">
         <v>10</v>
@@ -8389,22 +8503,22 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B144">
         <v>2024</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F144" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G144" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H144" t="s">
         <v>10</v>
@@ -8439,22 +8553,22 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B145">
         <v>2024</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F145" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G145" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H145" t="s">
         <v>10</v>
@@ -8489,25 +8603,25 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B146">
         <v>2024</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G146" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H146" t="s">
         <v>10</v>
@@ -8542,22 +8656,22 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B147">
         <v>2024</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G147" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H147" t="s">
         <v>10</v>
@@ -8592,22 +8706,22 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B148">
         <v>2024</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F148" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G148" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H148" t="s">
         <v>10</v>
@@ -8642,22 +8756,22 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B149">
         <v>2024</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F149" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G149" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H149" t="s">
         <v>10</v>
@@ -8698,19 +8812,19 @@
         <v>2024</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E150" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G150" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H150" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I150" t="s">
         <v>11</v>
@@ -8748,19 +8862,19 @@
         <v>2024</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E151" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F151" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G151" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I151" t="s">
         <v>11</v>
@@ -8798,19 +8912,19 @@
         <v>2024</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E152" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I152" t="s">
         <v>12</v>
@@ -8848,16 +8962,16 @@
         <v>2024</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E153" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F153" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G153" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H153" t="s">
         <v>20</v>
@@ -8898,16 +9012,16 @@
         <v>2024</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G154" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H154" t="s">
         <v>10</v>
@@ -8948,19 +9062,19 @@
         <v>2024</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G155" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I155" t="s">
         <v>12</v>
@@ -8998,19 +9112,19 @@
         <v>2024</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E156" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G156" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H156" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I156" t="s">
         <v>11</v>
@@ -9045,16 +9159,16 @@
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F157" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G157" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>10</v>
@@ -9064,6 +9178,9 @@
       </c>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
+      <c r="L157">
+        <v>1</v>
+      </c>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4">
@@ -9077,16 +9194,16 @@
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F158" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G158" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>20</v>
@@ -9096,6 +9213,9 @@
       </c>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
+      <c r="L158">
+        <v>1</v>
+      </c>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
@@ -9107,16 +9227,16 @@
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F159" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="G159" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>10</v>
@@ -9126,6 +9246,9 @@
       </c>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
+      <c r="L159">
+        <v>1</v>
+      </c>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
@@ -9137,25 +9260,28 @@
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F160" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G160" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I160" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
+      <c r="L160">
+        <v>1</v>
+      </c>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
@@ -9167,16 +9293,16 @@
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F161" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G161" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>20</v>
@@ -9186,6 +9312,9 @@
       </c>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
+      <c r="L161">
+        <v>1</v>
+      </c>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
@@ -9197,16 +9326,16 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F162" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="G162" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>10</v>
@@ -9216,6 +9345,9 @@
       </c>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
+      <c r="L162">
+        <v>1</v>
+      </c>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
       <c r="O162" s="4">
@@ -9229,16 +9361,16 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F163" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G163" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>10</v>
@@ -9248,6 +9380,9 @@
       </c>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
+      <c r="L163">
+        <v>1</v>
+      </c>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
@@ -9259,16 +9394,16 @@
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F164" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G164" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>10</v>
@@ -9278,6 +9413,9 @@
       </c>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
+      <c r="L164">
+        <v>1</v>
+      </c>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
@@ -9289,16 +9427,16 @@
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F165" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G165" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>10</v>
@@ -9308,6 +9446,9 @@
       </c>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
+      <c r="L165">
+        <v>1</v>
+      </c>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD03339-85D9-BE48-8327-8FD9D9D69583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C3A0C9-AB8D-3C46-B0BB-5A97D2E36637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="501">
   <si>
     <t>Author</t>
   </si>
@@ -1470,6 +1470,75 @@
   </si>
   <si>
     <t>Xenium_v1_lung_cancer2_human</t>
+  </si>
+  <si>
+    <t>Visium_HD_lung_cancer_human3_2um</t>
+  </si>
+  <si>
+    <t>Visium_HD_lung_cancer_human3_8um</t>
+  </si>
+  <si>
+    <t>https://jshldw.bl.files.1drv.com/y4ms6MqCzziW652_gRjGegkl8zUecHfAuyGV6v5JvUts1F809NPVh-nkQpvmifnMjp5PnqClhWhBqs7T2OuGW9tSi5qdOKQIjn17iNwE8CLj1a_wg3yb37RTBBbsbrAuFKTXvQPOCxJhtyhjpfG2NNlh86ryi4DKyYQ0pPzSLYNPaCbubrOgsBBbddHcTgqqKdmTkguHvzNufxkFmow2Fa3Pw</t>
+  </si>
+  <si>
+    <t>https://kt0ngg.bl.files.1drv.com/y4mz5t8W4MeN-UD7VoAZwwF843BEY5lP_zqa3TUFfz7YlN2UOEP9SsVD2cwbLZdL2yc7tTerLaRtOHNAwc4S87OR6NngIu84pvSKjIkU7VkWlZkfNVwx5x6vdr7RLsd4j3C5q18cWAO7bIuwO6wlb3s_QNyn-yNcX8PlWRZ_c41L23g0wF8xzNqFIECPhWnqSywyKJsT1sNGTskUAFMgDlKkg</t>
+  </si>
+  <si>
+    <t>https://wn8wmg.bl.files.1drv.com/y4mCGYfIaZ5lJLFvf7AkP5eZGerbGXT7RnCkre5ks5qcZUdfRZkm3wLXkjjOpaqiAlT5pIjGCqAX6lilcJGi-aWZIKR91FMNGK1mNxRSWcFq8CffiZHv6-njkwPgw8hF1v36cq5LInwTh82PtmcW00hmrKJMtlA5WMSqS3C_wD_SoKKNKB7k8_fr84iHbJz6UC9HMMko8-9vHBuAFIb9PdYWA</t>
+  </si>
+  <si>
+    <t>https://81op1a.bl.files.1drv.com/y4m-obTU4A9lnX79sd7-Zr9WlYcbd76wa12JqzSTgSbj49FmahDZKKpFUXAjZkU7UvIEpEupip1iENWQsMURt9r4ANEj3t9qULnOP_TRT2jOiycxFpEuqJ1dyWJ1frTaYMGAFqLYKDqdU08swoY6AsL4NNS2cM6WxnnByrwdMjq0FPgY_-hfJmW4AQ6bIFiv4XvaUZuMd5IKJjfSXL6jzXklQ</t>
+  </si>
+  <si>
+    <t>https://ivbh7a.bl.files.1drv.com/y4meRFX-F6jTxQ6n0n2_UIgiIGW9eqgCVPcodLArcSZ343fAdLtw5C0-pgphyzrcGGNOfIMHpj3LGqfRiJiH3Lq7QkrhOwMSi97l1rK1UnwtxXZooalj8oNBN55UTAL8hyDpKAPGPPj_m98KW72vNPRID6N1iGeNuwfmB6HNpuzdKfDnav1-uP8jDHqzO5XWYUPR1oIzevh-q5VCfLpNeDyAA</t>
+  </si>
+  <si>
+    <t>https://vwpvjw.bl.files.1drv.com/y4mJRTgOJPuW-m5wRmqEvPlwpXKkmLuU0KHOGgTYFtZN_ZvzCcVVrNGVjYtxpZaKDu5CMsxB1dmpUitKepE0gOIPWOcoxhl5qWvlrMz82lavtCQkrxfwcbr4dNE1GRzdq17uKq3iTCDLFlLSRE8E7_nRAz9G_oScteDZgEup4PovjdizIEyXV6H_znXjLaZ-EnnZPso6cZkyJuhSb6xKkBbyA</t>
+  </si>
+  <si>
+    <t>https://7ax5pw.bl.files.1drv.com/y4mJg0TYEL6d8Mn87Krtzuh9ogOncpj8d8HCKWJFFDJRP4Eg0wk8T5L2q7c6FUgIe3oY-dmc-5V1Eu65b4WZORhp72X6sWQhbi69VCyGn1dZmJvm894U_idUIDDYI9SRzg6w2kgsUVV4DwxAtJRPv4npVu5FnfTPbGI5TVDyxXQBlQCtcjOfYCvHAavtZTxXluSScoriRuosojho-v54dDlzQ</t>
+  </si>
+  <si>
+    <t>https://h4egsg.bl.files.1drv.com/y4mUto0V4A0OZFEX9GwrOyJXPDk4cHw9U94G-qJNOHXu2UPp_tw3aMw6zw2MZP7GywzeFQUug3s18ZEIzv8ytrVOVzReZKp8Upd1OGkzpGqLEn_fyzg3MBCSYt7pchfZkTECTMjWm2o6T56VOe3LMU9jQtTh7MgkFXPwSCCeYXP5h_a--wzTamlNMautaPj0ZSRdOngtVpUdE8swZfseRD2GQ</t>
+  </si>
+  <si>
+    <t>https://zm2hja.bl.files.1drv.com/y4m6jGCEz66BiGn116llU2b6oH6IECD6CvXBOkFz7MXF9SzMiAozL-sBpCspwy83ti0UJX3c5O1IqPks8rXeK2HwZJ3lxErF9BeN0fZD_jNV43p5TPW99gN00tLeY3q_t7JfwaImAabq__OuELRixEVze66aBCdouzv65iiSx6XphB_cJMH5v5OcN3Yqwn2MotqosSN4dz6Dr0vjUWVAM31_w</t>
+  </si>
+  <si>
+    <t>https://aejilw.bl.files.1drv.com/y4mvvlnaNeXukYu_mcdR0jtMA-O6tvrC_VbF9117PWEoVH8inX7YwaoGHguwU_KnpRP1z25q7DwoBNDW8zKo2hUfD7J_hnajsNGY8gqIbzp7POoSd-0VtKr0K_Ueri2SZpz27pqjFAXuHDaA5NjXg3vBHRsyVfXJgeAZh3tXutFbuVPObw08JNE6SW0d1Lck-AfdppqraefUxB8PtRIuFX_kw</t>
+  </si>
+  <si>
+    <t>https://jchcdw.bl.files.1drv.com/y4mwM-46GB7Nwx03K4-mNbsIa6IByHTABfGtrEviIyQqaWPYj9WLPwWhwYozo6J2yqDznWTi8UmoNqQWUnNiuJVVsrlrbL9EozsKzNzPjOY64D-esAdKp-42WqTo_OLcSP5nZlLOW8CcKtOOFzUQQaWaVnStARarmUHw1jlLLMUGyVqiWH3Xu_VHUO3nQ6MPbh30ZyDSTreTRWLW4fyL4juWA</t>
+  </si>
+  <si>
+    <t>https://kd0egg.bl.files.1drv.com/y4mYWK0E8ZacI5DtfnG_3myU3KRS14v8qiRlk_tMDeNSdmOb5jEsBkCmBIl0YTofZtzZm66wTBfioU32KG87iQwuoGO2LyiYZhjkZLX5Ytm6G3ByQ3Dga6EAPPGIu3K0q-JGmEvm80C0DWUmdi9bJDudexY0PT8e72-0dnL7kS6PeAZw2ZDtEpPXMHrZ5I4cMT-j5rz9-z2Rvk_IFdklUGm7g</t>
+  </si>
+  <si>
+    <t>https://ifap7a.bl.files.1drv.com/y4mPMOeI5_XlU7ZpirwHzmQ5YNHfLX4EMqIK59wi8yfdEVf7dcKinMnCdpnAzeq6CSTO-ECJJDKsDY5sqLPuzJBVxTBWWC9eJdWh25m8LQS8eLlR9ptkpzMFPZ_TL9C9HoPcrfE5dDhj9x6OyrczizPIiiGSZjmvhgRFID_c22KUo6j4yWDoAzCgufQd0e8ftOc2a7uBAE7fh4wYe7sFfQ0wA</t>
+  </si>
+  <si>
+    <t>https://8lo11a.bl.files.1drv.com/y4mKkHuevQWyZ_lc2GDyKHAdPTO-kjxsj_uuOpc8PD5oDFhBsPerggEzClq46J5_Dm3h3MoAZM76VY8sdaxwnwxdGWv_qAwOmyIw8XpketYucp5M2TBtSlBvOYLu5NkU6Z7WkYRt7pppd_vnY-WJIuCXDBLetkyTZ51NMnTLmbFU1T-IFFWhn2j5hJ2RkqimPu8v9pSykaYbVJ26H0AozL8Uw</t>
+  </si>
+  <si>
+    <t>https://v98nmg.bl.files.1drv.com/y4m2da2t0Ei3WvZaXfcgzKA9lJLTvTE3zjIKDXX_yV4HG52McfqJA2czgdNV1r7XZNzpig-HCoHVjxfPg0LUyjWKodJKwF3FA5WXN7v678pzekgVqNan-ADvQFF8ayAH2OXKnwQuY91XV57lirTp-avydgfoeDSHjdMXMDRZkmy940NCLnJQA86KzV7Q8m0Tpr7ea0gEF_DMfITp6OYwhskfg</t>
+  </si>
+  <si>
+    <t>https://6wxwpw.bl.files.1drv.com/y4m8EngY_ETt3BFBDbjbRS_3M9o56Dpb-D81deYFMolQHCtkutHMxITGSOZNNdEcIDQpUWdXZlSveTcQVoHS1dzBl5feins_KPeI-nOjxW9RICWdbHm5zmti30RJ4a2Mj6_6S5S1KBtRxVuKkvk0PjXMN4d5h4SoNXiDfNQwRf_ATgb6dhnhuSI6IOzkXxBt5wfIh0eSxmVXjlBkA3FzZUn8Q</t>
+  </si>
+  <si>
+    <t>https://vgpmjw.bl.files.1drv.com/y4m2OMoEElIzONqZccUAKD57PDI3W9fF532_G7gOK0DXoj-vTCXpV0279_iGphabaE4pq7gHkvHUNIcyjOz75Q4uQIyVshF18q5_Zxo0iMF_4HpZR8yfjYbOqkrYYTWaJcL_6dR7QpJO4mb_BvX7g4JZ3fD9_BsBfWNnaqOyXDWRsl-vkCtvPB2d8a4ca6dfKX3aD-Ld-6B7P7peumLT68jwQ</t>
+  </si>
+  <si>
+    <t>https://hoexsg.bl.files.1drv.com/y4m21L4G71p8bEi4lBK-H9dFvCeKOvi8N_X8MYj1CLMhN_DCuS3v6OCGsDUxe1lcl4eQBxCf1G67J2oLHxx4n2FfY1hqWyv63_uzQGLEYRBL4UTtdIoiGF6TVHb3fhSi437jKF6VDo1wveHVYX4poZZSu3K0GgxrTpjA1r07pPcNUcs2-pBjWOp17GrYGHbF8IDxPt5TFZQ4nwZ2JTg1_0lKg</t>
+  </si>
+  <si>
+    <t>https://zw2yja.bl.files.1drv.com/y4m1mvzcl219IK1A5RtwTfy-uARuI8jViAoYGfCkV7B57OSQq4VimfMB3kuQyBvt3vwWNdIftkTNWxZg4EvQt920COzw4B-oF5PMp6K0a30awnIYc09TwGj0xGMw9BYg8v9E0uWE76u_QODoc8KOjV2hjnB7JdIqTueNz7pd7AowygBS_kUvRUmOxPD4VXMl7EQulWqqKtV2R0Ryn7YWtqUog</t>
+  </si>
+  <si>
+    <t>https://aoiqlw.bl.files.1drv.com/y4mNno8jvpBDZNFeVACdWmQNcftqa6OQWJzBGKwnTkC1zxqyvsHpHrlXcemspLoW0be-zXf8UXUwwi3Fbye5RDkMvrhUnfTMe5xGZNk2Mt1-Ul_SFDw6EPe9wiGQPvN2LX0gw9aSrVYHnLJS-QWd8UZm3TJw9TNnCkxedzGA9eiytugxU0UCxDCat_oSCtnizxt3bOy-hdCBvy7HCo397ps7g</t>
+  </si>
+  <si>
+    <t>https://jchddw.bl.files.1drv.com/y4mwrSptDF4BrTN5ZtNI-wDnMoBIEHdAYvdth5qtX9faEceGQPC0oZvGE0zEzhHla25-wc6CJfRA4wt3DgkR-wX-BQ40OkeWfdkGSkK2GMfgDNr5lcJPgbajTnmGMLC2yv0gateulIEdOrGfR3L8P3ksM7UYDzyTk3CEs27F8WDNpFiNsHaNMwLFJW3GM1uLPrr6mVxwa_SL7A9XJIBKRg5jQ</t>
   </si>
 </sst>
 </file>
@@ -1895,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:Q181"/>
+  <dimension ref="A1:Q183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="63" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5008,6 +5077,9 @@
       <c r="K60">
         <v>1</v>
       </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
       <c r="N60" s="4"/>
       <c r="P60" s="4"/>
     </row>
@@ -5040,6 +5112,9 @@
       <c r="K61">
         <v>1</v>
       </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
       <c r="N61" s="4"/>
       <c r="P61" s="4"/>
     </row>
@@ -5072,6 +5147,9 @@
       <c r="K62">
         <v>1</v>
       </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
       <c r="N62" s="4"/>
       <c r="O62">
         <v>1</v>
@@ -5107,6 +5185,9 @@
       <c r="K63">
         <v>1</v>
       </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
       <c r="N63" s="4"/>
       <c r="P63" s="4"/>
     </row>
@@ -5139,6 +5220,9 @@
       <c r="K64">
         <v>1</v>
       </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
       <c r="N64" s="4"/>
       <c r="P64" s="4"/>
     </row>
@@ -5171,6 +5255,9 @@
       <c r="K65">
         <v>1</v>
       </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
       <c r="N65" s="4"/>
       <c r="P65" s="4"/>
     </row>
@@ -5203,6 +5290,9 @@
       <c r="K66">
         <v>1</v>
       </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
       <c r="N66" s="4"/>
       <c r="P66" s="4"/>
     </row>
@@ -5235,6 +5325,9 @@
       <c r="K67">
         <v>1</v>
       </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
       <c r="N67" s="4"/>
       <c r="P67" s="4"/>
     </row>
@@ -5267,6 +5360,9 @@
       <c r="K68">
         <v>1</v>
       </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
       <c r="N68" s="4"/>
       <c r="P68" s="4"/>
     </row>
@@ -5299,6 +5395,9 @@
       <c r="K69">
         <v>1</v>
       </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
       <c r="N69" s="4"/>
       <c r="P69" s="4"/>
     </row>
@@ -5331,6 +5430,9 @@
       <c r="K70">
         <v>1</v>
       </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
       <c r="N70" s="4"/>
       <c r="P70" s="4"/>
     </row>
@@ -5363,6 +5465,9 @@
       <c r="K71">
         <v>1</v>
       </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
       <c r="N71" s="4"/>
       <c r="P71" s="4"/>
     </row>
@@ -5395,6 +5500,9 @@
       <c r="K72">
         <v>1</v>
       </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
       <c r="N72" s="4"/>
       <c r="P72" s="4"/>
     </row>
@@ -5427,6 +5535,9 @@
       <c r="K73">
         <v>1</v>
       </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
       <c r="N73" s="4"/>
       <c r="P73" s="4"/>
     </row>
@@ -5459,6 +5570,9 @@
       <c r="K74">
         <v>1</v>
       </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
       <c r="N74" s="4"/>
       <c r="P74" s="4"/>
     </row>
@@ -5491,6 +5605,9 @@
       <c r="K75">
         <v>1</v>
       </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
       <c r="N75" s="4"/>
       <c r="P75" s="4"/>
     </row>
@@ -5523,6 +5640,9 @@
       <c r="K76">
         <v>1</v>
       </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
       <c r="N76" s="4"/>
       <c r="P76" s="4"/>
     </row>
@@ -7078,7 +7198,9 @@
       <c r="D108" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>481</v>
+      </c>
       <c r="F108" t="s">
         <v>447</v>
       </c>
@@ -7093,6 +7215,9 @@
       </c>
       <c r="J108" s="4"/>
       <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
         <v>1</v>
       </c>
       <c r="M108" s="4"/>
@@ -7108,7 +7233,9 @@
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>482</v>
+      </c>
       <c r="F109" t="s">
         <v>448</v>
       </c>
@@ -7123,6 +7250,9 @@
       </c>
       <c r="J109" s="4"/>
       <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
         <v>1</v>
       </c>
       <c r="M109" s="4"/>
@@ -7140,7 +7270,9 @@
       <c r="D110" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>483</v>
+      </c>
       <c r="F110" t="s">
         <v>449</v>
       </c>
@@ -7155,6 +7287,9 @@
       </c>
       <c r="J110" s="4"/>
       <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
         <v>1</v>
       </c>
       <c r="M110" s="4"/>
@@ -7170,7 +7305,9 @@
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
+      <c r="E111" s="5" t="s">
+        <v>484</v>
+      </c>
       <c r="F111" t="s">
         <v>450</v>
       </c>
@@ -7185,6 +7322,9 @@
       </c>
       <c r="J111" s="4"/>
       <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
         <v>1</v>
       </c>
       <c r="M111" s="4"/>
@@ -7202,7 +7342,9 @@
       <c r="D112" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="E112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>485</v>
+      </c>
       <c r="F112" t="s">
         <v>475</v>
       </c>
@@ -7217,6 +7359,9 @@
       </c>
       <c r="J112" s="4"/>
       <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
         <v>1</v>
       </c>
       <c r="M112" s="4"/>
@@ -7232,7 +7377,9 @@
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>486</v>
+      </c>
       <c r="F113" t="s">
         <v>476</v>
       </c>
@@ -7247,6 +7394,9 @@
       </c>
       <c r="J113" s="4"/>
       <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
         <v>1</v>
       </c>
       <c r="M113" s="4"/>
@@ -7264,7 +7414,9 @@
       <c r="D114" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="F114" t="s">
         <v>451</v>
       </c>
@@ -7279,6 +7431,9 @@
       </c>
       <c r="J114" s="4"/>
       <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
         <v>1</v>
       </c>
       <c r="M114" s="4"/>
@@ -7294,7 +7449,9 @@
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
+      <c r="E115" s="5" t="s">
+        <v>492</v>
+      </c>
       <c r="F115" t="s">
         <v>452</v>
       </c>
@@ -7309,6 +7466,9 @@
       </c>
       <c r="J115" s="4"/>
       <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
         <v>1</v>
       </c>
       <c r="M115" s="4"/>
@@ -7326,7 +7486,9 @@
       <c r="D116" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>493</v>
+      </c>
       <c r="F116" t="s">
         <v>454</v>
       </c>
@@ -7341,6 +7503,9 @@
       </c>
       <c r="J116" s="4"/>
       <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
         <v>1</v>
       </c>
       <c r="M116" s="4"/>
@@ -7356,7 +7521,9 @@
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>494</v>
+      </c>
       <c r="F117" t="s">
         <v>453</v>
       </c>
@@ -7371,6 +7538,9 @@
       </c>
       <c r="J117" s="4"/>
       <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
         <v>1</v>
       </c>
       <c r="M117" s="4"/>
@@ -7388,7 +7558,9 @@
       <c r="D118" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>495</v>
+      </c>
       <c r="F118" t="s">
         <v>455</v>
       </c>
@@ -7405,8 +7577,14 @@
       <c r="K118">
         <v>1</v>
       </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
+      <c r="O118">
+        <v>1</v>
+      </c>
       <c r="P118" s="4"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -7418,7 +7596,9 @@
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
+      <c r="E119" s="5" t="s">
+        <v>496</v>
+      </c>
       <c r="F119" t="s">
         <v>456</v>
       </c>
@@ -7433,6 +7613,9 @@
       </c>
       <c r="J119" s="4"/>
       <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
         <v>1</v>
       </c>
       <c r="M119" s="4"/>
@@ -7450,7 +7633,9 @@
       <c r="D120" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>497</v>
+      </c>
       <c r="F120" t="s">
         <v>457</v>
       </c>
@@ -7465,6 +7650,9 @@
       </c>
       <c r="J120" s="4"/>
       <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
         <v>1</v>
       </c>
       <c r="M120" s="4"/>
@@ -7480,7 +7668,9 @@
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>498</v>
+      </c>
       <c r="F121" t="s">
         <v>458</v>
       </c>
@@ -7495,6 +7685,9 @@
       </c>
       <c r="J121" s="4"/>
       <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
         <v>1</v>
       </c>
       <c r="M121" s="4"/>
@@ -7512,7 +7705,9 @@
       <c r="D122" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>499</v>
+      </c>
       <c r="F122" t="s">
         <v>459</v>
       </c>
@@ -7527,6 +7722,9 @@
       </c>
       <c r="J122" s="4"/>
       <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
         <v>1</v>
       </c>
       <c r="M122" s="4"/>
@@ -7542,7 +7740,9 @@
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>500</v>
+      </c>
       <c r="F123" t="s">
         <v>460</v>
       </c>
@@ -7557,6 +7757,9 @@
       </c>
       <c r="J123" s="4"/>
       <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
         <v>1</v>
       </c>
       <c r="M123" s="4"/>
@@ -7574,7 +7777,9 @@
       <c r="D124" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="F124" t="s">
         <v>461</v>
       </c>
@@ -7589,6 +7794,9 @@
       </c>
       <c r="J124" s="4"/>
       <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
         <v>1</v>
       </c>
       <c r="M124" s="4"/>
@@ -7604,7 +7812,9 @@
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>488</v>
+      </c>
       <c r="F125" t="s">
         <v>462</v>
       </c>
@@ -7619,6 +7829,9 @@
       </c>
       <c r="J125" s="4"/>
       <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
         <v>1</v>
       </c>
       <c r="M125" s="4"/>
@@ -7627,97 +7840,75 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B126">
-        <v>2023</v>
-      </c>
-      <c r="D126" t="s">
-        <v>206</v>
-      </c>
-      <c r="E126" t="s">
-        <v>50</v>
+        <v>2024</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="F126" t="s">
-        <v>51</v>
+        <v>478</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
-      </c>
-      <c r="H126" t="s">
-        <v>10</v>
-      </c>
-      <c r="J126" s="4">
-        <v>0</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="I126" t="s">
+        <v>12</v>
+      </c>
+      <c r="J126" s="4"/>
       <c r="K126">
         <v>1</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
-      <c r="M126" s="4">
-        <v>0</v>
-      </c>
-      <c r="N126" s="4">
-        <v>0</v>
-      </c>
-      <c r="O126">
-        <v>0</v>
-      </c>
-      <c r="P126" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q126">
-        <v>0</v>
-      </c>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="P126" s="4"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B127">
-        <v>2023</v>
-      </c>
-      <c r="D127" t="s">
-        <v>206</v>
-      </c>
-      <c r="E127" t="s">
-        <v>198</v>
+        <v>2024</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="F127" t="s">
-        <v>193</v>
+        <v>479</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
-      </c>
-      <c r="H127" t="s">
-        <v>19</v>
-      </c>
-      <c r="J127" s="4">
-        <v>0</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="I127" t="s">
+        <v>12</v>
+      </c>
+      <c r="J127" s="4"/>
       <c r="K127">
         <v>1</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
-      <c r="M127" s="4">
-        <v>0</v>
-      </c>
-      <c r="N127" s="4">
-        <v>0</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="P127" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="P127" s="4"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -7730,16 +7921,16 @@
         <v>206</v>
       </c>
       <c r="E128" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="F128" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="G128" t="s">
         <v>41</v>
       </c>
       <c r="H128" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="J128" s="4">
         <v>0</v>
@@ -7777,19 +7968,16 @@
         <v>206</v>
       </c>
       <c r="E129" t="s">
-        <v>337</v>
+        <v>198</v>
       </c>
       <c r="F129" t="s">
-        <v>318</v>
+        <v>193</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
       </c>
       <c r="H129" t="s">
-        <v>319</v>
-      </c>
-      <c r="I129" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J129" s="4">
         <v>0</v>
@@ -7827,16 +8015,16 @@
         <v>206</v>
       </c>
       <c r="E130" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F130" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G130" t="s">
         <v>41</v>
       </c>
       <c r="H130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J130" s="4">
         <v>0</v>
@@ -7871,19 +8059,22 @@
         <v>2023</v>
       </c>
       <c r="D131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E131" t="s">
-        <v>201</v>
+        <v>337</v>
       </c>
       <c r="F131" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="G131" t="s">
         <v>41</v>
       </c>
       <c r="H131" t="s">
-        <v>203</v>
+        <v>319</v>
+      </c>
+      <c r="I131" t="s">
+        <v>12</v>
       </c>
       <c r="J131" s="4">
         <v>0</v>
@@ -7918,19 +8109,19 @@
         <v>2023</v>
       </c>
       <c r="D132" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E132" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F132" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G132" t="s">
         <v>41</v>
       </c>
       <c r="H132" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J132" s="4">
         <v>0</v>
@@ -7957,39 +8148,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="B133">
-        <v>2024</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>354</v>
+        <v>2023</v>
       </c>
       <c r="D133" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="E133" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="F133" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="G133" t="s">
         <v>41</v>
       </c>
       <c r="H133" t="s">
-        <v>42</v>
-      </c>
-      <c r="I133" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="J133" s="4">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133">
         <v>1</v>
@@ -8010,39 +8195,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="B134">
-        <v>2024</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>354</v>
+        <v>2023</v>
       </c>
       <c r="D134" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="E134" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="G134" t="s">
         <v>41</v>
       </c>
       <c r="H134" t="s">
-        <v>42</v>
-      </c>
-      <c r="I134" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="J134" s="4">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -8077,10 +8256,10 @@
         <v>274</v>
       </c>
       <c r="E135" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F135" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G135" t="s">
         <v>41</v>
@@ -8130,10 +8309,10 @@
         <v>274</v>
       </c>
       <c r="E136" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
@@ -8169,36 +8348,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B137">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="D137" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="E137" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="F137" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="G137" t="s">
         <v>41</v>
       </c>
       <c r="H137" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J137" s="4">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137">
         <v>1</v>
@@ -8219,39 +8401,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B138">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="D138" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="E138" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="F138" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="G138" t="s">
         <v>41</v>
       </c>
       <c r="H138" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J138" s="4">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138" s="4">
         <v>0</v>
@@ -8280,10 +8465,10 @@
         <v>214</v>
       </c>
       <c r="E139" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F139" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G139" t="s">
         <v>41</v>
@@ -8330,10 +8515,10 @@
         <v>214</v>
       </c>
       <c r="E140" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F140" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G140" t="s">
         <v>41</v>
@@ -8370,19 +8555,20 @@
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B141" s="5">
-        <v>2024</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5" t="s">
-        <v>463</v>
+      <c r="A141" t="s">
+        <v>356</v>
+      </c>
+      <c r="B141">
+        <v>2023</v>
+      </c>
+      <c r="D141" t="s">
+        <v>214</v>
+      </c>
+      <c r="E141" t="s">
+        <v>231</v>
+      </c>
+      <c r="F141" t="s">
+        <v>212</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -8391,34 +8577,51 @@
         <v>10</v>
       </c>
       <c r="I141" t="s">
-        <v>12</v>
-      </c>
-      <c r="J141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="P141" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="J141" s="4">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141" s="4">
+        <v>0</v>
+      </c>
+      <c r="N141" s="4">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>160</v>
+        <v>356</v>
       </c>
       <c r="B142">
-        <v>2024</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>143</v>
+        <v>2023</v>
       </c>
       <c r="D142" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="F142" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G142" t="s">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="H142" t="s">
         <v>10</v>
@@ -8429,11 +8632,11 @@
       <c r="J142" s="4">
         <v>0</v>
       </c>
-      <c r="K142" s="4">
-        <v>0</v>
+      <c r="K142">
+        <v>1</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142" s="4">
         <v>0</v>
@@ -8442,64 +8645,51 @@
         <v>0</v>
       </c>
       <c r="O142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P142" s="4">
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>160</v>
-      </c>
-      <c r="B143">
+      <c r="A143" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B143" s="5">
         <v>2024</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D143" t="s">
-        <v>145</v>
-      </c>
-      <c r="F143" t="s">
-        <v>153</v>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="G143" t="s">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="H143" t="s">
         <v>10</v>
       </c>
       <c r="I143" t="s">
-        <v>11</v>
-      </c>
-      <c r="J143" s="4">
-        <v>0</v>
-      </c>
-      <c r="K143" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="J143" s="4"/>
+      <c r="K143">
+        <v>1</v>
       </c>
       <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="M143" s="4">
-        <v>0</v>
-      </c>
-      <c r="N143" s="4">
-        <v>0</v>
-      </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-      <c r="P143" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="P143" s="4"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
@@ -8512,10 +8702,13 @@
         <v>143</v>
       </c>
       <c r="D144" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="E144" t="s">
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G144" t="s">
         <v>394</v>
@@ -8533,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144" s="4">
         <v>0</v>
@@ -8542,13 +8735,13 @@
         <v>0</v>
       </c>
       <c r="O144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P144" s="4">
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
@@ -8562,10 +8755,10 @@
         <v>143</v>
       </c>
       <c r="D145" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F145" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G145" t="s">
         <v>394</v>
@@ -8612,13 +8805,10 @@
         <v>143</v>
       </c>
       <c r="D146" t="s">
-        <v>148</v>
-      </c>
-      <c r="E146" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="F146" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G146" t="s">
         <v>394</v>
@@ -8636,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M146" s="4">
         <v>0</v>
@@ -8645,13 +8835,13 @@
         <v>0</v>
       </c>
       <c r="O146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P146" s="4">
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -8665,10 +8855,10 @@
         <v>143</v>
       </c>
       <c r="D147" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F147" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G147" t="s">
         <v>394</v>
@@ -8700,7 +8890,7 @@
       <c r="P147" s="4">
         <v>0</v>
       </c>
-      <c r="Q147" s="4">
+      <c r="Q147">
         <v>0</v>
       </c>
     </row>
@@ -8715,10 +8905,13 @@
         <v>143</v>
       </c>
       <c r="D148" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="E148" t="s">
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G148" t="s">
         <v>394</v>
@@ -8736,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" s="4">
         <v>0</v>
@@ -8745,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="O148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P148" s="4">
         <v>0</v>
       </c>
-      <c r="Q148" s="4">
-        <v>0</v>
+      <c r="Q148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -8765,10 +8958,10 @@
         <v>143</v>
       </c>
       <c r="D149" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F149" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G149" t="s">
         <v>394</v>
@@ -8794,7 +8987,7 @@
       <c r="N149" s="4">
         <v>0</v>
       </c>
-      <c r="O149" s="4">
+      <c r="O149">
         <v>0</v>
       </c>
       <c r="P149" s="4">
@@ -8806,25 +8999,25 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="B150">
         <v>2024</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E150" t="s">
-        <v>310</v>
+      <c r="C150" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D150" t="s">
+        <v>150</v>
       </c>
       <c r="F150" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="G150" t="s">
         <v>394</v>
       </c>
       <c r="H150" t="s">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="I150" t="s">
         <v>11</v>
@@ -8836,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="L150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M150" s="4">
         <v>0</v>
@@ -8844,7 +9037,7 @@
       <c r="N150" s="4">
         <v>0</v>
       </c>
-      <c r="O150" s="4">
+      <c r="O150">
         <v>0</v>
       </c>
       <c r="P150" s="4">
@@ -8856,25 +9049,25 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="B151">
         <v>2024</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E151" t="s">
-        <v>308</v>
+      <c r="C151" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D151" t="s">
+        <v>151</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="G151" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H151" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I151" t="s">
         <v>11</v>
@@ -8886,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="L151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M151" s="4">
         <v>0</v>
@@ -8912,22 +9105,22 @@
         <v>2024</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E152" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G152" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H152" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="I152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J152" s="4">
         <v>0</v>
@@ -8962,22 +9155,22 @@
         <v>2024</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E153" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G153" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H153" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J153" s="4">
         <v>0</v>
@@ -9012,22 +9205,22 @@
         <v>2024</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E154" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F154" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G154" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H154" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="I154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J154" s="4">
         <v>0</v>
@@ -9062,19 +9255,19 @@
         <v>2024</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E155" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H155" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I155" t="s">
         <v>12</v>
@@ -9112,19 +9305,19 @@
         <v>2024</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G156" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H156" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="I156" t="s">
         <v>11</v>
@@ -9155,88 +9348,122 @@
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>465</v>
+      <c r="A157" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157">
+        <v>2024</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E157" t="s">
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>424</v>
+        <v>300</v>
       </c>
       <c r="G157" t="s">
         <v>393</v>
       </c>
-      <c r="H157" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I157" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
+      <c r="H157" t="s">
+        <v>33</v>
+      </c>
+      <c r="I157" t="s">
+        <v>12</v>
+      </c>
+      <c r="J157" s="4">
+        <v>0</v>
+      </c>
+      <c r="K157" s="4">
+        <v>0</v>
+      </c>
       <c r="L157">
         <v>1</v>
       </c>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
+      <c r="M157" s="4">
+        <v>0</v>
+      </c>
+      <c r="N157" s="4">
+        <v>0</v>
+      </c>
       <c r="O157" s="4">
-        <v>1</v>
-      </c>
-      <c r="P157" s="4"/>
-      <c r="Q157" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="P157" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>464</v>
+      <c r="A158" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158">
+        <v>2024</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E158" t="s">
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>425</v>
+        <v>301</v>
       </c>
       <c r="G158" t="s">
         <v>393</v>
       </c>
-      <c r="H158" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I158" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
+      <c r="H158" t="s">
+        <v>287</v>
+      </c>
+      <c r="I158" t="s">
+        <v>11</v>
+      </c>
+      <c r="J158" s="4">
+        <v>0</v>
+      </c>
+      <c r="K158" s="4">
+        <v>0</v>
+      </c>
       <c r="L158">
         <v>1</v>
       </c>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="4"/>
-      <c r="P158" s="4"/>
-      <c r="Q158" s="4"/>
+      <c r="M158" s="4">
+        <v>0</v>
+      </c>
+      <c r="N158" s="4">
+        <v>0</v>
+      </c>
+      <c r="O158" s="4">
+        <v>0</v>
+      </c>
+      <c r="P158" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A159" s="5"/>
+      <c r="A159" t="s">
+        <v>17</v>
+      </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="5" t="s">
-        <v>397</v>
+      <c r="D159" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F159" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="G159" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>10</v>
@@ -9251,31 +9478,35 @@
       </c>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
-      <c r="O159" s="4"/>
+      <c r="O159" s="4">
+        <v>1</v>
+      </c>
       <c r="P159" s="4"/>
       <c r="Q159" s="4"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A160" s="5"/>
+      <c r="A160" t="s">
+        <v>17</v>
+      </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>467</v>
+        <v>396</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="F160" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G160" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
@@ -9289,23 +9520,25 @@
       <c r="Q160" s="4"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A161" s="5"/>
+      <c r="A161" t="s">
+        <v>17</v>
+      </c>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F161" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="G161" t="s">
         <v>394</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I161" s="5" t="s">
         <v>11</v>
@@ -9322,23 +9555,25 @@
       <c r="Q161" s="4"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A162" s="5"/>
+      <c r="A162" t="s">
+        <v>17</v>
+      </c>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="6" t="s">
-        <v>400</v>
+      <c r="D162" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F162" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="G162" t="s">
         <v>394</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>10</v>
+        <v>404</v>
       </c>
       <c r="I162" s="5" t="s">
         <v>11</v>
@@ -9350,30 +9585,30 @@
       </c>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
-      <c r="O162" s="4">
-        <v>1</v>
-      </c>
+      <c r="O162" s="4"/>
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A163" s="5"/>
+      <c r="A163" t="s">
+        <v>17</v>
+      </c>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F163" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G163" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>11</v>
@@ -9390,20 +9625,22 @@
       <c r="Q163" s="4"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A164" s="5"/>
+      <c r="A164" t="s">
+        <v>17</v>
+      </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="5" t="s">
-        <v>402</v>
+      <c r="D164" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F164" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="G164" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>10</v>
@@ -9423,17 +9660,19 @@
       <c r="Q164" s="4"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A165" s="5"/>
+      <c r="A165" t="s">
+        <v>17</v>
+      </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F165" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G165" t="s">
         <v>393</v>
@@ -9456,7 +9695,34 @@
       <c r="Q165" s="4"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F166" t="s">
+        <v>429</v>
+      </c>
+      <c r="G166" t="s">
+        <v>393</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J166" s="4"/>
       <c r="K166" s="4"/>
+      <c r="L166">
+        <v>1</v>
+      </c>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
@@ -9464,7 +9730,34 @@
       <c r="Q166" s="4"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F167" t="s">
+        <v>430</v>
+      </c>
+      <c r="G167" t="s">
+        <v>393</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J167" s="4"/>
       <c r="K167" s="4"/>
+      <c r="L167">
+        <v>1</v>
+      </c>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
@@ -9496,6 +9789,7 @@
       <c r="Q170" s="4"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K171" s="4"/>
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
@@ -9503,6 +9797,7 @@
       <c r="Q171" s="4"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K172" s="4"/>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
@@ -9531,29 +9826,43 @@
       <c r="Q175" s="4"/>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M176" s="4"/>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
-    </row>
-    <row r="177" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="Q176" s="4"/>
+    </row>
+    <row r="177" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M177" s="4"/>
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
       <c r="P177" s="4"/>
-    </row>
-    <row r="178" spans="14:16" x14ac:dyDescent="0.2">
+      <c r="Q177" s="4"/>
+    </row>
+    <row r="178" spans="13:17" x14ac:dyDescent="0.2">
       <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
       <c r="P178" s="4"/>
     </row>
-    <row r="179" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="13:17" x14ac:dyDescent="0.2">
       <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
       <c r="P179" s="4"/>
     </row>
-    <row r="180" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="13:17" x14ac:dyDescent="0.2">
       <c r="N180" s="4"/>
       <c r="P180" s="4"/>
     </row>
-    <row r="181" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="N181" s="4"/>
       <c r="P181" s="4"/>
+    </row>
+    <row r="182" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="N182" s="4"/>
+      <c r="P182" s="4"/>
+    </row>
+    <row r="183" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="P183" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -9601,29 +9910,29 @@
     <hyperlink ref="C10" r:id="rId41" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
     <hyperlink ref="C11" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
     <hyperlink ref="C12" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
-    <hyperlink ref="C142" r:id="rId44" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
-    <hyperlink ref="C143" r:id="rId45" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
-    <hyperlink ref="C144" r:id="rId46" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
-    <hyperlink ref="C145" r:id="rId47" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
-    <hyperlink ref="C146" r:id="rId48" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
-    <hyperlink ref="C147" r:id="rId49" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
-    <hyperlink ref="C148" r:id="rId50" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
-    <hyperlink ref="C149" r:id="rId51" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="C144" r:id="rId44" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C145" r:id="rId45" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C146" r:id="rId46" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C147" r:id="rId47" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C148" r:id="rId48" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C149" r:id="rId49" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C150" r:id="rId50" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C151" r:id="rId51" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
     <hyperlink ref="E77" r:id="rId52" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
     <hyperlink ref="E78" r:id="rId53" xr:uid="{3FFA047D-54A7-1C4F-8F99-6C3E171DAF81}"/>
     <hyperlink ref="D17" r:id="rId54" xr:uid="{3ABCF888-2DE3-F241-AF72-0A8CC3470A5F}"/>
     <hyperlink ref="D70" r:id="rId55" xr:uid="{1F241710-62DB-2E44-A747-109074C18B64}"/>
     <hyperlink ref="D72" r:id="rId56" xr:uid="{26B96861-06BB-1843-BD89-C6AE442F656F}"/>
     <hyperlink ref="D73" r:id="rId57" xr:uid="{8A7E9875-FDB3-4A44-A75E-05337B524EC2}"/>
-    <hyperlink ref="D150" r:id="rId58" xr:uid="{610B174C-804A-7040-AB83-A05706A11968}"/>
-    <hyperlink ref="D155" r:id="rId59" xr:uid="{A10F1E36-AFF2-EB41-95B1-EEB475790600}"/>
-    <hyperlink ref="D151" r:id="rId60" xr:uid="{AAE31702-CCEE-494E-AB15-F7DFD7C1277F}"/>
-    <hyperlink ref="D152" r:id="rId61" xr:uid="{0592BD43-1799-4D47-958B-F4C0BD89D869}"/>
-    <hyperlink ref="D153" r:id="rId62" xr:uid="{80001562-99A2-BD44-9DB5-C8BCF6980A1F}"/>
-    <hyperlink ref="D154" r:id="rId63" xr:uid="{4CEB79AD-A518-ED40-97BB-5F83112C6724}"/>
-    <hyperlink ref="D156" r:id="rId64" xr:uid="{63D86AFC-245D-234C-8DCF-BB70FC0FD06C}"/>
-    <hyperlink ref="D157" r:id="rId65" xr:uid="{E80A4473-FEAE-E34A-B92F-1185FF045DD5}"/>
-    <hyperlink ref="D162" r:id="rId66" xr:uid="{B0B4C14C-DEEA-574D-9011-11A44FA41DBB}"/>
+    <hyperlink ref="D152" r:id="rId58" xr:uid="{610B174C-804A-7040-AB83-A05706A11968}"/>
+    <hyperlink ref="D157" r:id="rId59" xr:uid="{A10F1E36-AFF2-EB41-95B1-EEB475790600}"/>
+    <hyperlink ref="D153" r:id="rId60" xr:uid="{AAE31702-CCEE-494E-AB15-F7DFD7C1277F}"/>
+    <hyperlink ref="D154" r:id="rId61" xr:uid="{0592BD43-1799-4D47-958B-F4C0BD89D869}"/>
+    <hyperlink ref="D155" r:id="rId62" xr:uid="{80001562-99A2-BD44-9DB5-C8BCF6980A1F}"/>
+    <hyperlink ref="D156" r:id="rId63" xr:uid="{4CEB79AD-A518-ED40-97BB-5F83112C6724}"/>
+    <hyperlink ref="D158" r:id="rId64" xr:uid="{63D86AFC-245D-234C-8DCF-BB70FC0FD06C}"/>
+    <hyperlink ref="D159" r:id="rId65" xr:uid="{E80A4473-FEAE-E34A-B92F-1185FF045DD5}"/>
+    <hyperlink ref="D164" r:id="rId66" xr:uid="{B0B4C14C-DEEA-574D-9011-11A44FA41DBB}"/>
     <hyperlink ref="D94" r:id="rId67" xr:uid="{55436074-2924-ED43-B050-F0437D753837}"/>
     <hyperlink ref="D60" r:id="rId68" xr:uid="{C80D528B-A854-B34D-8757-27BDF0C8EFD9}"/>
     <hyperlink ref="D62" r:id="rId69" xr:uid="{3C8464E7-A1B4-2340-B366-338E16BC5ECC}"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C3A0C9-AB8D-3C46-B0BB-5A97D2E36637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9819D32-B3B3-3247-9D0E-7AD7109CD350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1966,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="E45" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5253,10 +5253,10 @@
         <v>12</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="4"/>
       <c r="P65" s="4"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9819D32-B3B3-3247-9D0E-7AD7109CD350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296E122-99B2-6646-973A-16778A7C1AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1966,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E45" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="E128" zoomScale="94" workbookViewId="0">
+      <selection activeCell="L154" sqref="L154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -5110,7 +5110,7 @@
         <v>12</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -5183,7 +5183,7 @@
         <v>12</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -5218,7 +5218,7 @@
         <v>12</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -5498,7 +5498,7 @@
         <v>12</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -5638,7 +5638,7 @@
         <v>12</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="J110" s="4"/>
       <c r="K110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="J111" s="4"/>
       <c r="K111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="J116" s="4"/>
       <c r="K116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="J117" s="4"/>
       <c r="K117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117">
         <v>1</v>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="J120" s="4"/>
       <c r="K120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120">
         <v>1</v>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="J121" s="4"/>
       <c r="K121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -7794,7 +7794,7 @@
       </c>
       <c r="J124" s="4"/>
       <c r="K124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124">
         <v>1</v>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="J125" s="4"/>
       <c r="K125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125">
         <v>1</v>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296E122-99B2-6646-973A-16778A7C1AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BAC04F-D7A2-1B4C-99E7-5439A885814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="499">
   <si>
     <t>Author</t>
   </si>
@@ -1205,9 +1205,6 @@
     <t>https://www.10xgenomics.com/datasets/human-colon-preview-data-xenium-human-colon-gene-expression-panel-1-standard</t>
   </si>
   <si>
-    <t>https://www.10xgenomics.com/datasets/human-skin-preview-data-xenium-human-skin-gene-expression-panel-add-on-1-standard</t>
-  </si>
-  <si>
     <t>https://www.10xgenomics.com/datasets/human-heart-data-xenium-human-multi-tissue-and-cancer-panel-1-standard</t>
   </si>
   <si>
@@ -1365,9 +1362,6 @@
   </si>
   <si>
     <t>Xenium_v1_colon_human</t>
-  </si>
-  <si>
-    <t>Xenium_v1_skin_human</t>
   </si>
   <si>
     <t>Xenium_v1_heart_human</t>
@@ -1964,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
-  <dimension ref="A1:Q183"/>
+  <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E128" zoomScale="94" workbookViewId="0">
-      <selection activeCell="L154" sqref="L154"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2683,7 +2677,7 @@
         <v>186</v>
       </c>
       <c r="G14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H14" t="s">
         <v>139</v>
@@ -3531,7 +3525,7 @@
         <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H31" t="s">
         <v>20</v>
@@ -5060,10 +5054,10 @@
         <v>371</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G60" t="s">
         <v>370</v>
@@ -5095,10 +5089,10 @@
         <v>373</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G61" t="s">
         <v>370</v>
@@ -5130,10 +5124,10 @@
         <v>375</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>370</v>
@@ -5168,10 +5162,10 @@
         <v>377</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>370</v>
@@ -5203,10 +5197,10 @@
         <v>379</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>370</v>
@@ -5238,10 +5232,10 @@
         <v>381</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>370</v>
@@ -5273,10 +5267,10 @@
         <v>382</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>370</v>
@@ -5308,10 +5302,10 @@
         <v>384</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>370</v>
@@ -5343,16 +5337,16 @@
         <v>385</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F68" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G68" t="s">
         <v>369</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>12</v>
@@ -5378,10 +5372,10 @@
         <v>386</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G69" t="s">
         <v>369</v>
@@ -5413,10 +5407,10 @@
         <v>387</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F70" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G70" t="s">
         <v>369</v>
@@ -5448,10 +5442,10 @@
         <v>388</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F71" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G71" t="s">
         <v>369</v>
@@ -5483,22 +5477,22 @@
         <v>389</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>241</v>
+        <v>419</v>
       </c>
       <c r="F72" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G72" t="s">
         <v>369</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -5514,20 +5508,20 @@
         <v>2024</v>
       </c>
       <c r="C73" s="6"/>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="5" t="s">
         <v>390</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>420</v>
       </c>
       <c r="F73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G73" t="s">
         <v>369</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>12</v>
@@ -5553,16 +5547,16 @@
         <v>391</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F74" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G74" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>203</v>
+        <v>405</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>12</v>
@@ -5585,25 +5579,25 @@
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F75" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="G75" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -5611,62 +5605,80 @@
       <c r="N75" s="4"/>
       <c r="P75" s="4"/>
     </row>
-    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>17</v>
       </c>
       <c r="B76">
-        <v>2024</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>422</v>
+        <v>2023</v>
+      </c>
+      <c r="D76" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>477</v>
+        <v>59</v>
       </c>
       <c r="G76" t="s">
         <v>369</v>
       </c>
-      <c r="H76" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>12</v>
+      <c r="H76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>1</v>
       </c>
-      <c r="N76" s="4"/>
-      <c r="P76" s="4"/>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" s="4">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>357</v>
       </c>
       <c r="B77">
         <v>2023</v>
       </c>
+      <c r="C77" t="s">
+        <v>315</v>
+      </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="F77" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="G77" t="s">
-        <v>369</v>
+        <v>31</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I77" t="s">
         <v>11</v>
@@ -5709,11 +5721,11 @@
       <c r="D78" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>188</v>
+      <c r="E78" t="s">
+        <v>189</v>
       </c>
       <c r="F78" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G78" t="s">
         <v>31</v>
@@ -5763,10 +5775,10 @@
         <v>30</v>
       </c>
       <c r="E79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -5816,10 +5828,10 @@
         <v>30</v>
       </c>
       <c r="E80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -5834,10 +5846,10 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5869,10 +5881,10 @@
         <v>30</v>
       </c>
       <c r="E81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -5883,7 +5895,7 @@
       <c r="I81" t="s">
         <v>11</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="4">
         <v>0</v>
       </c>
       <c r="K81">
@@ -5892,7 +5904,7 @@
       <c r="L81">
         <v>0</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="4">
         <v>0</v>
       </c>
       <c r="N81" s="4">
@@ -5910,28 +5922,28 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B82">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C82" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>352</v>
       </c>
       <c r="E82" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="F82" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="G82" t="s">
         <v>31</v>
       </c>
       <c r="H82" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="I82" t="s">
         <v>11</v>
@@ -5975,10 +5987,10 @@
         <v>352</v>
       </c>
       <c r="E83" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -5993,10 +6005,10 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="4">
         <v>0</v>
@@ -6027,11 +6039,8 @@
       <c r="D84" t="s">
         <v>352</v>
       </c>
-      <c r="E84" t="s">
-        <v>268</v>
-      </c>
       <c r="F84" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -6046,10 +6055,10 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" s="4">
         <v>0</v>
@@ -6080,8 +6089,11 @@
       <c r="D85" t="s">
         <v>352</v>
       </c>
+      <c r="E85" t="s">
+        <v>269</v>
+      </c>
       <c r="F85" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G85" t="s">
         <v>31</v>
@@ -6096,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" s="4">
         <v>0</v>
@@ -6131,10 +6143,10 @@
         <v>352</v>
       </c>
       <c r="E86" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G86" t="s">
         <v>31</v>
@@ -6149,10 +6161,10 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" s="4">
         <v>0</v>
@@ -6184,10 +6196,10 @@
         <v>352</v>
       </c>
       <c r="E87" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F87" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G87" t="s">
         <v>31</v>
@@ -6202,10 +6214,10 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" s="4">
         <v>0</v>
@@ -6237,10 +6249,10 @@
         <v>352</v>
       </c>
       <c r="E88" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
@@ -6255,10 +6267,10 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88" s="4">
         <v>0</v>
@@ -6290,10 +6302,10 @@
         <v>352</v>
       </c>
       <c r="E89" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G89" t="s">
         <v>31</v>
@@ -6331,28 +6343,25 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>358</v>
+        <v>161</v>
       </c>
       <c r="B90">
-        <v>2024</v>
-      </c>
-      <c r="C90" t="s">
-        <v>351</v>
+        <v>2023</v>
       </c>
       <c r="D90" t="s">
-        <v>352</v>
+        <v>36</v>
       </c>
       <c r="E90" t="s">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H90" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="I90" t="s">
         <v>11</v>
@@ -6393,10 +6402,10 @@
         <v>36</v>
       </c>
       <c r="E91" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -6443,10 +6452,10 @@
         <v>36</v>
       </c>
       <c r="E92" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -6484,25 +6493,25 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="B93">
-        <v>2023</v>
-      </c>
-      <c r="D93" t="s">
-        <v>36</v>
+        <v>2024</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E93" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="H93" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="I93" t="s">
         <v>11</v>
@@ -6511,10 +6520,10 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" s="4">
         <v>0</v>
@@ -6523,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93" s="4">
         <v>0</v>
@@ -6539,23 +6548,17 @@
       <c r="B94">
         <v>2024</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" t="s">
-        <v>47</v>
+      <c r="E94" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="F94" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G94" t="s">
         <v>209</v>
       </c>
       <c r="H94" t="s">
-        <v>114</v>
-      </c>
-      <c r="I94" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="J94" s="4">
         <v>0</v>
@@ -6573,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P94" s="4">
         <v>0</v>
@@ -6589,17 +6592,23 @@
       <c r="B95">
         <v>2024</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>355</v>
+      <c r="D95" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" t="s">
+        <v>48</v>
       </c>
       <c r="F95" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G95" t="s">
         <v>209</v>
       </c>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
       </c>
       <c r="J95" s="4">
         <v>0</v>
@@ -6633,23 +6642,17 @@
       <c r="B96">
         <v>2024</v>
       </c>
-      <c r="D96" t="s">
-        <v>38</v>
-      </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G96" t="s">
         <v>209</v>
       </c>
       <c r="H96" t="s">
-        <v>116</v>
-      </c>
-      <c r="I96" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="J96" s="4">
         <v>0</v>
@@ -6683,17 +6686,23 @@
       <c r="B97">
         <v>2024</v>
       </c>
+      <c r="D97" t="s">
+        <v>322</v>
+      </c>
       <c r="E97" t="s">
-        <v>177</v>
+        <v>340</v>
       </c>
       <c r="F97" t="s">
-        <v>172</v>
+        <v>323</v>
       </c>
       <c r="G97" t="s">
         <v>209</v>
       </c>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>325</v>
+      </c>
+      <c r="I97" t="s">
+        <v>11</v>
       </c>
       <c r="J97" s="4">
         <v>0</v>
@@ -6727,23 +6736,17 @@
       <c r="B98">
         <v>2024</v>
       </c>
-      <c r="D98" t="s">
-        <v>322</v>
-      </c>
       <c r="E98" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F98" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G98" t="s">
         <v>209</v>
       </c>
       <c r="H98" t="s">
-        <v>325</v>
-      </c>
-      <c r="I98" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="J98" s="4">
         <v>0</v>
@@ -6777,17 +6780,23 @@
       <c r="B99">
         <v>2024</v>
       </c>
+      <c r="D99" t="s">
+        <v>327</v>
+      </c>
       <c r="E99" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F99" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G99" t="s">
         <v>209</v>
       </c>
       <c r="H99" t="s">
-        <v>326</v>
+        <v>331</v>
+      </c>
+      <c r="I99" t="s">
+        <v>11</v>
       </c>
       <c r="J99" s="4">
         <v>0</v>
@@ -6821,23 +6830,17 @@
       <c r="B100">
         <v>2024</v>
       </c>
-      <c r="D100" t="s">
-        <v>327</v>
-      </c>
       <c r="E100" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F100" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G100" t="s">
         <v>209</v>
       </c>
       <c r="H100" t="s">
-        <v>331</v>
-      </c>
-      <c r="I100" t="s">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="J100" s="4">
         <v>0</v>
@@ -6871,17 +6874,20 @@
       <c r="B101">
         <v>2024</v>
       </c>
+      <c r="D101" t="s">
+        <v>332</v>
+      </c>
       <c r="E101" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F101" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G101" t="s">
         <v>209</v>
       </c>
       <c r="H101" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J101" s="4">
         <v>0</v>
@@ -6915,20 +6921,17 @@
       <c r="B102">
         <v>2024</v>
       </c>
-      <c r="D102" t="s">
-        <v>332</v>
-      </c>
       <c r="E102" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F102" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G102" t="s">
         <v>209</v>
       </c>
       <c r="H102" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J102" s="4">
         <v>0</v>
@@ -6962,17 +6965,23 @@
       <c r="B103">
         <v>2024</v>
       </c>
+      <c r="D103" t="s">
+        <v>39</v>
+      </c>
       <c r="E103" t="s">
-        <v>341</v>
-      </c>
-      <c r="F103" t="s">
-        <v>336</v>
+        <v>49</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="G103" t="s">
         <v>209</v>
       </c>
       <c r="H103" t="s">
-        <v>335</v>
+        <v>118</v>
+      </c>
+      <c r="I103" t="s">
+        <v>11</v>
       </c>
       <c r="J103" s="4">
         <v>0</v>
@@ -7006,23 +7015,17 @@
       <c r="B104">
         <v>2024</v>
       </c>
-      <c r="D104" t="s">
-        <v>39</v>
-      </c>
       <c r="E104" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G104" t="s">
         <v>209</v>
       </c>
       <c r="H104" t="s">
-        <v>118</v>
-      </c>
-      <c r="I104" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="J104" s="4">
         <v>0</v>
@@ -7056,17 +7059,23 @@
       <c r="B105">
         <v>2024</v>
       </c>
+      <c r="D105" t="s">
+        <v>40</v>
+      </c>
       <c r="E105" t="s">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G105" t="s">
         <v>209</v>
       </c>
       <c r="H105" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="I105" t="s">
+        <v>12</v>
       </c>
       <c r="J105" s="4">
         <v>0</v>
@@ -7100,23 +7109,17 @@
       <c r="B106">
         <v>2024</v>
       </c>
-      <c r="D106" t="s">
-        <v>40</v>
-      </c>
       <c r="E106" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G106" t="s">
         <v>209</v>
       </c>
       <c r="H106" t="s">
-        <v>120</v>
-      </c>
-      <c r="I106" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="J106" s="4">
         <v>0</v>
@@ -7150,42 +7153,35 @@
       <c r="B107">
         <v>2024</v>
       </c>
-      <c r="E107" t="s">
-        <v>345</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>176</v>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F107" t="s">
+        <v>445</v>
       </c>
       <c r="G107" t="s">
         <v>209</v>
       </c>
-      <c r="H107" t="s">
-        <v>121</v>
-      </c>
-      <c r="J107" s="4">
-        <v>0</v>
-      </c>
+      <c r="H107" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I107" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" s="4"/>
       <c r="K107">
         <v>1</v>
       </c>
       <c r="L107">
         <v>1</v>
       </c>
-      <c r="M107" s="4">
-        <v>0</v>
-      </c>
-      <c r="N107" s="4">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="P107" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="P107" s="4"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -7195,14 +7191,12 @@
         <v>2024</v>
       </c>
       <c r="C108" s="5"/>
-      <c r="D108" s="5" t="s">
-        <v>359</v>
-      </c>
+      <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F108" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G108" t="s">
         <v>209</v>
@@ -7232,12 +7226,14 @@
         <v>2024</v>
       </c>
       <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="D109" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="E109" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F109" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G109" t="s">
         <v>209</v>
@@ -7250,7 +7246,7 @@
       </c>
       <c r="J109" s="4"/>
       <c r="K109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -7267,14 +7263,12 @@
         <v>2024</v>
       </c>
       <c r="C110" s="5"/>
-      <c r="D110" s="5" t="s">
-        <v>360</v>
-      </c>
+      <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F110" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G110" t="s">
         <v>209</v>
@@ -7304,25 +7298,27 @@
         <v>2024</v>
       </c>
       <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
+      <c r="D111" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="E111" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F111" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="G111" t="s">
         <v>209</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="I111" t="s">
         <v>12</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -7339,20 +7335,18 @@
         <v>2024</v>
       </c>
       <c r="C112" s="5"/>
-      <c r="D112" s="5" t="s">
-        <v>361</v>
-      </c>
+      <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F112" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G112" t="s">
         <v>209</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -7376,18 +7370,20 @@
         <v>2024</v>
       </c>
       <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
+      <c r="D113" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="E113" s="5" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F113" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="G113" t="s">
         <v>209</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>406</v>
+        <v>254</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -7411,14 +7407,12 @@
         <v>2024</v>
       </c>
       <c r="C114" s="5"/>
-      <c r="D114" s="5" t="s">
-        <v>362</v>
-      </c>
+      <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F114" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G114" t="s">
         <v>209</v>
@@ -7448,9 +7442,11 @@
         <v>2024</v>
       </c>
       <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
+      <c r="D115" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="E115" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F115" t="s">
         <v>452</v>
@@ -7466,7 +7462,7 @@
       </c>
       <c r="J115" s="4"/>
       <c r="K115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -7483,14 +7479,12 @@
         <v>2024</v>
       </c>
       <c r="C116" s="5"/>
-      <c r="D116" s="5" t="s">
-        <v>363</v>
-      </c>
+      <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F116" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G116" t="s">
         <v>209</v>
@@ -7520,9 +7514,11 @@
         <v>2024</v>
       </c>
       <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
+      <c r="D117" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="E117" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F117" t="s">
         <v>453</v>
@@ -7531,20 +7527,23 @@
         <v>209</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="I117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117">
         <v>1</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
+      <c r="O117">
+        <v>1</v>
+      </c>
       <c r="P117" s="4"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -7555,14 +7554,12 @@
         <v>2024</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="5" t="s">
-        <v>364</v>
-      </c>
+      <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F118" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G118" t="s">
         <v>209</v>
@@ -7582,9 +7579,6 @@
       </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
-      <c r="O118">
-        <v>1</v>
-      </c>
       <c r="P118" s="4"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -7595,12 +7589,14 @@
         <v>2024</v>
       </c>
       <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
+      <c r="D119" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="E119" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F119" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G119" t="s">
         <v>209</v>
@@ -7613,7 +7609,7 @@
       </c>
       <c r="J119" s="4"/>
       <c r="K119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119">
         <v>1</v>
@@ -7630,14 +7626,12 @@
         <v>2024</v>
       </c>
       <c r="C120" s="5"/>
-      <c r="D120" s="5" t="s">
-        <v>365</v>
-      </c>
+      <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F120" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G120" t="s">
         <v>209</v>
@@ -7667,25 +7661,27 @@
         <v>2024</v>
       </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
+      <c r="D121" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="E121" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F121" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G121" t="s">
         <v>209</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>10</v>
+        <v>406</v>
       </c>
       <c r="I121" t="s">
         <v>11</v>
       </c>
       <c r="J121" s="4"/>
       <c r="K121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -7702,20 +7698,18 @@
         <v>2024</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="5" t="s">
-        <v>366</v>
-      </c>
+      <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F122" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G122" t="s">
         <v>209</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I122" t="s">
         <v>11</v>
@@ -7739,25 +7733,27 @@
         <v>2024</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
+      <c r="D123" s="5" t="s">
+        <v>367</v>
+      </c>
       <c r="E123" s="5" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F123" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G123" t="s">
         <v>209</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J123" s="4"/>
       <c r="K123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123">
         <v>1</v>
@@ -7774,20 +7770,18 @@
         <v>2024</v>
       </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="5" t="s">
-        <v>367</v>
-      </c>
+      <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F124" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G124" t="s">
         <v>209</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I124" t="s">
         <v>12</v>
@@ -7811,25 +7805,27 @@
         <v>2024</v>
       </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="5" t="s">
+        <v>367</v>
+      </c>
       <c r="E125" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F125" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="G125" t="s">
         <v>209</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I125" t="s">
         <v>12</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125">
         <v>1</v>
@@ -7846,20 +7842,18 @@
         <v>2024</v>
       </c>
       <c r="C126" s="5"/>
-      <c r="D126" s="5" t="s">
-        <v>367</v>
-      </c>
+      <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F126" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G126" t="s">
         <v>209</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I126" t="s">
         <v>12</v>
@@ -7877,38 +7871,50 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B127">
-        <v>2024</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5" t="s">
-        <v>490</v>
+        <v>2023</v>
+      </c>
+      <c r="D127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E127" t="s">
+        <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>479</v>
+        <v>51</v>
       </c>
       <c r="G127" t="s">
-        <v>209</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="I127" t="s">
-        <v>12</v>
-      </c>
-      <c r="J127" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="H127" t="s">
+        <v>10</v>
+      </c>
+      <c r="J127" s="4">
+        <v>0</v>
+      </c>
       <c r="K127">
         <v>1</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="P127" s="4"/>
+      <c r="M127" s="4">
+        <v>0</v>
+      </c>
+      <c r="N127" s="4">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -7921,16 +7927,16 @@
         <v>206</v>
       </c>
       <c r="E128" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="F128" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="G128" t="s">
         <v>41</v>
       </c>
       <c r="H128" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J128" s="4">
         <v>0</v>
@@ -7968,16 +7974,16 @@
         <v>206</v>
       </c>
       <c r="E129" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F129" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
       </c>
       <c r="H129" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="J129" s="4">
         <v>0</v>
@@ -8015,16 +8021,19 @@
         <v>206</v>
       </c>
       <c r="E130" t="s">
-        <v>199</v>
+        <v>337</v>
       </c>
       <c r="F130" t="s">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="G130" t="s">
         <v>41</v>
       </c>
       <c r="H130" t="s">
-        <v>204</v>
+        <v>319</v>
+      </c>
+      <c r="I130" t="s">
+        <v>12</v>
       </c>
       <c r="J130" s="4">
         <v>0</v>
@@ -8062,19 +8071,16 @@
         <v>206</v>
       </c>
       <c r="E131" t="s">
-        <v>337</v>
+        <v>200</v>
       </c>
       <c r="F131" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="G131" t="s">
         <v>41</v>
       </c>
       <c r="H131" t="s">
-        <v>319</v>
-      </c>
-      <c r="I131" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="J131" s="4">
         <v>0</v>
@@ -8109,19 +8115,19 @@
         <v>2023</v>
       </c>
       <c r="D132" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E132" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F132" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G132" t="s">
         <v>41</v>
       </c>
       <c r="H132" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J132" s="4">
         <v>0</v>
@@ -8159,10 +8165,10 @@
         <v>207</v>
       </c>
       <c r="E133" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F133" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G133" t="s">
         <v>41</v>
@@ -8195,33 +8201,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>41</v>
+        <v>353</v>
       </c>
       <c r="B134">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="D134" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="E134" t="s">
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="F134" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="G134" t="s">
         <v>41</v>
       </c>
       <c r="H134" t="s">
-        <v>203</v>
+        <v>42</v>
+      </c>
+      <c r="I134" t="s">
+        <v>12</v>
       </c>
       <c r="J134" s="4">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -8256,10 +8268,10 @@
         <v>274</v>
       </c>
       <c r="E135" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F135" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G135" t="s">
         <v>41</v>
@@ -8309,10 +8321,10 @@
         <v>274</v>
       </c>
       <c r="E136" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
@@ -8362,10 +8374,10 @@
         <v>274</v>
       </c>
       <c r="E137" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F137" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G137" t="s">
         <v>41</v>
@@ -8401,39 +8413,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B138">
-        <v>2024</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>354</v>
+        <v>2023</v>
       </c>
       <c r="D138" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="E138" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="F138" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="G138" t="s">
         <v>41</v>
       </c>
       <c r="H138" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="I138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J138" s="4">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138">
         <v>1</v>
@@ -8465,10 +8474,10 @@
         <v>214</v>
       </c>
       <c r="E139" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F139" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G139" t="s">
         <v>41</v>
@@ -8486,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M139" s="4">
         <v>0</v>
@@ -8515,10 +8524,10 @@
         <v>214</v>
       </c>
       <c r="E140" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F140" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G140" t="s">
         <v>41</v>
@@ -8536,7 +8545,7 @@
         <v>1</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M140" s="4">
         <v>0</v>
@@ -8565,10 +8574,10 @@
         <v>214</v>
       </c>
       <c r="E141" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F141" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -8586,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="L141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M141" s="4">
         <v>0</v>
@@ -8605,20 +8614,21 @@
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>356</v>
-      </c>
-      <c r="B142">
-        <v>2023</v>
-      </c>
-      <c r="D142" t="s">
-        <v>214</v>
-      </c>
-      <c r="E142" t="s">
-        <v>232</v>
-      </c>
-      <c r="F142" t="s">
-        <v>213</v>
+      <c r="A142" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B142" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="G142" t="s">
         <v>41</v>
@@ -8627,69 +8637,71 @@
         <v>10</v>
       </c>
       <c r="I142" t="s">
-        <v>11</v>
-      </c>
-      <c r="J142" s="4">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J142" s="4"/>
       <c r="K142">
         <v>1</v>
       </c>
       <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142" s="4">
-        <v>0</v>
-      </c>
-      <c r="N142" s="4">
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="P142" s="4"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B143" s="5">
+      <c r="A143" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143">
         <v>2024</v>
       </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>463</v>
+      <c r="C143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D143" t="s">
+        <v>144</v>
+      </c>
+      <c r="E143" t="s">
+        <v>275</v>
+      </c>
+      <c r="F143" t="s">
+        <v>152</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="H143" t="s">
         <v>10</v>
       </c>
       <c r="I143" t="s">
-        <v>12</v>
-      </c>
-      <c r="J143" s="4"/>
-      <c r="K143">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="J143" s="4">
+        <v>0</v>
+      </c>
+      <c r="K143" s="4">
+        <v>0</v>
       </c>
       <c r="L143">
         <v>1</v>
       </c>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="P143" s="4"/>
+      <c r="M143" s="4">
+        <v>0</v>
+      </c>
+      <c r="N143" s="4">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
@@ -8702,16 +8714,13 @@
         <v>143</v>
       </c>
       <c r="D144" t="s">
-        <v>144</v>
-      </c>
-      <c r="E144" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="F144" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G144" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H144" t="s">
         <v>10</v>
@@ -8726,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M144" s="4">
         <v>0</v>
@@ -8735,13 +8744,13 @@
         <v>0</v>
       </c>
       <c r="O144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P144" s="4">
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
@@ -8755,13 +8764,13 @@
         <v>143</v>
       </c>
       <c r="D145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F145" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G145" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H145" t="s">
         <v>10</v>
@@ -8805,13 +8814,13 @@
         <v>143</v>
       </c>
       <c r="D146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F146" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G146" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H146" t="s">
         <v>10</v>
@@ -8855,13 +8864,16 @@
         <v>143</v>
       </c>
       <c r="D147" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="E147" t="s">
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G147" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H147" t="s">
         <v>10</v>
@@ -8876,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" s="4">
         <v>0</v>
@@ -8885,13 +8897,13 @@
         <v>0</v>
       </c>
       <c r="O147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P147" s="4">
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -8905,16 +8917,13 @@
         <v>143</v>
       </c>
       <c r="D148" t="s">
-        <v>148</v>
-      </c>
-      <c r="E148" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="F148" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G148" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H148" t="s">
         <v>10</v>
@@ -8929,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M148" s="4">
         <v>0</v>
@@ -8938,13 +8947,13 @@
         <v>0</v>
       </c>
       <c r="O148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P148" s="4">
         <v>0</v>
       </c>
-      <c r="Q148">
-        <v>1</v>
+      <c r="Q148" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -8958,13 +8967,13 @@
         <v>143</v>
       </c>
       <c r="D149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F149" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G149" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H149" t="s">
         <v>10</v>
@@ -9008,13 +9017,13 @@
         <v>143</v>
       </c>
       <c r="D150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F150" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G150" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H150" t="s">
         <v>10</v>
@@ -9037,7 +9046,7 @@
       <c r="N150" s="4">
         <v>0</v>
       </c>
-      <c r="O150">
+      <c r="O150" s="4">
         <v>0</v>
       </c>
       <c r="P150" s="4">
@@ -9049,25 +9058,25 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="B151">
         <v>2024</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D151" t="s">
-        <v>151</v>
+      <c r="D151" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E151" t="s">
+        <v>310</v>
       </c>
       <c r="F151" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="G151" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H151" t="s">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="I151" t="s">
         <v>11</v>
@@ -9079,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="L151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151" s="4">
         <v>0</v>
@@ -9105,19 +9114,19 @@
         <v>2024</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E152" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F152" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G152" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H152" t="s">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="I152" t="s">
         <v>11</v>
@@ -9155,22 +9164,22 @@
         <v>2024</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E153" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G153" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H153" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="I153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J153" s="4">
         <v>0</v>
@@ -9205,19 +9214,19 @@
         <v>2024</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F154" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G154" t="s">
         <v>393</v>
       </c>
       <c r="H154" t="s">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="I154" t="s">
         <v>12</v>
@@ -9255,22 +9264,22 @@
         <v>2024</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G155" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H155" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J155" s="4">
         <v>0</v>
@@ -9305,22 +9314,22 @@
         <v>2024</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G156" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H156" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J156" s="4">
         <v>0</v>
@@ -9355,22 +9364,22 @@
         <v>2024</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E157" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G157" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H157" t="s">
-        <v>33</v>
+        <v>287</v>
       </c>
       <c r="I157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J157" s="4">
         <v>0</v>
@@ -9401,51 +9410,38 @@
       <c r="A158" t="s">
         <v>17</v>
       </c>
-      <c r="B158">
-        <v>2024</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E158" t="s">
-        <v>305</v>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="F158" t="s">
-        <v>301</v>
+        <v>423</v>
       </c>
       <c r="G158" t="s">
-        <v>393</v>
-      </c>
-      <c r="H158" t="s">
-        <v>287</v>
-      </c>
-      <c r="I158" t="s">
+        <v>392</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I158" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J158" s="4">
-        <v>0</v>
-      </c>
-      <c r="K158" s="4">
-        <v>0</v>
-      </c>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
       <c r="L158">
         <v>1</v>
       </c>
-      <c r="M158" s="4">
-        <v>0</v>
-      </c>
-      <c r="N158" s="4">
-        <v>0</v>
-      </c>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
       <c r="O158" s="4">
-        <v>0</v>
-      </c>
-      <c r="P158" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q158" s="4">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -9453,23 +9449,23 @@
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E159" s="5" t="s">
-        <v>465</v>
+      <c r="E159" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="F159" t="s">
         <v>424</v>
       </c>
       <c r="G159" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
@@ -9478,9 +9474,7 @@
       </c>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
-      <c r="O159" s="4">
-        <v>1</v>
-      </c>
+      <c r="O159" s="4"/>
       <c r="P159" s="4"/>
       <c r="Q159" s="4"/>
     </row>
@@ -9493,20 +9487,20 @@
       <c r="D160" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" s="5" t="s">
         <v>464</v>
       </c>
       <c r="F160" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="G160" t="s">
         <v>393</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
@@ -9529,16 +9523,16 @@
         <v>397</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F161" t="s">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="G161" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>10</v>
+        <v>403</v>
       </c>
       <c r="I161" s="5" t="s">
         <v>11</v>
@@ -9564,16 +9558,16 @@
         <v>398</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F162" t="s">
         <v>426</v>
       </c>
       <c r="G162" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="I162" s="5" t="s">
         <v>11</v>
@@ -9595,20 +9589,20 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="6" t="s">
         <v>399</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F163" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="G163" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>11</v>
@@ -9630,17 +9624,17 @@
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="5" t="s">
         <v>400</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F164" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="G164" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>10</v>
@@ -9669,13 +9663,13 @@
         <v>401</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F165" t="s">
         <v>428</v>
       </c>
       <c r="G165" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>10</v>
@@ -9704,13 +9698,13 @@
         <v>402</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F166" t="s">
         <v>429</v>
       </c>
       <c r="G166" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>10</v>
@@ -9730,34 +9724,7 @@
       <c r="Q166" s="4"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>17</v>
-      </c>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="F167" t="s">
-        <v>430</v>
-      </c>
-      <c r="G167" t="s">
-        <v>393</v>
-      </c>
-      <c r="H167" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I167" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J167" s="4"/>
       <c r="K167" s="4"/>
-      <c r="L167">
-        <v>1</v>
-      </c>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
@@ -9797,7 +9764,6 @@
       <c r="Q171" s="4"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K172" s="4"/>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
@@ -9832,37 +9798,30 @@
       <c r="P176" s="4"/>
       <c r="Q176" s="4"/>
     </row>
-    <row r="177" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="M177" s="4"/>
+    <row r="177" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
       <c r="P177" s="4"/>
-      <c r="Q177" s="4"/>
-    </row>
-    <row r="178" spans="13:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
     </row>
-    <row r="179" spans="13:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N179" s="4"/>
-      <c r="O179" s="4"/>
       <c r="P179" s="4"/>
     </row>
-    <row r="180" spans="13:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N180" s="4"/>
       <c r="P180" s="4"/>
     </row>
-    <row r="181" spans="13:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N181" s="4"/>
       <c r="P181" s="4"/>
     </row>
-    <row r="182" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="N182" s="4"/>
+    <row r="182" spans="14:16" x14ac:dyDescent="0.2">
       <c r="P182" s="4"/>
-    </row>
-    <row r="183" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="P183" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -9910,33 +9869,32 @@
     <hyperlink ref="C10" r:id="rId41" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{5EDBB7DA-D0A8-5C40-965B-765553AFD77F}"/>
     <hyperlink ref="C11" r:id="rId42" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{97A0DD07-EFF7-EA40-ACF2-1E199930B687}"/>
     <hyperlink ref="C12" r:id="rId43" display="https://doi.org/10.1038/s41587-022-01483-z" xr:uid="{F6A6BB47-C672-7F49-B245-2B27A22913F5}"/>
-    <hyperlink ref="C144" r:id="rId44" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
-    <hyperlink ref="C145" r:id="rId45" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
-    <hyperlink ref="C146" r:id="rId46" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
-    <hyperlink ref="C147" r:id="rId47" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
-    <hyperlink ref="C148" r:id="rId48" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
-    <hyperlink ref="C149" r:id="rId49" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
-    <hyperlink ref="C150" r:id="rId50" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
-    <hyperlink ref="C151" r:id="rId51" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
-    <hyperlink ref="E77" r:id="rId52" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
-    <hyperlink ref="E78" r:id="rId53" xr:uid="{3FFA047D-54A7-1C4F-8F99-6C3E171DAF81}"/>
+    <hyperlink ref="C143" r:id="rId44" xr:uid="{501A2742-514A-AE41-A2A6-B64BEB7C049E}"/>
+    <hyperlink ref="C144" r:id="rId45" xr:uid="{84474B7C-BAD1-1C48-B481-FFCD2859CFE3}"/>
+    <hyperlink ref="C145" r:id="rId46" xr:uid="{8F95774A-3C26-EC45-A54B-6620B1F8DD8B}"/>
+    <hyperlink ref="C146" r:id="rId47" xr:uid="{B3872678-EA39-AA4E-AFE2-3D4E5C0E3234}"/>
+    <hyperlink ref="C147" r:id="rId48" xr:uid="{4BA9BDAA-D422-174B-B7BC-EF82A2B3A879}"/>
+    <hyperlink ref="C148" r:id="rId49" xr:uid="{474C7201-8B25-9F4B-A147-C5CE2B0702AB}"/>
+    <hyperlink ref="C149" r:id="rId50" xr:uid="{3CD58BFF-96D7-B144-B94C-6F1D42F7B3AF}"/>
+    <hyperlink ref="C150" r:id="rId51" xr:uid="{5229D856-741E-1F4D-8A70-F35E0AF5BAD6}"/>
+    <hyperlink ref="E76" r:id="rId52" xr:uid="{4D2D8028-39C7-A44F-964F-969588B0EFAA}"/>
+    <hyperlink ref="E77" r:id="rId53" xr:uid="{3FFA047D-54A7-1C4F-8F99-6C3E171DAF81}"/>
     <hyperlink ref="D17" r:id="rId54" xr:uid="{3ABCF888-2DE3-F241-AF72-0A8CC3470A5F}"/>
     <hyperlink ref="D70" r:id="rId55" xr:uid="{1F241710-62DB-2E44-A747-109074C18B64}"/>
-    <hyperlink ref="D72" r:id="rId56" xr:uid="{26B96861-06BB-1843-BD89-C6AE442F656F}"/>
-    <hyperlink ref="D73" r:id="rId57" xr:uid="{8A7E9875-FDB3-4A44-A75E-05337B524EC2}"/>
-    <hyperlink ref="D152" r:id="rId58" xr:uid="{610B174C-804A-7040-AB83-A05706A11968}"/>
-    <hyperlink ref="D157" r:id="rId59" xr:uid="{A10F1E36-AFF2-EB41-95B1-EEB475790600}"/>
-    <hyperlink ref="D153" r:id="rId60" xr:uid="{AAE31702-CCEE-494E-AB15-F7DFD7C1277F}"/>
-    <hyperlink ref="D154" r:id="rId61" xr:uid="{0592BD43-1799-4D47-958B-F4C0BD89D869}"/>
-    <hyperlink ref="D155" r:id="rId62" xr:uid="{80001562-99A2-BD44-9DB5-C8BCF6980A1F}"/>
-    <hyperlink ref="D156" r:id="rId63" xr:uid="{4CEB79AD-A518-ED40-97BB-5F83112C6724}"/>
-    <hyperlink ref="D158" r:id="rId64" xr:uid="{63D86AFC-245D-234C-8DCF-BB70FC0FD06C}"/>
-    <hyperlink ref="D159" r:id="rId65" xr:uid="{E80A4473-FEAE-E34A-B92F-1185FF045DD5}"/>
-    <hyperlink ref="D164" r:id="rId66" xr:uid="{B0B4C14C-DEEA-574D-9011-11A44FA41DBB}"/>
-    <hyperlink ref="D94" r:id="rId67" xr:uid="{55436074-2924-ED43-B050-F0437D753837}"/>
-    <hyperlink ref="D60" r:id="rId68" xr:uid="{C80D528B-A854-B34D-8757-27BDF0C8EFD9}"/>
-    <hyperlink ref="D62" r:id="rId69" xr:uid="{3C8464E7-A1B4-2340-B366-338E16BC5ECC}"/>
-    <hyperlink ref="E62" r:id="rId70" xr:uid="{C3AE867C-7C47-8441-BCB2-DAA772403942}"/>
+    <hyperlink ref="D72" r:id="rId56" xr:uid="{8A7E9875-FDB3-4A44-A75E-05337B524EC2}"/>
+    <hyperlink ref="D151" r:id="rId57" xr:uid="{610B174C-804A-7040-AB83-A05706A11968}"/>
+    <hyperlink ref="D156" r:id="rId58" xr:uid="{A10F1E36-AFF2-EB41-95B1-EEB475790600}"/>
+    <hyperlink ref="D152" r:id="rId59" xr:uid="{AAE31702-CCEE-494E-AB15-F7DFD7C1277F}"/>
+    <hyperlink ref="D153" r:id="rId60" xr:uid="{0592BD43-1799-4D47-958B-F4C0BD89D869}"/>
+    <hyperlink ref="D154" r:id="rId61" xr:uid="{80001562-99A2-BD44-9DB5-C8BCF6980A1F}"/>
+    <hyperlink ref="D155" r:id="rId62" xr:uid="{4CEB79AD-A518-ED40-97BB-5F83112C6724}"/>
+    <hyperlink ref="D157" r:id="rId63" xr:uid="{63D86AFC-245D-234C-8DCF-BB70FC0FD06C}"/>
+    <hyperlink ref="D158" r:id="rId64" xr:uid="{E80A4473-FEAE-E34A-B92F-1185FF045DD5}"/>
+    <hyperlink ref="D163" r:id="rId65" xr:uid="{B0B4C14C-DEEA-574D-9011-11A44FA41DBB}"/>
+    <hyperlink ref="D93" r:id="rId66" xr:uid="{55436074-2924-ED43-B050-F0437D753837}"/>
+    <hyperlink ref="D60" r:id="rId67" xr:uid="{C80D528B-A854-B34D-8757-27BDF0C8EFD9}"/>
+    <hyperlink ref="D62" r:id="rId68" xr:uid="{3C8464E7-A1B4-2340-B366-338E16BC5ECC}"/>
+    <hyperlink ref="E62" r:id="rId69" xr:uid="{C3AE867C-7C47-8441-BCB2-DAA772403942}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BAC04F-D7A2-1B4C-99E7-5439A885814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDCE01C-60BA-7945-9802-DFA7872C7F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="F133" zoomScale="94" workbookViewId="0">
+      <selection activeCell="L152" sqref="L152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" s="4">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141" s="4">
         <v>0</v>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDCE01C-60BA-7945-9802-DFA7872C7F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61079D83-2FF4-DE41-8117-07CB4E61C6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1614,7 +1614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1623,6 +1623,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1960,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F133" zoomScale="94" workbookViewId="0">
-      <selection activeCell="L152" sqref="L152"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1970,6 +1973,7 @@
     <col min="4" max="4" width="111.33203125" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
     <col min="10" max="10" width="22.5" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" customWidth="1"/>
     <col min="12" max="12" width="25.83203125" customWidth="1"/>
@@ -2059,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -9406,33 +9410,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="158" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="6" t="s">
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E158" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="H158" s="5" t="s">
+      <c r="H158" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I158" s="5" t="s">
+      <c r="I158" s="9" t="s">
         <v>11</v>
       </c>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
-      <c r="L158">
+      <c r="L158" s="8">
         <v>1</v>
       </c>
       <c r="M158" s="4"/>
@@ -9570,7 +9574,7 @@
         <v>20</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
@@ -9886,15 +9890,15 @@
     <hyperlink ref="D156" r:id="rId58" xr:uid="{A10F1E36-AFF2-EB41-95B1-EEB475790600}"/>
     <hyperlink ref="D152" r:id="rId59" xr:uid="{AAE31702-CCEE-494E-AB15-F7DFD7C1277F}"/>
     <hyperlink ref="D153" r:id="rId60" xr:uid="{0592BD43-1799-4D47-958B-F4C0BD89D869}"/>
-    <hyperlink ref="D154" r:id="rId61" xr:uid="{80001562-99A2-BD44-9DB5-C8BCF6980A1F}"/>
-    <hyperlink ref="D155" r:id="rId62" xr:uid="{4CEB79AD-A518-ED40-97BB-5F83112C6724}"/>
-    <hyperlink ref="D157" r:id="rId63" xr:uid="{63D86AFC-245D-234C-8DCF-BB70FC0FD06C}"/>
-    <hyperlink ref="D158" r:id="rId64" xr:uid="{E80A4473-FEAE-E34A-B92F-1185FF045DD5}"/>
-    <hyperlink ref="D163" r:id="rId65" xr:uid="{B0B4C14C-DEEA-574D-9011-11A44FA41DBB}"/>
-    <hyperlink ref="D93" r:id="rId66" xr:uid="{55436074-2924-ED43-B050-F0437D753837}"/>
-    <hyperlink ref="D60" r:id="rId67" xr:uid="{C80D528B-A854-B34D-8757-27BDF0C8EFD9}"/>
-    <hyperlink ref="D62" r:id="rId68" xr:uid="{3C8464E7-A1B4-2340-B366-338E16BC5ECC}"/>
-    <hyperlink ref="E62" r:id="rId69" xr:uid="{C3AE867C-7C47-8441-BCB2-DAA772403942}"/>
+    <hyperlink ref="D155" r:id="rId61" xr:uid="{4CEB79AD-A518-ED40-97BB-5F83112C6724}"/>
+    <hyperlink ref="D157" r:id="rId62" xr:uid="{63D86AFC-245D-234C-8DCF-BB70FC0FD06C}"/>
+    <hyperlink ref="D93" r:id="rId63" xr:uid="{55436074-2924-ED43-B050-F0437D753837}"/>
+    <hyperlink ref="D60" r:id="rId64" xr:uid="{C80D528B-A854-B34D-8757-27BDF0C8EFD9}"/>
+    <hyperlink ref="D62" r:id="rId65" xr:uid="{3C8464E7-A1B4-2340-B366-338E16BC5ECC}"/>
+    <hyperlink ref="E62" r:id="rId66" xr:uid="{C3AE867C-7C47-8441-BCB2-DAA772403942}"/>
+    <hyperlink ref="D163" r:id="rId67" xr:uid="{B0B4C14C-DEEA-574D-9011-11A44FA41DBB}"/>
+    <hyperlink ref="D154" r:id="rId68" xr:uid="{80001562-99A2-BD44-9DB5-C8BCF6980A1F}"/>
+    <hyperlink ref="D158" r:id="rId69" xr:uid="{E80A4473-FEAE-E34A-B92F-1185FF045DD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61079D83-2FF4-DE41-8117-07CB4E61C6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27939249-A59A-FD4C-A55F-D343533BF6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="499">
   <si>
     <t>Author</t>
   </si>
@@ -1614,7 +1614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1623,9 +1623,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1963,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="D111" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6564,6 +6561,9 @@
       <c r="H94" t="s">
         <v>115</v>
       </c>
+      <c r="I94" t="s">
+        <v>11</v>
+      </c>
       <c r="J94" s="4">
         <v>0</v>
       </c>
@@ -6658,6 +6658,9 @@
       <c r="H96" t="s">
         <v>117</v>
       </c>
+      <c r="I96" t="s">
+        <v>12</v>
+      </c>
       <c r="J96" s="4">
         <v>0</v>
       </c>
@@ -6752,6 +6755,9 @@
       <c r="H98" t="s">
         <v>326</v>
       </c>
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
       <c r="J98" s="4">
         <v>0</v>
       </c>
@@ -6846,6 +6852,9 @@
       <c r="H100" t="s">
         <v>330</v>
       </c>
+      <c r="I100" t="s">
+        <v>11</v>
+      </c>
       <c r="J100" s="4">
         <v>0</v>
       </c>
@@ -6893,6 +6902,9 @@
       <c r="H101" t="s">
         <v>334</v>
       </c>
+      <c r="I101" t="s">
+        <v>12</v>
+      </c>
       <c r="J101" s="4">
         <v>0</v>
       </c>
@@ -6937,6 +6949,9 @@
       <c r="H102" t="s">
         <v>335</v>
       </c>
+      <c r="I102" t="s">
+        <v>12</v>
+      </c>
       <c r="J102" s="4">
         <v>0</v>
       </c>
@@ -7031,6 +7046,9 @@
       <c r="H104" t="s">
         <v>119</v>
       </c>
+      <c r="I104" t="s">
+        <v>11</v>
+      </c>
       <c r="J104" s="4">
         <v>0</v>
       </c>
@@ -7124,6 +7142,9 @@
       </c>
       <c r="H106" t="s">
         <v>121</v>
+      </c>
+      <c r="I106" t="s">
+        <v>12</v>
       </c>
       <c r="J106" s="4">
         <v>0</v>
@@ -7895,6 +7916,9 @@
       <c r="H127" t="s">
         <v>10</v>
       </c>
+      <c r="I127" t="s">
+        <v>11</v>
+      </c>
       <c r="J127" s="4">
         <v>0</v>
       </c>
@@ -7942,6 +7966,9 @@
       <c r="H128" t="s">
         <v>19</v>
       </c>
+      <c r="I128" t="s">
+        <v>12</v>
+      </c>
       <c r="J128" s="4">
         <v>0</v>
       </c>
@@ -7989,6 +8016,9 @@
       <c r="H129" t="s">
         <v>204</v>
       </c>
+      <c r="I129" t="s">
+        <v>12</v>
+      </c>
       <c r="J129" s="4">
         <v>0</v>
       </c>
@@ -8086,6 +8116,9 @@
       <c r="H131" t="s">
         <v>205</v>
       </c>
+      <c r="I131" t="s">
+        <v>12</v>
+      </c>
       <c r="J131" s="4">
         <v>0</v>
       </c>
@@ -8133,6 +8166,9 @@
       <c r="H132" t="s">
         <v>203</v>
       </c>
+      <c r="I132" t="s">
+        <v>11</v>
+      </c>
       <c r="J132" s="4">
         <v>0</v>
       </c>
@@ -8180,6 +8216,9 @@
       <c r="H133" t="s">
         <v>203</v>
       </c>
+      <c r="I133" t="s">
+        <v>11</v>
+      </c>
       <c r="J133" s="4">
         <v>0</v>
       </c>
@@ -9410,33 +9449,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8" t="s">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>17</v>
       </c>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="10" t="s">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="E158" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="F158" s="8" t="s">
+      <c r="F158" t="s">
         <v>423</v>
       </c>
-      <c r="G158" s="8" t="s">
+      <c r="G158" t="s">
         <v>392</v>
       </c>
-      <c r="H158" s="9" t="s">
+      <c r="H158" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I158" s="9" t="s">
+      <c r="I158" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
-      <c r="L158" s="8">
+      <c r="L158">
         <v>1</v>
       </c>
       <c r="M158" s="4"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27939249-A59A-FD4C-A55F-D343533BF6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B366FC8E-0268-7F4D-BDD2-6696FC1F6C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D111" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I133" sqref="I133"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>1</v>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B366FC8E-0268-7F4D-BDD2-6696FC1F6C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A694B0-167D-B74D-8259-5A3B57BC2FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1961,7 +1961,7 @@
   <dimension ref="A1:Q182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K167" sqref="K167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -5318,7 +5318,7 @@
         <v>12</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -5353,7 +5353,7 @@
         <v>12</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -5423,7 +5423,7 @@
         <v>12</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>12</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -5563,7 +5563,7 @@
         <v>12</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="J111" s="4"/>
       <c r="K111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="J112" s="4"/>
       <c r="K112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -7850,7 +7850,7 @@
       </c>
       <c r="J125" s="4"/>
       <c r="K125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125">
         <v>1</v>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="J126" s="4"/>
       <c r="K126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139">
         <v>1</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140">
         <v>1</v>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141">
         <v>1</v>
@@ -9791,7 +9791,6 @@
       <c r="Q169" s="4"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K170" s="4"/>
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A694B0-167D-B74D-8259-5A3B57BC2FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F13F274-3801-D940-9583-6453BFA6C328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="K167" sqref="K167"/>
+    <sheetView tabSelected="1" topLeftCell="D147" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -5070,7 +5070,7 @@
         <v>12</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -5105,7 +5105,7 @@
         <v>12</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -5178,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -5213,7 +5213,7 @@
         <v>12</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -5318,7 +5318,7 @@
         <v>12</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -5353,7 +5353,7 @@
         <v>12</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -5423,7 +5423,7 @@
         <v>12</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>12</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -5563,7 +5563,7 @@
         <v>12</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -5598,7 +5598,7 @@
         <v>12</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="J109" s="4"/>
       <c r="K109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="J110" s="4"/>
       <c r="K110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="J111" s="4"/>
       <c r="K111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="J112" s="4"/>
       <c r="K112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="J115" s="4"/>
       <c r="K115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="J116" s="4"/>
       <c r="K116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="J119" s="4"/>
       <c r="K119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119">
         <v>1</v>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="J120" s="4"/>
       <c r="K120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120">
         <v>1</v>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="J123" s="4"/>
       <c r="K123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123">
         <v>1</v>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="J124" s="4"/>
       <c r="K124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124">
         <v>1</v>
@@ -7850,7 +7850,7 @@
       </c>
       <c r="J125" s="4"/>
       <c r="K125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125">
         <v>1</v>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="J126" s="4"/>
       <c r="K126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -8382,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -8435,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137">
         <v>1</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139">
         <v>1</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140">
         <v>1</v>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141">
         <v>1</v>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F13F274-3801-D940-9583-6453BFA6C328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE893A8-E2E9-674A-AD6A-FA92BF060EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D147" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>12</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <v>1</v>

--- a/Datasets_all.xlsx
+++ b/Datasets_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k23030440/Pseudovisium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A4C18A-01BE-9744-B6FB-5EFDF283247C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE8F913-AC2A-DD40-BAC5-63BC19840EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="5780" windowWidth="28040" windowHeight="17440" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="17660" xr2:uid="{419F9F52-EC29-7E45-8CDA-DBEF0D21635D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="516">
   <si>
     <t>Author</t>
   </si>
@@ -1529,43 +1529,61 @@
     <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJEIBQoAAAABGS6jXIpbVbQraO16j5nWHQ?e=uMToOL</t>
   </si>
   <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJEHBQoAAAAB4vdR3JwO-rzxL4l4ZVGmdQ?e=p1fY39</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJExBgoAAAABMO-LH2dyeZZJKto9hdc78g?e=fbD4s1</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJEwBgoAAAABkuO76FAZ_OJJLssNiHC3cw?e=nT4PUp</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJEvBgoAAAABxUiw9QYQsdGByIbElU8Olw?e=pjtSNp</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJEzBgoAAAABQDgABBlZhDAoF_zWFUvN6Q?e=ecaund</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJEtBgoAAAABuGyWeB60iFDaW8EZxuZvUg?e=E4Lats</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJEyBgoAAAAB7HyjUMsfOSEwd0rTVreSmg?e=o3Vw1V</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJE0BgoAAAABw9YFCZUaqEeMdgZMPDling?e=gD8OCz</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJEuBgoAAAABqbxoFYQ3m8ACa-MY4n79kw?e=GsJCcS</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJGkBAoAAAABNVvoBJm2oqSLkO0bJfgQmg?e=VsAoeB</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJHQBQoAAAABPqGepiNaaV4Q8yKQz2WIQw?e=5pJnu8</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJE_BwoAAAABD4sJ0nWsVcRgHG8A69QR7w?e=A4X7bC</t>
-  </si>
-  <si>
-    <t>https://1drv.ms/u/c/91277b806043e344/EUTjQ2CAeycggJFABwoAAAABYG1cwBuPN82fHhachDKaWQ?e=ib6Em1</t>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRWwQKAAAAAQ8aDb2ULNehWkgPkbuM1WY</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRBwUKAAAAAcnECzuv3fj1Rw_UPJgZIEU</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRMQYKAAAAAfsxWL6fFB3f8MtaIzD_WPY</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRMAYKAAAAAbLwImHTicF_ylRhU0JDvPg</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRLwYKAAAAASdgVdzZbS4fChu-IJCwu_A</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRMwYKAAAAAZkiufmE60HaUmXyuJ0c0NU</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRLQYKAAAAAcrM-i_YW0Q1_67z6fFCaoY</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRMgYKAAAAATe0BUrZyBmr-bHeZJR4opY</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRNAYKAAAAAQh2BoQn4xxwey8vvenZ_uU</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRLgYKAAAAAQGBuJACz4SYCW_kMynVBag</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRpAQKAAAAAWGrsqVNqe-OxpotUgPRZr8</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICR0AUKAAAAAV9Kp_lbnGmZq4sXrGxHGe8</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRPwcKAAAAAZrUT4oh5002BgFms3ko1aU</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRQAcKAAAAAVqXaiD5kMUDVAfC__-0Gzo</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICR2gUKAAAAAQq6kfehRObegOSYnLgWpG4</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/UQRE40NggHsnIICReQMKAAAAAKZI6TMq6UG-olI</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRhQMKAAAAAXV8PAygtctwu_PHgk9JO1g</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRhgMKAAAAAX5HuWUW9en8xtWf0mxUCh0</t>
+  </si>
+  <si>
+    <t>https://1drv.ms/u/c/91277b806043e344/IQRE40NggHsnIICRhwMKAAAAAYryCLcJ9Jv6_euDK1jdIv8</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01D6A24-CDB1-1E4B-87EB-E299D59C8055}">
   <dimension ref="A1:R181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="114" zoomScaleNormal="14" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2135,7 +2153,7 @@
         <v>367</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G3" t="s">
         <v>88</v>
@@ -2188,7 +2206,7 @@
         <v>368</v>
       </c>
       <c r="F4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G4" t="s">
         <v>160</v>
@@ -2244,7 +2262,7 @@
         <v>369</v>
       </c>
       <c r="F5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G5" t="s">
         <v>91</v>
@@ -2300,7 +2318,7 @@
         <v>370</v>
       </c>
       <c r="F6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G6" t="s">
         <v>92</v>
@@ -2356,7 +2374,7 @@
         <v>371</v>
       </c>
       <c r="F7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G7" t="s">
         <v>93</v>
@@ -2412,7 +2430,7 @@
         <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G8" t="s">
         <v>94</v>
@@ -2468,7 +2486,7 @@
         <v>373</v>
       </c>
       <c r="F9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G9" t="s">
         <v>95</v>
@@ -2524,7 +2542,7 @@
         <v>374</v>
       </c>
       <c r="F10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G10" t="s">
         <v>161</v>
@@ -2580,7 +2598,7 @@
         <v>375</v>
       </c>
       <c r="F11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G11" t="s">
         <v>96</v>
@@ -2636,7 +2654,7 @@
         <v>376</v>
       </c>
       <c r="F12" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -2692,7 +2710,7 @@
         <v>378</v>
       </c>
       <c r="F13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G13" t="s">
         <v>141</v>
@@ -2748,7 +2766,7 @@
         <v>377</v>
       </c>
       <c r="F14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G14" t="s">
         <v>142</v>
@@ -2801,7 +2819,7 @@
         <v>379</v>
       </c>
       <c r="F15" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G15" t="s">
         <v>225</v>
@@ -2854,7 +2872,7 @@
         <v>380</v>
       </c>
       <c r="F16" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G16" t="s">
         <v>226</v>
@@ -3222,6 +3240,9 @@
       <c r="E23" t="s">
         <v>381</v>
       </c>
+      <c r="F23" t="s">
+        <v>511</v>
+      </c>
       <c r="G23" t="s">
         <v>163</v>
       </c>
@@ -3484,7 +3505,9 @@
       <c r="E28" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="G28" t="s">
         <v>44</v>
       </c>
@@ -3535,7 +3558,9 @@
       <c r="E29" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="G29" t="s">
         <v>45</v>
       </c>
@@ -3586,7 +3611,9 @@
       <c r="E30" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="G30" t="s">
         <v>46</v>
       </c>
@@ -3637,7 +3664,9 @@
       <c r="E31" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="G31" t="s">
         <v>47</v>
       </c>
